--- a/database/industries/siman/save/cost/quarterly.xlsx
+++ b/database/industries/siman/save/cost/quarterly.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20700" windowHeight="9450"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="70">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>ساوه-سیمان ساوه</t>
@@ -33,21 +33,21 @@
     <t>بهای تمام شده</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1400/06</t>
-  </si>
-  <si>
-    <t>فصل سوم منتهی به 1400/09</t>
+    <t>فصل چهارم منتهی به 1396/12</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1397/12</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1398/12</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
   </si>
   <si>
     <t>فصل چهارم منتهی به 1400/12</t>
   </si>
   <si>
-    <t>فصل اول منتهی به 1401/03</t>
-  </si>
-  <si>
-    <t>فصل دوم منتهی به 1401/06</t>
-  </si>
-  <si>
     <t>مواد مستقیم مصرفی</t>
   </si>
   <si>
@@ -162,6 +162,33 @@
     <t>مقدار موجودی پایان دوره</t>
   </si>
   <si>
+    <t>مبلغ موجودی اول دوره</t>
+  </si>
+  <si>
+    <t>مبلغ خرید طی دوره</t>
+  </si>
+  <si>
+    <t>مبلغ مصرف طی دوره</t>
+  </si>
+  <si>
+    <t>مبلغ موجودی پایان دوره</t>
+  </si>
+  <si>
+    <t>نرخ موجودی اول دوره</t>
+  </si>
+  <si>
+    <t>تن / ریال</t>
+  </si>
+  <si>
+    <t>نرخ خرید طی دوره</t>
+  </si>
+  <si>
+    <t>نرخ مصرف طی دوره</t>
+  </si>
+  <si>
+    <t>نرخ موجودی پایان دوره</t>
+  </si>
+  <si>
     <t>هزینه سربار</t>
   </si>
   <si>
@@ -198,53 +225,10 @@
     <t>برآورد شرکت</t>
   </si>
   <si>
-    <t>دوره 6 ماهه منتهی به 1399/12/30</t>
-  </si>
-  <si>
-    <t>با توجه به آخرین تغییرات با احتساب درصد متناسب با شرایط، افزایش پیش بینی می گردد.</t>
-  </si>
-  <si>
-    <t>دوره 9 ماهه منتهی به 1400/12/29</t>
-  </si>
-  <si>
-    <t>باتوجه به آخرین تغییرات سال 1399 با احتساب حدود 67 درصد افزایش داشته است .</t>
-  </si>
-  <si>
-    <t>دوره 3 ماهه منتهی به 1399/12/30</t>
-  </si>
-  <si>
-    <t>دوره 3 ماهه منتهی به</t>
-  </si>
-  <si>
     <t>دوره 12 ماهه منتهی به</t>
   </si>
   <si>
     <t>با توجه به آخرین تغییرات سال 1398 با احتساب حدود 30 درصد افزایش منظور گردیده است.</t>
-  </si>
-  <si>
-    <t>دوره 3 ماهه منتهی به 1398/12/29</t>
-  </si>
-  <si>
-    <t>با توجه به آخرین تغییرات دوره ٩ ماھه منتھی به ٣٠/٠٩/١٣٩٨ ،ثابت و بدون تغییر پیش بینی گردیده است</t>
-  </si>
-  <si>
-    <t>با توجه به آخرین تغییرات سال ١٣٩٨ با احتساب درصد متناسب با شرایط افزایش منظور می گردد</t>
-  </si>
-  <si>
-    <t>دوره 6 ماهه منتهی به 1398/12/29</t>
-  </si>
-  <si>
-    <t>افزایش عوامل بھای تمام شده با توجه به نوسانات نرخ ارز ، افزایش دستمزد سالانه و سایر ھزینه ھا پیش بینی شده است.نرخ حامل ھای انرژی (مازوت و برق) مشابه سال گذشته محاسبه گردیده است .</t>
-  </si>
-  <si>
-    <t>دوره 6 ماهه منتهی به 1397/12/29</t>
-  </si>
-  <si>
-    <t>فزایش عوامل بھای تمام شده با توجه به نوسانات نرخ ارز ، افزایش دستمزد سالانه و سایر ھزینه ھا پیش بینی شده است.نرخ حامل ھای انرژی (مازوت و برق) مشابه سال گذشته محاسبه
-گردیده است .</t>
-  </si>
-  <si>
-    <t>دوره 9 ماهه منتهی به 1399/12/30</t>
   </si>
 </sst>
 </file>
@@ -666,7 +650,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I142"/>
+  <dimension ref="B1:I296"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -792,19 +776,19 @@
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>166241</v>
+        <v>102466</v>
       </c>
       <c r="F10" s="9">
-        <v>314059</v>
+        <v>153928</v>
       </c>
       <c r="G10" s="9">
-        <v>336012</v>
+        <v>260288</v>
       </c>
       <c r="H10" s="9">
-        <v>349308</v>
+        <v>557737</v>
       </c>
       <c r="I10" s="9">
-        <v>440809</v>
+        <v>1034177</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
@@ -814,19 +798,19 @@
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>36975</v>
+        <v>50499</v>
       </c>
       <c r="F11" s="11">
-        <v>38787</v>
+        <v>76086</v>
       </c>
       <c r="G11" s="11">
-        <v>62022</v>
+        <v>108624</v>
       </c>
       <c r="H11" s="11">
-        <v>84571</v>
+        <v>142662</v>
       </c>
       <c r="I11" s="11">
-        <v>71591</v>
+        <v>184741</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
@@ -836,19 +820,19 @@
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>805729</v>
+        <v>1164965</v>
       </c>
       <c r="F12" s="9">
-        <v>1172846</v>
+        <v>1188284</v>
       </c>
       <c r="G12" s="9">
-        <v>1435956</v>
+        <v>1643848</v>
       </c>
       <c r="H12" s="9">
-        <v>1518254</v>
+        <v>2265295</v>
       </c>
       <c r="I12" s="9">
-        <v>1649027</v>
+        <v>4337306</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
@@ -858,19 +842,19 @@
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
-        <v>1008945</v>
+        <v>1317930</v>
       </c>
       <c r="F13" s="13">
-        <v>1525692</v>
+        <v>1418298</v>
       </c>
       <c r="G13" s="13">
-        <v>1833990</v>
+        <v>2012760</v>
       </c>
       <c r="H13" s="13">
-        <v>1952133</v>
+        <v>2965694</v>
       </c>
       <c r="I13" s="13">
-        <v>2161427</v>
+        <v>5556224</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
@@ -880,10 +864,10 @@
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9">
-        <v>0</v>
+        <v>-234643</v>
       </c>
       <c r="F14" s="9">
-        <v>0</v>
+        <v>-33838</v>
       </c>
       <c r="G14" s="9">
         <v>0</v>
@@ -902,19 +886,19 @@
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
-        <v>1008945</v>
+        <v>1083287</v>
       </c>
       <c r="F15" s="13">
-        <v>1525692</v>
+        <v>1384460</v>
       </c>
       <c r="G15" s="13">
-        <v>1833990</v>
+        <v>2012760</v>
       </c>
       <c r="H15" s="13">
-        <v>1952133</v>
+        <v>2965694</v>
       </c>
       <c r="I15" s="13">
-        <v>2161427</v>
+        <v>5556224</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
@@ -924,19 +908,19 @@
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
-        <v>-274476</v>
+        <v>149401</v>
       </c>
       <c r="F16" s="9">
-        <v>-164837</v>
+        <v>-44898</v>
       </c>
       <c r="G16" s="9">
-        <v>-93920</v>
+        <v>-62121</v>
       </c>
       <c r="H16" s="9">
-        <v>-380933</v>
+        <v>60839</v>
       </c>
       <c r="I16" s="9">
-        <v>-474627</v>
+        <v>-359107</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
@@ -968,19 +952,19 @@
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
-        <v>734469</v>
+        <v>1232688</v>
       </c>
       <c r="F18" s="15">
-        <v>1360855</v>
+        <v>1339562</v>
       </c>
       <c r="G18" s="15">
-        <v>1740070</v>
+        <v>1950639</v>
       </c>
       <c r="H18" s="15">
-        <v>1571200</v>
+        <v>3026533</v>
       </c>
       <c r="I18" s="15">
-        <v>1686800</v>
+        <v>5197117</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
@@ -990,19 +974,19 @@
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
-        <v>0</v>
+        <v>38128</v>
       </c>
       <c r="F19" s="11">
-        <v>0</v>
+        <v>27612</v>
       </c>
       <c r="G19" s="11">
+        <v>22262</v>
+      </c>
+      <c r="H19" s="11">
+        <v>13039</v>
+      </c>
+      <c r="I19" s="11">
         <v>71823</v>
-      </c>
-      <c r="H19" s="11">
-        <v>84421</v>
-      </c>
-      <c r="I19" s="11">
-        <v>97022</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -1012,19 +996,19 @@
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
-        <v>342272</v>
+        <v>-26917</v>
       </c>
       <c r="F20" s="9">
-        <v>-37215</v>
+        <v>-22262</v>
       </c>
       <c r="G20" s="9">
+        <v>-13040</v>
+      </c>
+      <c r="H20" s="9">
+        <v>-87214</v>
+      </c>
+      <c r="I20" s="9">
         <v>-84421</v>
-      </c>
-      <c r="H20" s="9">
-        <v>-97022</v>
-      </c>
-      <c r="I20" s="9">
-        <v>-55518</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
@@ -1034,19 +1018,19 @@
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
-        <v>1076741</v>
+        <v>1243899</v>
       </c>
       <c r="F21" s="13">
-        <v>1323640</v>
+        <v>1344912</v>
       </c>
       <c r="G21" s="13">
-        <v>1727472</v>
+        <v>1959861</v>
       </c>
       <c r="H21" s="13">
-        <v>1558599</v>
+        <v>2952358</v>
       </c>
       <c r="I21" s="13">
-        <v>1728304</v>
+        <v>5199910</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
@@ -1078,19 +1062,19 @@
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
-        <v>1076741</v>
+        <v>1243899</v>
       </c>
       <c r="F23" s="13">
-        <v>1323640</v>
+        <v>1344912</v>
       </c>
       <c r="G23" s="13">
-        <v>1727472</v>
+        <v>1959861</v>
       </c>
       <c r="H23" s="13">
-        <v>1558599</v>
+        <v>2952358</v>
       </c>
       <c r="I23" s="13">
-        <v>1728304</v>
+        <v>5199910</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
@@ -1163,20 +1147,20 @@
         <v>25</v>
       </c>
       <c r="D29" s="9"/>
-      <c r="E29" s="9">
-        <v>10642</v>
-      </c>
-      <c r="F29" s="9">
-        <v>63141</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I29" s="9" t="s">
-        <v>26</v>
+      <c r="E29" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G29" s="9">
+        <v>5498</v>
+      </c>
+      <c r="H29" s="9">
+        <v>29021</v>
+      </c>
+      <c r="I29" s="9">
+        <v>42886</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
@@ -1190,17 +1174,17 @@
       <c r="E30" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F30" s="11" t="s">
-        <v>26</v>
+      <c r="F30" s="11">
+        <v>5498</v>
       </c>
       <c r="G30" s="11" t="s">
         <v>26</v>
       </c>
       <c r="H30" s="11">
-        <v>59902</v>
-      </c>
-      <c r="I30" s="11">
-        <v>89697</v>
+        <v>0</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
@@ -1214,11 +1198,11 @@
       <c r="E31" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F31" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>26</v>
+      <c r="F31" s="9">
+        <v>19741</v>
+      </c>
+      <c r="G31" s="9">
+        <v>19308</v>
       </c>
       <c r="H31" s="9" t="s">
         <v>26</v>
@@ -1235,20 +1219,20 @@
         <v>25</v>
       </c>
       <c r="D32" s="11"/>
-      <c r="E32" s="11">
+      <c r="E32" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F32" s="11">
+        <v>28205</v>
+      </c>
+      <c r="G32" s="11">
+        <v>21077</v>
+      </c>
+      <c r="H32" s="11">
+        <v>11785</v>
+      </c>
+      <c r="I32" s="11">
         <v>9768</v>
-      </c>
-      <c r="F32" s="11">
-        <v>9768</v>
-      </c>
-      <c r="G32" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H32" s="11">
-        <v>9768</v>
-      </c>
-      <c r="I32" s="11">
-        <v>5628</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
@@ -1259,20 +1243,20 @@
         <v>25</v>
       </c>
       <c r="D33" s="9"/>
-      <c r="E33" s="9">
-        <v>122182</v>
+      <c r="E33" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="F33" s="9">
-        <v>93561</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>26</v>
+        <v>201961</v>
+      </c>
+      <c r="G33" s="9">
+        <v>102684</v>
       </c>
       <c r="H33" s="9">
-        <v>164054</v>
+        <v>31852</v>
       </c>
       <c r="I33" s="9">
-        <v>151539</v>
+        <v>65710</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
@@ -1283,20 +1267,20 @@
         <v>25</v>
       </c>
       <c r="D34" s="11"/>
-      <c r="E34" s="11">
-        <v>4657</v>
+      <c r="E34" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="F34" s="11">
-        <v>4657</v>
-      </c>
-      <c r="G34" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H34" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I34" s="11" t="s">
-        <v>26</v>
+        <v>23850</v>
+      </c>
+      <c r="G34" s="11">
+        <v>23877</v>
+      </c>
+      <c r="H34" s="11">
+        <v>40692</v>
+      </c>
+      <c r="I34" s="11">
+        <v>1158</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
@@ -1307,20 +1291,20 @@
         <v>25</v>
       </c>
       <c r="D35" s="9"/>
-      <c r="E35" s="9">
-        <v>65729</v>
+      <c r="E35" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="F35" s="9">
-        <v>52401</v>
-      </c>
-      <c r="G35" s="9" t="s">
-        <v>26</v>
+        <v>45820</v>
+      </c>
+      <c r="G35" s="9">
+        <v>10135</v>
       </c>
       <c r="H35" s="9">
-        <v>57252</v>
+        <v>22848</v>
       </c>
       <c r="I35" s="9">
-        <v>34693</v>
+        <v>72280</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
@@ -1331,20 +1315,20 @@
         <v>25</v>
       </c>
       <c r="D36" s="11"/>
-      <c r="E36" s="11">
-        <v>44621</v>
+      <c r="E36" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="F36" s="11">
-        <v>40321</v>
-      </c>
-      <c r="G36" s="11" t="s">
-        <v>26</v>
+        <v>14721</v>
+      </c>
+      <c r="G36" s="11">
+        <v>13127</v>
       </c>
       <c r="H36" s="11">
-        <v>30075</v>
+        <v>8841</v>
       </c>
       <c r="I36" s="11">
-        <v>40638</v>
+        <v>57702</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
@@ -1355,20 +1339,20 @@
         <v>25</v>
       </c>
       <c r="D37" s="9"/>
-      <c r="E37" s="9">
-        <v>292807</v>
+      <c r="E37" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="F37" s="9">
-        <v>277362</v>
-      </c>
-      <c r="G37" s="9" t="s">
-        <v>26</v>
+        <v>562187</v>
+      </c>
+      <c r="G37" s="9">
+        <v>255934</v>
       </c>
       <c r="H37" s="9">
-        <v>225867</v>
+        <v>165567</v>
       </c>
       <c r="I37" s="9">
-        <v>264150</v>
+        <v>327984</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
@@ -1379,20 +1363,20 @@
         <v>25</v>
       </c>
       <c r="D38" s="11"/>
-      <c r="E38" s="11">
-        <v>2489</v>
+      <c r="E38" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="F38" s="11">
-        <v>2489</v>
-      </c>
-      <c r="G38" s="11" t="s">
-        <v>26</v>
+        <v>0</v>
+      </c>
+      <c r="G38" s="11">
+        <v>2844</v>
       </c>
       <c r="H38" s="11">
-        <v>1282</v>
+        <v>2844</v>
       </c>
       <c r="I38" s="11">
-        <v>175</v>
+        <v>2799</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
@@ -1403,20 +1387,20 @@
         <v>25</v>
       </c>
       <c r="D39" s="9"/>
-      <c r="E39" s="9">
-        <v>4779</v>
+      <c r="E39" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="F39" s="9">
-        <v>20589</v>
-      </c>
-      <c r="G39" s="9" t="s">
-        <v>26</v>
+        <v>11651</v>
+      </c>
+      <c r="G39" s="9">
+        <v>3421</v>
       </c>
       <c r="H39" s="9">
-        <v>8399</v>
+        <v>6733</v>
       </c>
       <c r="I39" s="9">
-        <v>6521</v>
+        <v>5667</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
@@ -1427,20 +1411,20 @@
         <v>25</v>
       </c>
       <c r="D40" s="11"/>
-      <c r="E40" s="11">
-        <v>72170</v>
+      <c r="E40" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="F40" s="11">
-        <v>99616</v>
-      </c>
-      <c r="G40" s="11" t="s">
-        <v>26</v>
+        <v>76457</v>
+      </c>
+      <c r="G40" s="11">
+        <v>75719</v>
       </c>
       <c r="H40" s="11">
-        <v>96338</v>
+        <v>86300</v>
       </c>
       <c r="I40" s="11">
-        <v>76578</v>
+        <v>93275</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
@@ -1451,20 +1435,20 @@
         <v>25</v>
       </c>
       <c r="D41" s="9"/>
-      <c r="E41" s="9">
-        <v>74640</v>
+      <c r="E41" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="F41" s="9">
-        <v>103951</v>
-      </c>
-      <c r="G41" s="9" t="s">
-        <v>26</v>
+        <v>142972</v>
+      </c>
+      <c r="G41" s="9">
+        <v>103547</v>
       </c>
       <c r="H41" s="9">
-        <v>141698</v>
+        <v>66272</v>
       </c>
       <c r="I41" s="9">
-        <v>88729</v>
+        <v>72720</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
@@ -1478,8 +1462,8 @@
       <c r="E42" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F42" s="11" t="s">
-        <v>26</v>
+      <c r="F42" s="11">
+        <v>0</v>
       </c>
       <c r="G42" s="11" t="s">
         <v>26</v>
@@ -1502,8 +1486,8 @@
       <c r="E43" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F43" s="9" t="s">
-        <v>26</v>
+      <c r="F43" s="9">
+        <v>0</v>
       </c>
       <c r="G43" s="9" t="s">
         <v>26</v>
@@ -1523,14 +1507,14 @@
         <v>25</v>
       </c>
       <c r="D44" s="11"/>
-      <c r="E44" s="11">
-        <v>2374</v>
+      <c r="E44" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="F44" s="11">
-        <v>2374</v>
-      </c>
-      <c r="G44" s="11" t="s">
-        <v>26</v>
+        <v>5911</v>
+      </c>
+      <c r="G44" s="11">
+        <v>3046</v>
       </c>
       <c r="H44" s="11">
         <v>2374</v>
@@ -1546,19 +1530,19 @@
       <c r="C45" s="15"/>
       <c r="D45" s="15"/>
       <c r="E45" s="15">
-        <v>706858</v>
+        <v>0</v>
       </c>
       <c r="F45" s="15">
-        <v>770230</v>
+        <v>1138974</v>
       </c>
       <c r="G45" s="15">
-        <v>0</v>
+        <v>640217</v>
       </c>
       <c r="H45" s="15">
-        <v>797009</v>
+        <v>475129</v>
       </c>
       <c r="I45" s="15">
-        <v>760722</v>
+        <v>754323</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
@@ -1631,20 +1615,20 @@
         <v>25</v>
       </c>
       <c r="D51" s="9"/>
-      <c r="E51" s="9">
-        <v>56863</v>
-      </c>
-      <c r="F51" s="9">
-        <v>34000</v>
+      <c r="E51" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="G51" s="9">
-        <v>12708</v>
-      </c>
-      <c r="H51" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I51" s="9" t="s">
-        <v>26</v>
+        <v>36748</v>
+      </c>
+      <c r="H51" s="9">
+        <v>111981</v>
+      </c>
+      <c r="I51" s="9">
+        <v>104132</v>
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
@@ -1658,17 +1642,17 @@
       <c r="E52" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F52" s="11" t="s">
-        <v>26</v>
+      <c r="F52" s="11">
+        <v>0</v>
       </c>
       <c r="G52" s="11" t="s">
         <v>26</v>
       </c>
       <c r="H52" s="11">
-        <v>47564</v>
-      </c>
-      <c r="I52" s="11">
-        <v>70338</v>
+        <v>2203</v>
+      </c>
+      <c r="I52" s="11" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
@@ -1682,11 +1666,11 @@
       <c r="E53" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F53" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G53" s="9" t="s">
-        <v>26</v>
+      <c r="F53" s="9">
+        <v>50376</v>
+      </c>
+      <c r="G53" s="9">
+        <v>36323</v>
       </c>
       <c r="H53" s="9" t="s">
         <v>26</v>
@@ -1703,8 +1687,8 @@
         <v>25</v>
       </c>
       <c r="D54" s="11"/>
-      <c r="E54" s="11">
-        <v>0</v>
+      <c r="E54" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="F54" s="11">
         <v>0</v>
@@ -1713,10 +1697,10 @@
         <v>0</v>
       </c>
       <c r="H54" s="11">
-        <v>0</v>
+        <v>264</v>
       </c>
       <c r="I54" s="11">
-        <v>521</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
@@ -1727,20 +1711,20 @@
         <v>25</v>
       </c>
       <c r="D55" s="9"/>
-      <c r="E55" s="9">
-        <v>156345</v>
+      <c r="E55" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="F55" s="9">
-        <v>377301</v>
+        <v>500552</v>
       </c>
       <c r="G55" s="9">
-        <v>401677</v>
+        <v>930337</v>
       </c>
       <c r="H55" s="9">
-        <v>353551</v>
+        <v>1219189</v>
       </c>
       <c r="I55" s="9">
-        <v>419147</v>
+        <v>1277275</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
@@ -1751,20 +1735,20 @@
         <v>25</v>
       </c>
       <c r="D56" s="11"/>
-      <c r="E56" s="11">
-        <v>0</v>
+      <c r="E56" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="F56" s="11">
-        <v>0</v>
+        <v>17323</v>
       </c>
       <c r="G56" s="11">
-        <v>0</v>
-      </c>
-      <c r="H56" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I56" s="11" t="s">
-        <v>26</v>
+        <v>22088</v>
+      </c>
+      <c r="H56" s="11">
+        <v>5504</v>
+      </c>
+      <c r="I56" s="11">
+        <v>16240</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
@@ -1775,20 +1759,20 @@
         <v>25</v>
       </c>
       <c r="D57" s="9"/>
-      <c r="E57" s="9">
-        <v>0</v>
+      <c r="E57" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="F57" s="9">
-        <v>15256</v>
+        <v>8753</v>
       </c>
       <c r="G57" s="9">
-        <v>36601</v>
+        <v>75462</v>
       </c>
       <c r="H57" s="9">
-        <v>0</v>
+        <v>133909</v>
       </c>
       <c r="I57" s="9">
-        <v>0</v>
+        <v>73321</v>
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
@@ -1799,20 +1783,20 @@
         <v>25</v>
       </c>
       <c r="D58" s="11"/>
-      <c r="E58" s="11">
-        <v>6508</v>
+      <c r="E58" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="F58" s="11">
-        <v>0</v>
+        <v>35337</v>
       </c>
       <c r="G58" s="11">
-        <v>18972</v>
+        <v>47836</v>
       </c>
       <c r="H58" s="11">
-        <v>16302</v>
+        <v>91278</v>
       </c>
       <c r="I58" s="11">
-        <v>4407</v>
+        <v>26536</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
@@ -1823,20 +1807,20 @@
         <v>25</v>
       </c>
       <c r="D59" s="9"/>
-      <c r="E59" s="9">
-        <v>248862</v>
+      <c r="E59" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="F59" s="9">
-        <v>364005</v>
+        <v>1129961</v>
       </c>
       <c r="G59" s="9">
-        <v>527501</v>
+        <v>1450897</v>
       </c>
       <c r="H59" s="9">
-        <v>457947</v>
+        <v>2091358</v>
       </c>
       <c r="I59" s="9">
-        <v>558270</v>
+        <v>1540860</v>
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
@@ -1847,11 +1831,11 @@
         <v>25</v>
       </c>
       <c r="D60" s="11"/>
-      <c r="E60" s="11">
-        <v>0</v>
+      <c r="E60" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="F60" s="11">
-        <v>0</v>
+        <v>2844</v>
       </c>
       <c r="G60" s="11">
         <v>0</v>
@@ -1871,20 +1855,20 @@
         <v>25</v>
       </c>
       <c r="D61" s="9"/>
-      <c r="E61" s="9">
-        <v>18425</v>
+      <c r="E61" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="F61" s="9">
-        <v>1</v>
+        <v>2936</v>
       </c>
       <c r="G61" s="9">
-        <v>-185</v>
+        <v>18764</v>
       </c>
       <c r="H61" s="9">
-        <v>0</v>
+        <v>10822</v>
       </c>
       <c r="I61" s="9">
-        <v>0</v>
+        <v>21172</v>
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
@@ -1895,20 +1879,20 @@
         <v>25</v>
       </c>
       <c r="D62" s="11"/>
-      <c r="E62" s="11">
-        <v>40394</v>
+      <c r="E62" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="F62" s="11">
-        <v>24389</v>
+        <v>80359</v>
       </c>
       <c r="G62" s="11">
-        <v>-3646</v>
+        <v>84009</v>
       </c>
       <c r="H62" s="11">
-        <v>1597</v>
+        <v>92441</v>
       </c>
       <c r="I62" s="11">
-        <v>31749</v>
+        <v>75275</v>
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
@@ -1919,20 +1903,20 @@
         <v>25</v>
       </c>
       <c r="D63" s="9"/>
-      <c r="E63" s="9">
-        <v>86690</v>
+      <c r="E63" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="F63" s="9">
-        <v>89072</v>
+        <v>316345</v>
       </c>
       <c r="G63" s="9">
-        <v>146085</v>
+        <v>315675</v>
       </c>
       <c r="H63" s="9">
-        <v>58683</v>
+        <v>399458</v>
       </c>
       <c r="I63" s="9">
-        <v>158075</v>
+        <v>417201</v>
       </c>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.25">
@@ -1946,8 +1930,8 @@
       <c r="E64" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F64" s="11" t="s">
-        <v>26</v>
+      <c r="F64" s="11">
+        <v>0</v>
       </c>
       <c r="G64" s="11" t="s">
         <v>26</v>
@@ -1970,8 +1954,8 @@
       <c r="E65" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F65" s="9" t="s">
-        <v>26</v>
+      <c r="F65" s="9">
+        <v>0</v>
       </c>
       <c r="G65" s="9" t="s">
         <v>26</v>
@@ -1991,8 +1975,8 @@
         <v>25</v>
       </c>
       <c r="D66" s="11"/>
-      <c r="E66" s="11">
-        <v>0</v>
+      <c r="E66" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="F66" s="11">
         <v>0</v>
@@ -2014,19 +1998,19 @@
       <c r="C67" s="15"/>
       <c r="D67" s="15"/>
       <c r="E67" s="15">
-        <v>614087</v>
+        <v>0</v>
       </c>
       <c r="F67" s="15">
-        <v>904024</v>
+        <v>2144786</v>
       </c>
       <c r="G67" s="15">
-        <v>1139713</v>
+        <v>3018139</v>
       </c>
       <c r="H67" s="15">
-        <v>935644</v>
+        <v>4158407</v>
       </c>
       <c r="I67" s="15">
-        <v>1242507</v>
+        <v>3552012</v>
       </c>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
@@ -2099,20 +2083,20 @@
         <v>25</v>
       </c>
       <c r="D73" s="9"/>
-      <c r="E73" s="9">
-        <v>4364</v>
-      </c>
-      <c r="F73" s="9">
-        <v>25234</v>
+      <c r="E73" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F73" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="G73" s="9">
-        <v>24713</v>
-      </c>
-      <c r="H73" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I73" s="9" t="s">
-        <v>26</v>
+        <v>13225</v>
+      </c>
+      <c r="H73" s="9">
+        <v>98116</v>
+      </c>
+      <c r="I73" s="9">
+        <v>87116</v>
       </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.25">
@@ -2126,17 +2110,17 @@
       <c r="E74" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F74" s="11" t="s">
-        <v>26</v>
+      <c r="F74" s="11">
+        <v>0</v>
       </c>
       <c r="G74" s="11" t="s">
         <v>26</v>
       </c>
       <c r="H74" s="11">
-        <v>17769</v>
-      </c>
-      <c r="I74" s="11">
-        <v>20887</v>
+        <v>2203</v>
+      </c>
+      <c r="I74" s="11" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.25">
@@ -2150,11 +2134,11 @@
       <c r="E75" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F75" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G75" s="9" t="s">
-        <v>26</v>
+      <c r="F75" s="9">
+        <v>53425</v>
+      </c>
+      <c r="G75" s="9">
+        <v>55631</v>
       </c>
       <c r="H75" s="9" t="s">
         <v>26</v>
@@ -2171,17 +2155,17 @@
         <v>25</v>
       </c>
       <c r="D76" s="11"/>
-      <c r="E76" s="11">
-        <v>0</v>
+      <c r="E76" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="F76" s="11">
-        <v>0</v>
+        <v>7825</v>
       </c>
       <c r="G76" s="11">
-        <v>0</v>
+        <v>9292</v>
       </c>
       <c r="H76" s="11">
-        <v>4140</v>
+        <v>2281</v>
       </c>
       <c r="I76" s="11">
         <v>0</v>
@@ -2195,20 +2179,20 @@
         <v>25</v>
       </c>
       <c r="D77" s="9"/>
-      <c r="E77" s="9">
-        <v>184966</v>
+      <c r="E77" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="F77" s="9">
-        <v>356832</v>
+        <v>599860</v>
       </c>
       <c r="G77" s="9">
-        <v>351653</v>
+        <v>1001169</v>
       </c>
       <c r="H77" s="9">
-        <v>366066</v>
+        <v>1185331</v>
       </c>
       <c r="I77" s="9">
-        <v>419147</v>
+        <v>1178931</v>
       </c>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.25">
@@ -2219,20 +2203,20 @@
         <v>25</v>
       </c>
       <c r="D78" s="11"/>
-      <c r="E78" s="11">
-        <v>0</v>
+      <c r="E78" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="F78" s="11">
-        <v>4657</v>
+        <v>17302</v>
       </c>
       <c r="G78" s="11">
-        <v>0</v>
-      </c>
-      <c r="H78" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I78" s="11" t="s">
-        <v>26</v>
+        <v>5273</v>
+      </c>
+      <c r="H78" s="11">
+        <v>45038</v>
+      </c>
+      <c r="I78" s="11">
+        <v>17398</v>
       </c>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.25">
@@ -2243,20 +2227,20 @@
         <v>25</v>
       </c>
       <c r="D79" s="9"/>
-      <c r="E79" s="9">
-        <v>13328</v>
+      <c r="E79" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="F79" s="9">
-        <v>23877</v>
+        <v>44911</v>
       </c>
       <c r="G79" s="9">
-        <v>23129</v>
+        <v>62749</v>
       </c>
       <c r="H79" s="9">
-        <v>22559</v>
+        <v>84477</v>
       </c>
       <c r="I79" s="9">
-        <v>21770</v>
+        <v>88349</v>
       </c>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.25">
@@ -2267,20 +2251,20 @@
         <v>25</v>
       </c>
       <c r="D80" s="11"/>
-      <c r="E80" s="11">
-        <v>10807</v>
+      <c r="E80" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="F80" s="11">
-        <v>19054</v>
+        <v>37307</v>
       </c>
       <c r="G80" s="11">
-        <v>10164</v>
+        <v>52122</v>
       </c>
       <c r="H80" s="11">
-        <v>5739</v>
+        <v>42416</v>
       </c>
       <c r="I80" s="11">
-        <v>1708</v>
+        <v>54163</v>
       </c>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.25">
@@ -2291,20 +2275,20 @@
         <v>25</v>
       </c>
       <c r="D81" s="9"/>
-      <c r="E81" s="9">
-        <v>264307</v>
+      <c r="E81" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="F81" s="9">
-        <v>509733</v>
+        <v>1445383</v>
       </c>
       <c r="G81" s="9">
-        <v>433269</v>
+        <v>1541264</v>
       </c>
       <c r="H81" s="9">
-        <v>419664</v>
+        <v>1928942</v>
       </c>
       <c r="I81" s="9">
-        <v>538265</v>
+        <v>1642977</v>
       </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.25">
@@ -2315,20 +2299,20 @@
         <v>25</v>
       </c>
       <c r="D82" s="11"/>
-      <c r="E82" s="11">
-        <v>0</v>
+      <c r="E82" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="F82" s="11">
         <v>0</v>
       </c>
       <c r="G82" s="11">
-        <v>1207</v>
+        <v>0</v>
       </c>
       <c r="H82" s="11">
-        <v>1107</v>
+        <v>45</v>
       </c>
       <c r="I82" s="11">
-        <v>90</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.25">
@@ -2339,20 +2323,20 @@
         <v>25</v>
       </c>
       <c r="D83" s="9"/>
-      <c r="E83" s="9">
-        <v>2615</v>
+      <c r="E83" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="F83" s="9">
-        <v>4535</v>
+        <v>11346</v>
       </c>
       <c r="G83" s="9">
-        <v>7470</v>
+        <v>15452</v>
       </c>
       <c r="H83" s="9">
-        <v>1878</v>
+        <v>11887</v>
       </c>
       <c r="I83" s="9">
-        <v>3752</v>
+        <v>18440</v>
       </c>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.25">
@@ -2363,20 +2347,20 @@
         <v>25</v>
       </c>
       <c r="D84" s="11"/>
-      <c r="E84" s="11">
-        <v>12948</v>
+      <c r="E84" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="F84" s="11">
-        <v>22788</v>
+        <v>74480</v>
       </c>
       <c r="G84" s="11">
-        <v>1232</v>
+        <v>73428</v>
       </c>
       <c r="H84" s="11">
-        <v>21357</v>
+        <v>85465</v>
       </c>
       <c r="I84" s="11">
-        <v>20983</v>
+        <v>72212</v>
       </c>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.25">
@@ -2387,20 +2371,20 @@
         <v>25</v>
       </c>
       <c r="D85" s="9"/>
-      <c r="E85" s="9">
-        <v>57379</v>
+      <c r="E85" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="F85" s="9">
-        <v>103756</v>
+        <v>351920</v>
       </c>
       <c r="G85" s="9">
-        <v>93653</v>
+        <v>352950</v>
       </c>
       <c r="H85" s="9">
-        <v>111652</v>
+        <v>393009</v>
       </c>
       <c r="I85" s="9">
-        <v>108660</v>
+        <v>348223</v>
       </c>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.25">
@@ -2414,8 +2398,8 @@
       <c r="E86" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F86" s="11" t="s">
-        <v>26</v>
+      <c r="F86" s="11">
+        <v>0</v>
       </c>
       <c r="G86" s="11" t="s">
         <v>26</v>
@@ -2438,8 +2422,8 @@
       <c r="E87" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F87" s="9" t="s">
-        <v>26</v>
+      <c r="F87" s="9">
+        <v>0</v>
       </c>
       <c r="G87" s="9" t="s">
         <v>26</v>
@@ -2459,14 +2443,14 @@
         <v>25</v>
       </c>
       <c r="D88" s="11"/>
-      <c r="E88" s="11">
-        <v>0</v>
+      <c r="E88" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="F88" s="11">
-        <v>0</v>
+        <v>2865</v>
       </c>
       <c r="G88" s="11">
-        <v>0</v>
+        <v>672</v>
       </c>
       <c r="H88" s="11">
         <v>0</v>
@@ -2482,19 +2466,19 @@
       <c r="C89" s="15"/>
       <c r="D89" s="15"/>
       <c r="E89" s="15">
-        <v>550714</v>
+        <v>0</v>
       </c>
       <c r="F89" s="15">
-        <v>1070466</v>
+        <v>2646624</v>
       </c>
       <c r="G89" s="15">
-        <v>946490</v>
+        <v>3183227</v>
       </c>
       <c r="H89" s="15">
-        <v>971931</v>
+        <v>3879210</v>
       </c>
       <c r="I89" s="15">
-        <v>1135262</v>
+        <v>3509326</v>
       </c>
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.25">
@@ -2567,20 +2551,20 @@
         <v>25</v>
       </c>
       <c r="D95" s="9"/>
-      <c r="E95" s="9">
-        <v>63141</v>
-      </c>
-      <c r="F95" s="9">
-        <v>71907</v>
+      <c r="E95" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F95" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="G95" s="9">
+        <v>29021</v>
+      </c>
+      <c r="H95" s="9">
+        <v>42886</v>
+      </c>
+      <c r="I95" s="9">
         <v>59902</v>
-      </c>
-      <c r="H95" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I95" s="9" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.25">
@@ -2594,17 +2578,17 @@
       <c r="E96" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F96" s="11" t="s">
-        <v>26</v>
+      <c r="F96" s="11">
+        <v>5498</v>
       </c>
       <c r="G96" s="11" t="s">
         <v>26</v>
       </c>
       <c r="H96" s="11">
-        <v>89697</v>
-      </c>
-      <c r="I96" s="11">
-        <v>139148</v>
+        <v>0</v>
+      </c>
+      <c r="I96" s="11" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="97" spans="2:9" x14ac:dyDescent="0.25">
@@ -2618,11 +2602,11 @@
       <c r="E97" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F97" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G97" s="9" t="s">
-        <v>26</v>
+      <c r="F97" s="9">
+        <v>16692</v>
+      </c>
+      <c r="G97" s="9">
+        <v>0</v>
       </c>
       <c r="H97" s="9" t="s">
         <v>26</v>
@@ -2639,20 +2623,20 @@
         <v>25</v>
       </c>
       <c r="D98" s="11"/>
-      <c r="E98" s="11">
+      <c r="E98" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F98" s="11">
+        <v>20380</v>
+      </c>
+      <c r="G98" s="11">
+        <v>11785</v>
+      </c>
+      <c r="H98" s="11">
         <v>9768</v>
       </c>
-      <c r="F98" s="11">
+      <c r="I98" s="11">
         <v>9768</v>
-      </c>
-      <c r="G98" s="11">
-        <v>9768</v>
-      </c>
-      <c r="H98" s="11">
-        <v>5628</v>
-      </c>
-      <c r="I98" s="11">
-        <v>6149</v>
       </c>
     </row>
     <row r="99" spans="2:9" x14ac:dyDescent="0.25">
@@ -2663,20 +2647,20 @@
         <v>25</v>
       </c>
       <c r="D99" s="9"/>
-      <c r="E99" s="9">
-        <v>93561</v>
+      <c r="E99" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="F99" s="9">
-        <v>114030</v>
+        <v>102653</v>
       </c>
       <c r="G99" s="9">
+        <v>31852</v>
+      </c>
+      <c r="H99" s="9">
+        <v>65710</v>
+      </c>
+      <c r="I99" s="9">
         <v>164054</v>
-      </c>
-      <c r="H99" s="9">
-        <v>151539</v>
-      </c>
-      <c r="I99" s="9">
-        <v>151539</v>
       </c>
     </row>
     <row r="100" spans="2:9" x14ac:dyDescent="0.25">
@@ -2687,20 +2671,20 @@
         <v>25</v>
       </c>
       <c r="D100" s="11"/>
-      <c r="E100" s="11">
-        <v>4657</v>
+      <c r="E100" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="F100" s="11">
-        <v>0</v>
+        <v>23871</v>
       </c>
       <c r="G100" s="11">
-        <v>0</v>
-      </c>
-      <c r="H100" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I100" s="11" t="s">
-        <v>26</v>
+        <v>40692</v>
+      </c>
+      <c r="H100" s="11">
+        <v>1158</v>
+      </c>
+      <c r="I100" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="2:9" x14ac:dyDescent="0.25">
@@ -2711,20 +2695,20 @@
         <v>25</v>
       </c>
       <c r="D101" s="9"/>
-      <c r="E101" s="9">
-        <v>52401</v>
+      <c r="E101" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="F101" s="9">
-        <v>43780</v>
+        <v>9662</v>
       </c>
       <c r="G101" s="9">
+        <v>22848</v>
+      </c>
+      <c r="H101" s="9">
+        <v>72280</v>
+      </c>
+      <c r="I101" s="9">
         <v>57252</v>
-      </c>
-      <c r="H101" s="9">
-        <v>34693</v>
-      </c>
-      <c r="I101" s="9">
-        <v>12923</v>
       </c>
     </row>
     <row r="102" spans="2:9" x14ac:dyDescent="0.25">
@@ -2735,20 +2719,20 @@
         <v>25</v>
       </c>
       <c r="D102" s="11"/>
-      <c r="E102" s="11">
-        <v>40321</v>
+      <c r="E102" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="F102" s="11">
-        <v>21267</v>
+        <v>12751</v>
       </c>
       <c r="G102" s="11">
+        <v>8841</v>
+      </c>
+      <c r="H102" s="11">
+        <v>57703</v>
+      </c>
+      <c r="I102" s="11">
         <v>30075</v>
-      </c>
-      <c r="H102" s="11">
-        <v>40638</v>
-      </c>
-      <c r="I102" s="11">
-        <v>43337</v>
       </c>
     </row>
     <row r="103" spans="2:9" x14ac:dyDescent="0.25">
@@ -2759,20 +2743,20 @@
         <v>25</v>
       </c>
       <c r="D103" s="9"/>
-      <c r="E103" s="9">
-        <v>277362</v>
+      <c r="E103" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="F103" s="9">
-        <v>131635</v>
+        <v>246765</v>
       </c>
       <c r="G103" s="9">
+        <v>165567</v>
+      </c>
+      <c r="H103" s="9">
+        <v>327983</v>
+      </c>
+      <c r="I103" s="9">
         <v>225867</v>
-      </c>
-      <c r="H103" s="9">
-        <v>264150</v>
-      </c>
-      <c r="I103" s="9">
-        <v>284156</v>
       </c>
     </row>
     <row r="104" spans="2:9" x14ac:dyDescent="0.25">
@@ -2783,20 +2767,20 @@
         <v>25</v>
       </c>
       <c r="D104" s="11"/>
-      <c r="E104" s="11">
-        <v>2489</v>
+      <c r="E104" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="F104" s="11">
-        <v>2489</v>
+        <v>2844</v>
       </c>
       <c r="G104" s="11">
+        <v>2844</v>
+      </c>
+      <c r="H104" s="11">
+        <v>2799</v>
+      </c>
+      <c r="I104" s="11">
         <v>1282</v>
-      </c>
-      <c r="H104" s="11">
-        <v>175</v>
-      </c>
-      <c r="I104" s="11">
-        <v>0</v>
       </c>
     </row>
     <row r="105" spans="2:9" x14ac:dyDescent="0.25">
@@ -2807,20 +2791,20 @@
         <v>25</v>
       </c>
       <c r="D105" s="9"/>
-      <c r="E105" s="9">
-        <v>20589</v>
+      <c r="E105" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="F105" s="9">
-        <v>16054</v>
+        <v>3241</v>
       </c>
       <c r="G105" s="9">
+        <v>6733</v>
+      </c>
+      <c r="H105" s="9">
+        <v>5668</v>
+      </c>
+      <c r="I105" s="9">
         <v>8399</v>
-      </c>
-      <c r="H105" s="9">
-        <v>6521</v>
-      </c>
-      <c r="I105" s="9">
-        <v>2709</v>
       </c>
     </row>
     <row r="106" spans="2:9" x14ac:dyDescent="0.25">
@@ -2831,20 +2815,20 @@
         <v>25</v>
       </c>
       <c r="D106" s="11"/>
-      <c r="E106" s="11">
-        <v>99616</v>
+      <c r="E106" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="F106" s="11">
-        <v>101216</v>
+        <v>82336</v>
       </c>
       <c r="G106" s="11">
+        <v>86300</v>
+      </c>
+      <c r="H106" s="11">
+        <v>93276</v>
+      </c>
+      <c r="I106" s="11">
         <v>96338</v>
-      </c>
-      <c r="H106" s="11">
-        <v>76578</v>
-      </c>
-      <c r="I106" s="11">
-        <v>87344</v>
       </c>
     </row>
     <row r="107" spans="2:9" x14ac:dyDescent="0.25">
@@ -2855,20 +2839,20 @@
         <v>25</v>
       </c>
       <c r="D107" s="9"/>
-      <c r="E107" s="9">
-        <v>103951</v>
+      <c r="E107" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="F107" s="9">
-        <v>89266</v>
+        <v>107397</v>
       </c>
       <c r="G107" s="9">
+        <v>66272</v>
+      </c>
+      <c r="H107" s="9">
+        <v>72721</v>
+      </c>
+      <c r="I107" s="9">
         <v>141698</v>
-      </c>
-      <c r="H107" s="9">
-        <v>88729</v>
-      </c>
-      <c r="I107" s="9">
-        <v>138144</v>
       </c>
     </row>
     <row r="108" spans="2:9" x14ac:dyDescent="0.25">
@@ -2882,8 +2866,8 @@
       <c r="E108" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F108" s="11" t="s">
-        <v>26</v>
+      <c r="F108" s="11">
+        <v>0</v>
       </c>
       <c r="G108" s="11" t="s">
         <v>26</v>
@@ -2906,8 +2890,8 @@
       <c r="E109" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F109" s="9" t="s">
-        <v>26</v>
+      <c r="F109" s="9">
+        <v>0</v>
       </c>
       <c r="G109" s="9" t="s">
         <v>26</v>
@@ -2927,11 +2911,11 @@
         <v>25</v>
       </c>
       <c r="D110" s="11"/>
-      <c r="E110" s="11">
-        <v>2374</v>
+      <c r="E110" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="F110" s="11">
-        <v>2374</v>
+        <v>3046</v>
       </c>
       <c r="G110" s="11">
         <v>2374</v>
@@ -2950,19 +2934,19 @@
       <c r="C111" s="15"/>
       <c r="D111" s="15"/>
       <c r="E111" s="15">
-        <v>770230</v>
+        <v>0</v>
       </c>
       <c r="F111" s="15">
-        <v>603786</v>
+        <v>637136</v>
       </c>
       <c r="G111" s="15">
+        <v>475129</v>
+      </c>
+      <c r="H111" s="15">
+        <v>754326</v>
+      </c>
+      <c r="I111" s="15">
         <v>797009</v>
-      </c>
-      <c r="H111" s="15">
-        <v>760722</v>
-      </c>
-      <c r="I111" s="15">
-        <v>867823</v>
       </c>
     </row>
     <row r="112" spans="2:9" x14ac:dyDescent="0.25">
@@ -3029,428 +3013,3705 @@
     </row>
     <row r="117" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B117" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C117" s="9"/>
+        <v>24</v>
+      </c>
+      <c r="C117" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="D117" s="9"/>
-      <c r="E117" s="9">
-        <v>0</v>
-      </c>
-      <c r="F117" s="9">
-        <v>0</v>
+      <c r="E117" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F117" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="G117" s="9">
-        <v>0</v>
+        <v>2145</v>
       </c>
       <c r="H117" s="9">
-        <v>0</v>
+        <v>26508</v>
       </c>
       <c r="I117" s="9">
-        <v>0</v>
+        <v>64566</v>
       </c>
     </row>
     <row r="118" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B118" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C118" s="11"/>
+        <v>27</v>
+      </c>
+      <c r="C118" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="D118" s="11"/>
-      <c r="E118" s="11">
-        <v>0</v>
+      <c r="E118" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="F118" s="11">
-        <v>0</v>
-      </c>
-      <c r="G118" s="11">
-        <v>0</v>
+        <v>2145</v>
+      </c>
+      <c r="G118" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="H118" s="11">
         <v>0</v>
       </c>
-      <c r="I118" s="11">
-        <v>0</v>
+      <c r="I118" s="11" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="119" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B119" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C119" s="9"/>
+        <v>28</v>
+      </c>
+      <c r="C119" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="D119" s="9"/>
-      <c r="E119" s="9">
-        <v>0</v>
+      <c r="E119" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="F119" s="9">
-        <v>0</v>
+        <v>6989</v>
       </c>
       <c r="G119" s="9">
-        <v>0</v>
-      </c>
-      <c r="H119" s="9">
-        <v>0</v>
-      </c>
-      <c r="I119" s="9">
-        <v>0</v>
+        <v>12509</v>
+      </c>
+      <c r="H119" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I119" s="9" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="120" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B120" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C120" s="11"/>
+        <v>29</v>
+      </c>
+      <c r="C120" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="D120" s="11"/>
-      <c r="E120" s="11">
-        <v>0</v>
+      <c r="E120" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="F120" s="11">
-        <v>0</v>
+        <v>2457</v>
       </c>
       <c r="G120" s="11">
-        <v>0</v>
+        <v>1836</v>
       </c>
       <c r="H120" s="11">
-        <v>0</v>
+        <v>1027</v>
       </c>
       <c r="I120" s="11">
-        <v>0</v>
+        <v>851</v>
       </c>
     </row>
     <row r="121" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B121" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C121" s="9"/>
+        <v>30</v>
+      </c>
+      <c r="C121" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="D121" s="9"/>
-      <c r="E121" s="9">
-        <v>182823</v>
+      <c r="E121" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="F121" s="9">
-        <v>190418</v>
+        <v>6055</v>
       </c>
       <c r="G121" s="9">
-        <v>153030</v>
+        <v>3264</v>
       </c>
       <c r="H121" s="9">
-        <v>211626</v>
+        <v>1418</v>
       </c>
       <c r="I121" s="9">
-        <v>384118</v>
+        <v>5744</v>
       </c>
     </row>
     <row r="122" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B122" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C122" s="11"/>
+        <v>31</v>
+      </c>
+      <c r="C122" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="D122" s="11"/>
-      <c r="E122" s="11">
-        <v>207043</v>
+      <c r="E122" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="F122" s="11">
-        <v>449390</v>
+        <v>1687</v>
       </c>
       <c r="G122" s="11">
-        <v>505179</v>
+        <v>3287</v>
       </c>
       <c r="H122" s="11">
-        <v>448393</v>
+        <v>7467</v>
       </c>
       <c r="I122" s="11">
-        <v>540687</v>
+        <v>212</v>
       </c>
     </row>
     <row r="123" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B123" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C123" s="9"/>
+        <v>32</v>
+      </c>
+      <c r="C123" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="D123" s="9"/>
-      <c r="E123" s="9">
-        <v>14713</v>
+      <c r="E123" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="F123" s="9">
-        <v>15506</v>
+        <v>5871</v>
       </c>
       <c r="G123" s="9">
-        <v>14931</v>
+        <v>1759</v>
       </c>
       <c r="H123" s="9">
-        <v>14613</v>
+        <v>8935</v>
       </c>
       <c r="I123" s="9">
-        <v>14447</v>
+        <v>36348</v>
       </c>
     </row>
     <row r="124" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B124" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C124" s="11"/>
+        <v>33</v>
+      </c>
+      <c r="C124" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="D124" s="11"/>
-      <c r="E124" s="11">
-        <v>221476</v>
+      <c r="E124" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="F124" s="11">
-        <v>228411</v>
+        <v>1247</v>
       </c>
       <c r="G124" s="11">
-        <v>298787</v>
+        <v>1508</v>
       </c>
       <c r="H124" s="11">
-        <v>506581</v>
+        <v>1812</v>
       </c>
       <c r="I124" s="11">
-        <v>372136</v>
+        <v>21757</v>
       </c>
     </row>
     <row r="125" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B125" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C125" s="9"/>
+        <v>34</v>
+      </c>
+      <c r="C125" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="D125" s="9"/>
-      <c r="E125" s="9">
-        <v>0</v>
+      <c r="E125" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="F125" s="9">
-        <v>0</v>
+        <v>22231</v>
       </c>
       <c r="G125" s="9">
-        <v>0</v>
+        <v>11812</v>
       </c>
       <c r="H125" s="9">
-        <v>0</v>
+        <v>10992</v>
       </c>
       <c r="I125" s="9">
-        <v>0</v>
+        <v>39038</v>
       </c>
     </row>
     <row r="126" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B126" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C126" s="11"/>
+        <v>35</v>
+      </c>
+      <c r="C126" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="D126" s="11"/>
-      <c r="E126" s="11">
-        <v>179674</v>
+      <c r="E126" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="F126" s="11">
-        <v>289121</v>
+        <v>0</v>
       </c>
       <c r="G126" s="11">
-        <v>464029</v>
+        <v>313</v>
       </c>
       <c r="H126" s="11">
-        <v>337041</v>
+        <v>313</v>
       </c>
       <c r="I126" s="11">
-        <v>337639</v>
+        <v>308</v>
       </c>
     </row>
     <row r="127" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B127" s="14" t="s">
+      <c r="B127" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C127" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D127" s="9"/>
+      <c r="E127" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F127" s="9">
+        <v>1651</v>
+      </c>
+      <c r="G127" s="9">
+        <v>658</v>
+      </c>
+      <c r="H127" s="9">
+        <v>2586</v>
+      </c>
+      <c r="I127" s="9">
+        <v>2383</v>
+      </c>
+    </row>
+    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B128" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C128" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D128" s="11"/>
+      <c r="E128" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F128" s="11">
+        <v>8255</v>
+      </c>
+      <c r="G128" s="11">
+        <v>13104</v>
+      </c>
+      <c r="H128" s="11">
+        <v>25421</v>
+      </c>
+      <c r="I128" s="11">
+        <v>61619</v>
+      </c>
+    </row>
+    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B129" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C129" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D129" s="9"/>
+      <c r="E129" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F129" s="9">
+        <v>12081</v>
+      </c>
+      <c r="G129" s="9">
+        <v>9430</v>
+      </c>
+      <c r="H129" s="9">
+        <v>9676</v>
+      </c>
+      <c r="I129" s="9">
+        <v>16487</v>
+      </c>
+    </row>
+    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B130" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C130" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D130" s="11"/>
+      <c r="E130" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F130" s="11">
+        <v>0</v>
+      </c>
+      <c r="G130" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H130" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I130" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B131" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C131" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D131" s="9"/>
+      <c r="E131" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F131" s="9">
+        <v>0</v>
+      </c>
+      <c r="G131" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H131" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I131" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B132" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C132" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D132" s="11"/>
+      <c r="E132" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F132" s="11">
+        <v>2036</v>
+      </c>
+      <c r="G132" s="11">
+        <v>1049</v>
+      </c>
+      <c r="H132" s="11">
+        <v>818</v>
+      </c>
+      <c r="I132" s="11">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B133" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C127" s="15"/>
-      <c r="D127" s="15"/>
-      <c r="E127" s="15">
-        <v>805729</v>
-      </c>
-      <c r="F127" s="15">
-        <v>1172846</v>
-      </c>
-      <c r="G127" s="15">
-        <v>1435956</v>
-      </c>
-      <c r="H127" s="15">
-        <v>1518254</v>
-      </c>
-      <c r="I127" s="15">
-        <v>1649027</v>
-      </c>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B128" s="1"/>
-      <c r="C128" s="1"/>
-      <c r="D128" s="1"/>
-      <c r="E128" s="1"/>
-      <c r="F128" s="1"/>
-      <c r="G128" s="1"/>
-      <c r="H128" s="1"/>
-      <c r="I128" s="1"/>
-    </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B129" s="1"/>
-      <c r="C129" s="1"/>
-      <c r="D129" s="1"/>
-      <c r="E129" s="1"/>
-      <c r="F129" s="1"/>
-      <c r="G129" s="1"/>
-      <c r="H129" s="1"/>
-      <c r="I129" s="1"/>
-    </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B130" s="1"/>
-      <c r="C130" s="1"/>
-      <c r="D130" s="1"/>
-      <c r="E130" s="1"/>
-      <c r="F130" s="1"/>
-      <c r="G130" s="1"/>
-      <c r="H130" s="1"/>
-      <c r="I130" s="1"/>
-    </row>
-    <row r="131" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B131" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C131" s="6"/>
-      <c r="D131" s="6"/>
-      <c r="E131" s="6"/>
-      <c r="F131" s="6"/>
-      <c r="G131" s="1"/>
-      <c r="H131" s="1"/>
-      <c r="I131" s="1"/>
-    </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B132" s="1"/>
-      <c r="C132" s="1"/>
-      <c r="D132" s="1"/>
-      <c r="E132" s="1"/>
-      <c r="F132" s="1"/>
-      <c r="G132" s="1"/>
-      <c r="H132" s="1"/>
-      <c r="I132" s="1"/>
-    </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B133" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C133" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D133" s="9"/>
-      <c r="E133" s="9"/>
-      <c r="F133" s="9"/>
-      <c r="G133" s="1"/>
-      <c r="H133" s="1"/>
-      <c r="I133" s="1"/>
+      <c r="C133" s="15"/>
+      <c r="D133" s="15"/>
+      <c r="E133" s="15">
+        <v>0</v>
+      </c>
+      <c r="F133" s="15">
+        <v>72705</v>
+      </c>
+      <c r="G133" s="15">
+        <v>62674</v>
+      </c>
+      <c r="H133" s="15">
+        <v>96973</v>
+      </c>
+      <c r="I133" s="15">
+        <v>250131</v>
+      </c>
     </row>
     <row r="134" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B134" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C134" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D134" s="11"/>
-      <c r="E134" s="11"/>
-      <c r="F134" s="11"/>
+      <c r="B134" s="1"/>
+      <c r="C134" s="1"/>
+      <c r="D134" s="1"/>
+      <c r="E134" s="1"/>
+      <c r="F134" s="1"/>
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
       <c r="I134" s="1"/>
     </row>
     <row r="135" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B135" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C135" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D135" s="9"/>
-      <c r="E135" s="9"/>
-      <c r="F135" s="9"/>
+      <c r="B135" s="1"/>
+      <c r="C135" s="1"/>
+      <c r="D135" s="1"/>
+      <c r="E135" s="1"/>
+      <c r="F135" s="1"/>
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
       <c r="I135" s="1"/>
     </row>
     <row r="136" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B136" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C136" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D136" s="11"/>
-      <c r="E136" s="11"/>
-      <c r="F136" s="11"/>
+      <c r="B136" s="1"/>
+      <c r="C136" s="1"/>
+      <c r="D136" s="1"/>
+      <c r="E136" s="1"/>
+      <c r="F136" s="1"/>
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
       <c r="I136" s="1"/>
     </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B137" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C137" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D137" s="9"/>
-      <c r="E137" s="9"/>
-      <c r="F137" s="9"/>
-      <c r="G137" s="1"/>
-      <c r="H137" s="1"/>
-      <c r="I137" s="1"/>
+    <row r="137" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B137" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C137" s="6"/>
+      <c r="D137" s="6"/>
+      <c r="E137" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F137" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G137" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H137" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I137" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="138" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B138" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C138" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="D138" s="11"/>
-      <c r="E138" s="11"/>
-      <c r="F138" s="11"/>
+      <c r="B138" s="1"/>
+      <c r="C138" s="1"/>
+      <c r="D138" s="1"/>
+      <c r="E138" s="1"/>
+      <c r="F138" s="1"/>
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
       <c r="I138" s="1"/>
     </row>
     <row r="139" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B139" s="8" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="C139" s="9" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="D139" s="9"/>
-      <c r="E139" s="9"/>
-      <c r="F139" s="9"/>
-      <c r="G139" s="1"/>
-      <c r="H139" s="1"/>
-      <c r="I139" s="1"/>
+      <c r="E139" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F139" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G139" s="9">
+        <v>36288</v>
+      </c>
+      <c r="H139" s="9">
+        <v>152519</v>
+      </c>
+      <c r="I139" s="9">
+        <v>298643</v>
+      </c>
     </row>
     <row r="140" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B140" s="10" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="C140" s="11" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="D140" s="11"/>
-      <c r="E140" s="11"/>
-      <c r="F140" s="11"/>
+      <c r="E140" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F140" s="11">
+        <v>0</v>
+      </c>
+      <c r="G140" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H140" s="11">
+        <v>1515</v>
+      </c>
+      <c r="I140" s="11" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="141" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B141" s="8" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="C141" s="9" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="D141" s="9"/>
-      <c r="E141" s="9"/>
-      <c r="F141" s="9"/>
+      <c r="E141" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F141" s="9">
+        <v>26853</v>
+      </c>
+      <c r="G141" s="9">
+        <v>20950</v>
+      </c>
+      <c r="H141" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I141" s="9" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="142" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B142" s="10" t="s">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="C142" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D142" s="11"/>
+      <c r="E142" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F142" s="11">
+        <v>0</v>
+      </c>
+      <c r="G142" s="11">
+        <v>0</v>
+      </c>
+      <c r="H142" s="11">
+        <v>23</v>
+      </c>
+      <c r="I142" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B143" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C143" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D143" s="9"/>
+      <c r="E143" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F143" s="9">
+        <v>13481</v>
+      </c>
+      <c r="G143" s="9">
+        <v>36220</v>
+      </c>
+      <c r="H143" s="9">
+        <v>83631</v>
+      </c>
+      <c r="I143" s="9">
+        <v>235404</v>
+      </c>
+    </row>
+    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B144" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C144" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D144" s="11"/>
+      <c r="E144" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F144" s="11">
+        <v>3875</v>
+      </c>
+      <c r="G144" s="11">
+        <v>4995</v>
+      </c>
+      <c r="H144" s="11">
+        <v>1010</v>
+      </c>
+      <c r="I144" s="11">
+        <v>14976</v>
+      </c>
+    </row>
+    <row r="145" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B145" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C145" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D145" s="9"/>
+      <c r="E145" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F145" s="9">
+        <v>1746</v>
+      </c>
+      <c r="G145" s="9">
+        <v>27958</v>
+      </c>
+      <c r="H145" s="9">
+        <v>67473</v>
+      </c>
+      <c r="I145" s="9">
+        <v>39406</v>
+      </c>
+    </row>
+    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B146" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C146" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D146" s="11"/>
+      <c r="E146" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F146" s="11">
+        <v>3654</v>
+      </c>
+      <c r="G146" s="11">
+        <v>9475</v>
+      </c>
+      <c r="H146" s="11">
+        <v>34106</v>
+      </c>
+      <c r="I146" s="11">
+        <v>14710</v>
+      </c>
+    </row>
+    <row r="147" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B147" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C147" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D147" s="9"/>
+      <c r="E147" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F147" s="9">
+        <v>49870</v>
+      </c>
+      <c r="G147" s="9">
+        <v>79307</v>
+      </c>
+      <c r="H147" s="9">
+        <v>208580</v>
+      </c>
+      <c r="I147" s="9">
+        <v>340217</v>
+      </c>
+    </row>
+    <row r="148" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B148" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C148" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D148" s="11"/>
+      <c r="E148" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F148" s="11">
+        <v>313</v>
+      </c>
+      <c r="G148" s="11">
+        <v>0</v>
+      </c>
+      <c r="H148" s="11">
+        <v>0</v>
+      </c>
+      <c r="I148" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B149" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C149" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D149" s="9"/>
+      <c r="E149" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F149" s="9">
+        <v>617</v>
+      </c>
+      <c r="G149" s="9">
+        <v>6730</v>
+      </c>
+      <c r="H149" s="9">
+        <v>4652</v>
+      </c>
+      <c r="I149" s="9">
+        <v>13822</v>
+      </c>
+    </row>
+    <row r="150" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B150" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C150" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D150" s="11"/>
+      <c r="E150" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F150" s="11">
+        <v>15413</v>
+      </c>
+      <c r="G150" s="11">
+        <v>29326</v>
+      </c>
+      <c r="H150" s="11">
+        <v>77508</v>
+      </c>
+      <c r="I150" s="11">
+        <v>138937</v>
+      </c>
+    </row>
+    <row r="151" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B151" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C151" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D151" s="9"/>
+      <c r="E151" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F151" s="9">
+        <v>28156</v>
+      </c>
+      <c r="G151" s="9">
+        <v>43629</v>
+      </c>
+      <c r="H151" s="9">
+        <v>85413</v>
+      </c>
+      <c r="I151" s="9">
+        <v>162186</v>
+      </c>
+    </row>
+    <row r="152" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B152" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C152" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D152" s="11"/>
+      <c r="E152" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F152" s="11">
+        <v>0</v>
+      </c>
+      <c r="G152" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H152" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I152" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="153" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B153" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C153" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D153" s="9"/>
+      <c r="E153" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F153" s="9">
+        <v>0</v>
+      </c>
+      <c r="G153" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H153" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I153" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="154" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B154" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C154" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D154" s="11"/>
+      <c r="E154" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F154" s="11">
+        <v>0</v>
+      </c>
+      <c r="G154" s="11">
+        <v>0</v>
+      </c>
+      <c r="H154" s="11">
+        <v>0</v>
+      </c>
+      <c r="I154" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B155" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C155" s="15"/>
+      <c r="D155" s="15"/>
+      <c r="E155" s="15">
+        <v>0</v>
+      </c>
+      <c r="F155" s="15">
+        <v>143978</v>
+      </c>
+      <c r="G155" s="15">
+        <v>294878</v>
+      </c>
+      <c r="H155" s="15">
+        <v>716430</v>
+      </c>
+      <c r="I155" s="15">
+        <v>1258301</v>
+      </c>
+    </row>
+    <row r="156" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B156" s="1"/>
+      <c r="C156" s="1"/>
+      <c r="D156" s="1"/>
+      <c r="E156" s="1"/>
+      <c r="F156" s="1"/>
+      <c r="G156" s="1"/>
+      <c r="H156" s="1"/>
+      <c r="I156" s="1"/>
+    </row>
+    <row r="157" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B157" s="1"/>
+      <c r="C157" s="1"/>
+      <c r="D157" s="1"/>
+      <c r="E157" s="1"/>
+      <c r="F157" s="1"/>
+      <c r="G157" s="1"/>
+      <c r="H157" s="1"/>
+      <c r="I157" s="1"/>
+    </row>
+    <row r="158" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B158" s="1"/>
+      <c r="C158" s="1"/>
+      <c r="D158" s="1"/>
+      <c r="E158" s="1"/>
+      <c r="F158" s="1"/>
+      <c r="G158" s="1"/>
+      <c r="H158" s="1"/>
+      <c r="I158" s="1"/>
+    </row>
+    <row r="159" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B159" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C159" s="6"/>
+      <c r="D159" s="6"/>
+      <c r="E159" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F159" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G159" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H159" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I159" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="160" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B160" s="1"/>
+      <c r="C160" s="1"/>
+      <c r="D160" s="1"/>
+      <c r="E160" s="1"/>
+      <c r="F160" s="1"/>
+      <c r="G160" s="1"/>
+      <c r="H160" s="1"/>
+      <c r="I160" s="1"/>
+    </row>
+    <row r="161" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B161" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C161" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D161" s="9"/>
+      <c r="E161" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F161" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G161" s="9">
+        <v>11925</v>
+      </c>
+      <c r="H161" s="9">
+        <v>114461</v>
+      </c>
+      <c r="I161" s="9">
+        <v>219390</v>
+      </c>
+    </row>
+    <row r="162" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B162" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C162" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D162" s="11"/>
+      <c r="E162" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F162" s="11">
+        <v>0</v>
+      </c>
+      <c r="G162" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H162" s="11">
+        <v>1515</v>
+      </c>
+      <c r="I162" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="163" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B163" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C163" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D163" s="9"/>
+      <c r="E163" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F163" s="9">
+        <v>22117</v>
+      </c>
+      <c r="G163" s="9">
+        <v>33459</v>
+      </c>
+      <c r="H163" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I163" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="164" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B164" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C164" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D164" s="11"/>
+      <c r="E164" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F164" s="11">
+        <v>682</v>
+      </c>
+      <c r="G164" s="11">
+        <v>810</v>
+      </c>
+      <c r="H164" s="11">
+        <v>199</v>
+      </c>
+      <c r="I164" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B165" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C165" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D165" s="9"/>
+      <c r="E165" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F165" s="9">
+        <v>16280</v>
+      </c>
+      <c r="G165" s="9">
+        <v>38066</v>
+      </c>
+      <c r="H165" s="9">
+        <v>79303</v>
+      </c>
+      <c r="I165" s="9">
+        <v>205094</v>
+      </c>
+    </row>
+    <row r="166" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B166" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C166" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D166" s="11"/>
+      <c r="E166" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F166" s="11">
+        <v>2277</v>
+      </c>
+      <c r="G166" s="11">
+        <v>814</v>
+      </c>
+      <c r="H166" s="11">
+        <v>8264</v>
+      </c>
+      <c r="I166" s="11">
+        <v>15188</v>
+      </c>
+    </row>
+    <row r="167" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B167" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C167" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D167" s="9"/>
+      <c r="E167" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F167" s="9">
+        <v>5951</v>
+      </c>
+      <c r="G167" s="9">
+        <v>20782</v>
+      </c>
+      <c r="H167" s="9">
+        <v>40060</v>
+      </c>
+      <c r="I167" s="9">
+        <v>44063</v>
+      </c>
+    </row>
+    <row r="168" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B168" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C168" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D168" s="11"/>
+      <c r="E168" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F168" s="11">
+        <v>3436</v>
+      </c>
+      <c r="G168" s="11">
+        <v>9171</v>
+      </c>
+      <c r="H168" s="11">
+        <v>14161</v>
+      </c>
+      <c r="I168" s="11">
+        <v>21214</v>
+      </c>
+    </row>
+    <row r="169" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B169" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C169" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D169" s="9"/>
+      <c r="E169" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F169" s="9">
+        <v>60717</v>
+      </c>
+      <c r="G169" s="9">
+        <v>79836</v>
+      </c>
+      <c r="H169" s="9">
+        <v>180534</v>
+      </c>
+      <c r="I169" s="9">
+        <v>322511</v>
+      </c>
+    </row>
+    <row r="170" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B170" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C170" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D170" s="11"/>
+      <c r="E170" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F170" s="11">
+        <v>0</v>
+      </c>
+      <c r="G170" s="11">
+        <v>0</v>
+      </c>
+      <c r="H170" s="11">
+        <v>5</v>
+      </c>
+      <c r="I170" s="11">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="171" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B171" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C171" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D171" s="9"/>
+      <c r="E171" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F171" s="9">
+        <v>1611</v>
+      </c>
+      <c r="G171" s="9">
+        <v>4801</v>
+      </c>
+      <c r="H171" s="9">
+        <v>4855</v>
+      </c>
+      <c r="I171" s="9">
+        <v>10800</v>
+      </c>
+    </row>
+    <row r="172" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B172" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C172" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D172" s="11"/>
+      <c r="E172" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F172" s="11">
+        <v>9412</v>
+      </c>
+      <c r="G172" s="11">
+        <v>17009</v>
+      </c>
+      <c r="H172" s="11">
+        <v>41310</v>
+      </c>
+      <c r="I172" s="11">
+        <v>77131</v>
+      </c>
+    </row>
+    <row r="173" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B173" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C173" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D173" s="9"/>
+      <c r="E173" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F173" s="9">
+        <v>30458</v>
+      </c>
+      <c r="G173" s="9">
+        <v>43384</v>
+      </c>
+      <c r="H173" s="9">
+        <v>78602</v>
+      </c>
+      <c r="I173" s="9">
+        <v>118620</v>
+      </c>
+    </row>
+    <row r="174" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B174" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C174" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D174" s="11"/>
+      <c r="E174" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F174" s="11">
+        <v>0</v>
+      </c>
+      <c r="G174" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H174" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I174" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="175" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B175" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C175" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D175" s="9"/>
+      <c r="E175" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F175" s="9">
+        <v>0</v>
+      </c>
+      <c r="G175" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H175" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I175" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="176" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B176" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C176" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D176" s="11"/>
+      <c r="E176" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F176" s="11">
+        <v>987</v>
+      </c>
+      <c r="G176" s="11">
+        <v>231</v>
+      </c>
+      <c r="H176" s="11">
+        <v>0</v>
+      </c>
+      <c r="I176" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B177" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C177" s="15"/>
+      <c r="D177" s="15"/>
+      <c r="E177" s="15">
+        <v>0</v>
+      </c>
+      <c r="F177" s="15">
+        <v>153928</v>
+      </c>
+      <c r="G177" s="15">
+        <v>260288</v>
+      </c>
+      <c r="H177" s="15">
+        <v>563269</v>
+      </c>
+      <c r="I177" s="15">
+        <v>1034177</v>
+      </c>
+    </row>
+    <row r="178" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B178" s="1"/>
+      <c r="C178" s="1"/>
+      <c r="D178" s="1"/>
+      <c r="E178" s="1"/>
+      <c r="F178" s="1"/>
+      <c r="G178" s="1"/>
+      <c r="H178" s="1"/>
+      <c r="I178" s="1"/>
+    </row>
+    <row r="179" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B179" s="1"/>
+      <c r="C179" s="1"/>
+      <c r="D179" s="1"/>
+      <c r="E179" s="1"/>
+      <c r="F179" s="1"/>
+      <c r="G179" s="1"/>
+      <c r="H179" s="1"/>
+      <c r="I179" s="1"/>
+    </row>
+    <row r="180" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B180" s="1"/>
+      <c r="C180" s="1"/>
+      <c r="D180" s="1"/>
+      <c r="E180" s="1"/>
+      <c r="F180" s="1"/>
+      <c r="G180" s="1"/>
+      <c r="H180" s="1"/>
+      <c r="I180" s="1"/>
+    </row>
+    <row r="181" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B181" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C181" s="6"/>
+      <c r="D181" s="6"/>
+      <c r="E181" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F181" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G181" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H181" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I181" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="182" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B182" s="1"/>
+      <c r="C182" s="1"/>
+      <c r="D182" s="1"/>
+      <c r="E182" s="1"/>
+      <c r="F182" s="1"/>
+      <c r="G182" s="1"/>
+      <c r="H182" s="1"/>
+      <c r="I182" s="1"/>
+    </row>
+    <row r="183" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B183" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C183" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D183" s="9"/>
+      <c r="E183" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F183" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G183" s="9">
+        <v>26508</v>
+      </c>
+      <c r="H183" s="9">
+        <v>64566</v>
+      </c>
+      <c r="I183" s="9">
+        <v>143819</v>
+      </c>
+    </row>
+    <row r="184" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B184" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C184" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D184" s="11"/>
+      <c r="E184" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F184" s="11">
+        <v>2145</v>
+      </c>
+      <c r="G184" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H184" s="11">
+        <v>0</v>
+      </c>
+      <c r="I184" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="185" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B185" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C185" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D185" s="9"/>
+      <c r="E185" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F185" s="9">
+        <v>11725</v>
+      </c>
+      <c r="G185" s="9">
+        <v>0</v>
+      </c>
+      <c r="H185" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I185" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="186" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B186" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C186" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D186" s="11"/>
+      <c r="E186" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F186" s="11">
+        <v>1775</v>
+      </c>
+      <c r="G186" s="11">
+        <v>1026</v>
+      </c>
+      <c r="H186" s="11">
+        <v>851</v>
+      </c>
+      <c r="I186" s="11">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="187" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B187" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C187" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D187" s="9"/>
+      <c r="E187" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F187" s="9">
+        <v>3256</v>
+      </c>
+      <c r="G187" s="9">
+        <v>1418</v>
+      </c>
+      <c r="H187" s="9">
+        <v>5746</v>
+      </c>
+      <c r="I187" s="9">
+        <v>36054</v>
+      </c>
+    </row>
+    <row r="188" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B188" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C188" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D188" s="11"/>
+      <c r="E188" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F188" s="11">
+        <v>3285</v>
+      </c>
+      <c r="G188" s="11">
+        <v>7468</v>
+      </c>
+      <c r="H188" s="11">
+        <v>213</v>
+      </c>
+      <c r="I188" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B189" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C189" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D189" s="9"/>
+      <c r="E189" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F189" s="9">
+        <v>1666</v>
+      </c>
+      <c r="G189" s="9">
+        <v>8935</v>
+      </c>
+      <c r="H189" s="9">
+        <v>36348</v>
+      </c>
+      <c r="I189" s="9">
+        <v>31691</v>
+      </c>
+    </row>
+    <row r="190" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B190" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C190" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D190" s="11"/>
+      <c r="E190" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F190" s="11">
+        <v>1465</v>
+      </c>
+      <c r="G190" s="11">
+        <v>1812</v>
+      </c>
+      <c r="H190" s="11">
+        <v>21757</v>
+      </c>
+      <c r="I190" s="11">
+        <v>15253</v>
+      </c>
+    </row>
+    <row r="191" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B191" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C191" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D191" s="9"/>
+      <c r="E191" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F191" s="9">
+        <v>11384</v>
+      </c>
+      <c r="G191" s="9">
+        <v>11283</v>
+      </c>
+      <c r="H191" s="9">
+        <v>39038</v>
+      </c>
+      <c r="I191" s="9">
+        <v>56744</v>
+      </c>
+    </row>
+    <row r="192" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B192" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C192" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D192" s="11"/>
+      <c r="E192" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F192" s="11">
+        <v>313</v>
+      </c>
+      <c r="G192" s="11">
+        <v>313</v>
+      </c>
+      <c r="H192" s="11">
+        <v>308</v>
+      </c>
+      <c r="I192" s="11">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="193" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B193" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C193" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D193" s="9"/>
+      <c r="E193" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F193" s="9">
+        <v>657</v>
+      </c>
+      <c r="G193" s="9">
+        <v>2587</v>
+      </c>
+      <c r="H193" s="9">
+        <v>2383</v>
+      </c>
+      <c r="I193" s="9">
+        <v>5405</v>
+      </c>
+    </row>
+    <row r="194" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B194" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C194" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D194" s="11"/>
+      <c r="E194" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F194" s="11">
+        <v>14256</v>
+      </c>
+      <c r="G194" s="11">
+        <v>25421</v>
+      </c>
+      <c r="H194" s="11">
+        <v>61619</v>
+      </c>
+      <c r="I194" s="11">
+        <v>123425</v>
+      </c>
+    </row>
+    <row r="195" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B195" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C195" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D195" s="9"/>
+      <c r="E195" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F195" s="9">
+        <v>9779</v>
+      </c>
+      <c r="G195" s="9">
+        <v>9675</v>
+      </c>
+      <c r="H195" s="9">
+        <v>16487</v>
+      </c>
+      <c r="I195" s="9">
+        <v>60053</v>
+      </c>
+    </row>
+    <row r="196" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B196" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C196" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D196" s="11"/>
+      <c r="E196" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F196" s="11">
+        <v>0</v>
+      </c>
+      <c r="G196" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H196" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I196" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="197" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B197" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C197" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D197" s="9"/>
+      <c r="E197" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F197" s="9">
+        <v>0</v>
+      </c>
+      <c r="G197" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H197" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I197" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="198" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B198" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C198" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D198" s="11"/>
+      <c r="E198" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F198" s="11">
+        <v>1049</v>
+      </c>
+      <c r="G198" s="11">
+        <v>818</v>
+      </c>
+      <c r="H198" s="11">
+        <v>818</v>
+      </c>
+      <c r="I198" s="11">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="199" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B199" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C199" s="15"/>
+      <c r="D199" s="15"/>
+      <c r="E199" s="15">
+        <v>0</v>
+      </c>
+      <c r="F199" s="15">
+        <v>62755</v>
+      </c>
+      <c r="G199" s="15">
+        <v>97264</v>
+      </c>
+      <c r="H199" s="15">
+        <v>250134</v>
+      </c>
+      <c r="I199" s="15">
+        <v>474255</v>
+      </c>
+    </row>
+    <row r="200" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B200" s="1"/>
+      <c r="C200" s="1"/>
+      <c r="D200" s="1"/>
+      <c r="E200" s="1"/>
+      <c r="F200" s="1"/>
+      <c r="G200" s="1"/>
+      <c r="H200" s="1"/>
+      <c r="I200" s="1"/>
+    </row>
+    <row r="201" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B201" s="1"/>
+      <c r="C201" s="1"/>
+      <c r="D201" s="1"/>
+      <c r="E201" s="1"/>
+      <c r="F201" s="1"/>
+      <c r="G201" s="1"/>
+      <c r="H201" s="1"/>
+      <c r="I201" s="1"/>
+    </row>
+    <row r="202" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B202" s="1"/>
+      <c r="C202" s="1"/>
+      <c r="D202" s="1"/>
+      <c r="E202" s="1"/>
+      <c r="F202" s="1"/>
+      <c r="G202" s="1"/>
+      <c r="H202" s="1"/>
+      <c r="I202" s="1"/>
+    </row>
+    <row r="203" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B203" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C203" s="6"/>
+      <c r="D203" s="6"/>
+      <c r="E203" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F203" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G203" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H203" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I203" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="204" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B204" s="1"/>
+      <c r="C204" s="1"/>
+      <c r="D204" s="1"/>
+      <c r="E204" s="1"/>
+      <c r="F204" s="1"/>
+      <c r="G204" s="1"/>
+      <c r="H204" s="1"/>
+      <c r="I204" s="1"/>
+    </row>
+    <row r="205" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B205" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C205" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D205" s="9"/>
+      <c r="E205" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F205" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G205" s="9">
+        <v>390142</v>
+      </c>
+      <c r="H205" s="9">
+        <v>913408</v>
+      </c>
+      <c r="I205" s="9">
+        <v>1505526</v>
+      </c>
+    </row>
+    <row r="206" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B206" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C206" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D206" s="11"/>
+      <c r="E206" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F206" s="11">
+        <v>390142</v>
+      </c>
+      <c r="G206" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H206" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I206" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="207" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B207" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C207" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D207" s="9"/>
+      <c r="E207" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F207" s="9">
+        <v>354035</v>
+      </c>
+      <c r="G207" s="9">
+        <v>647866</v>
+      </c>
+      <c r="H207" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I207" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="208" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B208" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C208" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D208" s="11"/>
+      <c r="E208" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F208" s="11">
+        <v>87112</v>
+      </c>
+      <c r="G208" s="11">
+        <v>87109</v>
+      </c>
+      <c r="H208" s="11">
+        <v>87145</v>
+      </c>
+      <c r="I208" s="11">
+        <v>87121</v>
+      </c>
+    </row>
+    <row r="209" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B209" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C209" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D209" s="9"/>
+      <c r="E209" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F209" s="9">
+        <v>29981</v>
+      </c>
+      <c r="G209" s="9">
+        <v>31787</v>
+      </c>
+      <c r="H209" s="9">
+        <v>44518</v>
+      </c>
+      <c r="I209" s="9">
+        <v>87414</v>
+      </c>
+    </row>
+    <row r="210" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B210" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C210" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D210" s="11"/>
+      <c r="E210" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F210" s="11">
+        <v>70734</v>
+      </c>
+      <c r="G210" s="11">
+        <v>137664</v>
+      </c>
+      <c r="H210" s="11">
+        <v>183500</v>
+      </c>
+      <c r="I210" s="11">
+        <v>183074</v>
+      </c>
+    </row>
+    <row r="211" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B211" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C211" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D211" s="9"/>
+      <c r="E211" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F211" s="9">
+        <v>128132</v>
+      </c>
+      <c r="G211" s="9">
+        <v>173557</v>
+      </c>
+      <c r="H211" s="9">
+        <v>391063</v>
+      </c>
+      <c r="I211" s="9">
+        <v>502878</v>
+      </c>
+    </row>
+    <row r="212" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B212" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C212" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D212" s="11"/>
+      <c r="E212" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F212" s="11">
+        <v>84709</v>
+      </c>
+      <c r="G212" s="11">
+        <v>114878</v>
+      </c>
+      <c r="H212" s="11">
+        <v>204954</v>
+      </c>
+      <c r="I212" s="11">
+        <v>377058</v>
+      </c>
+    </row>
+    <row r="213" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B213" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C213" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D213" s="9"/>
+      <c r="E213" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F213" s="9">
+        <v>39544</v>
+      </c>
+      <c r="G213" s="9">
+        <v>46153</v>
+      </c>
+      <c r="H213" s="9">
+        <v>66390</v>
+      </c>
+      <c r="I213" s="9">
+        <v>119024</v>
+      </c>
+    </row>
+    <row r="214" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B214" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C214" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D214" s="11"/>
+      <c r="E214" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F214" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G214" s="11">
+        <v>110056</v>
+      </c>
+      <c r="H214" s="11">
+        <v>110056</v>
+      </c>
+      <c r="I214" s="11">
+        <v>110039</v>
+      </c>
+    </row>
+    <row r="215" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B215" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C215" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D215" s="9"/>
+      <c r="E215" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F215" s="9">
+        <v>141705</v>
+      </c>
+      <c r="G215" s="9">
+        <v>192341</v>
+      </c>
+      <c r="H215" s="9">
+        <v>384078</v>
+      </c>
+      <c r="I215" s="9">
+        <v>420505</v>
+      </c>
+    </row>
+    <row r="216" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B216" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C216" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D216" s="11"/>
+      <c r="E216" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F216" s="11">
+        <v>107969</v>
+      </c>
+      <c r="G216" s="11">
+        <v>173061</v>
+      </c>
+      <c r="H216" s="11">
+        <v>294565</v>
+      </c>
+      <c r="I216" s="11">
+        <v>660616</v>
+      </c>
+    </row>
+    <row r="217" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B217" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C217" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D217" s="9"/>
+      <c r="E217" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F217" s="9">
+        <v>84499</v>
+      </c>
+      <c r="G217" s="9">
+        <v>91070</v>
+      </c>
+      <c r="H217" s="9">
+        <v>146004</v>
+      </c>
+      <c r="I217" s="9">
+        <v>226719</v>
+      </c>
+    </row>
+    <row r="218" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B218" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C218" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D218" s="11"/>
+      <c r="E218" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F218" s="11">
+        <v>344443</v>
+      </c>
+      <c r="G218" s="11">
+        <v>344386</v>
+      </c>
+      <c r="H218" s="11">
+        <v>344566</v>
+      </c>
+      <c r="I218" s="11">
+        <v>344566</v>
+      </c>
+    </row>
+    <row r="219" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B219" s="1"/>
+      <c r="C219" s="1"/>
+      <c r="D219" s="1"/>
+      <c r="E219" s="1"/>
+      <c r="F219" s="1"/>
+      <c r="G219" s="1"/>
+      <c r="H219" s="1"/>
+      <c r="I219" s="1"/>
+    </row>
+    <row r="220" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B220" s="1"/>
+      <c r="C220" s="1"/>
+      <c r="D220" s="1"/>
+      <c r="E220" s="1"/>
+      <c r="F220" s="1"/>
+      <c r="G220" s="1"/>
+      <c r="H220" s="1"/>
+      <c r="I220" s="1"/>
+    </row>
+    <row r="221" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B221" s="1"/>
+      <c r="C221" s="1"/>
+      <c r="D221" s="1"/>
+      <c r="E221" s="1"/>
+      <c r="F221" s="1"/>
+      <c r="G221" s="1"/>
+      <c r="H221" s="1"/>
+      <c r="I221" s="1"/>
+    </row>
+    <row r="222" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B222" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C222" s="6"/>
+      <c r="D222" s="6"/>
+      <c r="E222" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F222" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G222" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H222" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I222" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="223" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B223" s="1"/>
+      <c r="C223" s="1"/>
+      <c r="D223" s="1"/>
+      <c r="E223" s="1"/>
+      <c r="F223" s="1"/>
+      <c r="G223" s="1"/>
+      <c r="H223" s="1"/>
+      <c r="I223" s="1"/>
+    </row>
+    <row r="224" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B224" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C224" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D224" s="9"/>
+      <c r="E224" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F224" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G224" s="9">
+        <v>987482</v>
+      </c>
+      <c r="H224" s="9">
+        <v>1362008</v>
+      </c>
+      <c r="I224" s="9">
+        <v>2867927</v>
+      </c>
+    </row>
+    <row r="225" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B225" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C225" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D225" s="11"/>
+      <c r="E225" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F225" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G225" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H225" s="11">
+        <v>687699</v>
+      </c>
+      <c r="I225" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="226" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B226" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C226" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D226" s="9"/>
+      <c r="E226" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F226" s="9">
+        <v>533051</v>
+      </c>
+      <c r="G226" s="9">
+        <v>576770</v>
+      </c>
+      <c r="H226" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I226" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="227" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B227" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C227" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D227" s="11"/>
+      <c r="E227" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F227" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G227" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H227" s="11">
+        <v>87121</v>
+      </c>
+      <c r="I227" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="228" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B228" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C228" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D228" s="9"/>
+      <c r="E228" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F228" s="9">
+        <v>26932</v>
+      </c>
+      <c r="G228" s="9">
+        <v>38932</v>
+      </c>
+      <c r="H228" s="9">
+        <v>68596</v>
+      </c>
+      <c r="I228" s="9">
+        <v>184302</v>
+      </c>
+    </row>
+    <row r="229" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B229" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C229" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D229" s="11"/>
+      <c r="E229" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F229" s="11">
+        <v>223691</v>
+      </c>
+      <c r="G229" s="11">
+        <v>226141</v>
+      </c>
+      <c r="H229" s="11">
+        <v>183503</v>
+      </c>
+      <c r="I229" s="11">
+        <v>922167</v>
+      </c>
+    </row>
+    <row r="230" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B230" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C230" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D230" s="9"/>
+      <c r="E230" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F230" s="9">
+        <v>199474</v>
+      </c>
+      <c r="G230" s="9">
+        <v>370491</v>
+      </c>
+      <c r="H230" s="9">
+        <v>503872</v>
+      </c>
+      <c r="I230" s="9">
+        <v>537445</v>
+      </c>
+    </row>
+    <row r="231" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B231" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C231" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D231" s="11"/>
+      <c r="E231" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F231" s="11">
+        <v>103404</v>
+      </c>
+      <c r="G231" s="11">
+        <v>198073</v>
+      </c>
+      <c r="H231" s="11">
+        <v>373650</v>
+      </c>
+      <c r="I231" s="11">
+        <v>554341</v>
+      </c>
+    </row>
+    <row r="232" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B232" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C232" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D232" s="9"/>
+      <c r="E232" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F232" s="9">
+        <v>44134</v>
+      </c>
+      <c r="G232" s="9">
+        <v>54661</v>
+      </c>
+      <c r="H232" s="9">
+        <v>99734</v>
+      </c>
+      <c r="I232" s="9">
+        <v>220797</v>
+      </c>
+    </row>
+    <row r="233" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B233" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C233" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D233" s="11"/>
+      <c r="E233" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F233" s="11">
+        <v>110056</v>
+      </c>
+      <c r="G233" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H233" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I233" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="234" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B234" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C234" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D234" s="9"/>
+      <c r="E234" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F234" s="9">
+        <v>210150</v>
+      </c>
+      <c r="G234" s="9">
+        <v>358666</v>
+      </c>
+      <c r="H234" s="9">
+        <v>429865</v>
+      </c>
+      <c r="I234" s="9">
+        <v>652843</v>
+      </c>
+    </row>
+    <row r="235" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B235" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C235" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D235" s="11"/>
+      <c r="E235" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F235" s="11">
+        <v>191802</v>
+      </c>
+      <c r="G235" s="11">
+        <v>349082</v>
+      </c>
+      <c r="H235" s="11">
+        <v>838459</v>
+      </c>
+      <c r="I235" s="11">
+        <v>1845726</v>
+      </c>
+    </row>
+    <row r="236" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B236" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C236" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D236" s="9"/>
+      <c r="E236" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F236" s="9">
+        <v>89004</v>
+      </c>
+      <c r="G236" s="9">
+        <v>138209</v>
+      </c>
+      <c r="H236" s="9">
+        <v>213822</v>
+      </c>
+      <c r="I236" s="9">
+        <v>388748</v>
+      </c>
+    </row>
+    <row r="237" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B237" s="1"/>
+      <c r="C237" s="1"/>
+      <c r="D237" s="1"/>
+      <c r="E237" s="1"/>
+      <c r="F237" s="1"/>
+      <c r="G237" s="1"/>
+      <c r="H237" s="1"/>
+      <c r="I237" s="1"/>
+    </row>
+    <row r="238" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B238" s="1"/>
+      <c r="C238" s="1"/>
+      <c r="D238" s="1"/>
+      <c r="E238" s="1"/>
+      <c r="F238" s="1"/>
+      <c r="G238" s="1"/>
+      <c r="H238" s="1"/>
+      <c r="I238" s="1"/>
+    </row>
+    <row r="239" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B239" s="1"/>
+      <c r="C239" s="1"/>
+      <c r="D239" s="1"/>
+      <c r="E239" s="1"/>
+      <c r="F239" s="1"/>
+      <c r="G239" s="1"/>
+      <c r="H239" s="1"/>
+      <c r="I239" s="1"/>
+    </row>
+    <row r="240" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B240" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C240" s="6"/>
+      <c r="D240" s="6"/>
+      <c r="E240" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F240" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G240" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H240" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I240" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="241" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B241" s="1"/>
+      <c r="C241" s="1"/>
+      <c r="D241" s="1"/>
+      <c r="E241" s="1"/>
+      <c r="F241" s="1"/>
+      <c r="G241" s="1"/>
+      <c r="H241" s="1"/>
+      <c r="I241" s="1"/>
+    </row>
+    <row r="242" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B242" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C242" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D242" s="9"/>
+      <c r="E242" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F242" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G242" s="9">
+        <v>901701</v>
+      </c>
+      <c r="H242" s="9">
+        <v>1166589</v>
+      </c>
+      <c r="I242" s="9">
+        <v>2518366</v>
+      </c>
+    </row>
+    <row r="243" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B243" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C243" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D243" s="11"/>
+      <c r="E243" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F243" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G243" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H243" s="11">
+        <v>687699</v>
+      </c>
+      <c r="I243" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="244" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B244" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C244" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D244" s="9"/>
+      <c r="E244" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F244" s="9">
+        <v>413982</v>
+      </c>
+      <c r="G244" s="9">
+        <v>601445</v>
+      </c>
+      <c r="H244" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I244" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="245" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B245" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C245" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D245" s="11"/>
+      <c r="E245" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F245" s="11">
+        <v>87157</v>
+      </c>
+      <c r="G245" s="11">
+        <v>87172</v>
+      </c>
+      <c r="H245" s="11">
+        <v>87242</v>
+      </c>
+      <c r="I245" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="246" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B246" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C246" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D246" s="9"/>
+      <c r="E246" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F246" s="9">
+        <v>27140</v>
+      </c>
+      <c r="G246" s="9">
+        <v>38022</v>
+      </c>
+      <c r="H246" s="9">
+        <v>66904</v>
+      </c>
+      <c r="I246" s="9">
+        <v>173966</v>
+      </c>
+    </row>
+    <row r="247" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B247" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C247" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D247" s="11"/>
+      <c r="E247" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F247" s="11">
+        <v>131603</v>
+      </c>
+      <c r="G247" s="11">
+        <v>154371</v>
+      </c>
+      <c r="H247" s="11">
+        <v>183490</v>
+      </c>
+      <c r="I247" s="11">
+        <v>872974</v>
+      </c>
+    </row>
+    <row r="248" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B248" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C248" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D248" s="9"/>
+      <c r="E248" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F248" s="9">
+        <v>132507</v>
+      </c>
+      <c r="G248" s="9">
+        <v>331193</v>
+      </c>
+      <c r="H248" s="9">
+        <v>474212</v>
+      </c>
+      <c r="I248" s="9">
+        <v>498738</v>
+      </c>
+    </row>
+    <row r="249" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B249" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C249" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D249" s="11"/>
+      <c r="E249" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F249" s="11">
+        <v>92101</v>
+      </c>
+      <c r="G249" s="11">
+        <v>175953</v>
+      </c>
+      <c r="H249" s="11">
+        <v>333860</v>
+      </c>
+      <c r="I249" s="11">
+        <v>391670</v>
+      </c>
+    </row>
+    <row r="250" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B250" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C250" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D250" s="9"/>
+      <c r="E250" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F250" s="9">
+        <v>42008</v>
+      </c>
+      <c r="G250" s="9">
+        <v>51799</v>
+      </c>
+      <c r="H250" s="9">
+        <v>93592</v>
+      </c>
+      <c r="I250" s="9">
+        <v>196297</v>
+      </c>
+    </row>
+    <row r="251" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B251" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C251" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D251" s="11"/>
+      <c r="E251" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F251" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G251" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H251" s="11">
+        <v>111111</v>
+      </c>
+      <c r="I251" s="11">
+        <v>109427</v>
+      </c>
+    </row>
+    <row r="252" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B252" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C252" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D252" s="9"/>
+      <c r="E252" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F252" s="9">
+        <v>141988</v>
+      </c>
+      <c r="G252" s="9">
+        <v>310704</v>
+      </c>
+      <c r="H252" s="9">
+        <v>408429</v>
+      </c>
+      <c r="I252" s="9">
+        <v>585683</v>
+      </c>
+    </row>
+    <row r="253" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B253" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C253" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D253" s="11"/>
+      <c r="E253" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F253" s="11">
+        <v>126370</v>
+      </c>
+      <c r="G253" s="11">
+        <v>231642</v>
+      </c>
+      <c r="H253" s="11">
+        <v>483356</v>
+      </c>
+      <c r="I253" s="11">
+        <v>1068119</v>
+      </c>
+    </row>
+    <row r="254" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B254" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C254" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D254" s="9"/>
+      <c r="E254" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F254" s="9">
+        <v>86548</v>
+      </c>
+      <c r="G254" s="9">
+        <v>122918</v>
+      </c>
+      <c r="H254" s="9">
+        <v>200001</v>
+      </c>
+      <c r="I254" s="9">
+        <v>340644</v>
+      </c>
+    </row>
+    <row r="255" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B255" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C255" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D255" s="11"/>
+      <c r="E255" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F255" s="11">
+        <v>344503</v>
+      </c>
+      <c r="G255" s="11">
+        <v>343750</v>
+      </c>
+      <c r="H255" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I255" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="256" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B256" s="1"/>
+      <c r="C256" s="1"/>
+      <c r="D256" s="1"/>
+      <c r="E256" s="1"/>
+      <c r="F256" s="1"/>
+      <c r="G256" s="1"/>
+      <c r="H256" s="1"/>
+      <c r="I256" s="1"/>
+    </row>
+    <row r="257" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B257" s="1"/>
+      <c r="C257" s="1"/>
+      <c r="D257" s="1"/>
+      <c r="E257" s="1"/>
+      <c r="F257" s="1"/>
+      <c r="G257" s="1"/>
+      <c r="H257" s="1"/>
+      <c r="I257" s="1"/>
+    </row>
+    <row r="258" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B258" s="1"/>
+      <c r="C258" s="1"/>
+      <c r="D258" s="1"/>
+      <c r="E258" s="1"/>
+      <c r="F258" s="1"/>
+      <c r="G258" s="1"/>
+      <c r="H258" s="1"/>
+      <c r="I258" s="1"/>
+    </row>
+    <row r="259" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B259" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C259" s="6"/>
+      <c r="D259" s="6"/>
+      <c r="E259" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F259" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G259" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H259" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I259" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="260" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B260" s="1"/>
+      <c r="C260" s="1"/>
+      <c r="D260" s="1"/>
+      <c r="E260" s="1"/>
+      <c r="F260" s="1"/>
+      <c r="G260" s="1"/>
+      <c r="H260" s="1"/>
+      <c r="I260" s="1"/>
+    </row>
+    <row r="261" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B261" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C261" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D261" s="9"/>
+      <c r="E261" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F261" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G261" s="9">
+        <v>913408</v>
+      </c>
+      <c r="H261" s="9">
+        <v>1505526</v>
+      </c>
+      <c r="I261" s="9">
+        <v>2400905</v>
+      </c>
+    </row>
+    <row r="262" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B262" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C262" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D262" s="11"/>
+      <c r="E262" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F262" s="11">
+        <v>390142</v>
+      </c>
+      <c r="G262" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H262" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I262" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="263" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B263" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C263" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D263" s="9"/>
+      <c r="E263" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F263" s="9">
+        <v>702432</v>
+      </c>
+      <c r="G263" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H263" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I263" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="264" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B264" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C264" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D264" s="11"/>
+      <c r="E264" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F264" s="11">
+        <v>87095</v>
+      </c>
+      <c r="G264" s="11">
+        <v>87060</v>
+      </c>
+      <c r="H264" s="11">
+        <v>87121</v>
+      </c>
+      <c r="I264" s="11">
+        <v>87121</v>
+      </c>
+    </row>
+    <row r="265" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B265" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C265" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D265" s="9"/>
+      <c r="E265" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F265" s="9">
+        <v>31719</v>
+      </c>
+      <c r="G265" s="9">
+        <v>44518</v>
+      </c>
+      <c r="H265" s="9">
+        <v>87445</v>
+      </c>
+      <c r="I265" s="9">
+        <v>219769</v>
+      </c>
+    </row>
+    <row r="266" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B266" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C266" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D266" s="11"/>
+      <c r="E266" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F266" s="11">
+        <v>137615</v>
+      </c>
+      <c r="G266" s="11">
+        <v>183525</v>
+      </c>
+      <c r="H266" s="11">
+        <v>183938</v>
+      </c>
+      <c r="I266" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="267" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B267" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C267" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D267" s="9"/>
+      <c r="E267" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F267" s="9">
+        <v>172428</v>
+      </c>
+      <c r="G267" s="9">
+        <v>391063</v>
+      </c>
+      <c r="H267" s="9">
+        <v>502878</v>
+      </c>
+      <c r="I267" s="9">
+        <v>553535</v>
+      </c>
+    </row>
+    <row r="268" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B268" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C268" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D268" s="11"/>
+      <c r="E268" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F268" s="11">
+        <v>114893</v>
+      </c>
+      <c r="G268" s="11">
+        <v>204954</v>
+      </c>
+      <c r="H268" s="11">
+        <v>377051</v>
+      </c>
+      <c r="I268" s="11">
+        <v>507165</v>
+      </c>
+    </row>
+    <row r="269" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B269" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C269" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D269" s="9"/>
+      <c r="E269" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F269" s="9">
+        <v>46133</v>
+      </c>
+      <c r="G269" s="9">
+        <v>68148</v>
+      </c>
+      <c r="H269" s="9">
+        <v>119024</v>
+      </c>
+      <c r="I269" s="9">
+        <v>251227</v>
+      </c>
+    </row>
+    <row r="270" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B270" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C270" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D270" s="11"/>
+      <c r="E270" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F270" s="11">
+        <v>110056</v>
+      </c>
+      <c r="G270" s="11">
+        <v>110056</v>
+      </c>
+      <c r="H270" s="11">
+        <v>110039</v>
+      </c>
+      <c r="I270" s="11">
+        <v>110764</v>
+      </c>
+    </row>
+    <row r="271" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B271" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C271" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D271" s="9"/>
+      <c r="E271" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F271" s="9">
+        <v>202715</v>
+      </c>
+      <c r="G271" s="9">
+        <v>384227</v>
+      </c>
+      <c r="H271" s="9">
+        <v>420430</v>
+      </c>
+      <c r="I271" s="9">
+        <v>643529</v>
+      </c>
+    </row>
+    <row r="272" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B272" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C272" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D272" s="11"/>
+      <c r="E272" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F272" s="11">
+        <v>173144</v>
+      </c>
+      <c r="G272" s="11">
+        <v>294565</v>
+      </c>
+      <c r="H272" s="11">
+        <v>660609</v>
+      </c>
+      <c r="I272" s="11">
+        <v>1281166</v>
+      </c>
+    </row>
+    <row r="273" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B273" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C273" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D273" s="9"/>
+      <c r="E273" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F273" s="9">
+        <v>91055</v>
+      </c>
+      <c r="G273" s="9">
+        <v>145989</v>
+      </c>
+      <c r="H273" s="9">
+        <v>226716</v>
+      </c>
+      <c r="I273" s="9">
+        <v>423810</v>
+      </c>
+    </row>
+    <row r="274" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B274" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C274" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D274" s="11"/>
+      <c r="E274" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F274" s="11">
+        <v>344386</v>
+      </c>
+      <c r="G274" s="11">
+        <v>344566</v>
+      </c>
+      <c r="H274" s="11">
+        <v>344566</v>
+      </c>
+      <c r="I274" s="11">
+        <v>344566</v>
+      </c>
+    </row>
+    <row r="275" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B275" s="1"/>
+      <c r="C275" s="1"/>
+      <c r="D275" s="1"/>
+      <c r="E275" s="1"/>
+      <c r="F275" s="1"/>
+      <c r="G275" s="1"/>
+      <c r="H275" s="1"/>
+      <c r="I275" s="1"/>
+    </row>
+    <row r="276" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B276" s="1"/>
+      <c r="C276" s="1"/>
+      <c r="D276" s="1"/>
+      <c r="E276" s="1"/>
+      <c r="F276" s="1"/>
+      <c r="G276" s="1"/>
+      <c r="H276" s="1"/>
+      <c r="I276" s="1"/>
+    </row>
+    <row r="277" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B277" s="1"/>
+      <c r="C277" s="1"/>
+      <c r="D277" s="1"/>
+      <c r="E277" s="1"/>
+      <c r="F277" s="1"/>
+      <c r="G277" s="1"/>
+      <c r="H277" s="1"/>
+      <c r="I277" s="1"/>
+    </row>
+    <row r="278" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B278" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C278" s="6"/>
+      <c r="D278" s="6"/>
+      <c r="E278" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F278" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G278" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H278" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I278" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="279" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B279" s="1"/>
+      <c r="C279" s="1"/>
+      <c r="D279" s="1"/>
+      <c r="E279" s="1"/>
+      <c r="F279" s="1"/>
+      <c r="G279" s="1"/>
+      <c r="H279" s="1"/>
+      <c r="I279" s="1"/>
+    </row>
+    <row r="280" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B280" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C280" s="9"/>
+      <c r="D280" s="9"/>
+      <c r="E280" s="9">
+        <v>0</v>
+      </c>
+      <c r="F280" s="9">
+        <v>0</v>
+      </c>
+      <c r="G280" s="9">
+        <v>0</v>
+      </c>
+      <c r="H280" s="9">
+        <v>0</v>
+      </c>
+      <c r="I280" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B281" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C281" s="11"/>
+      <c r="D281" s="11"/>
+      <c r="E281" s="11">
+        <v>0</v>
+      </c>
+      <c r="F281" s="11">
+        <v>0</v>
+      </c>
+      <c r="G281" s="11">
+        <v>0</v>
+      </c>
+      <c r="H281" s="11">
+        <v>0</v>
+      </c>
+      <c r="I281" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B282" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C282" s="9"/>
+      <c r="D282" s="9"/>
+      <c r="E282" s="9">
+        <v>0</v>
+      </c>
+      <c r="F282" s="9">
+        <v>0</v>
+      </c>
+      <c r="G282" s="9">
+        <v>0</v>
+      </c>
+      <c r="H282" s="9">
+        <v>0</v>
+      </c>
+      <c r="I282" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B283" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="D142" s="11"/>
-      <c r="E142" s="11"/>
-      <c r="F142" s="11"/>
+      <c r="C283" s="11"/>
+      <c r="D283" s="11"/>
+      <c r="E283" s="11">
+        <v>0</v>
+      </c>
+      <c r="F283" s="11">
+        <v>0</v>
+      </c>
+      <c r="G283" s="11">
+        <v>0</v>
+      </c>
+      <c r="H283" s="11">
+        <v>0</v>
+      </c>
+      <c r="I283" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B284" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C284" s="9"/>
+      <c r="D284" s="9"/>
+      <c r="E284" s="9">
+        <v>153708</v>
+      </c>
+      <c r="F284" s="9">
+        <v>238964</v>
+      </c>
+      <c r="G284" s="9">
+        <v>386678</v>
+      </c>
+      <c r="H284" s="9">
+        <v>470395</v>
+      </c>
+      <c r="I284" s="9">
+        <v>744136</v>
+      </c>
+    </row>
+    <row r="285" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B285" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C285" s="11"/>
+      <c r="D285" s="11"/>
+      <c r="E285" s="11">
+        <v>234237</v>
+      </c>
+      <c r="F285" s="11">
+        <v>295645</v>
+      </c>
+      <c r="G285" s="11">
+        <v>360935</v>
+      </c>
+      <c r="H285" s="11">
+        <v>426827</v>
+      </c>
+      <c r="I285" s="11">
+        <v>1352179</v>
+      </c>
+    </row>
+    <row r="286" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B286" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C286" s="9"/>
+      <c r="D286" s="9"/>
+      <c r="E286" s="9">
+        <v>295648</v>
+      </c>
+      <c r="F286" s="9">
+        <v>60048</v>
+      </c>
+      <c r="G286" s="9">
+        <v>53545</v>
+      </c>
+      <c r="H286" s="9">
+        <v>54489</v>
+      </c>
+      <c r="I286" s="9">
+        <v>58269</v>
+      </c>
+    </row>
+    <row r="287" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B287" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C287" s="11"/>
+      <c r="D287" s="11"/>
+      <c r="E287" s="11">
+        <v>289163</v>
+      </c>
+      <c r="F287" s="11">
+        <v>339275</v>
+      </c>
+      <c r="G287" s="11">
+        <v>475564</v>
+      </c>
+      <c r="H287" s="11">
+        <v>611403</v>
+      </c>
+      <c r="I287" s="11">
+        <v>1006515</v>
+      </c>
+    </row>
+    <row r="288" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B288" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C288" s="9"/>
+      <c r="D288" s="9"/>
+      <c r="E288" s="9">
+        <v>0</v>
+      </c>
+      <c r="F288" s="9">
+        <v>0</v>
+      </c>
+      <c r="G288" s="9">
+        <v>0</v>
+      </c>
+      <c r="H288" s="9">
+        <v>0</v>
+      </c>
+      <c r="I288" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B289" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C289" s="11"/>
+      <c r="D289" s="11"/>
+      <c r="E289" s="11">
+        <v>192209</v>
+      </c>
+      <c r="F289" s="11">
+        <v>254352</v>
+      </c>
+      <c r="G289" s="11">
+        <v>367126</v>
+      </c>
+      <c r="H289" s="11">
+        <v>702181</v>
+      </c>
+      <c r="I289" s="11">
+        <v>1176207</v>
+      </c>
+    </row>
+    <row r="290" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B290" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C290" s="15"/>
+      <c r="D290" s="15"/>
+      <c r="E290" s="15">
+        <v>1164965</v>
+      </c>
+      <c r="F290" s="15">
+        <v>1188284</v>
+      </c>
+      <c r="G290" s="15">
+        <v>1643848</v>
+      </c>
+      <c r="H290" s="15">
+        <v>2265295</v>
+      </c>
+      <c r="I290" s="15">
+        <v>4337306</v>
+      </c>
+    </row>
+    <row r="294" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B294" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C294" s="6"/>
+      <c r="D294" s="6"/>
+      <c r="E294" s="6"/>
+      <c r="F294" s="6"/>
+    </row>
+    <row r="296" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B296" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C296" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D296" s="9"/>
+      <c r="E296" s="9"/>
+      <c r="F296" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/siman/save/cost/quarterly.xlsx
+++ b/database/industries/siman/save/cost/quarterly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\siman\save\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\IDM\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F9DE687-3214-4A3F-B67D-0FB93A5D8B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="84">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>ساوه-سیمان ساوه</t>
@@ -160,6 +161,33 @@
   </si>
   <si>
     <t>مقدار موجودی پایان دوره</t>
+  </si>
+  <si>
+    <t>مبلغ موجودی اول دوره</t>
+  </si>
+  <si>
+    <t>مبلغ خرید طی دوره</t>
+  </si>
+  <si>
+    <t>مبلغ مصرف طی دوره</t>
+  </si>
+  <si>
+    <t>مبلغ موجودی پایان دوره</t>
+  </si>
+  <si>
+    <t>نرخ موجودی اول دوره</t>
+  </si>
+  <si>
+    <t>تن / ریال</t>
+  </si>
+  <si>
+    <t>نرخ خرید طی دوره</t>
+  </si>
+  <si>
+    <t>نرخ مصرف طی دوره</t>
+  </si>
+  <si>
+    <t>نرخ موجودی پایان دوره</t>
   </si>
   <si>
     <t>هزینه سربار</t>
@@ -250,7 +278,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -420,7 +448,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -432,7 +460,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -479,6 +507,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -514,6 +559,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -665,17 +727,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I142"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:I305"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -685,7 +747,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -697,7 +759,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -709,7 +771,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -719,7 +781,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -731,7 +793,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -743,7 +805,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -753,7 +815,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -775,7 +837,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -785,7 +847,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
@@ -807,7 +869,7 @@
         <v>440809</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>10</v>
       </c>
@@ -829,7 +891,7 @@
         <v>71591</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
@@ -851,7 +913,7 @@
         <v>1649027</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>12</v>
       </c>
@@ -873,7 +935,7 @@
         <v>2161427</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>13</v>
       </c>
@@ -895,7 +957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>14</v>
       </c>
@@ -917,7 +979,7 @@
         <v>2161427</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>15</v>
       </c>
@@ -939,7 +1001,7 @@
         <v>-474627</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>16</v>
       </c>
@@ -961,7 +1023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>17</v>
       </c>
@@ -983,7 +1045,7 @@
         <v>1686800</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>18</v>
       </c>
@@ -1005,7 +1067,7 @@
         <v>97022</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>19</v>
       </c>
@@ -1027,7 +1089,7 @@
         <v>-55518</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>20</v>
       </c>
@@ -1049,7 +1111,7 @@
         <v>1728304</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>21</v>
       </c>
@@ -1071,7 +1133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>22</v>
       </c>
@@ -1093,7 +1155,7 @@
         <v>1728304</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1103,7 +1165,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1113,7 +1175,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1123,7 +1185,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>23</v>
       </c>
@@ -1145,7 +1207,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1155,7 +1217,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>24</v>
       </c>
@@ -1179,7 +1241,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>27</v>
       </c>
@@ -1203,7 +1265,7 @@
         <v>89697</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>28</v>
       </c>
@@ -1227,7 +1289,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>29</v>
       </c>
@@ -1251,7 +1313,7 @@
         <v>5628</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>30</v>
       </c>
@@ -1275,7 +1337,7 @@
         <v>151539</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>31</v>
       </c>
@@ -1299,7 +1361,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
         <v>32</v>
       </c>
@@ -1323,7 +1385,7 @@
         <v>34693</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>33</v>
       </c>
@@ -1347,7 +1409,7 @@
         <v>40638</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
         <v>34</v>
       </c>
@@ -1371,7 +1433,7 @@
         <v>264150</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>35</v>
       </c>
@@ -1395,7 +1457,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
         <v>36</v>
       </c>
@@ -1419,7 +1481,7 @@
         <v>6521</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>37</v>
       </c>
@@ -1443,7 +1505,7 @@
         <v>76578</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="8" t="s">
         <v>38</v>
       </c>
@@ -1467,7 +1529,7 @@
         <v>88729</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
         <v>39</v>
       </c>
@@ -1491,7 +1553,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="8" t="s">
         <v>41</v>
       </c>
@@ -1515,7 +1577,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
         <v>42</v>
       </c>
@@ -1539,7 +1601,7 @@
         <v>2374</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
         <v>12</v>
       </c>
@@ -1561,7 +1623,7 @@
         <v>760722</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1571,7 +1633,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1581,7 +1643,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1591,7 +1653,7 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B49" s="7" t="s">
         <v>43</v>
       </c>
@@ -1613,7 +1675,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1623,7 +1685,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="8" t="s">
         <v>24</v>
       </c>
@@ -1647,7 +1709,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>27</v>
       </c>
@@ -1671,7 +1733,7 @@
         <v>70338</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
         <v>28</v>
       </c>
@@ -1695,7 +1757,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>29</v>
       </c>
@@ -1719,7 +1781,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="8" t="s">
         <v>30</v>
       </c>
@@ -1743,7 +1805,7 @@
         <v>419147</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>31</v>
       </c>
@@ -1767,7 +1829,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
         <v>32</v>
       </c>
@@ -1791,7 +1853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="10" t="s">
         <v>33</v>
       </c>
@@ -1815,7 +1877,7 @@
         <v>4407</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="8" t="s">
         <v>34</v>
       </c>
@@ -1839,7 +1901,7 @@
         <v>558270</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="10" t="s">
         <v>35</v>
       </c>
@@ -1863,7 +1925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="s">
         <v>36</v>
       </c>
@@ -1887,7 +1949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="10" t="s">
         <v>37</v>
       </c>
@@ -1911,7 +1973,7 @@
         <v>31749</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="8" t="s">
         <v>38</v>
       </c>
@@ -1935,7 +1997,7 @@
         <v>158075</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="10" t="s">
         <v>39</v>
       </c>
@@ -1959,7 +2021,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="8" t="s">
         <v>41</v>
       </c>
@@ -1983,7 +2045,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="10" t="s">
         <v>42</v>
       </c>
@@ -2007,7 +2069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="14" t="s">
         <v>12</v>
       </c>
@@ -2029,7 +2091,7 @@
         <v>1242507</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -2039,7 +2101,7 @@
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -2049,7 +2111,7 @@
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -2059,7 +2121,7 @@
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
     </row>
-    <row r="71" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B71" s="7" t="s">
         <v>45</v>
       </c>
@@ -2081,7 +2143,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -2091,7 +2153,7 @@
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="8" t="s">
         <v>24</v>
       </c>
@@ -2115,7 +2177,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="10" t="s">
         <v>27</v>
       </c>
@@ -2139,7 +2201,7 @@
         <v>20887</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="8" t="s">
         <v>28</v>
       </c>
@@ -2163,7 +2225,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="10" t="s">
         <v>29</v>
       </c>
@@ -2187,7 +2249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="s">
         <v>30</v>
       </c>
@@ -2211,7 +2273,7 @@
         <v>419147</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="10" t="s">
         <v>31</v>
       </c>
@@ -2235,7 +2297,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="8" t="s">
         <v>32</v>
       </c>
@@ -2259,7 +2321,7 @@
         <v>21770</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="10" t="s">
         <v>33</v>
       </c>
@@ -2283,7 +2345,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="8" t="s">
         <v>34</v>
       </c>
@@ -2307,7 +2369,7 @@
         <v>538265</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="10" t="s">
         <v>35</v>
       </c>
@@ -2331,7 +2393,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="8" t="s">
         <v>36</v>
       </c>
@@ -2355,7 +2417,7 @@
         <v>3752</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="10" t="s">
         <v>37</v>
       </c>
@@ -2379,7 +2441,7 @@
         <v>20983</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>38</v>
       </c>
@@ -2403,7 +2465,7 @@
         <v>108660</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="10" t="s">
         <v>39</v>
       </c>
@@ -2427,7 +2489,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="8" t="s">
         <v>41</v>
       </c>
@@ -2451,7 +2513,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="10" t="s">
         <v>42</v>
       </c>
@@ -2475,7 +2537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="14" t="s">
         <v>12</v>
       </c>
@@ -2497,7 +2559,7 @@
         <v>1135262</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -2507,7 +2569,7 @@
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -2517,7 +2579,7 @@
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -2527,7 +2589,7 @@
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
     </row>
-    <row r="93" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B93" s="7" t="s">
         <v>46</v>
       </c>
@@ -2549,7 +2611,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -2559,7 +2621,7 @@
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="8" t="s">
         <v>24</v>
       </c>
@@ -2583,7 +2645,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="10" t="s">
         <v>27</v>
       </c>
@@ -2607,7 +2669,7 @@
         <v>139148</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="8" t="s">
         <v>28</v>
       </c>
@@ -2631,7 +2693,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="10" t="s">
         <v>29</v>
       </c>
@@ -2655,7 +2717,7 @@
         <v>6149</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="8" t="s">
         <v>30</v>
       </c>
@@ -2679,7 +2741,7 @@
         <v>151539</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="10" t="s">
         <v>31</v>
       </c>
@@ -2703,7 +2765,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="8" t="s">
         <v>32</v>
       </c>
@@ -2727,7 +2789,7 @@
         <v>12923</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="10" t="s">
         <v>33</v>
       </c>
@@ -2751,7 +2813,7 @@
         <v>43337</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="8" t="s">
         <v>34</v>
       </c>
@@ -2775,7 +2837,7 @@
         <v>284156</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B104" s="10" t="s">
         <v>35</v>
       </c>
@@ -2799,7 +2861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B105" s="8" t="s">
         <v>36</v>
       </c>
@@ -2823,7 +2885,7 @@
         <v>2709</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B106" s="10" t="s">
         <v>37</v>
       </c>
@@ -2847,7 +2909,7 @@
         <v>87344</v>
       </c>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B107" s="8" t="s">
         <v>38</v>
       </c>
@@ -2871,7 +2933,7 @@
         <v>138144</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B108" s="10" t="s">
         <v>39</v>
       </c>
@@ -2895,7 +2957,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B109" s="8" t="s">
         <v>41</v>
       </c>
@@ -2919,7 +2981,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B110" s="10" t="s">
         <v>42</v>
       </c>
@@ -2943,7 +3005,7 @@
         <v>2374</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B111" s="14" t="s">
         <v>12</v>
       </c>
@@ -2965,7 +3027,7 @@
         <v>867823</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -2975,7 +3037,7 @@
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -2985,7 +3047,7 @@
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -2995,7 +3057,7 @@
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
     </row>
-    <row r="115" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B115" s="7" t="s">
         <v>47</v>
       </c>
@@ -3017,7 +3079,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -3027,430 +3089,3839 @@
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B117" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C117" s="9"/>
+        <v>24</v>
+      </c>
+      <c r="C117" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="D117" s="9"/>
       <c r="E117" s="9">
-        <v>0</v>
+        <v>29721</v>
       </c>
       <c r="F117" s="9">
-        <v>0</v>
-      </c>
-      <c r="G117" s="9">
-        <v>0</v>
-      </c>
-      <c r="H117" s="9">
-        <v>0</v>
-      </c>
-      <c r="I117" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+        <v>145443</v>
+      </c>
+      <c r="G117" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H117" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I117" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B118" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C118" s="11"/>
+        <v>27</v>
+      </c>
+      <c r="C118" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="D118" s="11"/>
-      <c r="E118" s="11">
-        <v>0</v>
-      </c>
-      <c r="F118" s="11">
-        <v>0</v>
-      </c>
-      <c r="G118" s="11">
-        <v>0</v>
+      <c r="E118" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F118" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G118" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="H118" s="11">
-        <v>0</v>
+        <v>143819</v>
       </c>
       <c r="I118" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+        <v>278280</v>
+      </c>
+    </row>
+    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B119" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C119" s="9"/>
+        <v>28</v>
+      </c>
+      <c r="C119" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="D119" s="9"/>
-      <c r="E119" s="9">
-        <v>0</v>
-      </c>
-      <c r="F119" s="9">
-        <v>0</v>
-      </c>
-      <c r="G119" s="9">
-        <v>0</v>
-      </c>
-      <c r="H119" s="9">
-        <v>0</v>
-      </c>
-      <c r="I119" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E119" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F119" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G119" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H119" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I119" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B120" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C120" s="11"/>
+        <v>29</v>
+      </c>
+      <c r="C120" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="D120" s="11"/>
       <c r="E120" s="11">
-        <v>0</v>
+        <v>851</v>
       </c>
       <c r="F120" s="11">
-        <v>0</v>
-      </c>
-      <c r="G120" s="11">
-        <v>0</v>
+        <v>851</v>
+      </c>
+      <c r="G120" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="H120" s="11">
-        <v>0</v>
+        <v>851</v>
       </c>
       <c r="I120" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B121" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C121" s="9"/>
+        <v>30</v>
+      </c>
+      <c r="C121" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="D121" s="9"/>
       <c r="E121" s="9">
-        <v>182823</v>
+        <v>19225</v>
       </c>
       <c r="F121" s="9">
-        <v>190418</v>
-      </c>
-      <c r="G121" s="9">
-        <v>153030</v>
+        <v>14736</v>
+      </c>
+      <c r="G121" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="H121" s="9">
-        <v>211626</v>
+        <v>36054</v>
       </c>
       <c r="I121" s="9">
-        <v>384118</v>
-      </c>
-    </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+        <v>35170</v>
+      </c>
+    </row>
+    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B122" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C122" s="11"/>
+        <v>31</v>
+      </c>
+      <c r="C122" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="D122" s="11"/>
       <c r="E122" s="11">
-        <v>207043</v>
+        <v>4137</v>
       </c>
       <c r="F122" s="11">
-        <v>449390</v>
-      </c>
-      <c r="G122" s="11">
-        <v>505179</v>
-      </c>
-      <c r="H122" s="11">
-        <v>448393</v>
-      </c>
-      <c r="I122" s="11">
-        <v>540687</v>
-      </c>
-    </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+        <v>4138</v>
+      </c>
+      <c r="G122" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H122" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I122" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B123" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C123" s="9"/>
+        <v>32</v>
+      </c>
+      <c r="C123" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="D123" s="9"/>
       <c r="E123" s="9">
-        <v>14713</v>
+        <v>31744</v>
       </c>
       <c r="F123" s="9">
-        <v>15506</v>
-      </c>
-      <c r="G123" s="9">
-        <v>14931</v>
+        <v>25307</v>
+      </c>
+      <c r="G123" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="H123" s="9">
-        <v>14613</v>
+        <v>31691</v>
       </c>
       <c r="I123" s="9">
-        <v>14447</v>
-      </c>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+        <v>19203</v>
+      </c>
+    </row>
+    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B124" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C124" s="11"/>
+        <v>33</v>
+      </c>
+      <c r="C124" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="D124" s="11"/>
       <c r="E124" s="11">
-        <v>221476</v>
+        <v>16880</v>
       </c>
       <c r="F124" s="11">
-        <v>228411</v>
-      </c>
-      <c r="G124" s="11">
-        <v>298787</v>
+        <v>15581</v>
+      </c>
+      <c r="G124" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="H124" s="11">
-        <v>506581</v>
+        <v>15253</v>
       </c>
       <c r="I124" s="11">
-        <v>372136</v>
-      </c>
-    </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+        <v>21997</v>
+      </c>
+    </row>
+    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B125" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C125" s="9"/>
+        <v>34</v>
+      </c>
+      <c r="C125" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="D125" s="9"/>
       <c r="E125" s="9">
-        <v>0</v>
+        <v>48807</v>
       </c>
       <c r="F125" s="9">
-        <v>0</v>
-      </c>
-      <c r="G125" s="9">
-        <v>0</v>
+        <v>48890</v>
+      </c>
+      <c r="G125" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="H125" s="9">
-        <v>0</v>
+        <v>56744</v>
       </c>
       <c r="I125" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+        <v>72930</v>
+      </c>
+    </row>
+    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B126" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C126" s="11"/>
+        <v>35</v>
+      </c>
+      <c r="C126" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="D126" s="11"/>
       <c r="E126" s="11">
-        <v>179674</v>
+        <v>274</v>
       </c>
       <c r="F126" s="11">
-        <v>289121</v>
-      </c>
-      <c r="G126" s="11">
-        <v>464029</v>
+        <v>274</v>
+      </c>
+      <c r="G126" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="H126" s="11">
-        <v>337041</v>
+        <v>142</v>
       </c>
       <c r="I126" s="11">
-        <v>337639</v>
-      </c>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B127" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B127" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C127" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D127" s="9"/>
+      <c r="E127" s="9">
+        <v>1994</v>
+      </c>
+      <c r="F127" s="9">
+        <v>13251</v>
+      </c>
+      <c r="G127" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H127" s="9">
+        <v>5405</v>
+      </c>
+      <c r="I127" s="9">
+        <v>4196</v>
+      </c>
+    </row>
+    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B128" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C128" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D128" s="11"/>
+      <c r="E128" s="11">
+        <v>56593</v>
+      </c>
+      <c r="F128" s="11">
+        <v>105946</v>
+      </c>
+      <c r="G128" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H128" s="11">
+        <v>123425</v>
+      </c>
+      <c r="I128" s="11">
+        <v>96785</v>
+      </c>
+    </row>
+    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B129" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C129" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D129" s="9"/>
+      <c r="E129" s="9">
+        <v>17984</v>
+      </c>
+      <c r="F129" s="9">
+        <v>34567</v>
+      </c>
+      <c r="G129" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H129" s="9">
+        <v>60053</v>
+      </c>
+      <c r="I129" s="9">
+        <v>38614</v>
+      </c>
+    </row>
+    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B130" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C130" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D130" s="11"/>
+      <c r="E130" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F130" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G130" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H130" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I130" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B131" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C131" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D131" s="9"/>
+      <c r="E131" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F131" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G131" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H131" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I131" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B132" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C132" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D132" s="11"/>
+      <c r="E132" s="11">
+        <v>818</v>
+      </c>
+      <c r="F132" s="11">
+        <v>818</v>
+      </c>
+      <c r="G132" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H132" s="11">
+        <v>818</v>
+      </c>
+      <c r="I132" s="11">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B133" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C127" s="15"/>
-      <c r="D127" s="15"/>
-      <c r="E127" s="15">
-        <v>805729</v>
-      </c>
-      <c r="F127" s="15">
-        <v>1172846</v>
-      </c>
-      <c r="G127" s="15">
-        <v>1435956</v>
-      </c>
-      <c r="H127" s="15">
-        <v>1518254</v>
-      </c>
-      <c r="I127" s="15">
-        <v>1649027</v>
-      </c>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B128" s="1"/>
-      <c r="C128" s="1"/>
-      <c r="D128" s="1"/>
-      <c r="E128" s="1"/>
-      <c r="F128" s="1"/>
-      <c r="G128" s="1"/>
-      <c r="H128" s="1"/>
-      <c r="I128" s="1"/>
-    </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B129" s="1"/>
-      <c r="C129" s="1"/>
-      <c r="D129" s="1"/>
-      <c r="E129" s="1"/>
-      <c r="F129" s="1"/>
-      <c r="G129" s="1"/>
-      <c r="H129" s="1"/>
-      <c r="I129" s="1"/>
-    </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B130" s="1"/>
-      <c r="C130" s="1"/>
-      <c r="D130" s="1"/>
-      <c r="E130" s="1"/>
-      <c r="F130" s="1"/>
-      <c r="G130" s="1"/>
-      <c r="H130" s="1"/>
-      <c r="I130" s="1"/>
-    </row>
-    <row r="131" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B131" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C131" s="6"/>
-      <c r="D131" s="6"/>
-      <c r="E131" s="6"/>
-      <c r="F131" s="6"/>
-      <c r="G131" s="1"/>
-      <c r="H131" s="1"/>
-      <c r="I131" s="1"/>
-    </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B132" s="1"/>
-      <c r="C132" s="1"/>
-      <c r="D132" s="1"/>
-      <c r="E132" s="1"/>
-      <c r="F132" s="1"/>
-      <c r="G132" s="1"/>
-      <c r="H132" s="1"/>
-      <c r="I132" s="1"/>
-    </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B133" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C133" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D133" s="9"/>
-      <c r="E133" s="9"/>
-      <c r="F133" s="9"/>
-      <c r="G133" s="1"/>
-      <c r="H133" s="1"/>
-      <c r="I133" s="1"/>
-    </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B134" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C134" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D134" s="11"/>
-      <c r="E134" s="11"/>
-      <c r="F134" s="11"/>
+      <c r="C133" s="15"/>
+      <c r="D133" s="15"/>
+      <c r="E133" s="15">
+        <v>229028</v>
+      </c>
+      <c r="F133" s="15">
+        <v>409802</v>
+      </c>
+      <c r="G133" s="15">
+        <v>0</v>
+      </c>
+      <c r="H133" s="15">
+        <v>474255</v>
+      </c>
+      <c r="I133" s="15">
+        <v>568503</v>
+      </c>
+    </row>
+    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B134" s="1"/>
+      <c r="C134" s="1"/>
+      <c r="D134" s="1"/>
+      <c r="E134" s="1"/>
+      <c r="F134" s="1"/>
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
       <c r="I134" s="1"/>
     </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B135" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C135" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D135" s="9"/>
-      <c r="E135" s="9"/>
-      <c r="F135" s="9"/>
+    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B135" s="1"/>
+      <c r="C135" s="1"/>
+      <c r="D135" s="1"/>
+      <c r="E135" s="1"/>
+      <c r="F135" s="1"/>
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
       <c r="I135" s="1"/>
     </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B136" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C136" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D136" s="11"/>
-      <c r="E136" s="11"/>
-      <c r="F136" s="11"/>
+    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B136" s="1"/>
+      <c r="C136" s="1"/>
+      <c r="D136" s="1"/>
+      <c r="E136" s="1"/>
+      <c r="F136" s="1"/>
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
       <c r="I136" s="1"/>
     </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B137" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C137" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D137" s="9"/>
-      <c r="E137" s="9"/>
-      <c r="F137" s="9"/>
-      <c r="G137" s="1"/>
-      <c r="H137" s="1"/>
-      <c r="I137" s="1"/>
-    </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B138" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C138" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="D138" s="11"/>
-      <c r="E138" s="11"/>
-      <c r="F138" s="11"/>
+    <row r="137" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B137" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C137" s="6"/>
+      <c r="D137" s="6"/>
+      <c r="E137" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F137" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G137" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H137" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I137" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B138" s="1"/>
+      <c r="C138" s="1"/>
+      <c r="D138" s="1"/>
+      <c r="E138" s="1"/>
+      <c r="F138" s="1"/>
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
       <c r="I138" s="1"/>
     </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B139" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C139" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D139" s="9"/>
+      <c r="E139" s="9">
+        <v>164676</v>
+      </c>
+      <c r="F139" s="9">
+        <v>95838</v>
+      </c>
+      <c r="G139" s="9">
+        <v>36993</v>
+      </c>
+      <c r="H139" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I139" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B140" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C140" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D140" s="11"/>
+      <c r="E140" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F140" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G140" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H140" s="11">
+        <v>194585</v>
+      </c>
+      <c r="I140" s="11">
+        <v>346216</v>
+      </c>
+    </row>
+    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B141" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C141" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D141" s="9"/>
+      <c r="E141" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F141" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G141" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H141" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I141" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B142" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C142" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D142" s="11"/>
+      <c r="E142" s="11">
+        <v>0</v>
+      </c>
+      <c r="F142" s="11">
+        <v>0</v>
+      </c>
+      <c r="G142" s="11">
+        <v>0</v>
+      </c>
+      <c r="H142" s="11">
+        <v>0</v>
+      </c>
+      <c r="I142" s="11">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B143" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C143" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D143" s="9"/>
+      <c r="E143" s="9">
+        <v>24731</v>
+      </c>
+      <c r="F143" s="9">
+        <v>69208</v>
+      </c>
+      <c r="G143" s="9">
+        <v>90623</v>
+      </c>
+      <c r="H143" s="9">
+        <v>83085</v>
+      </c>
+      <c r="I143" s="9">
+        <v>98499</v>
+      </c>
+    </row>
+    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B144" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C144" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D144" s="11"/>
+      <c r="E144" s="11">
+        <v>0</v>
+      </c>
+      <c r="F144" s="11">
+        <v>0</v>
+      </c>
+      <c r="G144" s="11">
+        <v>0</v>
+      </c>
+      <c r="H144" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I144" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B145" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C145" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D145" s="9"/>
+      <c r="E145" s="9">
+        <v>0</v>
+      </c>
+      <c r="F145" s="9">
+        <v>8696</v>
+      </c>
+      <c r="G145" s="9">
+        <v>21951</v>
+      </c>
+      <c r="H145" s="9">
+        <v>0</v>
+      </c>
+      <c r="I145" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B146" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C146" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D146" s="11"/>
+      <c r="E146" s="11">
+        <v>2838</v>
+      </c>
+      <c r="F146" s="11">
+        <v>0</v>
+      </c>
+      <c r="G146" s="11">
+        <v>11412</v>
+      </c>
+      <c r="H146" s="11">
+        <v>9699</v>
+      </c>
+      <c r="I146" s="11">
+        <v>2623</v>
+      </c>
+    </row>
+    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B147" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C147" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D147" s="9"/>
+      <c r="E147" s="9">
+        <v>46050</v>
+      </c>
+      <c r="F147" s="9">
+        <v>82568</v>
+      </c>
+      <c r="G147" s="9">
+        <v>137508</v>
+      </c>
+      <c r="H147" s="9">
+        <v>129042</v>
+      </c>
+      <c r="I147" s="9">
+        <v>157150</v>
+      </c>
+    </row>
+    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B148" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C148" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D148" s="11"/>
+      <c r="E148" s="11">
+        <v>0</v>
+      </c>
+      <c r="F148" s="11">
+        <v>0</v>
+      </c>
+      <c r="G148" s="11">
+        <v>0</v>
+      </c>
+      <c r="H148" s="11">
+        <v>0</v>
+      </c>
+      <c r="I148" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B149" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C149" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D149" s="9"/>
+      <c r="E149" s="9">
+        <v>12898</v>
+      </c>
+      <c r="F149" s="9">
+        <v>0</v>
+      </c>
+      <c r="G149" s="9">
+        <v>-119</v>
+      </c>
+      <c r="H149" s="9">
+        <v>0</v>
+      </c>
+      <c r="I149" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B150" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C150" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D150" s="11"/>
+      <c r="E150" s="11">
+        <v>61274</v>
+      </c>
+      <c r="F150" s="11">
+        <v>65110</v>
+      </c>
+      <c r="G150" s="11">
+        <v>-9593</v>
+      </c>
+      <c r="H150" s="11">
+        <v>475</v>
+      </c>
+      <c r="I150" s="11">
+        <v>43425</v>
+      </c>
+    </row>
+    <row r="151" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B151" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C151" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D151" s="9"/>
+      <c r="E151" s="9">
+        <v>34548</v>
+      </c>
+      <c r="F151" s="9">
+        <v>40561</v>
+      </c>
+      <c r="G151" s="9">
+        <v>63768</v>
+      </c>
+      <c r="H151" s="9">
+        <v>26670</v>
+      </c>
+      <c r="I151" s="9">
+        <v>116964</v>
+      </c>
+    </row>
+    <row r="152" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B152" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C152" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D152" s="11"/>
+      <c r="E152" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F152" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G152" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H152" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I152" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="153" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B153" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C153" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D153" s="9"/>
+      <c r="E153" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F153" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G153" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H153" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I153" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="154" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B154" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C154" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D154" s="11"/>
+      <c r="E154" s="11">
+        <v>0</v>
+      </c>
+      <c r="F154" s="11">
+        <v>0</v>
+      </c>
+      <c r="G154" s="11">
+        <v>0</v>
+      </c>
+      <c r="H154" s="11">
+        <v>0</v>
+      </c>
+      <c r="I154" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B155" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C155" s="15"/>
+      <c r="D155" s="15"/>
+      <c r="E155" s="15">
+        <v>347015</v>
+      </c>
+      <c r="F155" s="15">
+        <v>361981</v>
+      </c>
+      <c r="G155" s="15">
+        <v>352543</v>
+      </c>
+      <c r="H155" s="15">
+        <v>443556</v>
+      </c>
+      <c r="I155" s="15">
+        <v>765450</v>
+      </c>
+    </row>
+    <row r="156" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B156" s="1"/>
+      <c r="C156" s="1"/>
+      <c r="D156" s="1"/>
+      <c r="E156" s="1"/>
+      <c r="F156" s="1"/>
+      <c r="G156" s="1"/>
+      <c r="H156" s="1"/>
+      <c r="I156" s="1"/>
+    </row>
+    <row r="157" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B157" s="1"/>
+      <c r="C157" s="1"/>
+      <c r="D157" s="1"/>
+      <c r="E157" s="1"/>
+      <c r="F157" s="1"/>
+      <c r="G157" s="1"/>
+      <c r="H157" s="1"/>
+      <c r="I157" s="1"/>
+    </row>
+    <row r="158" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B158" s="1"/>
+      <c r="C158" s="1"/>
+      <c r="D158" s="1"/>
+      <c r="E158" s="1"/>
+      <c r="F158" s="1"/>
+      <c r="G158" s="1"/>
+      <c r="H158" s="1"/>
+      <c r="I158" s="1"/>
+    </row>
+    <row r="159" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B159" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C159" s="6"/>
+      <c r="D159" s="6"/>
+      <c r="E159" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F159" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G159" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H159" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I159" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="160" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B160" s="1"/>
+      <c r="C160" s="1"/>
+      <c r="D160" s="1"/>
+      <c r="E160" s="1"/>
+      <c r="F160" s="1"/>
+      <c r="G160" s="1"/>
+      <c r="H160" s="1"/>
+      <c r="I160" s="1"/>
+    </row>
+    <row r="161" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B161" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C161" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D161" s="9"/>
+      <c r="E161" s="9">
+        <v>48953</v>
+      </c>
+      <c r="F161" s="9">
+        <v>58063</v>
+      </c>
+      <c r="G161" s="9">
+        <v>76393</v>
+      </c>
+      <c r="H161" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I161" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="162" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B162" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C162" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D162" s="11"/>
+      <c r="E162" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F162" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G162" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H162" s="11">
+        <v>60124</v>
+      </c>
+      <c r="I162" s="11">
+        <v>86029</v>
+      </c>
+    </row>
+    <row r="163" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B163" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C163" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D163" s="9"/>
+      <c r="E163" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F163" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G163" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H163" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I163" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="164" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B164" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C164" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D164" s="11"/>
+      <c r="E164" s="11">
+        <v>0</v>
+      </c>
+      <c r="F164" s="11">
+        <v>0</v>
+      </c>
+      <c r="G164" s="11">
+        <v>0</v>
+      </c>
+      <c r="H164" s="11">
+        <v>361</v>
+      </c>
+      <c r="I164" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B165" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C165" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D165" s="9"/>
+      <c r="E165" s="9">
+        <v>29220</v>
+      </c>
+      <c r="F165" s="9">
+        <v>61574</v>
+      </c>
+      <c r="G165" s="9">
+        <v>76939</v>
+      </c>
+      <c r="H165" s="9">
+        <v>83969</v>
+      </c>
+      <c r="I165" s="9">
+        <v>98120</v>
+      </c>
+    </row>
+    <row r="166" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B166" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C166" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D166" s="11"/>
+      <c r="E166" s="11">
+        <v>0</v>
+      </c>
+      <c r="F166" s="11">
+        <v>4137</v>
+      </c>
+      <c r="G166" s="11">
+        <v>0</v>
+      </c>
+      <c r="H166" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I166" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="167" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B167" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C167" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D167" s="9"/>
+      <c r="E167" s="9">
+        <v>6437</v>
+      </c>
+      <c r="F167" s="9">
+        <v>11786</v>
+      </c>
+      <c r="G167" s="9">
+        <v>12477</v>
+      </c>
+      <c r="H167" s="9">
+        <v>12488</v>
+      </c>
+      <c r="I167" s="9">
+        <v>12050</v>
+      </c>
+    </row>
+    <row r="168" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B168" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C168" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D168" s="11"/>
+      <c r="E168" s="11">
+        <v>4137</v>
+      </c>
+      <c r="F168" s="11">
+        <v>7363</v>
+      </c>
+      <c r="G168" s="11">
+        <v>4377</v>
+      </c>
+      <c r="H168" s="11">
+        <v>2955</v>
+      </c>
+      <c r="I168" s="11">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="169" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B169" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C169" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D169" s="9"/>
+      <c r="E169" s="9">
+        <v>45967</v>
+      </c>
+      <c r="F169" s="9">
+        <v>100830</v>
+      </c>
+      <c r="G169" s="9">
+        <v>111392</v>
+      </c>
+      <c r="H169" s="9">
+        <v>112856</v>
+      </c>
+      <c r="I169" s="9">
+        <v>150375</v>
+      </c>
+    </row>
+    <row r="170" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B170" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C170" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D170" s="11"/>
+      <c r="E170" s="11">
+        <v>0</v>
+      </c>
+      <c r="F170" s="11">
+        <v>0</v>
+      </c>
+      <c r="G170" s="11">
+        <v>132</v>
+      </c>
+      <c r="H170" s="11">
+        <v>122</v>
+      </c>
+      <c r="I170" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="171" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B171" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C171" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D171" s="9"/>
+      <c r="E171" s="9">
+        <v>1641</v>
+      </c>
+      <c r="F171" s="9">
+        <v>2919</v>
+      </c>
+      <c r="G171" s="9">
+        <v>4808</v>
+      </c>
+      <c r="H171" s="9">
+        <v>1209</v>
+      </c>
+      <c r="I171" s="9">
+        <v>2414</v>
+      </c>
+    </row>
+    <row r="172" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B172" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C172" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D172" s="11"/>
+      <c r="E172" s="11">
+        <v>11921</v>
+      </c>
+      <c r="F172" s="11">
+        <v>28006</v>
+      </c>
+      <c r="G172" s="11">
+        <v>10032</v>
+      </c>
+      <c r="H172" s="11">
+        <v>27115</v>
+      </c>
+      <c r="I172" s="11">
+        <v>25996</v>
+      </c>
+    </row>
+    <row r="173" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B173" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C173" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D173" s="9"/>
+      <c r="E173" s="9">
+        <v>17965</v>
+      </c>
+      <c r="F173" s="9">
+        <v>39381</v>
+      </c>
+      <c r="G173" s="9">
+        <v>39462</v>
+      </c>
+      <c r="H173" s="9">
+        <v>48109</v>
+      </c>
+      <c r="I173" s="9">
+        <v>64881</v>
+      </c>
+    </row>
+    <row r="174" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B174" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C174" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D174" s="11"/>
+      <c r="E174" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F174" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G174" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H174" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I174" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="175" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B175" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C175" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D175" s="9"/>
+      <c r="E175" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F175" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G175" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H175" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I175" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="176" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B176" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C176" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D176" s="11"/>
+      <c r="E176" s="11">
+        <v>0</v>
+      </c>
+      <c r="F176" s="11">
+        <v>0</v>
+      </c>
+      <c r="G176" s="11">
+        <v>0</v>
+      </c>
+      <c r="H176" s="11">
+        <v>0</v>
+      </c>
+      <c r="I176" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B177" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C177" s="15"/>
+      <c r="D177" s="15"/>
+      <c r="E177" s="15">
+        <v>166241</v>
+      </c>
+      <c r="F177" s="15">
+        <v>314059</v>
+      </c>
+      <c r="G177" s="15">
+        <v>336012</v>
+      </c>
+      <c r="H177" s="15">
+        <v>349308</v>
+      </c>
+      <c r="I177" s="15">
+        <v>440809</v>
+      </c>
+    </row>
+    <row r="178" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B178" s="1"/>
+      <c r="C178" s="1"/>
+      <c r="D178" s="1"/>
+      <c r="E178" s="1"/>
+      <c r="F178" s="1"/>
+      <c r="G178" s="1"/>
+      <c r="H178" s="1"/>
+      <c r="I178" s="1"/>
+    </row>
+    <row r="179" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B179" s="1"/>
+      <c r="C179" s="1"/>
+      <c r="D179" s="1"/>
+      <c r="E179" s="1"/>
+      <c r="F179" s="1"/>
+      <c r="G179" s="1"/>
+      <c r="H179" s="1"/>
+      <c r="I179" s="1"/>
+    </row>
+    <row r="180" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B180" s="1"/>
+      <c r="C180" s="1"/>
+      <c r="D180" s="1"/>
+      <c r="E180" s="1"/>
+      <c r="F180" s="1"/>
+      <c r="G180" s="1"/>
+      <c r="H180" s="1"/>
+      <c r="I180" s="1"/>
+    </row>
+    <row r="181" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B181" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C181" s="6"/>
+      <c r="D181" s="6"/>
+      <c r="E181" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F181" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G181" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H181" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I181" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="182" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B182" s="1"/>
+      <c r="C182" s="1"/>
+      <c r="D182" s="1"/>
+      <c r="E182" s="1"/>
+      <c r="F182" s="1"/>
+      <c r="G182" s="1"/>
+      <c r="H182" s="1"/>
+      <c r="I182" s="1"/>
+    </row>
+    <row r="183" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B183" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C183" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D183" s="9"/>
+      <c r="E183" s="9">
+        <v>145443</v>
+      </c>
+      <c r="F183" s="9">
+        <v>183219</v>
+      </c>
+      <c r="G183" s="9">
+        <v>143819</v>
+      </c>
+      <c r="H183" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I183" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="184" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B184" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C184" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D184" s="11"/>
+      <c r="E184" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F184" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G184" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H184" s="11">
+        <v>278280</v>
+      </c>
+      <c r="I184" s="11">
+        <v>538467</v>
+      </c>
+    </row>
+    <row r="185" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B185" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C185" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D185" s="9"/>
+      <c r="E185" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F185" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G185" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H185" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I185" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="186" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B186" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C186" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D186" s="11"/>
+      <c r="E186" s="11">
+        <v>851</v>
+      </c>
+      <c r="F186" s="11">
+        <v>851</v>
+      </c>
+      <c r="G186" s="11">
+        <v>851</v>
+      </c>
+      <c r="H186" s="11">
+        <v>490</v>
+      </c>
+      <c r="I186" s="11">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="187" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B187" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C187" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D187" s="9"/>
+      <c r="E187" s="9">
+        <v>14736</v>
+      </c>
+      <c r="F187" s="9">
+        <v>22370</v>
+      </c>
+      <c r="G187" s="9">
+        <v>36054</v>
+      </c>
+      <c r="H187" s="9">
+        <v>35170</v>
+      </c>
+      <c r="I187" s="9">
+        <v>35549</v>
+      </c>
+    </row>
+    <row r="188" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B188" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C188" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D188" s="11"/>
+      <c r="E188" s="11">
+        <v>4138</v>
+      </c>
+      <c r="F188" s="11">
+        <v>0</v>
+      </c>
+      <c r="G188" s="11">
+        <v>0</v>
+      </c>
+      <c r="H188" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I188" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="189" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B189" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C189" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D189" s="9"/>
+      <c r="E189" s="9">
+        <v>25307</v>
+      </c>
+      <c r="F189" s="9">
+        <v>22217</v>
+      </c>
+      <c r="G189" s="9">
+        <v>31691</v>
+      </c>
+      <c r="H189" s="9">
+        <v>19203</v>
+      </c>
+      <c r="I189" s="9">
+        <v>7153</v>
+      </c>
+    </row>
+    <row r="190" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B190" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C190" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D190" s="11"/>
+      <c r="E190" s="11">
+        <v>15581</v>
+      </c>
+      <c r="F190" s="11">
+        <v>8218</v>
+      </c>
+      <c r="G190" s="11">
+        <v>15253</v>
+      </c>
+      <c r="H190" s="11">
+        <v>21997</v>
+      </c>
+      <c r="I190" s="11">
+        <v>23686</v>
+      </c>
+    </row>
+    <row r="191" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B191" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C191" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D191" s="9"/>
+      <c r="E191" s="9">
+        <v>48890</v>
+      </c>
+      <c r="F191" s="9">
+        <v>30628</v>
+      </c>
+      <c r="G191" s="9">
+        <v>56744</v>
+      </c>
+      <c r="H191" s="9">
+        <v>72930</v>
+      </c>
+      <c r="I191" s="9">
+        <v>79705</v>
+      </c>
+    </row>
+    <row r="192" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B192" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C192" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D192" s="11"/>
+      <c r="E192" s="11">
+        <v>274</v>
+      </c>
+      <c r="F192" s="11">
+        <v>274</v>
+      </c>
+      <c r="G192" s="11">
+        <v>142</v>
+      </c>
+      <c r="H192" s="11">
+        <v>20</v>
+      </c>
+      <c r="I192" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B193" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C193" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D193" s="9"/>
+      <c r="E193" s="9">
+        <v>13251</v>
+      </c>
+      <c r="F193" s="9">
+        <v>10332</v>
+      </c>
+      <c r="G193" s="9">
+        <v>5405</v>
+      </c>
+      <c r="H193" s="9">
+        <v>4196</v>
+      </c>
+      <c r="I193" s="9">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="194" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B194" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C194" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D194" s="11"/>
+      <c r="E194" s="11">
+        <v>105946</v>
+      </c>
+      <c r="F194" s="11">
+        <v>143050</v>
+      </c>
+      <c r="G194" s="11">
+        <v>123425</v>
+      </c>
+      <c r="H194" s="11">
+        <v>96785</v>
+      </c>
+      <c r="I194" s="11">
+        <v>114214</v>
+      </c>
+    </row>
+    <row r="195" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B195" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C195" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D195" s="9"/>
+      <c r="E195" s="9">
+        <v>34567</v>
+      </c>
+      <c r="F195" s="9">
+        <v>35747</v>
+      </c>
+      <c r="G195" s="9">
+        <v>60053</v>
+      </c>
+      <c r="H195" s="9">
+        <v>38614</v>
+      </c>
+      <c r="I195" s="9">
+        <v>90697</v>
+      </c>
+    </row>
+    <row r="196" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B196" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C196" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D196" s="11"/>
+      <c r="E196" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F196" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G196" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H196" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I196" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="197" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B197" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C197" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D197" s="9"/>
+      <c r="E197" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F197" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G197" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H197" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I197" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="198" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B198" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C198" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D198" s="11"/>
+      <c r="E198" s="11">
+        <v>818</v>
+      </c>
+      <c r="F198" s="11">
+        <v>818</v>
+      </c>
+      <c r="G198" s="11">
+        <v>818</v>
+      </c>
+      <c r="H198" s="11">
+        <v>818</v>
+      </c>
+      <c r="I198" s="11">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="199" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B199" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C199" s="15"/>
+      <c r="D199" s="15"/>
+      <c r="E199" s="15">
+        <v>409802</v>
+      </c>
+      <c r="F199" s="15">
+        <v>457724</v>
+      </c>
+      <c r="G199" s="15">
+        <v>474255</v>
+      </c>
+      <c r="H199" s="15">
+        <v>568503</v>
+      </c>
+      <c r="I199" s="15">
+        <v>893134</v>
+      </c>
+    </row>
+    <row r="200" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B200" s="1"/>
+      <c r="C200" s="1"/>
+      <c r="D200" s="1"/>
+      <c r="E200" s="1"/>
+      <c r="F200" s="1"/>
+      <c r="G200" s="1"/>
+      <c r="H200" s="1"/>
+      <c r="I200" s="1"/>
+    </row>
+    <row r="201" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B201" s="1"/>
+      <c r="C201" s="1"/>
+      <c r="D201" s="1"/>
+      <c r="E201" s="1"/>
+      <c r="F201" s="1"/>
+      <c r="G201" s="1"/>
+      <c r="H201" s="1"/>
+      <c r="I201" s="1"/>
+    </row>
+    <row r="202" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B202" s="1"/>
+      <c r="C202" s="1"/>
+      <c r="D202" s="1"/>
+      <c r="E202" s="1"/>
+      <c r="F202" s="1"/>
+      <c r="G202" s="1"/>
+      <c r="H202" s="1"/>
+      <c r="I202" s="1"/>
+    </row>
+    <row r="203" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B203" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C203" s="6"/>
+      <c r="D203" s="6"/>
+      <c r="E203" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F203" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G203" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H203" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I203" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="204" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B204" s="1"/>
+      <c r="C204" s="1"/>
+      <c r="D204" s="1"/>
+      <c r="E204" s="1"/>
+      <c r="F204" s="1"/>
+      <c r="G204" s="1"/>
+      <c r="H204" s="1"/>
+      <c r="I204" s="1"/>
+    </row>
+    <row r="205" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B205" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C205" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D205" s="9"/>
+      <c r="E205" s="9">
+        <v>2792802</v>
+      </c>
+      <c r="F205" s="9">
+        <v>2303464</v>
+      </c>
+      <c r="G205" s="9">
+        <v>2548000</v>
+      </c>
+      <c r="H205" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I205" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="206" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B206" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C206" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D206" s="11"/>
+      <c r="E206" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F206" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G206" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H206" s="11">
+        <v>2400905</v>
+      </c>
+      <c r="I206" s="11">
+        <v>3102445</v>
+      </c>
+    </row>
+    <row r="207" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B207" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C207" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D207" s="9"/>
+      <c r="E207" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F207" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G207" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H207" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I207" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="208" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B208" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C208" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D208" s="11"/>
+      <c r="E208" s="11">
+        <v>87121</v>
+      </c>
+      <c r="F208" s="11">
+        <v>87121</v>
+      </c>
+      <c r="G208" s="11">
+        <v>87121</v>
+      </c>
+      <c r="H208" s="11">
+        <v>87121</v>
+      </c>
+      <c r="I208" s="11">
+        <v>87065</v>
+      </c>
+    </row>
+    <row r="209" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B209" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C209" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D209" s="9"/>
+      <c r="E209" s="9">
+        <v>157347</v>
+      </c>
+      <c r="F209" s="9">
+        <v>157502</v>
+      </c>
+      <c r="G209" s="9">
+        <v>196176</v>
+      </c>
+      <c r="H209" s="9">
+        <v>219769</v>
+      </c>
+      <c r="I209" s="9">
+        <v>232085</v>
+      </c>
+    </row>
+    <row r="210" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B210" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C210" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D210" s="11"/>
+      <c r="E210" s="11">
+        <v>888340</v>
+      </c>
+      <c r="F210" s="11">
+        <v>888555</v>
+      </c>
+      <c r="G210" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H210" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I210" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="211" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B211" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C211" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D211" s="9"/>
+      <c r="E211" s="9">
+        <v>482953</v>
+      </c>
+      <c r="F211" s="9">
+        <v>482949</v>
+      </c>
+      <c r="G211" s="9">
+        <v>507469</v>
+      </c>
+      <c r="H211" s="9">
+        <v>553535</v>
+      </c>
+      <c r="I211" s="9">
+        <v>553512</v>
+      </c>
+    </row>
+    <row r="212" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B212" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C212" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D212" s="11"/>
+      <c r="E212" s="11">
+        <v>378297</v>
+      </c>
+      <c r="F212" s="11">
+        <v>386424</v>
+      </c>
+      <c r="G212" s="11">
+        <v>386420</v>
+      </c>
+      <c r="H212" s="11">
+        <v>507165</v>
+      </c>
+      <c r="I212" s="11">
+        <v>541291</v>
+      </c>
+    </row>
+    <row r="213" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B213" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C213" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D213" s="9"/>
+      <c r="E213" s="9">
+        <v>166687</v>
+      </c>
+      <c r="F213" s="9">
+        <v>176268</v>
+      </c>
+      <c r="G213" s="9">
+        <v>232674</v>
+      </c>
+      <c r="H213" s="9">
+        <v>251227</v>
+      </c>
+      <c r="I213" s="9">
+        <v>276093</v>
+      </c>
+    </row>
+    <row r="214" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B214" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C214" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D214" s="11"/>
+      <c r="E214" s="11">
+        <v>110084</v>
+      </c>
+      <c r="F214" s="11">
+        <v>110084</v>
+      </c>
+      <c r="G214" s="11">
+        <v>110084</v>
+      </c>
+      <c r="H214" s="11">
+        <v>110764</v>
+      </c>
+      <c r="I214" s="11">
+        <v>114286</v>
+      </c>
+    </row>
+    <row r="215" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B215" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C215" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D215" s="9"/>
+      <c r="E215" s="9">
+        <v>417242</v>
+      </c>
+      <c r="F215" s="9">
+        <v>643596</v>
+      </c>
+      <c r="G215" s="9">
+        <v>643578</v>
+      </c>
+      <c r="H215" s="9">
+        <v>643529</v>
+      </c>
+      <c r="I215" s="9">
+        <v>643460</v>
+      </c>
+    </row>
+    <row r="216" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B216" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C216" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D216" s="11"/>
+      <c r="E216" s="11">
+        <v>784162</v>
+      </c>
+      <c r="F216" s="11">
+        <v>1063544</v>
+      </c>
+      <c r="G216" s="11">
+        <v>1413314</v>
+      </c>
+      <c r="H216" s="11">
+        <v>1281166</v>
+      </c>
+      <c r="I216" s="11">
+        <v>1263875</v>
+      </c>
+    </row>
+    <row r="217" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B217" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C217" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D217" s="9"/>
+      <c r="E217" s="9">
+        <v>240943</v>
+      </c>
+      <c r="F217" s="9">
+        <v>332532</v>
+      </c>
+      <c r="G217" s="9">
+        <v>400455</v>
+      </c>
+      <c r="H217" s="9">
+        <v>423810</v>
+      </c>
+      <c r="I217" s="9">
+        <v>435190</v>
+      </c>
+    </row>
+    <row r="218" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B218" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C218" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D218" s="11"/>
+      <c r="E218" s="11">
+        <v>344566</v>
+      </c>
+      <c r="F218" s="11">
+        <v>344566</v>
+      </c>
+      <c r="G218" s="11">
+        <v>344566</v>
+      </c>
+      <c r="H218" s="11">
+        <v>344566</v>
+      </c>
+      <c r="I218" s="11">
+        <v>344566</v>
+      </c>
+    </row>
+    <row r="219" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B219" s="1"/>
+      <c r="C219" s="1"/>
+      <c r="D219" s="1"/>
+      <c r="E219" s="1"/>
+      <c r="F219" s="1"/>
+      <c r="G219" s="1"/>
+      <c r="H219" s="1"/>
+      <c r="I219" s="1"/>
+    </row>
+    <row r="220" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B220" s="1"/>
+      <c r="C220" s="1"/>
+      <c r="D220" s="1"/>
+      <c r="E220" s="1"/>
+      <c r="F220" s="1"/>
+      <c r="G220" s="1"/>
+      <c r="H220" s="1"/>
+      <c r="I220" s="1"/>
+    </row>
+    <row r="221" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B221" s="1"/>
+      <c r="C221" s="1"/>
+      <c r="D221" s="1"/>
+      <c r="E221" s="1"/>
+      <c r="F221" s="1"/>
+      <c r="G221" s="1"/>
+      <c r="H221" s="1"/>
+      <c r="I221" s="1"/>
+    </row>
+    <row r="222" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B222" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C222" s="6"/>
+      <c r="D222" s="6"/>
+      <c r="E222" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F222" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G222" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H222" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I222" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="223" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B223" s="1"/>
+      <c r="C223" s="1"/>
+      <c r="D223" s="1"/>
+      <c r="E223" s="1"/>
+      <c r="F223" s="1"/>
+      <c r="G223" s="1"/>
+      <c r="H223" s="1"/>
+      <c r="I223" s="1"/>
+    </row>
+    <row r="224" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B224" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C224" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D224" s="9"/>
+      <c r="E224" s="9">
+        <v>2896013</v>
+      </c>
+      <c r="F224" s="9">
+        <v>2818765</v>
+      </c>
+      <c r="G224" s="9">
+        <v>2911001</v>
+      </c>
+      <c r="H224" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I224" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="225" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B225" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C225" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D225" s="11"/>
+      <c r="E225" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F225" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G225" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H225" s="11">
+        <v>4091014</v>
+      </c>
+      <c r="I225" s="11">
+        <v>4922176</v>
+      </c>
+    </row>
+    <row r="226" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B226" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C226" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D226" s="9"/>
+      <c r="E226" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F226" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G226" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H226" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I226" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="227" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B227" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C227" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D227" s="11"/>
+      <c r="E227" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F227" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G227" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H227" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I227" s="11">
+        <v>1099808</v>
+      </c>
+    </row>
+    <row r="228" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B228" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C228" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D228" s="9"/>
+      <c r="E228" s="9">
+        <v>158182</v>
+      </c>
+      <c r="F228" s="9">
+        <v>183429</v>
+      </c>
+      <c r="G228" s="9">
+        <v>225612</v>
+      </c>
+      <c r="H228" s="9">
+        <v>235001</v>
+      </c>
+      <c r="I228" s="9">
+        <v>234999</v>
+      </c>
+    </row>
+    <row r="229" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B229" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C229" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D229" s="11"/>
+      <c r="E229" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F229" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G229" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H229" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I229" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="230" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B230" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C230" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D230" s="9"/>
+      <c r="E230" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F230" s="9">
+        <v>570005</v>
+      </c>
+      <c r="G230" s="9">
+        <v>599738</v>
+      </c>
+      <c r="H230" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I230" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="231" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B231" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C231" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D231" s="11"/>
+      <c r="E231" s="11">
+        <v>436079</v>
+      </c>
+      <c r="F231" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G231" s="11">
+        <v>601518</v>
+      </c>
+      <c r="H231" s="11">
+        <v>594958</v>
+      </c>
+      <c r="I231" s="11">
+        <v>595189</v>
+      </c>
+    </row>
+    <row r="232" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B232" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C232" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D232" s="9"/>
+      <c r="E232" s="9">
+        <v>185042</v>
+      </c>
+      <c r="F232" s="9">
+        <v>226832</v>
+      </c>
+      <c r="G232" s="9">
+        <v>260678</v>
+      </c>
+      <c r="H232" s="9">
+        <v>281784</v>
+      </c>
+      <c r="I232" s="9">
+        <v>281495</v>
+      </c>
+    </row>
+    <row r="233" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B233" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C233" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D233" s="11"/>
+      <c r="E233" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F233" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G233" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H233" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I233" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="234" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B234" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C234" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D234" s="9"/>
+      <c r="E234" s="9">
+        <v>700027</v>
+      </c>
+      <c r="F234" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G234" s="9">
+        <v>643243</v>
+      </c>
+      <c r="H234" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I234" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="235" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B235" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C235" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D235" s="11"/>
+      <c r="E235" s="11">
+        <v>1516908</v>
+      </c>
+      <c r="F235" s="11">
+        <v>2669646</v>
+      </c>
+      <c r="G235" s="11">
+        <v>2631103</v>
+      </c>
+      <c r="H235" s="11">
+        <v>297433</v>
+      </c>
+      <c r="I235" s="11">
+        <v>1367760</v>
+      </c>
+    </row>
+    <row r="236" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B236" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C236" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D236" s="9"/>
+      <c r="E236" s="9">
+        <v>398523</v>
+      </c>
+      <c r="F236" s="9">
+        <v>455373</v>
+      </c>
+      <c r="G236" s="9">
+        <v>436513</v>
+      </c>
+      <c r="H236" s="9">
+        <v>454476</v>
+      </c>
+      <c r="I236" s="9">
+        <v>739927</v>
+      </c>
+    </row>
+    <row r="237" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B237" s="1"/>
+      <c r="C237" s="1"/>
+      <c r="D237" s="1"/>
+      <c r="E237" s="1"/>
+      <c r="F237" s="1"/>
+      <c r="G237" s="1"/>
+      <c r="H237" s="1"/>
+      <c r="I237" s="1"/>
+    </row>
+    <row r="238" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B238" s="1"/>
+      <c r="C238" s="1"/>
+      <c r="D238" s="1"/>
+      <c r="E238" s="1"/>
+      <c r="F238" s="1"/>
+      <c r="G238" s="1"/>
+      <c r="H238" s="1"/>
+      <c r="I238" s="1"/>
+    </row>
+    <row r="239" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B239" s="1"/>
+      <c r="C239" s="1"/>
+      <c r="D239" s="1"/>
+      <c r="E239" s="1"/>
+      <c r="F239" s="1"/>
+      <c r="G239" s="1"/>
+      <c r="H239" s="1"/>
+      <c r="I239" s="1"/>
+    </row>
+    <row r="240" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B240" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C240" s="6"/>
+      <c r="D240" s="6"/>
+      <c r="E240" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F240" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G240" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H240" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I240" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="241" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B241" s="1"/>
+      <c r="C241" s="1"/>
+      <c r="D241" s="1"/>
+      <c r="E241" s="1"/>
+      <c r="F241" s="1"/>
+      <c r="G241" s="1"/>
+      <c r="H241" s="1"/>
+      <c r="I241" s="1"/>
+    </row>
+    <row r="242" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B242" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C242" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D242" s="9"/>
+      <c r="E242" s="9">
+        <v>11217461</v>
+      </c>
+      <c r="F242" s="9">
+        <v>2300983</v>
+      </c>
+      <c r="G242" s="9">
+        <v>3091207</v>
+      </c>
+      <c r="H242" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I242" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="243" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B243" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C243" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D243" s="11"/>
+      <c r="E243" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F243" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G243" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H243" s="11">
+        <v>3383646</v>
+      </c>
+      <c r="I243" s="11">
+        <v>4118782</v>
+      </c>
+    </row>
+    <row r="244" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B244" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C244" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D244" s="9"/>
+      <c r="E244" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F244" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G244" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H244" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I244" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="245" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B245" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C245" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D245" s="11"/>
+      <c r="E245" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F245" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G245" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H245" s="11">
+        <v>87198</v>
+      </c>
+      <c r="I245" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="246" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B246" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C246" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D246" s="9"/>
+      <c r="E246" s="9">
+        <v>157975</v>
+      </c>
+      <c r="F246" s="9">
+        <v>172557</v>
+      </c>
+      <c r="G246" s="9">
+        <v>218792</v>
+      </c>
+      <c r="H246" s="9">
+        <v>229382</v>
+      </c>
+      <c r="I246" s="9">
+        <v>234094</v>
+      </c>
+    </row>
+    <row r="247" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B247" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C247" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D247" s="11"/>
+      <c r="E247" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F247" s="11">
+        <v>888340</v>
+      </c>
+      <c r="G247" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H247" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I247" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="248" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B248" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C248" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D248" s="9"/>
+      <c r="E248" s="9">
+        <v>482968</v>
+      </c>
+      <c r="F248" s="9">
+        <v>493613</v>
+      </c>
+      <c r="G248" s="9">
+        <v>539453</v>
+      </c>
+      <c r="H248" s="9">
+        <v>553571</v>
+      </c>
+      <c r="I248" s="9">
+        <v>553514</v>
+      </c>
+    </row>
+    <row r="249" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B249" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C249" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D249" s="11"/>
+      <c r="E249" s="11">
+        <v>382807</v>
+      </c>
+      <c r="F249" s="11">
+        <v>386428</v>
+      </c>
+      <c r="G249" s="11">
+        <v>430638</v>
+      </c>
+      <c r="H249" s="11">
+        <v>514898</v>
+      </c>
+      <c r="I249" s="11">
+        <v>546838</v>
+      </c>
+    </row>
+    <row r="250" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B250" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C250" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D250" s="9"/>
+      <c r="E250" s="9">
+        <v>173915</v>
+      </c>
+      <c r="F250" s="9">
+        <v>197809</v>
+      </c>
+      <c r="G250" s="9">
+        <v>257097</v>
+      </c>
+      <c r="H250" s="9">
+        <v>268920</v>
+      </c>
+      <c r="I250" s="9">
+        <v>279370</v>
+      </c>
+    </row>
+    <row r="251" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B251" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C251" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D251" s="11"/>
+      <c r="E251" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F251" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G251" s="11">
+        <v>109362</v>
+      </c>
+      <c r="H251" s="11">
+        <v>110208</v>
+      </c>
+      <c r="I251" s="11">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="252" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B252" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C252" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D252" s="9"/>
+      <c r="E252" s="9">
+        <v>627533</v>
+      </c>
+      <c r="F252" s="9">
+        <v>643660</v>
+      </c>
+      <c r="G252" s="9">
+        <v>643641</v>
+      </c>
+      <c r="H252" s="9">
+        <v>643770</v>
+      </c>
+      <c r="I252" s="9">
+        <v>643390</v>
+      </c>
+    </row>
+    <row r="253" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B253" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C253" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D253" s="11"/>
+      <c r="E253" s="11">
+        <v>920683</v>
+      </c>
+      <c r="F253" s="11">
+        <v>1228980</v>
+      </c>
+      <c r="G253" s="11">
+        <v>8142857</v>
+      </c>
+      <c r="H253" s="11">
+        <v>1269607</v>
+      </c>
+      <c r="I253" s="11">
+        <v>1238908</v>
+      </c>
+    </row>
+    <row r="254" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B254" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C254" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D254" s="9"/>
+      <c r="E254" s="9">
+        <v>313094</v>
+      </c>
+      <c r="F254" s="9">
+        <v>379554</v>
+      </c>
+      <c r="G254" s="9">
+        <v>421364</v>
+      </c>
+      <c r="H254" s="9">
+        <v>430883</v>
+      </c>
+      <c r="I254" s="9">
+        <v>597101</v>
+      </c>
+    </row>
+    <row r="255" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B255" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C255" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D255" s="11"/>
+      <c r="E255" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F255" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G255" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H255" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I255" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="256" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B256" s="1"/>
+      <c r="C256" s="1"/>
+      <c r="D256" s="1"/>
+      <c r="E256" s="1"/>
+      <c r="F256" s="1"/>
+      <c r="G256" s="1"/>
+      <c r="H256" s="1"/>
+      <c r="I256" s="1"/>
+    </row>
+    <row r="257" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B257" s="1"/>
+      <c r="C257" s="1"/>
+      <c r="D257" s="1"/>
+      <c r="E257" s="1"/>
+      <c r="F257" s="1"/>
+      <c r="G257" s="1"/>
+      <c r="H257" s="1"/>
+      <c r="I257" s="1"/>
+    </row>
+    <row r="258" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B258" s="1"/>
+      <c r="C258" s="1"/>
+      <c r="D258" s="1"/>
+      <c r="E258" s="1"/>
+      <c r="F258" s="1"/>
+      <c r="G258" s="1"/>
+      <c r="H258" s="1"/>
+      <c r="I258" s="1"/>
+    </row>
+    <row r="259" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B259" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C259" s="6"/>
+      <c r="D259" s="6"/>
+      <c r="E259" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F259" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G259" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H259" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I259" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="260" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B260" s="1"/>
+      <c r="C260" s="1"/>
+      <c r="D260" s="1"/>
+      <c r="E260" s="1"/>
+      <c r="F260" s="1"/>
+      <c r="G260" s="1"/>
+      <c r="H260" s="1"/>
+      <c r="I260" s="1"/>
+    </row>
+    <row r="261" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B261" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C261" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D261" s="9"/>
+      <c r="E261" s="9">
+        <v>2303464</v>
+      </c>
+      <c r="F261" s="9">
+        <v>2548000</v>
+      </c>
+      <c r="G261" s="9">
+        <v>2400905</v>
+      </c>
+      <c r="H261" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I261" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="262" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B262" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C262" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D262" s="11"/>
+      <c r="E262" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F262" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G262" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H262" s="11">
+        <v>3102445</v>
+      </c>
+      <c r="I262" s="11">
+        <v>3869743</v>
+      </c>
+    </row>
+    <row r="263" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B263" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C263" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D263" s="9"/>
+      <c r="E263" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F263" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G263" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H263" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I263" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="264" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B264" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C264" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D264" s="11"/>
+      <c r="E264" s="11">
+        <v>87121</v>
+      </c>
+      <c r="F264" s="11">
+        <v>87121</v>
+      </c>
+      <c r="G264" s="11">
+        <v>87121</v>
+      </c>
+      <c r="H264" s="11">
+        <v>87065</v>
+      </c>
+      <c r="I264" s="11">
+        <v>172874</v>
+      </c>
+    </row>
+    <row r="265" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B265" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C265" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D265" s="9"/>
+      <c r="E265" s="9">
+        <v>157502</v>
+      </c>
+      <c r="F265" s="9">
+        <v>196176</v>
+      </c>
+      <c r="G265" s="9">
+        <v>219769</v>
+      </c>
+      <c r="H265" s="9">
+        <v>232085</v>
+      </c>
+      <c r="I265" s="9">
+        <v>234586</v>
+      </c>
+    </row>
+    <row r="266" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B266" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C266" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D266" s="11"/>
+      <c r="E266" s="11">
+        <v>888555</v>
+      </c>
+      <c r="F266" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G266" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H266" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I266" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="267" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B267" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C267" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D267" s="9"/>
+      <c r="E267" s="9">
+        <v>482949</v>
+      </c>
+      <c r="F267" s="9">
+        <v>507469</v>
+      </c>
+      <c r="G267" s="9">
+        <v>553535</v>
+      </c>
+      <c r="H267" s="9">
+        <v>553512</v>
+      </c>
+      <c r="I267" s="9">
+        <v>553509</v>
+      </c>
+    </row>
+    <row r="268" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B268" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C268" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D268" s="11"/>
+      <c r="E268" s="11">
+        <v>386424</v>
+      </c>
+      <c r="F268" s="11">
+        <v>386420</v>
+      </c>
+      <c r="G268" s="11">
+        <v>507165</v>
+      </c>
+      <c r="H268" s="11">
+        <v>541291</v>
+      </c>
+      <c r="I268" s="11">
+        <v>546554</v>
+      </c>
+    </row>
+    <row r="269" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B269" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C269" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D269" s="9"/>
+      <c r="E269" s="9">
+        <v>176268</v>
+      </c>
+      <c r="F269" s="9">
+        <v>232674</v>
+      </c>
+      <c r="G269" s="9">
+        <v>251227</v>
+      </c>
+      <c r="H269" s="9">
+        <v>276093</v>
+      </c>
+      <c r="I269" s="9">
+        <v>280497</v>
+      </c>
+    </row>
+    <row r="270" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B270" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C270" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D270" s="11"/>
+      <c r="E270" s="11">
+        <v>110084</v>
+      </c>
+      <c r="F270" s="11">
+        <v>110084</v>
+      </c>
+      <c r="G270" s="11">
+        <v>110764</v>
+      </c>
+      <c r="H270" s="11">
+        <v>114286</v>
+      </c>
+      <c r="I270" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="271" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B271" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C271" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D271" s="9"/>
+      <c r="E271" s="9">
+        <v>643596</v>
+      </c>
+      <c r="F271" s="9">
+        <v>643578</v>
+      </c>
+      <c r="G271" s="9">
+        <v>643529</v>
+      </c>
+      <c r="H271" s="9">
+        <v>643460</v>
+      </c>
+      <c r="I271" s="9">
+        <v>657807</v>
+      </c>
+    </row>
+    <row r="272" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B272" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C272" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D272" s="11"/>
+      <c r="E272" s="11">
+        <v>1063544</v>
+      </c>
+      <c r="F272" s="11">
+        <v>1413314</v>
+      </c>
+      <c r="G272" s="11">
+        <v>1281166</v>
+      </c>
+      <c r="H272" s="11">
+        <v>1263875</v>
+      </c>
+      <c r="I272" s="11">
+        <v>1307634</v>
+      </c>
+    </row>
+    <row r="273" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B273" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C273" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D273" s="9"/>
+      <c r="E273" s="9">
+        <v>332532</v>
+      </c>
+      <c r="F273" s="9">
+        <v>400455</v>
+      </c>
+      <c r="G273" s="9">
+        <v>423810</v>
+      </c>
+      <c r="H273" s="9">
+        <v>435190</v>
+      </c>
+      <c r="I273" s="9">
+        <v>656540</v>
+      </c>
+    </row>
+    <row r="274" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B274" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C274" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D274" s="11"/>
+      <c r="E274" s="11">
+        <v>344566</v>
+      </c>
+      <c r="F274" s="11">
+        <v>344566</v>
+      </c>
+      <c r="G274" s="11">
+        <v>344566</v>
+      </c>
+      <c r="H274" s="11">
+        <v>344566</v>
+      </c>
+      <c r="I274" s="11">
+        <v>344566</v>
+      </c>
+    </row>
+    <row r="275" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B275" s="1"/>
+      <c r="C275" s="1"/>
+      <c r="D275" s="1"/>
+      <c r="E275" s="1"/>
+      <c r="F275" s="1"/>
+      <c r="G275" s="1"/>
+      <c r="H275" s="1"/>
+      <c r="I275" s="1"/>
+    </row>
+    <row r="276" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B276" s="1"/>
+      <c r="C276" s="1"/>
+      <c r="D276" s="1"/>
+      <c r="E276" s="1"/>
+      <c r="F276" s="1"/>
+      <c r="G276" s="1"/>
+      <c r="H276" s="1"/>
+      <c r="I276" s="1"/>
+    </row>
+    <row r="277" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B277" s="1"/>
+      <c r="C277" s="1"/>
+      <c r="D277" s="1"/>
+      <c r="E277" s="1"/>
+      <c r="F277" s="1"/>
+      <c r="G277" s="1"/>
+      <c r="H277" s="1"/>
+      <c r="I277" s="1"/>
+    </row>
+    <row r="278" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B278" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C278" s="6"/>
+      <c r="D278" s="6"/>
+      <c r="E278" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F278" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G278" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H278" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I278" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="279" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B279" s="1"/>
+      <c r="C279" s="1"/>
+      <c r="D279" s="1"/>
+      <c r="E279" s="1"/>
+      <c r="F279" s="1"/>
+      <c r="G279" s="1"/>
+      <c r="H279" s="1"/>
+      <c r="I279" s="1"/>
+    </row>
+    <row r="280" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B280" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C280" s="9"/>
+      <c r="D280" s="9"/>
+      <c r="E280" s="9">
+        <v>0</v>
+      </c>
+      <c r="F280" s="9">
+        <v>0</v>
+      </c>
+      <c r="G280" s="9">
+        <v>0</v>
+      </c>
+      <c r="H280" s="9">
+        <v>0</v>
+      </c>
+      <c r="I280" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B281" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C281" s="11"/>
+      <c r="D281" s="11"/>
+      <c r="E281" s="11">
+        <v>0</v>
+      </c>
+      <c r="F281" s="11">
+        <v>0</v>
+      </c>
+      <c r="G281" s="11">
+        <v>0</v>
+      </c>
+      <c r="H281" s="11">
+        <v>0</v>
+      </c>
+      <c r="I281" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B282" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C282" s="9"/>
+      <c r="D282" s="9"/>
+      <c r="E282" s="9">
+        <v>0</v>
+      </c>
+      <c r="F282" s="9">
+        <v>0</v>
+      </c>
+      <c r="G282" s="9">
+        <v>0</v>
+      </c>
+      <c r="H282" s="9">
+        <v>0</v>
+      </c>
+      <c r="I282" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B283" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C283" s="11"/>
+      <c r="D283" s="11"/>
+      <c r="E283" s="11">
+        <v>0</v>
+      </c>
+      <c r="F283" s="11">
+        <v>0</v>
+      </c>
+      <c r="G283" s="11">
+        <v>0</v>
+      </c>
+      <c r="H283" s="11">
+        <v>0</v>
+      </c>
+      <c r="I283" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B284" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C284" s="9"/>
+      <c r="D284" s="9"/>
+      <c r="E284" s="9">
+        <v>182823</v>
+      </c>
+      <c r="F284" s="9">
+        <v>190418</v>
+      </c>
+      <c r="G284" s="9">
+        <v>153030</v>
+      </c>
+      <c r="H284" s="9">
+        <v>211626</v>
+      </c>
+      <c r="I284" s="9">
+        <v>384118</v>
+      </c>
+    </row>
+    <row r="285" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B285" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C285" s="11"/>
+      <c r="D285" s="11"/>
+      <c r="E285" s="11">
+        <v>207043</v>
+      </c>
+      <c r="F285" s="11">
+        <v>449390</v>
+      </c>
+      <c r="G285" s="11">
+        <v>505179</v>
+      </c>
+      <c r="H285" s="11">
+        <v>448393</v>
+      </c>
+      <c r="I285" s="11">
+        <v>540687</v>
+      </c>
+    </row>
+    <row r="286" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B286" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C286" s="9"/>
+      <c r="D286" s="9"/>
+      <c r="E286" s="9">
+        <v>14713</v>
+      </c>
+      <c r="F286" s="9">
+        <v>15506</v>
+      </c>
+      <c r="G286" s="9">
+        <v>14931</v>
+      </c>
+      <c r="H286" s="9">
+        <v>14613</v>
+      </c>
+      <c r="I286" s="9">
+        <v>14447</v>
+      </c>
+    </row>
+    <row r="287" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B287" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C139" s="9" t="s">
+      <c r="C287" s="11"/>
+      <c r="D287" s="11"/>
+      <c r="E287" s="11">
+        <v>221476</v>
+      </c>
+      <c r="F287" s="11">
+        <v>228411</v>
+      </c>
+      <c r="G287" s="11">
+        <v>298787</v>
+      </c>
+      <c r="H287" s="11">
+        <v>506581</v>
+      </c>
+      <c r="I287" s="11">
+        <v>372136</v>
+      </c>
+    </row>
+    <row r="288" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B288" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C288" s="9"/>
+      <c r="D288" s="9"/>
+      <c r="E288" s="9">
+        <v>0</v>
+      </c>
+      <c r="F288" s="9">
+        <v>0</v>
+      </c>
+      <c r="G288" s="9">
+        <v>0</v>
+      </c>
+      <c r="H288" s="9">
+        <v>0</v>
+      </c>
+      <c r="I288" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B289" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C289" s="11"/>
+      <c r="D289" s="11"/>
+      <c r="E289" s="11">
+        <v>179674</v>
+      </c>
+      <c r="F289" s="11">
+        <v>289121</v>
+      </c>
+      <c r="G289" s="11">
+        <v>464029</v>
+      </c>
+      <c r="H289" s="11">
+        <v>337041</v>
+      </c>
+      <c r="I289" s="11">
+        <v>337639</v>
+      </c>
+    </row>
+    <row r="290" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B290" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C290" s="15"/>
+      <c r="D290" s="15"/>
+      <c r="E290" s="15">
+        <v>805729</v>
+      </c>
+      <c r="F290" s="15">
+        <v>1172846</v>
+      </c>
+      <c r="G290" s="15">
+        <v>1435956</v>
+      </c>
+      <c r="H290" s="15">
+        <v>1518254</v>
+      </c>
+      <c r="I290" s="15">
+        <v>1649027</v>
+      </c>
+    </row>
+    <row r="291" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B291" s="1"/>
+      <c r="C291" s="1"/>
+      <c r="D291" s="1"/>
+      <c r="E291" s="1"/>
+      <c r="F291" s="1"/>
+      <c r="G291" s="1"/>
+      <c r="H291" s="1"/>
+      <c r="I291" s="1"/>
+    </row>
+    <row r="292" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B292" s="1"/>
+      <c r="C292" s="1"/>
+      <c r="D292" s="1"/>
+      <c r="E292" s="1"/>
+      <c r="F292" s="1"/>
+      <c r="G292" s="1"/>
+      <c r="H292" s="1"/>
+      <c r="I292" s="1"/>
+    </row>
+    <row r="293" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B293" s="1"/>
+      <c r="C293" s="1"/>
+      <c r="D293" s="1"/>
+      <c r="E293" s="1"/>
+      <c r="F293" s="1"/>
+      <c r="G293" s="1"/>
+      <c r="H293" s="1"/>
+      <c r="I293" s="1"/>
+    </row>
+    <row r="294" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B294" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C294" s="6"/>
+      <c r="D294" s="6"/>
+      <c r="E294" s="6"/>
+      <c r="F294" s="6"/>
+      <c r="G294" s="1"/>
+      <c r="H294" s="1"/>
+      <c r="I294" s="1"/>
+    </row>
+    <row r="296" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B296" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C296" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D139" s="9"/>
-      <c r="E139" s="9"/>
-      <c r="F139" s="9"/>
-      <c r="G139" s="1"/>
-      <c r="H139" s="1"/>
-      <c r="I139" s="1"/>
-    </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B140" s="10" t="s">
+      <c r="D296" s="9"/>
+      <c r="E296" s="9"/>
+      <c r="F296" s="9"/>
+    </row>
+    <row r="297" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B297" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C140" s="11" t="s">
+      <c r="C297" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D140" s="11"/>
-      <c r="E140" s="11"/>
-      <c r="F140" s="11"/>
-    </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B141" s="8" t="s">
+      <c r="D297" s="11"/>
+      <c r="E297" s="11"/>
+      <c r="F297" s="11"/>
+    </row>
+    <row r="298" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B298" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C141" s="9" t="s">
+      <c r="C298" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D298" s="9"/>
+      <c r="E298" s="9"/>
+      <c r="F298" s="9"/>
+    </row>
+    <row r="299" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B299" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D141" s="9"/>
-      <c r="E141" s="9"/>
-      <c r="F141" s="9"/>
-    </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B142" s="10" t="s">
+      <c r="C299" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D299" s="11"/>
+      <c r="E299" s="11"/>
+      <c r="F299" s="11"/>
+    </row>
+    <row r="300" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B300" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C142" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D142" s="11"/>
-      <c r="E142" s="11"/>
-      <c r="F142" s="11"/>
+      <c r="C300" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D300" s="9"/>
+      <c r="E300" s="9"/>
+      <c r="F300" s="9"/>
+    </row>
+    <row r="301" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B301" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C301" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D301" s="11"/>
+      <c r="E301" s="11"/>
+      <c r="F301" s="11"/>
+    </row>
+    <row r="302" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B302" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C302" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D302" s="9"/>
+      <c r="E302" s="9"/>
+      <c r="F302" s="9"/>
+    </row>
+    <row r="303" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B303" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C303" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D303" s="11"/>
+      <c r="E303" s="11"/>
+      <c r="F303" s="11"/>
+    </row>
+    <row r="304" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B304" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C304" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D304" s="9"/>
+      <c r="E304" s="9"/>
+      <c r="F304" s="9"/>
+    </row>
+    <row r="305" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B305" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C305" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D305" s="11"/>
+      <c r="E305" s="11"/>
+      <c r="F305" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/siman/save/cost/quarterly.xlsx
+++ b/database/industries/siman/save/cost/quarterly.xlsx
@@ -9,17 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7290"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="80">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -31,6 +31,24 @@
   </si>
   <si>
     <t>بهای تمام شده</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1399/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
   </si>
   <si>
     <t>فصل سوم منتهی به 1400/09</t>
@@ -242,12 +260,6 @@
   </si>
   <si>
     <t>دوره 9 ماهه منتهی به 1399/12/30</t>
-  </si>
-  <si>
-    <t>فصل سوم منتهی به 1401/09</t>
-  </si>
-  <si>
-    <t>فصل سوم منتهی به 1401/06</t>
   </si>
 </sst>
 </file>
@@ -669,19 +681,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I142"/>
+  <dimension ref="B1:N142"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="K123" sqref="K123"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="8" width="20" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -689,8 +698,14 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -700,8 +715,14 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -711,8 +732,14 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -720,8 +747,14 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -731,8 +764,14 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -742,18 +781,29 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-    </row>
-    <row r="8" spans="2:9" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -772,10 +822,25 @@
         <v>7</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -783,98 +848,164 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
+        <v>117120</v>
+      </c>
+      <c r="F10" s="9">
+        <v>115083</v>
+      </c>
+      <c r="G10" s="9">
+        <v>162508</v>
+      </c>
+      <c r="H10" s="9">
+        <v>163026</v>
+      </c>
+      <c r="I10" s="9">
+        <v>217865</v>
+      </c>
+      <c r="J10" s="9">
+        <v>166241</v>
+      </c>
+      <c r="K10" s="9">
         <v>314059</v>
       </c>
-      <c r="F10" s="9">
+      <c r="L10" s="9">
         <v>336012</v>
       </c>
-      <c r="G10" s="9">
+      <c r="M10" s="9">
         <v>349308</v>
       </c>
-      <c r="H10" s="9">
+      <c r="N10" s="9">
         <v>440809</v>
       </c>
-      <c r="I10">
-        <v>423448</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
+        <v>37740</v>
+      </c>
+      <c r="F11" s="11">
+        <v>32951</v>
+      </c>
+      <c r="G11" s="11">
+        <v>36462</v>
+      </c>
+      <c r="H11" s="11">
+        <v>35509</v>
+      </c>
+      <c r="I11" s="11">
+        <v>46957</v>
+      </c>
+      <c r="J11" s="11">
+        <v>36975</v>
+      </c>
+      <c r="K11" s="11">
         <v>38787</v>
       </c>
-      <c r="F11" s="11">
+      <c r="L11" s="11">
         <v>62022</v>
       </c>
-      <c r="G11" s="11">
+      <c r="M11" s="11">
         <v>84571</v>
       </c>
-      <c r="H11" s="11">
+      <c r="N11" s="11">
         <v>71591</v>
       </c>
-      <c r="I11">
-        <v>75039</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
+        <v>501250</v>
+      </c>
+      <c r="F12" s="9">
+        <v>562946</v>
+      </c>
+      <c r="G12" s="9">
+        <v>583234</v>
+      </c>
+      <c r="H12" s="9">
+        <v>617865</v>
+      </c>
+      <c r="I12" s="9">
+        <v>922775</v>
+      </c>
+      <c r="J12" s="9">
+        <v>805729</v>
+      </c>
+      <c r="K12" s="9">
         <v>1172846</v>
       </c>
-      <c r="F12" s="9">
+      <c r="L12" s="9">
         <v>1435956</v>
       </c>
-      <c r="G12" s="9">
+      <c r="M12" s="9">
         <v>1518254</v>
       </c>
-      <c r="H12" s="9">
+      <c r="N12" s="9">
         <v>1649027</v>
       </c>
-      <c r="I12">
-        <v>1707355</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
+        <v>656110</v>
+      </c>
+      <c r="F13" s="13">
+        <v>710980</v>
+      </c>
+      <c r="G13" s="13">
+        <v>782204</v>
+      </c>
+      <c r="H13" s="13">
+        <v>816400</v>
+      </c>
+      <c r="I13" s="13">
+        <v>1187597</v>
+      </c>
+      <c r="J13" s="13">
+        <v>1008945</v>
+      </c>
+      <c r="K13" s="13">
         <v>1525692</v>
       </c>
-      <c r="F13" s="13">
+      <c r="L13" s="13">
         <v>1833990</v>
       </c>
-      <c r="G13" s="13">
+      <c r="M13" s="13">
         <v>1952133</v>
       </c>
-      <c r="H13" s="13">
+      <c r="N13" s="13">
         <v>2161427</v>
       </c>
-      <c r="I13">
-        <v>2205842</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -890,57 +1021,102 @@
       <c r="H14" s="9">
         <v>0</v>
       </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I14" s="9">
+        <v>0</v>
+      </c>
+      <c r="J14" s="9">
+        <v>0</v>
+      </c>
+      <c r="K14" s="9">
+        <v>0</v>
+      </c>
+      <c r="L14" s="9">
+        <v>0</v>
+      </c>
+      <c r="M14" s="9">
+        <v>0</v>
+      </c>
+      <c r="N14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
+        <v>656110</v>
+      </c>
+      <c r="F15" s="13">
+        <v>710980</v>
+      </c>
+      <c r="G15" s="13">
+        <v>782204</v>
+      </c>
+      <c r="H15" s="13">
+        <v>816400</v>
+      </c>
+      <c r="I15" s="13">
+        <v>1187597</v>
+      </c>
+      <c r="J15" s="13">
+        <v>1008945</v>
+      </c>
+      <c r="K15" s="13">
         <v>1525692</v>
       </c>
-      <c r="F15" s="13">
+      <c r="L15" s="13">
         <v>1833990</v>
       </c>
-      <c r="G15" s="13">
+      <c r="M15" s="13">
         <v>1952133</v>
       </c>
-      <c r="H15" s="13">
+      <c r="N15" s="13">
         <v>2161427</v>
       </c>
-      <c r="I15">
-        <v>2205842</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
+        <v>5037</v>
+      </c>
+      <c r="F16" s="9">
+        <v>29399</v>
+      </c>
+      <c r="G16" s="9">
+        <v>-4583</v>
+      </c>
+      <c r="H16" s="9">
+        <v>30986</v>
+      </c>
+      <c r="I16" s="9">
+        <v>174126</v>
+      </c>
+      <c r="J16" s="9">
+        <v>-274476</v>
+      </c>
+      <c r="K16" s="9">
         <v>-164837</v>
       </c>
-      <c r="F16" s="9">
+      <c r="L16" s="9">
         <v>-93920</v>
       </c>
-      <c r="G16" s="9">
+      <c r="M16" s="9">
         <v>-380933</v>
       </c>
-      <c r="H16" s="9">
+      <c r="N16" s="9">
         <v>-474627</v>
       </c>
-      <c r="I16">
-        <v>252223</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
@@ -956,101 +1132,176 @@
       <c r="H17" s="11">
         <v>0</v>
       </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I17" s="11">
+        <v>0</v>
+      </c>
+      <c r="J17" s="11">
+        <v>0</v>
+      </c>
+      <c r="K17" s="11">
+        <v>0</v>
+      </c>
+      <c r="L17" s="11">
+        <v>0</v>
+      </c>
+      <c r="M17" s="11">
+        <v>0</v>
+      </c>
+      <c r="N17" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
+        <v>661147</v>
+      </c>
+      <c r="F18" s="15">
+        <v>740379</v>
+      </c>
+      <c r="G18" s="15">
+        <v>777621</v>
+      </c>
+      <c r="H18" s="15">
+        <v>847386</v>
+      </c>
+      <c r="I18" s="15">
+        <v>1361723</v>
+      </c>
+      <c r="J18" s="15">
+        <v>734469</v>
+      </c>
+      <c r="K18" s="15">
         <v>1360855</v>
       </c>
-      <c r="F18" s="15">
+      <c r="L18" s="15">
         <v>1740070</v>
       </c>
-      <c r="G18" s="15">
+      <c r="M18" s="15">
         <v>1571200</v>
       </c>
-      <c r="H18" s="15">
+      <c r="N18" s="15">
         <v>1686800</v>
       </c>
-      <c r="I18">
-        <v>2458065</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
-        <v>0</v>
+        <v>13039</v>
       </c>
       <c r="F19" s="11">
+        <v>0</v>
+      </c>
+      <c r="G19" s="11">
+        <v>0</v>
+      </c>
+      <c r="H19" s="11">
+        <v>0</v>
+      </c>
+      <c r="I19" s="11">
+        <v>87214</v>
+      </c>
+      <c r="J19" s="11">
+        <v>0</v>
+      </c>
+      <c r="K19" s="11">
+        <v>0</v>
+      </c>
+      <c r="L19" s="11">
         <v>71823</v>
       </c>
-      <c r="G19" s="11">
+      <c r="M19" s="11">
         <v>84421</v>
       </c>
-      <c r="H19" s="11">
+      <c r="N19" s="11">
         <v>97022</v>
       </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
+        <v>-33064</v>
+      </c>
+      <c r="F20" s="9">
+        <v>-51619</v>
+      </c>
+      <c r="G20" s="9">
+        <v>52772</v>
+      </c>
+      <c r="H20" s="9">
+        <v>-55303</v>
+      </c>
+      <c r="I20" s="9">
+        <v>-376880</v>
+      </c>
+      <c r="J20" s="9">
+        <v>342272</v>
+      </c>
+      <c r="K20" s="9">
         <v>-37215</v>
       </c>
-      <c r="F20" s="9">
+      <c r="L20" s="9">
         <v>-84421</v>
       </c>
-      <c r="G20" s="9">
+      <c r="M20" s="9">
         <v>-97022</v>
       </c>
-      <c r="H20" s="9">
+      <c r="N20" s="9">
         <v>-55518</v>
       </c>
-      <c r="I20">
-        <v>-12022</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
+        <v>641122</v>
+      </c>
+      <c r="F21" s="13">
+        <v>688760</v>
+      </c>
+      <c r="G21" s="13">
+        <v>830393</v>
+      </c>
+      <c r="H21" s="13">
+        <v>792083</v>
+      </c>
+      <c r="I21" s="13">
+        <v>1072057</v>
+      </c>
+      <c r="J21" s="13">
+        <v>1076741</v>
+      </c>
+      <c r="K21" s="13">
         <v>1323640</v>
       </c>
-      <c r="F21" s="13">
+      <c r="L21" s="13">
         <v>1727472</v>
       </c>
-      <c r="G21" s="13">
+      <c r="M21" s="13">
         <v>1558599</v>
       </c>
-      <c r="H21" s="13">
+      <c r="N21" s="13">
         <v>1728304</v>
       </c>
-      <c r="I21">
-        <v>2446043</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -1066,33 +1317,63 @@
       <c r="H22" s="9">
         <v>0</v>
       </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I22" s="9">
+        <v>0</v>
+      </c>
+      <c r="J22" s="9">
+        <v>0</v>
+      </c>
+      <c r="K22" s="9">
+        <v>0</v>
+      </c>
+      <c r="L22" s="9">
+        <v>0</v>
+      </c>
+      <c r="M22" s="9">
+        <v>0</v>
+      </c>
+      <c r="N22" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
+        <v>641122</v>
+      </c>
+      <c r="F23" s="13">
+        <v>688760</v>
+      </c>
+      <c r="G23" s="13">
+        <v>830393</v>
+      </c>
+      <c r="H23" s="13">
+        <v>792083</v>
+      </c>
+      <c r="I23" s="13">
+        <v>1072057</v>
+      </c>
+      <c r="J23" s="13">
+        <v>1076741</v>
+      </c>
+      <c r="K23" s="13">
         <v>1323640</v>
       </c>
-      <c r="F23" s="13">
+      <c r="L23" s="13">
         <v>1727472</v>
       </c>
-      <c r="G23" s="13">
+      <c r="M23" s="13">
         <v>1558599</v>
       </c>
-      <c r="H23" s="13">
+      <c r="N23" s="13">
         <v>1728304</v>
       </c>
-      <c r="I23">
-        <v>2446043</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1100,8 +1381,14 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1109,8 +1396,14 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1118,10 +1411,16 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
-    </row>
-    <row r="27" spans="2:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1137,8 +1436,26 @@
       <c r="H27" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I27" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1146,363 +1463,675 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9">
+        <v>29021</v>
+      </c>
+      <c r="F29" s="9">
+        <v>33784</v>
+      </c>
+      <c r="G29" s="9">
+        <v>41035</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I29" s="9">
+        <v>42886</v>
+      </c>
+      <c r="J29" s="9">
+        <v>10642</v>
+      </c>
+      <c r="K29" s="9">
         <v>63141</v>
       </c>
-      <c r="F29" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N29" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G30" s="11">
+        <v>31</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K30" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L30" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M30" s="11">
         <v>59902</v>
       </c>
-      <c r="H30" s="11">
+      <c r="N30" s="11">
         <v>89697</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D31" s="9"/>
-      <c r="E31" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>25</v>
+      <c r="E31" s="9">
+        <v>0</v>
+      </c>
+      <c r="F31" s="9">
+        <v>2203</v>
+      </c>
+      <c r="G31" s="9">
+        <v>0</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K31" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L31" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M31" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N31" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11">
+        <v>11785</v>
+      </c>
+      <c r="F32" s="11">
+        <v>11785</v>
+      </c>
+      <c r="G32" s="11">
+        <v>11785</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I32" s="11">
         <v>9768</v>
       </c>
-      <c r="F32" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G32" s="11">
+      <c r="J32" s="11">
         <v>9768</v>
       </c>
-      <c r="H32" s="11">
+      <c r="K32" s="11">
+        <v>9768</v>
+      </c>
+      <c r="L32" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M32" s="11">
+        <v>9768</v>
+      </c>
+      <c r="N32" s="11">
         <v>5628</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9">
+        <v>31852</v>
+      </c>
+      <c r="F33" s="9">
+        <v>12974</v>
+      </c>
+      <c r="G33" s="9">
+        <v>11635</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I33" s="9">
+        <v>65710</v>
+      </c>
+      <c r="J33" s="9">
+        <v>122182</v>
+      </c>
+      <c r="K33" s="9">
         <v>93561</v>
       </c>
-      <c r="F33" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G33" s="9">
+      <c r="L33" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M33" s="9">
         <v>164054</v>
       </c>
-      <c r="H33" s="9">
+      <c r="N33" s="9">
         <v>151539</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11">
+        <v>40692</v>
+      </c>
+      <c r="F34" s="11">
+        <v>32828</v>
+      </c>
+      <c r="G34" s="11">
+        <v>25370</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I34" s="11">
+        <v>1158</v>
+      </c>
+      <c r="J34" s="11">
         <v>4657</v>
       </c>
-      <c r="F34" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G34" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H34" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="K34" s="11">
+        <v>4657</v>
+      </c>
+      <c r="L34" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M34" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N34" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9">
+        <v>22848</v>
+      </c>
+      <c r="F35" s="9">
+        <v>9274</v>
+      </c>
+      <c r="G35" s="9">
+        <v>7594</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I35" s="9">
+        <v>72280</v>
+      </c>
+      <c r="J35" s="9">
+        <v>65729</v>
+      </c>
+      <c r="K35" s="9">
         <v>52401</v>
       </c>
-      <c r="F35" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G35" s="9">
+      <c r="L35" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M35" s="9">
         <v>57252</v>
       </c>
-      <c r="H35" s="9">
+      <c r="N35" s="9">
         <v>34693</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="11">
+        <v>8841</v>
+      </c>
+      <c r="F36" s="11">
+        <v>21990</v>
+      </c>
+      <c r="G36" s="11">
+        <v>49220</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I36" s="11">
+        <v>57703</v>
+      </c>
+      <c r="J36" s="11">
+        <v>44621</v>
+      </c>
+      <c r="K36" s="11">
         <v>40321</v>
       </c>
-      <c r="F36" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G36" s="11">
+      <c r="L36" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M36" s="11">
         <v>30075</v>
       </c>
-      <c r="H36" s="11">
+      <c r="N36" s="11">
         <v>40638</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9">
+        <v>165567</v>
+      </c>
+      <c r="F37" s="9">
+        <v>163119</v>
+      </c>
+      <c r="G37" s="9">
+        <v>317813</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I37" s="9">
+        <v>327983</v>
+      </c>
+      <c r="J37" s="9">
+        <v>292807</v>
+      </c>
+      <c r="K37" s="9">
         <v>277362</v>
       </c>
-      <c r="F37" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G37" s="9">
+      <c r="L37" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M37" s="9">
         <v>225867</v>
       </c>
-      <c r="H37" s="9">
+      <c r="N37" s="9">
         <v>264150</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11">
+        <v>2844</v>
+      </c>
+      <c r="F38" s="11">
+        <v>2844</v>
+      </c>
+      <c r="G38" s="11">
+        <v>2844</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I38" s="11">
+        <v>2799</v>
+      </c>
+      <c r="J38" s="11">
         <v>2489</v>
       </c>
-      <c r="F38" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G38" s="11">
+      <c r="K38" s="11">
+        <v>2489</v>
+      </c>
+      <c r="L38" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M38" s="11">
         <v>1282</v>
       </c>
-      <c r="H38" s="11">
+      <c r="N38" s="11">
         <v>175</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="8" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="9">
+        <v>6733</v>
+      </c>
+      <c r="F39" s="9">
+        <v>10061</v>
+      </c>
+      <c r="G39" s="9">
+        <v>10640</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I39" s="9">
+        <v>5668</v>
+      </c>
+      <c r="J39" s="9">
+        <v>4779</v>
+      </c>
+      <c r="K39" s="9">
         <v>20589</v>
       </c>
-      <c r="F39" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G39" s="9">
+      <c r="L39" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M39" s="9">
         <v>8399</v>
       </c>
-      <c r="H39" s="9">
+      <c r="N39" s="9">
         <v>6521</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11">
+        <v>86300</v>
+      </c>
+      <c r="F40" s="11">
+        <v>70315</v>
+      </c>
+      <c r="G40" s="11">
+        <v>91486</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I40" s="11">
+        <v>93276</v>
+      </c>
+      <c r="J40" s="11">
+        <v>72170</v>
+      </c>
+      <c r="K40" s="11">
         <v>99616</v>
       </c>
-      <c r="F40" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G40" s="11">
+      <c r="L40" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M40" s="11">
         <v>96338</v>
       </c>
-      <c r="H40" s="11">
+      <c r="N40" s="11">
         <v>76578</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="8" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="9">
+        <v>66272</v>
+      </c>
+      <c r="F41" s="9">
+        <v>109939</v>
+      </c>
+      <c r="G41" s="9">
+        <v>114260</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I41" s="9">
+        <v>72721</v>
+      </c>
+      <c r="J41" s="9">
+        <v>74640</v>
+      </c>
+      <c r="K41" s="9">
         <v>103951</v>
       </c>
-      <c r="F41" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G41" s="9">
+      <c r="L41" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M41" s="9">
         <v>141698</v>
       </c>
-      <c r="H41" s="9">
+      <c r="N41" s="9">
         <v>88729</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="I42" s="11">
+        <v>0</v>
+      </c>
+      <c r="J42" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K42" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L42" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M42" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N42" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="8" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="I43" s="9">
+        <v>0</v>
+      </c>
+      <c r="J43" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K43" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L43" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M43" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N43" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D44" s="11"/>
       <c r="E44" s="11">
         <v>2374</v>
       </c>
-      <c r="F44" s="11" t="s">
-        <v>25</v>
+      <c r="F44" s="11">
+        <v>2374</v>
       </c>
       <c r="G44" s="11">
         <v>2374</v>
       </c>
-      <c r="H44" s="11">
+      <c r="H44" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I44" s="11">
         <v>2374</v>
       </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J44" s="11">
+        <v>2374</v>
+      </c>
+      <c r="K44" s="11">
+        <v>2374</v>
+      </c>
+      <c r="L44" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M44" s="11">
+        <v>2374</v>
+      </c>
+      <c r="N44" s="11">
+        <v>2374</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="14" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15"/>
       <c r="E45" s="15">
+        <v>475129</v>
+      </c>
+      <c r="F45" s="15">
+        <v>483490</v>
+      </c>
+      <c r="G45" s="15">
+        <v>686056</v>
+      </c>
+      <c r="H45" s="15">
+        <v>0</v>
+      </c>
+      <c r="I45" s="15">
+        <v>754326</v>
+      </c>
+      <c r="J45" s="15">
+        <v>706858</v>
+      </c>
+      <c r="K45" s="15">
         <v>770230</v>
       </c>
-      <c r="F45" s="15">
-        <v>0</v>
-      </c>
-      <c r="G45" s="15">
+      <c r="L45" s="15">
+        <v>0</v>
+      </c>
+      <c r="M45" s="15">
         <v>797009</v>
       </c>
-      <c r="H45" s="15">
+      <c r="N45" s="15">
         <v>760722</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1510,8 +2139,14 @@
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1519,8 +2154,14 @@
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1528,10 +2169,16 @@
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
-    </row>
-    <row r="49" spans="2:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+    </row>
+    <row r="49" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B49" s="7" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
@@ -1547,8 +2194,26 @@
       <c r="H49" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I49" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J49" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K49" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L49" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M49" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N49" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1556,76 +2221,136 @@
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="8" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D51" s="9"/>
       <c r="E51" s="9">
+        <v>29941</v>
+      </c>
+      <c r="F51" s="9">
+        <v>26114</v>
+      </c>
+      <c r="G51" s="9">
+        <v>28839</v>
+      </c>
+      <c r="H51" s="9">
+        <v>27087</v>
+      </c>
+      <c r="I51" s="9">
+        <v>561</v>
+      </c>
+      <c r="J51" s="9">
+        <v>56863</v>
+      </c>
+      <c r="K51" s="9">
         <v>34000</v>
       </c>
-      <c r="F51" s="9">
+      <c r="L51" s="9">
         <v>12708</v>
       </c>
-      <c r="G51" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H51" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="M51" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N51" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D52" s="11"/>
       <c r="E52" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G52" s="11">
+        <v>31</v>
+      </c>
+      <c r="G52" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H52" s="11">
+        <v>2203</v>
+      </c>
+      <c r="I52" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J52" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K52" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L52" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M52" s="11">
         <v>47564</v>
       </c>
-      <c r="H52" s="11">
+      <c r="N52" s="11">
         <v>70338</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="8" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D53" s="9"/>
-      <c r="E53" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F53" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G53" s="9" t="s">
-        <v>25</v>
+      <c r="E53" s="9">
+        <v>2203</v>
+      </c>
+      <c r="F53" s="9">
+        <v>0</v>
+      </c>
+      <c r="G53" s="9">
+        <v>0</v>
       </c>
       <c r="H53" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="I53" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J53" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K53" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L53" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M53" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N53" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D54" s="11"/>
       <c r="E54" s="11">
@@ -1638,36 +2363,72 @@
         <v>0</v>
       </c>
       <c r="H54" s="11">
+        <v>264</v>
+      </c>
+      <c r="I54" s="11">
+        <v>0</v>
+      </c>
+      <c r="J54" s="11">
+        <v>0</v>
+      </c>
+      <c r="K54" s="11">
+        <v>0</v>
+      </c>
+      <c r="L54" s="11">
+        <v>0</v>
+      </c>
+      <c r="M54" s="11">
+        <v>0</v>
+      </c>
+      <c r="N54" s="11">
         <v>521</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="8" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D55" s="9"/>
       <c r="E55" s="9">
+        <v>301577</v>
+      </c>
+      <c r="F55" s="9">
+        <v>256484</v>
+      </c>
+      <c r="G55" s="9">
+        <v>326174</v>
+      </c>
+      <c r="H55" s="9">
+        <v>334954</v>
+      </c>
+      <c r="I55" s="9">
+        <v>341952</v>
+      </c>
+      <c r="J55" s="9">
+        <v>156345</v>
+      </c>
+      <c r="K55" s="9">
         <v>377301</v>
       </c>
-      <c r="F55" s="9">
+      <c r="L55" s="9">
         <v>401677</v>
       </c>
-      <c r="G55" s="9">
+      <c r="M55" s="9">
         <v>353551</v>
       </c>
-      <c r="H55" s="9">
+      <c r="N55" s="9">
         <v>419147</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D56" s="11"/>
       <c r="E56" s="11">
@@ -1676,82 +2437,154 @@
       <c r="F56" s="11">
         <v>0</v>
       </c>
-      <c r="G56" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H56" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G56" s="11">
+        <v>0</v>
+      </c>
+      <c r="H56" s="11">
+        <v>5504</v>
+      </c>
+      <c r="I56" s="11">
+        <v>16240</v>
+      </c>
+      <c r="J56" s="11">
+        <v>0</v>
+      </c>
+      <c r="K56" s="11">
+        <v>0</v>
+      </c>
+      <c r="L56" s="11">
+        <v>0</v>
+      </c>
+      <c r="M56" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N56" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="8" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D57" s="9"/>
       <c r="E57" s="9">
+        <v>10264</v>
+      </c>
+      <c r="F57" s="9">
+        <v>23372</v>
+      </c>
+      <c r="G57" s="9">
+        <v>24881</v>
+      </c>
+      <c r="H57" s="9">
+        <v>75392</v>
+      </c>
+      <c r="I57" s="9">
+        <v>21464</v>
+      </c>
+      <c r="J57" s="9">
+        <v>0</v>
+      </c>
+      <c r="K57" s="9">
         <v>15256</v>
       </c>
-      <c r="F57" s="9">
+      <c r="L57" s="9">
         <v>36601</v>
       </c>
-      <c r="G57" s="9">
-        <v>0</v>
-      </c>
-      <c r="H57" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="M57" s="9">
+        <v>0</v>
+      </c>
+      <c r="N57" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="11">
-        <v>0</v>
+        <v>29925</v>
       </c>
       <c r="F58" s="11">
+        <v>33854</v>
+      </c>
+      <c r="G58" s="11">
+        <v>26968</v>
+      </c>
+      <c r="H58" s="11">
+        <v>531</v>
+      </c>
+      <c r="I58" s="11">
+        <v>1056</v>
+      </c>
+      <c r="J58" s="11">
+        <v>6508</v>
+      </c>
+      <c r="K58" s="11">
+        <v>0</v>
+      </c>
+      <c r="L58" s="11">
         <v>18972</v>
       </c>
-      <c r="G58" s="11">
+      <c r="M58" s="11">
         <v>16302</v>
       </c>
-      <c r="H58" s="11">
+      <c r="N58" s="11">
         <v>4407</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="8" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D59" s="9"/>
       <c r="E59" s="9">
+        <v>499999</v>
+      </c>
+      <c r="F59" s="9">
+        <v>595836</v>
+      </c>
+      <c r="G59" s="9">
+        <v>555007</v>
+      </c>
+      <c r="H59" s="9">
+        <v>440516</v>
+      </c>
+      <c r="I59" s="9">
+        <v>400492</v>
+      </c>
+      <c r="J59" s="9">
+        <v>248862</v>
+      </c>
+      <c r="K59" s="9">
         <v>364005</v>
       </c>
-      <c r="F59" s="9">
+      <c r="L59" s="9">
         <v>527501</v>
       </c>
-      <c r="G59" s="9">
+      <c r="M59" s="9">
         <v>457947</v>
       </c>
-      <c r="H59" s="9">
+      <c r="N59" s="9">
         <v>558270</v>
       </c>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D60" s="11"/>
       <c r="E60" s="11">
@@ -1766,118 +2599,226 @@
       <c r="H60" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I60" s="11">
+        <v>0</v>
+      </c>
+      <c r="J60" s="11">
+        <v>0</v>
+      </c>
+      <c r="K60" s="11">
+        <v>0</v>
+      </c>
+      <c r="L60" s="11">
+        <v>0</v>
+      </c>
+      <c r="M60" s="11">
+        <v>0</v>
+      </c>
+      <c r="N60" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="8" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D61" s="9"/>
       <c r="E61" s="9">
+        <v>8223</v>
+      </c>
+      <c r="F61" s="9">
+        <v>1734</v>
+      </c>
+      <c r="G61" s="9">
+        <v>0</v>
+      </c>
+      <c r="H61" s="9">
+        <v>865</v>
+      </c>
+      <c r="I61" s="9">
+        <v>2931</v>
+      </c>
+      <c r="J61" s="9">
+        <v>18425</v>
+      </c>
+      <c r="K61" s="9">
         <v>1</v>
       </c>
-      <c r="F61" s="9">
+      <c r="L61" s="9">
         <v>-185</v>
       </c>
-      <c r="G61" s="9">
-        <v>0</v>
-      </c>
-      <c r="H61" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="M61" s="9">
+        <v>0</v>
+      </c>
+      <c r="N61" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="10" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D62" s="11"/>
       <c r="E62" s="11">
+        <v>5182</v>
+      </c>
+      <c r="F62" s="11">
+        <v>40107</v>
+      </c>
+      <c r="G62" s="11">
+        <v>14047</v>
+      </c>
+      <c r="H62" s="11">
+        <v>33105</v>
+      </c>
+      <c r="I62" s="11">
+        <v>14138</v>
+      </c>
+      <c r="J62" s="11">
+        <v>40394</v>
+      </c>
+      <c r="K62" s="11">
         <v>24389</v>
       </c>
-      <c r="F62" s="11">
+      <c r="L62" s="11">
         <v>-3646</v>
       </c>
-      <c r="G62" s="11">
+      <c r="M62" s="11">
         <v>1597</v>
       </c>
-      <c r="H62" s="11">
+      <c r="N62" s="11">
         <v>31749</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="8" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D63" s="9"/>
       <c r="E63" s="9">
+        <v>153268</v>
+      </c>
+      <c r="F63" s="9">
+        <v>97513</v>
+      </c>
+      <c r="G63" s="9">
+        <v>85387</v>
+      </c>
+      <c r="H63" s="9">
+        <v>63290</v>
+      </c>
+      <c r="I63" s="9">
+        <v>95354</v>
+      </c>
+      <c r="J63" s="9">
+        <v>86690</v>
+      </c>
+      <c r="K63" s="9">
         <v>89072</v>
       </c>
-      <c r="F63" s="9">
+      <c r="L63" s="9">
         <v>146085</v>
       </c>
-      <c r="G63" s="9">
+      <c r="M63" s="9">
         <v>58683</v>
       </c>
-      <c r="H63" s="9">
+      <c r="N63" s="9">
         <v>158075</v>
       </c>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="10" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G64" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="G64" s="11">
+        <v>0</v>
       </c>
       <c r="H64" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="I64" s="11">
+        <v>0</v>
+      </c>
+      <c r="J64" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K64" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L64" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M64" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N64" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="8" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D65" s="9"/>
       <c r="E65" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G65" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="G65" s="9">
+        <v>0</v>
       </c>
       <c r="H65" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="I65" s="9">
+        <v>0</v>
+      </c>
+      <c r="J65" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K65" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L65" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M65" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N65" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="10" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D66" s="11"/>
       <c r="E66" s="11">
@@ -1892,27 +2833,63 @@
       <c r="H66" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I66" s="11">
+        <v>0</v>
+      </c>
+      <c r="J66" s="11">
+        <v>0</v>
+      </c>
+      <c r="K66" s="11">
+        <v>0</v>
+      </c>
+      <c r="L66" s="11">
+        <v>0</v>
+      </c>
+      <c r="M66" s="11">
+        <v>0</v>
+      </c>
+      <c r="N66" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="14" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C67" s="15"/>
       <c r="D67" s="15"/>
       <c r="E67" s="15">
+        <v>1040582</v>
+      </c>
+      <c r="F67" s="15">
+        <v>1075014</v>
+      </c>
+      <c r="G67" s="15">
+        <v>1061303</v>
+      </c>
+      <c r="H67" s="15">
+        <v>983711</v>
+      </c>
+      <c r="I67" s="15">
+        <v>894188</v>
+      </c>
+      <c r="J67" s="15">
+        <v>614087</v>
+      </c>
+      <c r="K67" s="15">
         <v>904024</v>
       </c>
-      <c r="F67" s="15">
+      <c r="L67" s="15">
         <v>1139713</v>
       </c>
-      <c r="G67" s="15">
+      <c r="M67" s="15">
         <v>935644</v>
       </c>
-      <c r="H67" s="15">
+      <c r="N67" s="15">
         <v>1242507</v>
       </c>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1920,8 +2897,14 @@
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
-    </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -1929,8 +2912,14 @@
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
-    </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -1938,10 +2927,16 @@
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
-    </row>
-    <row r="71" spans="2:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+    </row>
+    <row r="71" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B71" s="7" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
@@ -1957,8 +2952,26 @@
       <c r="H71" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I71" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J71" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K71" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L71" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M71" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N71" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -1966,76 +2979,136 @@
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
-    </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="8" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="9">
+        <v>25178</v>
+      </c>
+      <c r="F73" s="9">
+        <v>18863</v>
+      </c>
+      <c r="G73" s="9">
+        <v>27004</v>
+      </c>
+      <c r="H73" s="9">
+        <v>27071</v>
+      </c>
+      <c r="I73" s="9">
+        <v>32805</v>
+      </c>
+      <c r="J73" s="9">
+        <v>4364</v>
+      </c>
+      <c r="K73" s="9">
         <v>25234</v>
       </c>
-      <c r="F73" s="9">
+      <c r="L73" s="9">
         <v>24713</v>
       </c>
-      <c r="G73" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H73" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="M73" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N73" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="10" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D74" s="11"/>
       <c r="E74" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F74" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G74" s="11">
+        <v>31</v>
+      </c>
+      <c r="G74" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H74" s="11">
+        <v>2203</v>
+      </c>
+      <c r="I74" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J74" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K74" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L74" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M74" s="11">
         <v>17769</v>
       </c>
-      <c r="H74" s="11">
+      <c r="N74" s="11">
         <v>20887</v>
       </c>
     </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="8" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D75" s="9"/>
-      <c r="E75" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F75" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G75" s="9" t="s">
-        <v>25</v>
+      <c r="E75" s="9">
+        <v>0</v>
+      </c>
+      <c r="F75" s="9">
+        <v>2203</v>
+      </c>
+      <c r="G75" s="9">
+        <v>0</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="I75" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J75" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K75" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L75" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M75" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N75" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="10" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D76" s="11"/>
       <c r="E76" s="11">
@@ -2045,249 +3118,465 @@
         <v>0</v>
       </c>
       <c r="G76" s="11">
+        <v>2281</v>
+      </c>
+      <c r="H76" s="11">
+        <v>0</v>
+      </c>
+      <c r="I76" s="11">
+        <v>0</v>
+      </c>
+      <c r="J76" s="11">
+        <v>0</v>
+      </c>
+      <c r="K76" s="11">
+        <v>0</v>
+      </c>
+      <c r="L76" s="11">
+        <v>0</v>
+      </c>
+      <c r="M76" s="11">
         <v>4140</v>
       </c>
-      <c r="H76" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="N76" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="8" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="9">
+        <v>320455</v>
+      </c>
+      <c r="F77" s="9">
+        <v>257823</v>
+      </c>
+      <c r="G77" s="9">
+        <v>330759</v>
+      </c>
+      <c r="H77" s="9">
+        <v>276294</v>
+      </c>
+      <c r="I77" s="9">
+        <v>285480</v>
+      </c>
+      <c r="J77" s="9">
+        <v>184966</v>
+      </c>
+      <c r="K77" s="9">
         <v>356832</v>
       </c>
-      <c r="F77" s="9">
+      <c r="L77" s="9">
         <v>351653</v>
       </c>
-      <c r="G77" s="9">
+      <c r="M77" s="9">
         <v>366066</v>
       </c>
-      <c r="H77" s="9">
+      <c r="N77" s="9">
         <v>419147</v>
       </c>
     </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="10" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D78" s="11"/>
       <c r="E78" s="11">
+        <v>7864</v>
+      </c>
+      <c r="F78" s="11">
+        <v>7458</v>
+      </c>
+      <c r="G78" s="11">
+        <v>6532</v>
+      </c>
+      <c r="H78" s="11">
+        <v>23184</v>
+      </c>
+      <c r="I78" s="11">
+        <v>12741</v>
+      </c>
+      <c r="J78" s="11">
+        <v>0</v>
+      </c>
+      <c r="K78" s="11">
         <v>4657</v>
       </c>
-      <c r="F78" s="11">
-        <v>0</v>
-      </c>
-      <c r="G78" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H78" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="L78" s="11">
+        <v>0</v>
+      </c>
+      <c r="M78" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N78" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="8" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D79" s="9"/>
       <c r="E79" s="9">
+        <v>23838</v>
+      </c>
+      <c r="F79" s="9">
+        <v>25052</v>
+      </c>
+      <c r="G79" s="9">
+        <v>25715</v>
+      </c>
+      <c r="H79" s="9">
+        <v>9872</v>
+      </c>
+      <c r="I79" s="9">
+        <v>28015</v>
+      </c>
+      <c r="J79" s="9">
+        <v>13328</v>
+      </c>
+      <c r="K79" s="9">
         <v>23877</v>
       </c>
-      <c r="F79" s="9">
+      <c r="L79" s="9">
         <v>23129</v>
       </c>
-      <c r="G79" s="9">
+      <c r="M79" s="9">
         <v>22559</v>
       </c>
-      <c r="H79" s="9">
+      <c r="N79" s="9">
         <v>21770</v>
       </c>
     </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="10" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D80" s="11"/>
       <c r="E80" s="11">
+        <v>16776</v>
+      </c>
+      <c r="F80" s="11">
+        <v>6624</v>
+      </c>
+      <c r="G80" s="11">
+        <v>8874</v>
+      </c>
+      <c r="H80" s="11">
+        <v>10142</v>
+      </c>
+      <c r="I80" s="11">
+        <v>14138</v>
+      </c>
+      <c r="J80" s="11">
+        <v>10807</v>
+      </c>
+      <c r="K80" s="11">
         <v>19054</v>
       </c>
-      <c r="F80" s="11">
+      <c r="L80" s="11">
         <v>10164</v>
       </c>
-      <c r="G80" s="11">
+      <c r="M80" s="11">
         <v>5739</v>
       </c>
-      <c r="H80" s="11">
+      <c r="N80" s="11">
         <v>1708</v>
       </c>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="8" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D81" s="9"/>
       <c r="E81" s="9">
+        <v>502447</v>
+      </c>
+      <c r="F81" s="9">
+        <v>441142</v>
+      </c>
+      <c r="G81" s="9">
+        <v>525860</v>
+      </c>
+      <c r="H81" s="9">
+        <v>459493</v>
+      </c>
+      <c r="I81" s="9">
+        <v>435668</v>
+      </c>
+      <c r="J81" s="9">
+        <v>264307</v>
+      </c>
+      <c r="K81" s="9">
         <v>509733</v>
       </c>
-      <c r="F81" s="9">
+      <c r="L81" s="9">
         <v>433269</v>
       </c>
-      <c r="G81" s="9">
+      <c r="M81" s="9">
         <v>419664</v>
       </c>
-      <c r="H81" s="9">
+      <c r="N81" s="9">
         <v>538265</v>
       </c>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="10" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D82" s="11"/>
       <c r="E82" s="11">
         <v>0</v>
       </c>
       <c r="F82" s="11">
+        <v>0</v>
+      </c>
+      <c r="G82" s="11">
+        <v>0</v>
+      </c>
+      <c r="H82" s="11">
+        <v>45</v>
+      </c>
+      <c r="I82" s="11">
+        <v>310</v>
+      </c>
+      <c r="J82" s="11">
+        <v>0</v>
+      </c>
+      <c r="K82" s="11">
+        <v>0</v>
+      </c>
+      <c r="L82" s="11">
         <v>1207</v>
       </c>
-      <c r="G82" s="11">
+      <c r="M82" s="11">
         <v>1107</v>
       </c>
-      <c r="H82" s="11">
+      <c r="N82" s="11">
         <v>90</v>
       </c>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83" s="8" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D83" s="9"/>
       <c r="E83" s="9">
+        <v>4895</v>
+      </c>
+      <c r="F83" s="9">
+        <v>1155</v>
+      </c>
+      <c r="G83" s="9">
+        <v>2945</v>
+      </c>
+      <c r="H83" s="9">
+        <v>2892</v>
+      </c>
+      <c r="I83" s="9">
+        <v>3820</v>
+      </c>
+      <c r="J83" s="9">
+        <v>2615</v>
+      </c>
+      <c r="K83" s="9">
         <v>4535</v>
       </c>
-      <c r="F83" s="9">
+      <c r="L83" s="9">
         <v>7470</v>
       </c>
-      <c r="G83" s="9">
+      <c r="M83" s="9">
         <v>1878</v>
       </c>
-      <c r="H83" s="9">
+      <c r="N83" s="9">
         <v>3752</v>
       </c>
     </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="10" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D84" s="11"/>
       <c r="E84" s="11">
+        <v>21167</v>
+      </c>
+      <c r="F84" s="11">
+        <v>18936</v>
+      </c>
+      <c r="G84" s="11">
+        <v>19358</v>
+      </c>
+      <c r="H84" s="11">
+        <v>26004</v>
+      </c>
+      <c r="I84" s="11">
+        <v>35244</v>
+      </c>
+      <c r="J84" s="11">
+        <v>12948</v>
+      </c>
+      <c r="K84" s="11">
         <v>22788</v>
       </c>
-      <c r="F84" s="11">
+      <c r="L84" s="11">
         <v>1232</v>
       </c>
-      <c r="G84" s="11">
+      <c r="M84" s="11">
         <v>21357</v>
       </c>
-      <c r="H84" s="11">
+      <c r="N84" s="11">
         <v>20983</v>
       </c>
     </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="8" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D85" s="9"/>
       <c r="E85" s="9">
+        <v>109601</v>
+      </c>
+      <c r="F85" s="9">
+        <v>93192</v>
+      </c>
+      <c r="G85" s="9">
+        <v>90678</v>
+      </c>
+      <c r="H85" s="9">
+        <v>99538</v>
+      </c>
+      <c r="I85" s="9">
+        <v>93435</v>
+      </c>
+      <c r="J85" s="9">
+        <v>57379</v>
+      </c>
+      <c r="K85" s="9">
         <v>103756</v>
       </c>
-      <c r="F85" s="9">
+      <c r="L85" s="9">
         <v>93653</v>
       </c>
-      <c r="G85" s="9">
+      <c r="M85" s="9">
         <v>111652</v>
       </c>
-      <c r="H85" s="9">
+      <c r="N85" s="9">
         <v>108660</v>
       </c>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="10" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D86" s="11"/>
       <c r="E86" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F86" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G86" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="G86" s="11">
+        <v>0</v>
       </c>
       <c r="H86" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="I86" s="11">
+        <v>0</v>
+      </c>
+      <c r="J86" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K86" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L86" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M86" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N86" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="8" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D87" s="9"/>
       <c r="E87" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G87" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="G87" s="9">
+        <v>0</v>
       </c>
       <c r="H87" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="I87" s="9">
+        <v>0</v>
+      </c>
+      <c r="J87" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K87" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L87" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M87" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N87" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="10" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D88" s="11"/>
       <c r="E88" s="11">
@@ -2302,27 +3591,63 @@
       <c r="H88" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I88" s="11">
+        <v>0</v>
+      </c>
+      <c r="J88" s="11">
+        <v>0</v>
+      </c>
+      <c r="K88" s="11">
+        <v>0</v>
+      </c>
+      <c r="L88" s="11">
+        <v>0</v>
+      </c>
+      <c r="M88" s="11">
+        <v>0</v>
+      </c>
+      <c r="N88" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="14" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C89" s="15"/>
       <c r="D89" s="15"/>
       <c r="E89" s="15">
+        <v>1032221</v>
+      </c>
+      <c r="F89" s="15">
+        <v>872448</v>
+      </c>
+      <c r="G89" s="15">
+        <v>1040006</v>
+      </c>
+      <c r="H89" s="15">
+        <v>936738</v>
+      </c>
+      <c r="I89" s="15">
+        <v>941656</v>
+      </c>
+      <c r="J89" s="15">
+        <v>550714</v>
+      </c>
+      <c r="K89" s="15">
         <v>1070466</v>
       </c>
-      <c r="F89" s="15">
+      <c r="L89" s="15">
         <v>946490</v>
       </c>
-      <c r="G89" s="15">
+      <c r="M89" s="15">
         <v>971931</v>
       </c>
-      <c r="H89" s="15">
+      <c r="N89" s="15">
         <v>1135262</v>
       </c>
     </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -2330,8 +3655,14 @@
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
-    </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -2339,8 +3670,14 @@
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
-    </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -2348,10 +3685,16 @@
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
-    </row>
-    <row r="93" spans="2:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I92" s="1"/>
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
+      <c r="N92" s="1"/>
+    </row>
+    <row r="93" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B93" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
@@ -2367,8 +3710,26 @@
       <c r="H93" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I93" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J93" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K93" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L93" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M93" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N93" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -2376,328 +3737,604 @@
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
-    </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I94" s="1"/>
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+      <c r="N94" s="1"/>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" s="8" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D95" s="9"/>
       <c r="E95" s="9">
+        <v>33784</v>
+      </c>
+      <c r="F95" s="9">
+        <v>41035</v>
+      </c>
+      <c r="G95" s="9">
+        <v>42870</v>
+      </c>
+      <c r="H95" s="9">
+        <v>42886</v>
+      </c>
+      <c r="I95" s="9">
+        <v>10642</v>
+      </c>
+      <c r="J95" s="9">
+        <v>63141</v>
+      </c>
+      <c r="K95" s="9">
         <v>71907</v>
       </c>
-      <c r="F95" s="9">
+      <c r="L95" s="9">
         <v>59902</v>
       </c>
-      <c r="G95" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H95" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="M95" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N95" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" s="10" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D96" s="11"/>
       <c r="E96" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F96" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G96" s="11">
+        <v>31</v>
+      </c>
+      <c r="G96" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H96" s="11">
+        <v>0</v>
+      </c>
+      <c r="I96" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J96" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K96" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L96" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M96" s="11">
         <v>89697</v>
       </c>
-      <c r="H96" s="11">
+      <c r="N96" s="11">
         <v>139148</v>
       </c>
     </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" s="8" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D97" s="9"/>
-      <c r="E97" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F97" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G97" s="9" t="s">
-        <v>25</v>
+      <c r="E97" s="9">
+        <v>2203</v>
+      </c>
+      <c r="F97" s="9">
+        <v>0</v>
+      </c>
+      <c r="G97" s="9">
+        <v>0</v>
       </c>
       <c r="H97" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="I97" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J97" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K97" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L97" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M97" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N97" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" s="10" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D98" s="11"/>
       <c r="E98" s="11">
+        <v>11785</v>
+      </c>
+      <c r="F98" s="11">
+        <v>11785</v>
+      </c>
+      <c r="G98" s="11">
+        <v>9504</v>
+      </c>
+      <c r="H98" s="11">
         <v>9768</v>
       </c>
-      <c r="F98" s="11">
+      <c r="I98" s="11">
         <v>9768</v>
       </c>
-      <c r="G98" s="11">
+      <c r="J98" s="11">
+        <v>9768</v>
+      </c>
+      <c r="K98" s="11">
+        <v>9768</v>
+      </c>
+      <c r="L98" s="11">
+        <v>9768</v>
+      </c>
+      <c r="M98" s="11">
         <v>5628</v>
       </c>
-      <c r="H98" s="11">
+      <c r="N98" s="11">
         <v>6149</v>
       </c>
     </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B99" s="8" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D99" s="9"/>
       <c r="E99" s="9">
+        <v>12974</v>
+      </c>
+      <c r="F99" s="9">
+        <v>11635</v>
+      </c>
+      <c r="G99" s="9">
+        <v>7050</v>
+      </c>
+      <c r="H99" s="9">
+        <v>65710</v>
+      </c>
+      <c r="I99" s="9">
+        <v>122182</v>
+      </c>
+      <c r="J99" s="9">
+        <v>93561</v>
+      </c>
+      <c r="K99" s="9">
         <v>114030</v>
       </c>
-      <c r="F99" s="9">
+      <c r="L99" s="9">
         <v>164054</v>
       </c>
-      <c r="G99" s="9">
+      <c r="M99" s="9">
         <v>151539</v>
       </c>
-      <c r="H99" s="9">
+      <c r="N99" s="9">
         <v>151539</v>
       </c>
     </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B100" s="10" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D100" s="11"/>
       <c r="E100" s="11">
-        <v>0</v>
+        <v>32828</v>
       </c>
       <c r="F100" s="11">
-        <v>0</v>
-      </c>
-      <c r="G100" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H100" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
+        <v>25370</v>
+      </c>
+      <c r="G100" s="11">
+        <v>18838</v>
+      </c>
+      <c r="H100" s="11">
+        <v>1158</v>
+      </c>
+      <c r="I100" s="11">
+        <v>4657</v>
+      </c>
+      <c r="J100" s="11">
+        <v>4657</v>
+      </c>
+      <c r="K100" s="11">
+        <v>0</v>
+      </c>
+      <c r="L100" s="11">
+        <v>0</v>
+      </c>
+      <c r="M100" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N100" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" s="8" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D101" s="9"/>
       <c r="E101" s="9">
+        <v>9274</v>
+      </c>
+      <c r="F101" s="9">
+        <v>7594</v>
+      </c>
+      <c r="G101" s="9">
+        <v>6760</v>
+      </c>
+      <c r="H101" s="9">
+        <v>72280</v>
+      </c>
+      <c r="I101" s="9">
+        <v>65729</v>
+      </c>
+      <c r="J101" s="9">
+        <v>52401</v>
+      </c>
+      <c r="K101" s="9">
         <v>43780</v>
       </c>
-      <c r="F101" s="9">
+      <c r="L101" s="9">
         <v>57252</v>
       </c>
-      <c r="G101" s="9">
+      <c r="M101" s="9">
         <v>34693</v>
       </c>
-      <c r="H101" s="9">
+      <c r="N101" s="9">
         <v>12923</v>
       </c>
     </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102" s="10" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D102" s="11"/>
       <c r="E102" s="11">
+        <v>21990</v>
+      </c>
+      <c r="F102" s="11">
+        <v>49220</v>
+      </c>
+      <c r="G102" s="11">
+        <v>67314</v>
+      </c>
+      <c r="H102" s="11">
+        <v>57703</v>
+      </c>
+      <c r="I102" s="11">
+        <v>44621</v>
+      </c>
+      <c r="J102" s="11">
+        <v>40321</v>
+      </c>
+      <c r="K102" s="11">
         <v>21267</v>
       </c>
-      <c r="F102" s="11">
+      <c r="L102" s="11">
         <v>30075</v>
       </c>
-      <c r="G102" s="11">
+      <c r="M102" s="11">
         <v>40638</v>
       </c>
-      <c r="H102" s="11">
+      <c r="N102" s="11">
         <v>43337</v>
       </c>
     </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B103" s="8" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D103" s="9"/>
       <c r="E103" s="9">
+        <v>163119</v>
+      </c>
+      <c r="F103" s="9">
+        <v>317813</v>
+      </c>
+      <c r="G103" s="9">
+        <v>346960</v>
+      </c>
+      <c r="H103" s="9">
+        <v>327983</v>
+      </c>
+      <c r="I103" s="9">
+        <v>292807</v>
+      </c>
+      <c r="J103" s="9">
+        <v>277362</v>
+      </c>
+      <c r="K103" s="9">
         <v>131635</v>
       </c>
-      <c r="F103" s="9">
+      <c r="L103" s="9">
         <v>225867</v>
       </c>
-      <c r="G103" s="9">
+      <c r="M103" s="9">
         <v>264150</v>
       </c>
-      <c r="H103" s="9">
+      <c r="N103" s="9">
         <v>284156</v>
       </c>
     </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B104" s="10" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D104" s="11"/>
       <c r="E104" s="11">
+        <v>2844</v>
+      </c>
+      <c r="F104" s="11">
+        <v>2844</v>
+      </c>
+      <c r="G104" s="11">
+        <v>2844</v>
+      </c>
+      <c r="H104" s="11">
+        <v>2799</v>
+      </c>
+      <c r="I104" s="11">
         <v>2489</v>
       </c>
-      <c r="F104" s="11">
+      <c r="J104" s="11">
+        <v>2489</v>
+      </c>
+      <c r="K104" s="11">
+        <v>2489</v>
+      </c>
+      <c r="L104" s="11">
         <v>1282</v>
       </c>
-      <c r="G104" s="11">
+      <c r="M104" s="11">
         <v>175</v>
       </c>
-      <c r="H104" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="N104" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B105" s="8" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D105" s="9"/>
       <c r="E105" s="9">
+        <v>10061</v>
+      </c>
+      <c r="F105" s="9">
+        <v>10640</v>
+      </c>
+      <c r="G105" s="9">
+        <v>7695</v>
+      </c>
+      <c r="H105" s="9">
+        <v>5668</v>
+      </c>
+      <c r="I105" s="9">
+        <v>4779</v>
+      </c>
+      <c r="J105" s="9">
+        <v>20589</v>
+      </c>
+      <c r="K105" s="9">
         <v>16054</v>
       </c>
-      <c r="F105" s="9">
+      <c r="L105" s="9">
         <v>8399</v>
       </c>
-      <c r="G105" s="9">
+      <c r="M105" s="9">
         <v>6521</v>
       </c>
-      <c r="H105" s="9">
+      <c r="N105" s="9">
         <v>2709</v>
       </c>
     </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B106" s="10" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D106" s="11"/>
       <c r="E106" s="11">
+        <v>70315</v>
+      </c>
+      <c r="F106" s="11">
+        <v>91486</v>
+      </c>
+      <c r="G106" s="11">
+        <v>86175</v>
+      </c>
+      <c r="H106" s="11">
+        <v>93276</v>
+      </c>
+      <c r="I106" s="11">
+        <v>72170</v>
+      </c>
+      <c r="J106" s="11">
+        <v>99616</v>
+      </c>
+      <c r="K106" s="11">
         <v>101216</v>
       </c>
-      <c r="F106" s="11">
+      <c r="L106" s="11">
         <v>96338</v>
       </c>
-      <c r="G106" s="11">
+      <c r="M106" s="11">
         <v>76578</v>
       </c>
-      <c r="H106" s="11">
+      <c r="N106" s="11">
         <v>87344</v>
       </c>
     </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B107" s="8" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D107" s="9"/>
       <c r="E107" s="9">
+        <v>109939</v>
+      </c>
+      <c r="F107" s="9">
+        <v>114260</v>
+      </c>
+      <c r="G107" s="9">
+        <v>108969</v>
+      </c>
+      <c r="H107" s="9">
+        <v>72721</v>
+      </c>
+      <c r="I107" s="9">
+        <v>74640</v>
+      </c>
+      <c r="J107" s="9">
+        <v>103951</v>
+      </c>
+      <c r="K107" s="9">
         <v>89266</v>
       </c>
-      <c r="F107" s="9">
+      <c r="L107" s="9">
         <v>141698</v>
       </c>
-      <c r="G107" s="9">
+      <c r="M107" s="9">
         <v>88729</v>
       </c>
-      <c r="H107" s="9">
+      <c r="N107" s="9">
         <v>138144</v>
       </c>
     </row>
-    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B108" s="10" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D108" s="11"/>
       <c r="E108" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F108" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G108" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="G108" s="11">
+        <v>0</v>
       </c>
       <c r="H108" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="I108" s="11">
+        <v>0</v>
+      </c>
+      <c r="J108" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K108" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L108" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M108" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N108" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B109" s="8" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D109" s="9"/>
       <c r="E109" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F109" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G109" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="G109" s="9">
+        <v>0</v>
       </c>
       <c r="H109" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="I109" s="9">
+        <v>0</v>
+      </c>
+      <c r="J109" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K109" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L109" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M109" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N109" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B110" s="10" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D110" s="11"/>
       <c r="E110" s="11">
@@ -2712,27 +4349,63 @@
       <c r="H110" s="11">
         <v>2374</v>
       </c>
-    </row>
-    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I110" s="11">
+        <v>2374</v>
+      </c>
+      <c r="J110" s="11">
+        <v>2374</v>
+      </c>
+      <c r="K110" s="11">
+        <v>2374</v>
+      </c>
+      <c r="L110" s="11">
+        <v>2374</v>
+      </c>
+      <c r="M110" s="11">
+        <v>2374</v>
+      </c>
+      <c r="N110" s="11">
+        <v>2374</v>
+      </c>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B111" s="14" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C111" s="15"/>
       <c r="D111" s="15"/>
       <c r="E111" s="15">
+        <v>483490</v>
+      </c>
+      <c r="F111" s="15">
+        <v>686056</v>
+      </c>
+      <c r="G111" s="15">
+        <v>707353</v>
+      </c>
+      <c r="H111" s="15">
+        <v>754326</v>
+      </c>
+      <c r="I111" s="15">
+        <v>706858</v>
+      </c>
+      <c r="J111" s="15">
+        <v>770230</v>
+      </c>
+      <c r="K111" s="15">
         <v>603786</v>
       </c>
-      <c r="F111" s="15">
+      <c r="L111" s="15">
         <v>797009</v>
       </c>
-      <c r="G111" s="15">
+      <c r="M111" s="15">
         <v>760722</v>
       </c>
-      <c r="H111" s="15">
+      <c r="N111" s="15">
         <v>867823</v>
       </c>
     </row>
-    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -2740,8 +4413,14 @@
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I112" s="1"/>
+      <c r="J112" s="1"/>
+      <c r="K112" s="1"/>
+      <c r="L112" s="1"/>
+      <c r="M112" s="1"/>
+      <c r="N112" s="1"/>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -2749,8 +4428,14 @@
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I113" s="1"/>
+      <c r="J113" s="1"/>
+      <c r="K113" s="1"/>
+      <c r="L113" s="1"/>
+      <c r="M113" s="1"/>
+      <c r="N113" s="1"/>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -2758,10 +4443,16 @@
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
-    </row>
-    <row r="115" spans="2:9" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I114" s="1"/>
+      <c r="J114" s="1"/>
+      <c r="K114" s="1"/>
+      <c r="L114" s="1"/>
+      <c r="M114" s="1"/>
+      <c r="N114" s="1"/>
+    </row>
+    <row r="115" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B115" s="7" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C115" s="6"/>
       <c r="D115" s="6"/>
@@ -2778,10 +4469,25 @@
         <v>7</v>
       </c>
       <c r="I115" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="J115" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K115" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L115" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M115" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N115" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -2789,10 +4495,16 @@
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
-    </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I116" s="1"/>
+      <c r="J116" s="1"/>
+      <c r="K116" s="1"/>
+      <c r="L116" s="1"/>
+      <c r="M116" s="1"/>
+      <c r="N116" s="1"/>
+    </row>
+    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B117" s="8" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C117" s="9"/>
       <c r="D117" s="9"/>
@@ -2811,10 +4523,25 @@
       <c r="I117" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J117" s="9">
+        <v>0</v>
+      </c>
+      <c r="K117" s="9">
+        <v>0</v>
+      </c>
+      <c r="L117" s="9">
+        <v>0</v>
+      </c>
+      <c r="M117" s="9">
+        <v>0</v>
+      </c>
+      <c r="N117" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B118" s="10" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C118" s="11"/>
       <c r="D118" s="11"/>
@@ -2827,16 +4554,31 @@
       <c r="G118" s="11">
         <v>0</v>
       </c>
-      <c r="H118" s="9">
-        <v>0</v>
-      </c>
-      <c r="I118" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H118" s="11">
+        <v>0</v>
+      </c>
+      <c r="I118" s="11">
+        <v>0</v>
+      </c>
+      <c r="J118" s="11">
+        <v>0</v>
+      </c>
+      <c r="K118" s="11">
+        <v>0</v>
+      </c>
+      <c r="L118" s="11">
+        <v>0</v>
+      </c>
+      <c r="M118" s="11">
+        <v>0</v>
+      </c>
+      <c r="N118" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B119" s="8" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C119" s="9"/>
       <c r="D119" s="9"/>
@@ -2855,10 +4597,25 @@
       <c r="I119" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J119" s="9">
+        <v>0</v>
+      </c>
+      <c r="K119" s="9">
+        <v>0</v>
+      </c>
+      <c r="L119" s="9">
+        <v>0</v>
+      </c>
+      <c r="M119" s="9">
+        <v>0</v>
+      </c>
+      <c r="N119" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B120" s="10" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C120" s="11"/>
       <c r="D120" s="11"/>
@@ -2871,104 +4628,179 @@
       <c r="G120" s="11">
         <v>0</v>
       </c>
-      <c r="H120" s="9">
-        <v>0</v>
-      </c>
-      <c r="I120" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H120" s="11">
+        <v>0</v>
+      </c>
+      <c r="I120" s="11">
+        <v>0</v>
+      </c>
+      <c r="J120" s="11">
+        <v>0</v>
+      </c>
+      <c r="K120" s="11">
+        <v>0</v>
+      </c>
+      <c r="L120" s="11">
+        <v>0</v>
+      </c>
+      <c r="M120" s="11">
+        <v>0</v>
+      </c>
+      <c r="N120" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B121" s="8" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C121" s="9"/>
       <c r="D121" s="9"/>
       <c r="E121" s="9">
+        <v>97136</v>
+      </c>
+      <c r="F121" s="9">
+        <v>135067</v>
+      </c>
+      <c r="G121" s="9">
+        <v>-88007</v>
+      </c>
+      <c r="H121" s="9">
+        <v>326199</v>
+      </c>
+      <c r="I121" s="9">
+        <v>217865</v>
+      </c>
+      <c r="J121" s="9">
+        <v>182823</v>
+      </c>
+      <c r="K121" s="9">
         <v>190418</v>
       </c>
-      <c r="F121" s="9">
+      <c r="L121" s="9">
         <v>153030</v>
       </c>
-      <c r="G121" s="9">
+      <c r="M121" s="9">
         <v>211626</v>
       </c>
-      <c r="H121" s="9">
+      <c r="N121" s="9">
         <v>384118</v>
       </c>
-      <c r="I121">
-        <v>58976</v>
-      </c>
-    </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B122" s="10" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C122" s="11"/>
       <c r="D122" s="11"/>
       <c r="E122" s="11">
+        <v>124104</v>
+      </c>
+      <c r="F122" s="11">
+        <v>128912</v>
+      </c>
+      <c r="G122" s="11">
+        <v>43208</v>
+      </c>
+      <c r="H122" s="11">
+        <v>130603</v>
+      </c>
+      <c r="I122" s="11">
+        <v>190567</v>
+      </c>
+      <c r="J122" s="11">
+        <v>207043</v>
+      </c>
+      <c r="K122" s="11">
         <v>449390</v>
       </c>
-      <c r="F122" s="11">
+      <c r="L122" s="11">
         <v>505179</v>
       </c>
-      <c r="G122" s="11">
+      <c r="M122" s="11">
         <v>448393</v>
       </c>
-      <c r="H122" s="11">
+      <c r="N122" s="11">
         <v>540687</v>
       </c>
-      <c r="I122">
-        <v>489409</v>
-      </c>
-    </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B123" s="8" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C123" s="9"/>
       <c r="D123" s="9"/>
       <c r="E123" s="9">
+        <v>13700</v>
+      </c>
+      <c r="F123" s="9">
+        <v>13710</v>
+      </c>
+      <c r="G123" s="9">
+        <v>13151</v>
+      </c>
+      <c r="H123" s="9">
+        <v>13928</v>
+      </c>
+      <c r="I123" s="9">
+        <v>13119</v>
+      </c>
+      <c r="J123" s="9">
+        <v>14713</v>
+      </c>
+      <c r="K123" s="9">
         <v>15506</v>
       </c>
-      <c r="F123" s="9">
+      <c r="L123" s="9">
         <v>14931</v>
       </c>
-      <c r="G123" s="9">
+      <c r="M123" s="9">
         <v>14613</v>
       </c>
-      <c r="H123" s="9">
+      <c r="N123" s="9">
         <v>14447</v>
       </c>
-      <c r="I123">
-        <v>15126</v>
-      </c>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B124" s="10" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C124" s="11"/>
       <c r="D124" s="11"/>
       <c r="E124" s="11">
+        <v>162277</v>
+      </c>
+      <c r="F124" s="11">
+        <v>144516</v>
+      </c>
+      <c r="G124" s="11">
+        <v>142027</v>
+      </c>
+      <c r="H124" s="11">
+        <v>162583</v>
+      </c>
+      <c r="I124" s="11">
+        <v>257841</v>
+      </c>
+      <c r="J124" s="11">
+        <v>221476</v>
+      </c>
+      <c r="K124" s="11">
         <v>228411</v>
       </c>
-      <c r="F124" s="11">
+      <c r="L124" s="11">
         <v>298787</v>
       </c>
-      <c r="G124" s="11">
+      <c r="M124" s="11">
         <v>506581</v>
       </c>
-      <c r="H124" s="11">
+      <c r="N124" s="11">
         <v>372136</v>
       </c>
-      <c r="I124">
-        <v>380106</v>
-      </c>
-    </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B125" s="8" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C125" s="9"/>
       <c r="D125" s="9"/>
@@ -2987,53 +4819,97 @@
       <c r="I125" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J125" s="9">
+        <v>0</v>
+      </c>
+      <c r="K125" s="9">
+        <v>0</v>
+      </c>
+      <c r="L125" s="9">
+        <v>0</v>
+      </c>
+      <c r="M125" s="9">
+        <v>0</v>
+      </c>
+      <c r="N125" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B126" s="10" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C126" s="11"/>
       <c r="D126" s="11"/>
       <c r="E126" s="11">
+        <v>104033</v>
+      </c>
+      <c r="F126" s="11">
+        <v>140741</v>
+      </c>
+      <c r="G126" s="11">
+        <v>472855</v>
+      </c>
+      <c r="H126" s="11">
+        <v>-15448</v>
+      </c>
+      <c r="I126" s="11">
+        <v>243383</v>
+      </c>
+      <c r="J126" s="11">
+        <v>179674</v>
+      </c>
+      <c r="K126" s="11">
         <v>289121</v>
       </c>
-      <c r="F126" s="11">
+      <c r="L126" s="11">
         <v>464029</v>
       </c>
-      <c r="G126" s="11">
+      <c r="M126" s="11">
         <v>337041</v>
       </c>
-      <c r="H126" s="11">
+      <c r="N126" s="11">
         <v>337639</v>
       </c>
-      <c r="I126">
-        <v>763738</v>
-      </c>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B127" s="14" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C127" s="15"/>
       <c r="D127" s="15"/>
       <c r="E127" s="15">
+        <v>501250</v>
+      </c>
+      <c r="F127" s="15">
+        <v>562946</v>
+      </c>
+      <c r="G127" s="15">
+        <v>583234</v>
+      </c>
+      <c r="H127" s="15">
+        <v>617865</v>
+      </c>
+      <c r="I127" s="15">
+        <v>922775</v>
+      </c>
+      <c r="J127" s="15">
+        <v>805729</v>
+      </c>
+      <c r="K127" s="15">
         <v>1172846</v>
       </c>
-      <c r="F127" s="15">
+      <c r="L127" s="15">
         <v>1435956</v>
       </c>
-      <c r="G127" s="15">
+      <c r="M127" s="15">
         <v>1518254</v>
       </c>
-      <c r="H127" s="15">
+      <c r="N127" s="15">
         <v>1649027</v>
       </c>
-      <c r="I127">
-        <f>SUM(I117:I126)</f>
-        <v>1707355</v>
-      </c>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -3041,8 +4917,14 @@
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
-    </row>
-    <row r="129" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I128" s="1"/>
+      <c r="J128" s="1"/>
+      <c r="K128" s="1"/>
+      <c r="L128" s="1"/>
+      <c r="M128" s="1"/>
+      <c r="N128" s="1"/>
+    </row>
+    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -3050,8 +4932,14 @@
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
-    </row>
-    <row r="130" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I129" s="1"/>
+      <c r="J129" s="1"/>
+      <c r="K129" s="1"/>
+      <c r="L129" s="1"/>
+      <c r="M129" s="1"/>
+      <c r="N129" s="1"/>
+    </row>
+    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -3059,19 +4947,31 @@
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
-    </row>
-    <row r="131" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I130" s="1"/>
+      <c r="J130" s="1"/>
+      <c r="K130" s="1"/>
+      <c r="L130" s="1"/>
+      <c r="M130" s="1"/>
+      <c r="N130" s="1"/>
+    </row>
+    <row r="131" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B131" s="7" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C131" s="6"/>
       <c r="D131" s="6"/>
       <c r="E131" s="6"/>
-      <c r="F131" s="1"/>
+      <c r="F131" s="6"/>
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
-    </row>
-    <row r="132" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I131" s="1"/>
+      <c r="J131" s="1"/>
+      <c r="K131" s="1"/>
+      <c r="L131" s="1"/>
+      <c r="M131" s="1"/>
+      <c r="N131" s="1"/>
+    </row>
+    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -3079,127 +4979,178 @@
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
-    </row>
-    <row r="133" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I132" s="1"/>
+      <c r="J132" s="1"/>
+      <c r="K132" s="1"/>
+      <c r="L132" s="1"/>
+      <c r="M132" s="1"/>
+      <c r="N132" s="1"/>
+    </row>
+    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B133" s="8" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D133" s="9"/>
       <c r="E133" s="9"/>
-      <c r="F133" s="1"/>
+      <c r="F133" s="9"/>
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
-    </row>
-    <row r="134" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I133" s="1"/>
+      <c r="J133" s="1"/>
+      <c r="K133" s="1"/>
+      <c r="L133" s="1"/>
+      <c r="M133" s="1"/>
+      <c r="N133" s="1"/>
+    </row>
+    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B134" s="10" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C134" s="11" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D134" s="11"/>
       <c r="E134" s="11"/>
-      <c r="F134" s="1"/>
+      <c r="F134" s="11"/>
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
-    </row>
-    <row r="135" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I134" s="1"/>
+      <c r="J134" s="1"/>
+      <c r="K134" s="1"/>
+      <c r="L134" s="1"/>
+      <c r="M134" s="1"/>
+      <c r="N134" s="1"/>
+    </row>
+    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B135" s="8" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C135" s="9" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D135" s="9"/>
       <c r="E135" s="9"/>
-      <c r="F135" s="1"/>
+      <c r="F135" s="9"/>
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
-    </row>
-    <row r="136" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I135" s="1"/>
+      <c r="J135" s="1"/>
+      <c r="K135" s="1"/>
+      <c r="L135" s="1"/>
+      <c r="M135" s="1"/>
+      <c r="N135" s="1"/>
+    </row>
+    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B136" s="10" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C136" s="11" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D136" s="11"/>
       <c r="E136" s="11"/>
-      <c r="F136" s="1"/>
+      <c r="F136" s="11"/>
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
-    </row>
-    <row r="137" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I136" s="1"/>
+      <c r="J136" s="1"/>
+      <c r="K136" s="1"/>
+      <c r="L136" s="1"/>
+      <c r="M136" s="1"/>
+      <c r="N136" s="1"/>
+    </row>
+    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B137" s="8" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D137" s="9"/>
       <c r="E137" s="9"/>
-      <c r="F137" s="1"/>
+      <c r="F137" s="9"/>
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
-    </row>
-    <row r="138" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I137" s="1"/>
+      <c r="J137" s="1"/>
+      <c r="K137" s="1"/>
+      <c r="L137" s="1"/>
+      <c r="M137" s="1"/>
+      <c r="N137" s="1"/>
+    </row>
+    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B138" s="10" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C138" s="11" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D138" s="11"/>
       <c r="E138" s="11"/>
-      <c r="F138" s="1"/>
+      <c r="F138" s="11"/>
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
-    </row>
-    <row r="139" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I138" s="1"/>
+      <c r="J138" s="1"/>
+      <c r="K138" s="1"/>
+      <c r="L138" s="1"/>
+      <c r="M138" s="1"/>
+      <c r="N138" s="1"/>
+    </row>
+    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B139" s="8" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C139" s="9" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D139" s="9"/>
       <c r="E139" s="9"/>
-      <c r="F139" s="1"/>
+      <c r="F139" s="9"/>
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
-    </row>
-    <row r="140" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I139" s="1"/>
+      <c r="J139" s="1"/>
+      <c r="K139" s="1"/>
+      <c r="L139" s="1"/>
+      <c r="M139" s="1"/>
+      <c r="N139" s="1"/>
+    </row>
+    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B140" s="10" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C140" s="11" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D140" s="11"/>
       <c r="E140" s="11"/>
-    </row>
-    <row r="141" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F140" s="11"/>
+    </row>
+    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B141" s="8" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C141" s="9" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D141" s="9"/>
       <c r="E141" s="9"/>
-    </row>
-    <row r="142" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F141" s="9"/>
+    </row>
+    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B142" s="10" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C142" s="11" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D142" s="11"/>
       <c r="E142" s="11"/>
+      <c r="F142" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/siman/save/cost/quarterly.xlsx
+++ b/database/industries/siman/save/cost/quarterly.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\save\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\siman\save\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B9E9EDE-AF57-4CC5-9EDB-BD63D34E8270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="89">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -32,9 +31,6 @@
   </si>
   <si>
     <t>بهای تمام شده</t>
-  </si>
-  <si>
-    <t>فصل اول منتهی به 1399/03</t>
   </si>
   <si>
     <t>فصل دوم منتهی به 1399/06</t>
@@ -62,6 +58,9 @@
   </si>
   <si>
     <t>فصل دوم منتهی به 1401/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1401/09</t>
   </si>
   <si>
     <t>مواد مستقیم مصرفی</t>
@@ -97,6 +96,9 @@
     <t>موجودی کالای ساخته شده پایان دوره</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>بهای تمام شده کالای فروش رفته</t>
   </si>
   <si>
@@ -113,9 +115,6 @@
   </si>
   <si>
     <t>تن</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>سیمان خاکستری - سنگ آهن</t>
@@ -293,7 +292,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -463,7 +462,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -475,7 +474,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -522,23 +521,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -574,23 +556,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -742,7 +707,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N305"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -924,34 +889,34 @@
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>117120</v>
+        <v>115083</v>
       </c>
       <c r="F10" s="9">
-        <v>115083</v>
+        <v>162508</v>
       </c>
       <c r="G10" s="9">
-        <v>162508</v>
+        <v>163026</v>
       </c>
       <c r="H10" s="9">
-        <v>163026</v>
+        <v>217865</v>
       </c>
       <c r="I10" s="9">
-        <v>217865</v>
+        <v>166241</v>
       </c>
       <c r="J10" s="9">
-        <v>166241</v>
+        <v>314059</v>
       </c>
       <c r="K10" s="9">
-        <v>314059</v>
+        <v>336012</v>
       </c>
       <c r="L10" s="9">
-        <v>336012</v>
+        <v>349308</v>
       </c>
       <c r="M10" s="9">
-        <v>349308</v>
+        <v>440809</v>
       </c>
       <c r="N10" s="9">
-        <v>440809</v>
+        <v>423448</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
@@ -961,34 +926,34 @@
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>37740</v>
+        <v>32951</v>
       </c>
       <c r="F11" s="11">
-        <v>32951</v>
+        <v>36462</v>
       </c>
       <c r="G11" s="11">
-        <v>36462</v>
+        <v>35509</v>
       </c>
       <c r="H11" s="11">
-        <v>35509</v>
+        <v>46957</v>
       </c>
       <c r="I11" s="11">
-        <v>46957</v>
+        <v>36975</v>
       </c>
       <c r="J11" s="11">
-        <v>36975</v>
+        <v>38787</v>
       </c>
       <c r="K11" s="11">
-        <v>38787</v>
+        <v>62022</v>
       </c>
       <c r="L11" s="11">
-        <v>62022</v>
+        <v>84571</v>
       </c>
       <c r="M11" s="11">
-        <v>84571</v>
+        <v>71591</v>
       </c>
       <c r="N11" s="11">
-        <v>71591</v>
+        <v>75039</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
@@ -998,34 +963,34 @@
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>501250</v>
+        <v>562946</v>
       </c>
       <c r="F12" s="9">
-        <v>562946</v>
+        <v>583234</v>
       </c>
       <c r="G12" s="9">
-        <v>583234</v>
+        <v>617865</v>
       </c>
       <c r="H12" s="9">
-        <v>617865</v>
+        <v>922775</v>
       </c>
       <c r="I12" s="9">
-        <v>922775</v>
+        <v>805729</v>
       </c>
       <c r="J12" s="9">
-        <v>805729</v>
+        <v>1172846</v>
       </c>
       <c r="K12" s="9">
-        <v>1172846</v>
+        <v>1435956</v>
       </c>
       <c r="L12" s="9">
-        <v>1435956</v>
+        <v>1518254</v>
       </c>
       <c r="M12" s="9">
-        <v>1518254</v>
+        <v>1649027</v>
       </c>
       <c r="N12" s="9">
-        <v>1649027</v>
+        <v>1707355</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
@@ -1035,34 +1000,34 @@
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
-        <v>656110</v>
+        <v>710980</v>
       </c>
       <c r="F13" s="13">
-        <v>710980</v>
+        <v>782204</v>
       </c>
       <c r="G13" s="13">
-        <v>782204</v>
+        <v>816400</v>
       </c>
       <c r="H13" s="13">
-        <v>816400</v>
+        <v>1187597</v>
       </c>
       <c r="I13" s="13">
-        <v>1187597</v>
+        <v>1008945</v>
       </c>
       <c r="J13" s="13">
-        <v>1008945</v>
+        <v>1525692</v>
       </c>
       <c r="K13" s="13">
-        <v>1525692</v>
+        <v>1833990</v>
       </c>
       <c r="L13" s="13">
-        <v>1833990</v>
+        <v>1952133</v>
       </c>
       <c r="M13" s="13">
-        <v>1952133</v>
+        <v>2161427</v>
       </c>
       <c r="N13" s="13">
-        <v>2161427</v>
+        <v>2205842</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
@@ -1109,34 +1074,34 @@
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
-        <v>656110</v>
+        <v>710980</v>
       </c>
       <c r="F15" s="13">
-        <v>710980</v>
+        <v>782204</v>
       </c>
       <c r="G15" s="13">
-        <v>782204</v>
+        <v>816400</v>
       </c>
       <c r="H15" s="13">
-        <v>816400</v>
+        <v>1187597</v>
       </c>
       <c r="I15" s="13">
-        <v>1187597</v>
+        <v>1008945</v>
       </c>
       <c r="J15" s="13">
-        <v>1008945</v>
+        <v>1525692</v>
       </c>
       <c r="K15" s="13">
-        <v>1525692</v>
+        <v>1833990</v>
       </c>
       <c r="L15" s="13">
-        <v>1833990</v>
+        <v>1952133</v>
       </c>
       <c r="M15" s="13">
-        <v>1952133</v>
+        <v>2161427</v>
       </c>
       <c r="N15" s="13">
-        <v>2161427</v>
+        <v>2205842</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
@@ -1146,34 +1111,34 @@
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
-        <v>5037</v>
+        <v>29399</v>
       </c>
       <c r="F16" s="9">
-        <v>29399</v>
+        <v>-4583</v>
       </c>
       <c r="G16" s="9">
-        <v>-4583</v>
+        <v>30986</v>
       </c>
       <c r="H16" s="9">
-        <v>30986</v>
+        <v>174126</v>
       </c>
       <c r="I16" s="9">
-        <v>174126</v>
+        <v>-274476</v>
       </c>
       <c r="J16" s="9">
-        <v>-274476</v>
+        <v>-164837</v>
       </c>
       <c r="K16" s="9">
-        <v>-164837</v>
+        <v>-93920</v>
       </c>
       <c r="L16" s="9">
-        <v>-93920</v>
+        <v>-380933</v>
       </c>
       <c r="M16" s="9">
-        <v>-380933</v>
+        <v>-474627</v>
       </c>
       <c r="N16" s="9">
-        <v>-474627</v>
+        <v>252223</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
@@ -1220,34 +1185,34 @@
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
-        <v>661147</v>
+        <v>740379</v>
       </c>
       <c r="F18" s="15">
-        <v>740379</v>
+        <v>777621</v>
       </c>
       <c r="G18" s="15">
-        <v>777621</v>
+        <v>847386</v>
       </c>
       <c r="H18" s="15">
-        <v>847386</v>
+        <v>1361723</v>
       </c>
       <c r="I18" s="15">
-        <v>1361723</v>
+        <v>734469</v>
       </c>
       <c r="J18" s="15">
-        <v>734469</v>
+        <v>1360855</v>
       </c>
       <c r="K18" s="15">
-        <v>1360855</v>
+        <v>1740070</v>
       </c>
       <c r="L18" s="15">
-        <v>1740070</v>
+        <v>1571200</v>
       </c>
       <c r="M18" s="15">
-        <v>1571200</v>
+        <v>1686800</v>
       </c>
       <c r="N18" s="15">
-        <v>1686800</v>
+        <v>2458065</v>
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
@@ -1257,7 +1222,7 @@
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
-        <v>13039</v>
+        <v>0</v>
       </c>
       <c r="F19" s="11">
         <v>0</v>
@@ -1266,25 +1231,25 @@
         <v>0</v>
       </c>
       <c r="H19" s="11">
-        <v>0</v>
+        <v>87214</v>
       </c>
       <c r="I19" s="11">
-        <v>87214</v>
+        <v>0</v>
       </c>
       <c r="J19" s="11">
         <v>0</v>
       </c>
       <c r="K19" s="11">
-        <v>0</v>
+        <v>37215</v>
       </c>
       <c r="L19" s="11">
-        <v>71823</v>
+        <v>84421</v>
       </c>
       <c r="M19" s="11">
-        <v>84421</v>
+        <v>97022</v>
       </c>
       <c r="N19" s="11">
-        <v>97022</v>
+        <v>55518</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
@@ -1294,76 +1259,76 @@
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
-        <v>-33064</v>
+        <v>-51619</v>
       </c>
       <c r="F20" s="9">
-        <v>-51619</v>
+        <v>52772</v>
       </c>
       <c r="G20" s="9">
-        <v>52772</v>
+        <v>-55303</v>
       </c>
       <c r="H20" s="9">
-        <v>-55303</v>
+        <v>-376880</v>
       </c>
       <c r="I20" s="9">
-        <v>-376880</v>
+        <v>342272</v>
       </c>
       <c r="J20" s="9">
-        <v>342272</v>
-      </c>
-      <c r="K20" s="9">
         <v>-37215</v>
       </c>
+      <c r="K20" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="L20" s="9">
-        <v>-84421</v>
+        <v>-97022</v>
       </c>
       <c r="M20" s="9">
-        <v>-97022</v>
-      </c>
-      <c r="N20" s="9">
         <v>-55518</v>
+      </c>
+      <c r="N20" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
-        <v>641122</v>
+        <v>688760</v>
       </c>
       <c r="F21" s="13">
-        <v>688760</v>
+        <v>830393</v>
       </c>
       <c r="G21" s="13">
-        <v>830393</v>
+        <v>792083</v>
       </c>
       <c r="H21" s="13">
-        <v>792083</v>
+        <v>1072057</v>
       </c>
       <c r="I21" s="13">
-        <v>1072057</v>
+        <v>1076741</v>
       </c>
       <c r="J21" s="13">
-        <v>1076741</v>
+        <v>1323640</v>
       </c>
       <c r="K21" s="13">
-        <v>1323640</v>
+        <v>1727472</v>
       </c>
       <c r="L21" s="13">
-        <v>1727472</v>
+        <v>1558599</v>
       </c>
       <c r="M21" s="13">
-        <v>1558599</v>
+        <v>1728304</v>
       </c>
       <c r="N21" s="13">
-        <v>1728304</v>
+        <v>2446043</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -1400,39 +1365,39 @@
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
-        <v>641122</v>
+        <v>688760</v>
       </c>
       <c r="F23" s="13">
-        <v>688760</v>
+        <v>830393</v>
       </c>
       <c r="G23" s="13">
-        <v>830393</v>
+        <v>792083</v>
       </c>
       <c r="H23" s="13">
-        <v>792083</v>
+        <v>1072057</v>
       </c>
       <c r="I23" s="13">
-        <v>1072057</v>
+        <v>1076741</v>
       </c>
       <c r="J23" s="13">
-        <v>1076741</v>
+        <v>1323640</v>
       </c>
       <c r="K23" s="13">
-        <v>1323640</v>
+        <v>1727472</v>
       </c>
       <c r="L23" s="13">
-        <v>1727472</v>
+        <v>1558599</v>
       </c>
       <c r="M23" s="13">
-        <v>1558599</v>
+        <v>1728304</v>
       </c>
       <c r="N23" s="13">
-        <v>1728304</v>
+        <v>2446043</v>
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
@@ -1482,7 +1447,7 @@
     </row>
     <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1534,41 +1499,41 @@
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9">
-        <v>29021</v>
+        <v>33784</v>
       </c>
       <c r="F29" s="9">
-        <v>33784</v>
-      </c>
-      <c r="G29" s="9">
         <v>41035</v>
       </c>
-      <c r="H29" s="9" t="s">
-        <v>31</v>
+      <c r="G29" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H29" s="9">
+        <v>42886</v>
       </c>
       <c r="I29" s="9">
-        <v>42886</v>
+        <v>10642</v>
       </c>
       <c r="J29" s="9">
-        <v>10642</v>
-      </c>
-      <c r="K29" s="9">
         <v>63141</v>
       </c>
+      <c r="K29" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="L29" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M29" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N29" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
@@ -1576,38 +1541,38 @@
         <v>32</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="J30" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K30" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="L30" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
+      </c>
+      <c r="L30" s="11">
+        <v>59902</v>
       </c>
       <c r="M30" s="11">
-        <v>59902</v>
+        <v>89697</v>
       </c>
       <c r="N30" s="11">
-        <v>89697</v>
+        <v>139148</v>
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
@@ -1615,38 +1580,38 @@
         <v>33</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9">
-        <v>0</v>
+        <v>2203</v>
       </c>
       <c r="F31" s="9">
-        <v>2203</v>
-      </c>
-      <c r="G31" s="9">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K31" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="L31" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M31" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N31" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
@@ -1654,7 +1619,7 @@
         <v>34</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11">
@@ -1663,11 +1628,11 @@
       <c r="F32" s="11">
         <v>11785</v>
       </c>
-      <c r="G32" s="11">
-        <v>11785</v>
-      </c>
-      <c r="H32" s="11" t="s">
-        <v>31</v>
+      <c r="G32" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H32" s="11">
+        <v>9768</v>
       </c>
       <c r="I32" s="11">
         <v>9768</v>
@@ -1675,17 +1640,17 @@
       <c r="J32" s="11">
         <v>9768</v>
       </c>
-      <c r="K32" s="11">
+      <c r="K32" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L32" s="11">
         <v>9768</v>
       </c>
-      <c r="L32" s="11" t="s">
-        <v>31</v>
-      </c>
       <c r="M32" s="11">
-        <v>9768</v>
+        <v>5628</v>
       </c>
       <c r="N32" s="11">
-        <v>5628</v>
+        <v>6149</v>
       </c>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
@@ -1693,35 +1658,35 @@
         <v>35</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9">
-        <v>31852</v>
+        <v>12974</v>
       </c>
       <c r="F33" s="9">
-        <v>12974</v>
-      </c>
-      <c r="G33" s="9">
         <v>11635</v>
       </c>
-      <c r="H33" s="9" t="s">
-        <v>31</v>
+      <c r="G33" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H33" s="9">
+        <v>65710</v>
       </c>
       <c r="I33" s="9">
-        <v>65710</v>
+        <v>122182</v>
       </c>
       <c r="J33" s="9">
-        <v>122182</v>
-      </c>
-      <c r="K33" s="9">
         <v>93561</v>
       </c>
-      <c r="L33" s="9" t="s">
-        <v>31</v>
+      <c r="K33" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L33" s="9">
+        <v>164054</v>
       </c>
       <c r="M33" s="9">
-        <v>164054</v>
+        <v>151539</v>
       </c>
       <c r="N33" s="9">
         <v>151539</v>
@@ -1732,38 +1697,38 @@
         <v>36</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11">
-        <v>40692</v>
+        <v>32828</v>
       </c>
       <c r="F34" s="11">
-        <v>32828</v>
-      </c>
-      <c r="G34" s="11">
         <v>25370</v>
       </c>
-      <c r="H34" s="11" t="s">
-        <v>31</v>
+      <c r="G34" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H34" s="11">
+        <v>1158</v>
       </c>
       <c r="I34" s="11">
-        <v>1158</v>
+        <v>4657</v>
       </c>
       <c r="J34" s="11">
         <v>4657</v>
       </c>
-      <c r="K34" s="11">
-        <v>4657</v>
+      <c r="K34" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="L34" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M34" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N34" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.25">
@@ -1771,38 +1736,38 @@
         <v>37</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9">
-        <v>22848</v>
+        <v>9274</v>
       </c>
       <c r="F35" s="9">
-        <v>9274</v>
-      </c>
-      <c r="G35" s="9">
         <v>7594</v>
       </c>
-      <c r="H35" s="9" t="s">
-        <v>31</v>
+      <c r="G35" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H35" s="9">
+        <v>72280</v>
       </c>
       <c r="I35" s="9">
-        <v>72280</v>
+        <v>65729</v>
       </c>
       <c r="J35" s="9">
-        <v>65729</v>
-      </c>
-      <c r="K35" s="9">
         <v>52401</v>
       </c>
-      <c r="L35" s="9" t="s">
-        <v>31</v>
+      <c r="K35" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L35" s="9">
+        <v>57252</v>
       </c>
       <c r="M35" s="9">
-        <v>57252</v>
+        <v>34693</v>
       </c>
       <c r="N35" s="9">
-        <v>34693</v>
+        <v>12923</v>
       </c>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.25">
@@ -1810,38 +1775,38 @@
         <v>38</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="11">
-        <v>8841</v>
+        <v>21990</v>
       </c>
       <c r="F36" s="11">
-        <v>21990</v>
-      </c>
-      <c r="G36" s="11">
         <v>49220</v>
       </c>
-      <c r="H36" s="11" t="s">
-        <v>31</v>
+      <c r="G36" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H36" s="11">
+        <v>57703</v>
       </c>
       <c r="I36" s="11">
-        <v>57703</v>
+        <v>44621</v>
       </c>
       <c r="J36" s="11">
-        <v>44621</v>
-      </c>
-      <c r="K36" s="11">
         <v>40321</v>
       </c>
-      <c r="L36" s="11" t="s">
-        <v>31</v>
+      <c r="K36" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L36" s="11">
+        <v>30075</v>
       </c>
       <c r="M36" s="11">
-        <v>30075</v>
+        <v>40638</v>
       </c>
       <c r="N36" s="11">
-        <v>40638</v>
+        <v>43337</v>
       </c>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.25">
@@ -1849,38 +1814,38 @@
         <v>39</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9">
-        <v>165567</v>
+        <v>163119</v>
       </c>
       <c r="F37" s="9">
-        <v>163119</v>
-      </c>
-      <c r="G37" s="9">
         <v>317813</v>
       </c>
-      <c r="H37" s="9" t="s">
-        <v>31</v>
+      <c r="G37" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H37" s="9">
+        <v>327983</v>
       </c>
       <c r="I37" s="9">
-        <v>327983</v>
+        <v>292807</v>
       </c>
       <c r="J37" s="9">
-        <v>292807</v>
-      </c>
-      <c r="K37" s="9">
         <v>277362</v>
       </c>
-      <c r="L37" s="9" t="s">
-        <v>31</v>
+      <c r="K37" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L37" s="9">
+        <v>225867</v>
       </c>
       <c r="M37" s="9">
-        <v>225867</v>
+        <v>264150</v>
       </c>
       <c r="N37" s="9">
-        <v>264150</v>
+        <v>284156</v>
       </c>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.25">
@@ -1888,7 +1853,7 @@
         <v>40</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11">
@@ -1897,29 +1862,29 @@
       <c r="F38" s="11">
         <v>2844</v>
       </c>
-      <c r="G38" s="11">
-        <v>2844</v>
-      </c>
-      <c r="H38" s="11" t="s">
-        <v>31</v>
+      <c r="G38" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H38" s="11">
+        <v>2799</v>
       </c>
       <c r="I38" s="11">
-        <v>2799</v>
+        <v>2489</v>
       </c>
       <c r="J38" s="11">
         <v>2489</v>
       </c>
-      <c r="K38" s="11">
-        <v>2489</v>
-      </c>
-      <c r="L38" s="11" t="s">
-        <v>31</v>
+      <c r="K38" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L38" s="11">
+        <v>1282</v>
       </c>
       <c r="M38" s="11">
-        <v>1282</v>
+        <v>175</v>
       </c>
       <c r="N38" s="11">
-        <v>175</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.25">
@@ -1927,38 +1892,38 @@
         <v>41</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="9">
-        <v>6733</v>
+        <v>10061</v>
       </c>
       <c r="F39" s="9">
-        <v>10061</v>
-      </c>
-      <c r="G39" s="9">
         <v>10640</v>
       </c>
-      <c r="H39" s="9" t="s">
-        <v>31</v>
+      <c r="G39" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H39" s="9">
+        <v>5668</v>
       </c>
       <c r="I39" s="9">
-        <v>5668</v>
+        <v>4779</v>
       </c>
       <c r="J39" s="9">
-        <v>4779</v>
-      </c>
-      <c r="K39" s="9">
         <v>20589</v>
       </c>
-      <c r="L39" s="9" t="s">
-        <v>31</v>
+      <c r="K39" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L39" s="9">
+        <v>8399</v>
       </c>
       <c r="M39" s="9">
-        <v>8399</v>
+        <v>6521</v>
       </c>
       <c r="N39" s="9">
-        <v>6521</v>
+        <v>2709</v>
       </c>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.25">
@@ -1966,38 +1931,38 @@
         <v>42</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11">
-        <v>86300</v>
+        <v>70315</v>
       </c>
       <c r="F40" s="11">
-        <v>70315</v>
-      </c>
-      <c r="G40" s="11">
         <v>91486</v>
       </c>
-      <c r="H40" s="11" t="s">
-        <v>31</v>
+      <c r="G40" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H40" s="11">
+        <v>93276</v>
       </c>
       <c r="I40" s="11">
-        <v>93276</v>
+        <v>72170</v>
       </c>
       <c r="J40" s="11">
-        <v>72170</v>
-      </c>
-      <c r="K40" s="11">
         <v>99616</v>
       </c>
-      <c r="L40" s="11" t="s">
-        <v>31</v>
+      <c r="K40" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L40" s="11">
+        <v>96338</v>
       </c>
       <c r="M40" s="11">
-        <v>96338</v>
+        <v>76578</v>
       </c>
       <c r="N40" s="11">
-        <v>76578</v>
+        <v>87344</v>
       </c>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.25">
@@ -2005,38 +1970,38 @@
         <v>43</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="9">
-        <v>66272</v>
+        <v>109939</v>
       </c>
       <c r="F41" s="9">
-        <v>109939</v>
-      </c>
-      <c r="G41" s="9">
         <v>114260</v>
       </c>
-      <c r="H41" s="9" t="s">
-        <v>31</v>
+      <c r="G41" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H41" s="9">
+        <v>72721</v>
       </c>
       <c r="I41" s="9">
-        <v>72721</v>
+        <v>74640</v>
       </c>
       <c r="J41" s="9">
-        <v>74640</v>
-      </c>
-      <c r="K41" s="9">
         <v>103951</v>
       </c>
-      <c r="L41" s="9" t="s">
-        <v>31</v>
+      <c r="K41" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L41" s="9">
+        <v>141698</v>
       </c>
       <c r="M41" s="9">
-        <v>141698</v>
+        <v>88729</v>
       </c>
       <c r="N41" s="9">
-        <v>88729</v>
+        <v>138144</v>
       </c>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.25">
@@ -2048,34 +2013,34 @@
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H42" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="I42" s="11">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="H42" s="11">
+        <v>0</v>
+      </c>
+      <c r="I42" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="J42" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K42" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="L42" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M42" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N42" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.25">
@@ -2087,34 +2052,34 @@
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H43" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I43" s="9">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="H43" s="9">
+        <v>0</v>
+      </c>
+      <c r="I43" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K43" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="L43" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M43" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N43" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.25">
@@ -2122,7 +2087,7 @@
         <v>47</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D44" s="11"/>
       <c r="E44" s="11">
@@ -2131,11 +2096,11 @@
       <c r="F44" s="11">
         <v>2374</v>
       </c>
-      <c r="G44" s="11">
+      <c r="G44" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H44" s="11">
         <v>2374</v>
-      </c>
-      <c r="H44" s="11" t="s">
-        <v>31</v>
       </c>
       <c r="I44" s="11">
         <v>2374</v>
@@ -2143,11 +2108,11 @@
       <c r="J44" s="11">
         <v>2374</v>
       </c>
-      <c r="K44" s="11">
+      <c r="K44" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L44" s="11">
         <v>2374</v>
-      </c>
-      <c r="L44" s="11" t="s">
-        <v>31</v>
       </c>
       <c r="M44" s="11">
         <v>2374</v>
@@ -2163,34 +2128,34 @@
       <c r="C45" s="15"/>
       <c r="D45" s="15"/>
       <c r="E45" s="15">
-        <v>475129</v>
+        <v>483490</v>
       </c>
       <c r="F45" s="15">
-        <v>483490</v>
+        <v>686056</v>
       </c>
       <c r="G45" s="15">
-        <v>686056</v>
+        <v>0</v>
       </c>
       <c r="H45" s="15">
-        <v>0</v>
+        <v>754326</v>
       </c>
       <c r="I45" s="15">
-        <v>754326</v>
+        <v>706858</v>
       </c>
       <c r="J45" s="15">
-        <v>706858</v>
+        <v>770230</v>
       </c>
       <c r="K45" s="15">
-        <v>770230</v>
+        <v>0</v>
       </c>
       <c r="L45" s="15">
-        <v>0</v>
+        <v>797009</v>
       </c>
       <c r="M45" s="15">
-        <v>797009</v>
+        <v>760722</v>
       </c>
       <c r="N45" s="15">
-        <v>760722</v>
+        <v>867823</v>
       </c>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.25">
@@ -2292,41 +2257,41 @@
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D51" s="9"/>
       <c r="E51" s="9">
-        <v>29941</v>
+        <v>26114</v>
       </c>
       <c r="F51" s="9">
-        <v>26114</v>
+        <v>28839</v>
       </c>
       <c r="G51" s="9">
-        <v>28839</v>
+        <v>27087</v>
       </c>
       <c r="H51" s="9">
-        <v>27087</v>
+        <v>561</v>
       </c>
       <c r="I51" s="9">
-        <v>561</v>
+        <v>56863</v>
       </c>
       <c r="J51" s="9">
-        <v>56863</v>
+        <v>34000</v>
       </c>
       <c r="K51" s="9">
-        <v>34000</v>
-      </c>
-      <c r="L51" s="9">
         <v>12708</v>
       </c>
+      <c r="L51" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="M51" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N51" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" spans="2:14" x14ac:dyDescent="0.25">
@@ -2334,38 +2299,38 @@
         <v>32</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D52" s="11"/>
       <c r="E52" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G52" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H52" s="11">
+        <v>25</v>
+      </c>
+      <c r="G52" s="11">
         <v>2203</v>
       </c>
+      <c r="H52" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="I52" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="J52" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K52" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="L52" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
+      </c>
+      <c r="L52" s="11">
+        <v>47564</v>
       </c>
       <c r="M52" s="11">
-        <v>47564</v>
+        <v>70338</v>
       </c>
       <c r="N52" s="11">
-        <v>70338</v>
+        <v>99964</v>
       </c>
     </row>
     <row r="53" spans="2:14" x14ac:dyDescent="0.25">
@@ -2373,38 +2338,38 @@
         <v>33</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D53" s="9"/>
       <c r="E53" s="9">
-        <v>2203</v>
+        <v>0</v>
       </c>
       <c r="F53" s="9">
         <v>0</v>
       </c>
-      <c r="G53" s="9">
-        <v>0</v>
+      <c r="G53" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="H53" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I53" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="J53" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K53" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="L53" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M53" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N53" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" spans="2:14" x14ac:dyDescent="0.25">
@@ -2412,7 +2377,7 @@
         <v>34</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D54" s="11"/>
       <c r="E54" s="11">
@@ -2422,10 +2387,10 @@
         <v>0</v>
       </c>
       <c r="G54" s="11">
-        <v>0</v>
+        <v>264</v>
       </c>
       <c r="H54" s="11">
-        <v>264</v>
+        <v>0</v>
       </c>
       <c r="I54" s="11">
         <v>0</v>
@@ -2440,10 +2405,10 @@
         <v>0</v>
       </c>
       <c r="M54" s="11">
-        <v>0</v>
+        <v>521</v>
       </c>
       <c r="N54" s="11">
-        <v>521</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="55" spans="2:14" x14ac:dyDescent="0.25">
@@ -2451,38 +2416,38 @@
         <v>35</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D55" s="9"/>
       <c r="E55" s="9">
-        <v>301577</v>
+        <v>256484</v>
       </c>
       <c r="F55" s="9">
-        <v>256484</v>
+        <v>326174</v>
       </c>
       <c r="G55" s="9">
-        <v>326174</v>
+        <v>334954</v>
       </c>
       <c r="H55" s="9">
-        <v>334954</v>
+        <v>341952</v>
       </c>
       <c r="I55" s="9">
-        <v>341952</v>
+        <v>156345</v>
       </c>
       <c r="J55" s="9">
-        <v>156345</v>
+        <v>377301</v>
       </c>
       <c r="K55" s="9">
-        <v>377301</v>
+        <v>401677</v>
       </c>
       <c r="L55" s="9">
-        <v>401677</v>
+        <v>353551</v>
       </c>
       <c r="M55" s="9">
-        <v>353551</v>
+        <v>419147</v>
       </c>
       <c r="N55" s="9">
-        <v>419147</v>
+        <v>377022</v>
       </c>
     </row>
     <row r="56" spans="2:14" x14ac:dyDescent="0.25">
@@ -2490,7 +2455,7 @@
         <v>36</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D56" s="11"/>
       <c r="E56" s="11">
@@ -2500,13 +2465,13 @@
         <v>0</v>
       </c>
       <c r="G56" s="11">
-        <v>0</v>
+        <v>5504</v>
       </c>
       <c r="H56" s="11">
-        <v>5504</v>
+        <v>16240</v>
       </c>
       <c r="I56" s="11">
-        <v>16240</v>
+        <v>0</v>
       </c>
       <c r="J56" s="11">
         <v>0</v>
@@ -2514,14 +2479,14 @@
       <c r="K56" s="11">
         <v>0</v>
       </c>
-      <c r="L56" s="11">
-        <v>0</v>
+      <c r="L56" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="M56" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N56" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" spans="2:14" x14ac:dyDescent="0.25">
@@ -2529,38 +2494,38 @@
         <v>37</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D57" s="9"/>
       <c r="E57" s="9">
-        <v>10264</v>
+        <v>23372</v>
       </c>
       <c r="F57" s="9">
-        <v>23372</v>
+        <v>24881</v>
       </c>
       <c r="G57" s="9">
-        <v>24881</v>
+        <v>75392</v>
       </c>
       <c r="H57" s="9">
-        <v>75392</v>
+        <v>21464</v>
       </c>
       <c r="I57" s="9">
-        <v>21464</v>
+        <v>0</v>
       </c>
       <c r="J57" s="9">
-        <v>0</v>
+        <v>15256</v>
       </c>
       <c r="K57" s="9">
-        <v>15256</v>
+        <v>36601</v>
       </c>
       <c r="L57" s="9">
-        <v>36601</v>
+        <v>0</v>
       </c>
       <c r="M57" s="9">
         <v>0</v>
       </c>
       <c r="N57" s="9">
-        <v>0</v>
+        <v>14750</v>
       </c>
     </row>
     <row r="58" spans="2:14" x14ac:dyDescent="0.25">
@@ -2568,38 +2533,38 @@
         <v>38</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="11">
-        <v>29925</v>
+        <v>33854</v>
       </c>
       <c r="F58" s="11">
-        <v>33854</v>
+        <v>26968</v>
       </c>
       <c r="G58" s="11">
-        <v>26968</v>
+        <v>531</v>
       </c>
       <c r="H58" s="11">
-        <v>531</v>
+        <v>1056</v>
       </c>
       <c r="I58" s="11">
-        <v>1056</v>
+        <v>6508</v>
       </c>
       <c r="J58" s="11">
-        <v>6508</v>
+        <v>0</v>
       </c>
       <c r="K58" s="11">
-        <v>0</v>
+        <v>18972</v>
       </c>
       <c r="L58" s="11">
-        <v>18972</v>
+        <v>16302</v>
       </c>
       <c r="M58" s="11">
-        <v>16302</v>
+        <v>4407</v>
       </c>
       <c r="N58" s="11">
-        <v>4407</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="2:14" x14ac:dyDescent="0.25">
@@ -2607,38 +2572,38 @@
         <v>39</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D59" s="9"/>
       <c r="E59" s="9">
-        <v>499999</v>
+        <v>595836</v>
       </c>
       <c r="F59" s="9">
-        <v>595836</v>
+        <v>555007</v>
       </c>
       <c r="G59" s="9">
-        <v>555007</v>
+        <v>440516</v>
       </c>
       <c r="H59" s="9">
-        <v>440516</v>
+        <v>400492</v>
       </c>
       <c r="I59" s="9">
-        <v>400492</v>
+        <v>248862</v>
       </c>
       <c r="J59" s="9">
-        <v>248862</v>
+        <v>364005</v>
       </c>
       <c r="K59" s="9">
-        <v>364005</v>
+        <v>527501</v>
       </c>
       <c r="L59" s="9">
-        <v>527501</v>
+        <v>457947</v>
       </c>
       <c r="M59" s="9">
-        <v>457947</v>
+        <v>558270</v>
       </c>
       <c r="N59" s="9">
-        <v>558270</v>
+        <v>459171</v>
       </c>
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.25">
@@ -2646,7 +2611,7 @@
         <v>40</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D60" s="11"/>
       <c r="E60" s="11">
@@ -2685,38 +2650,38 @@
         <v>41</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D61" s="9"/>
       <c r="E61" s="9">
-        <v>8223</v>
+        <v>1734</v>
       </c>
       <c r="F61" s="9">
-        <v>1734</v>
+        <v>0</v>
       </c>
       <c r="G61" s="9">
-        <v>0</v>
+        <v>865</v>
       </c>
       <c r="H61" s="9">
-        <v>865</v>
+        <v>2931</v>
       </c>
       <c r="I61" s="9">
-        <v>2931</v>
+        <v>18425</v>
       </c>
       <c r="J61" s="9">
-        <v>18425</v>
+        <v>1</v>
       </c>
       <c r="K61" s="9">
-        <v>1</v>
+        <v>-185</v>
       </c>
       <c r="L61" s="9">
-        <v>-185</v>
+        <v>0</v>
       </c>
       <c r="M61" s="9">
         <v>0</v>
       </c>
       <c r="N61" s="9">
-        <v>0</v>
+        <v>9011</v>
       </c>
     </row>
     <row r="62" spans="2:14" x14ac:dyDescent="0.25">
@@ -2724,38 +2689,38 @@
         <v>42</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D62" s="11"/>
       <c r="E62" s="11">
-        <v>5182</v>
+        <v>40107</v>
       </c>
       <c r="F62" s="11">
-        <v>40107</v>
+        <v>14047</v>
       </c>
       <c r="G62" s="11">
-        <v>14047</v>
+        <v>33105</v>
       </c>
       <c r="H62" s="11">
-        <v>33105</v>
+        <v>14138</v>
       </c>
       <c r="I62" s="11">
-        <v>14138</v>
+        <v>40394</v>
       </c>
       <c r="J62" s="11">
-        <v>40394</v>
+        <v>24389</v>
       </c>
       <c r="K62" s="11">
-        <v>24389</v>
+        <v>-3646</v>
       </c>
       <c r="L62" s="11">
-        <v>-3646</v>
+        <v>1597</v>
       </c>
       <c r="M62" s="11">
-        <v>1597</v>
+        <v>31749</v>
       </c>
       <c r="N62" s="11">
-        <v>31749</v>
+        <v>53413</v>
       </c>
     </row>
     <row r="63" spans="2:14" x14ac:dyDescent="0.25">
@@ -2763,38 +2728,38 @@
         <v>43</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D63" s="9"/>
       <c r="E63" s="9">
-        <v>153268</v>
+        <v>97513</v>
       </c>
       <c r="F63" s="9">
-        <v>97513</v>
+        <v>85387</v>
       </c>
       <c r="G63" s="9">
-        <v>85387</v>
+        <v>63290</v>
       </c>
       <c r="H63" s="9">
-        <v>63290</v>
+        <v>95354</v>
       </c>
       <c r="I63" s="9">
-        <v>95354</v>
+        <v>86690</v>
       </c>
       <c r="J63" s="9">
-        <v>86690</v>
+        <v>89072</v>
       </c>
       <c r="K63" s="9">
-        <v>89072</v>
+        <v>146085</v>
       </c>
       <c r="L63" s="9">
-        <v>146085</v>
+        <v>58683</v>
       </c>
       <c r="M63" s="9">
-        <v>58683</v>
+        <v>158075</v>
       </c>
       <c r="N63" s="9">
-        <v>158075</v>
+        <v>207480</v>
       </c>
     </row>
     <row r="64" spans="2:14" x14ac:dyDescent="0.25">
@@ -2806,34 +2771,34 @@
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F64" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G64" s="11">
-        <v>0</v>
-      </c>
-      <c r="H64" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="I64" s="11">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="F64" s="11">
+        <v>0</v>
+      </c>
+      <c r="G64" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H64" s="11">
+        <v>0</v>
+      </c>
+      <c r="I64" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="J64" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K64" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="L64" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M64" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N64" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" spans="2:14" x14ac:dyDescent="0.25">
@@ -2845,34 +2810,34 @@
       </c>
       <c r="D65" s="9"/>
       <c r="E65" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F65" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G65" s="9">
-        <v>0</v>
-      </c>
-      <c r="H65" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I65" s="9">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="F65" s="9">
+        <v>0</v>
+      </c>
+      <c r="G65" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H65" s="9">
+        <v>0</v>
+      </c>
+      <c r="I65" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="J65" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K65" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="L65" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M65" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N65" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" spans="2:14" x14ac:dyDescent="0.25">
@@ -2880,7 +2845,7 @@
         <v>47</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D66" s="11"/>
       <c r="E66" s="11">
@@ -2921,34 +2886,34 @@
       <c r="C67" s="15"/>
       <c r="D67" s="15"/>
       <c r="E67" s="15">
-        <v>1040582</v>
+        <v>1075014</v>
       </c>
       <c r="F67" s="15">
-        <v>1075014</v>
+        <v>1061303</v>
       </c>
       <c r="G67" s="15">
-        <v>1061303</v>
+        <v>983711</v>
       </c>
       <c r="H67" s="15">
-        <v>983711</v>
+        <v>894188</v>
       </c>
       <c r="I67" s="15">
-        <v>894188</v>
+        <v>614087</v>
       </c>
       <c r="J67" s="15">
-        <v>614087</v>
+        <v>904024</v>
       </c>
       <c r="K67" s="15">
-        <v>904024</v>
+        <v>1139713</v>
       </c>
       <c r="L67" s="15">
-        <v>1139713</v>
+        <v>935644</v>
       </c>
       <c r="M67" s="15">
-        <v>935644</v>
+        <v>1242507</v>
       </c>
       <c r="N67" s="15">
-        <v>1242507</v>
+        <v>1220810</v>
       </c>
     </row>
     <row r="68" spans="2:14" x14ac:dyDescent="0.25">
@@ -3050,41 +3015,41 @@
     </row>
     <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="9">
-        <v>25178</v>
+        <v>18863</v>
       </c>
       <c r="F73" s="9">
-        <v>18863</v>
+        <v>27004</v>
       </c>
       <c r="G73" s="9">
-        <v>27004</v>
+        <v>27071</v>
       </c>
       <c r="H73" s="9">
-        <v>27071</v>
+        <v>32805</v>
       </c>
       <c r="I73" s="9">
-        <v>32805</v>
+        <v>4364</v>
       </c>
       <c r="J73" s="9">
-        <v>4364</v>
+        <v>25234</v>
       </c>
       <c r="K73" s="9">
-        <v>25234</v>
-      </c>
-      <c r="L73" s="9">
         <v>24713</v>
       </c>
+      <c r="L73" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="M73" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N73" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" spans="2:14" x14ac:dyDescent="0.25">
@@ -3092,38 +3057,38 @@
         <v>32</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D74" s="11"/>
       <c r="E74" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F74" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G74" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H74" s="11">
+        <v>25</v>
+      </c>
+      <c r="G74" s="11">
         <v>2203</v>
       </c>
+      <c r="H74" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="I74" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="J74" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K74" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="L74" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
+      </c>
+      <c r="L74" s="11">
+        <v>17769</v>
       </c>
       <c r="M74" s="11">
-        <v>17769</v>
+        <v>20887</v>
       </c>
       <c r="N74" s="11">
-        <v>20887</v>
+        <v>18817</v>
       </c>
     </row>
     <row r="75" spans="2:14" x14ac:dyDescent="0.25">
@@ -3131,38 +3096,38 @@
         <v>33</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D75" s="9"/>
       <c r="E75" s="9">
-        <v>0</v>
+        <v>2203</v>
       </c>
       <c r="F75" s="9">
-        <v>2203</v>
-      </c>
-      <c r="G75" s="9">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G75" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K75" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="L75" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M75" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N75" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76" spans="2:14" x14ac:dyDescent="0.25">
@@ -3170,17 +3135,17 @@
         <v>34</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D76" s="11"/>
       <c r="E76" s="11">
         <v>0</v>
       </c>
       <c r="F76" s="11">
-        <v>0</v>
+        <v>2281</v>
       </c>
       <c r="G76" s="11">
-        <v>2281</v>
+        <v>0</v>
       </c>
       <c r="H76" s="11">
         <v>0</v>
@@ -3195,13 +3160,13 @@
         <v>0</v>
       </c>
       <c r="L76" s="11">
-        <v>0</v>
+        <v>4140</v>
       </c>
       <c r="M76" s="11">
-        <v>4140</v>
+        <v>0</v>
       </c>
       <c r="N76" s="11">
-        <v>0</v>
+        <v>5530</v>
       </c>
     </row>
     <row r="77" spans="2:14" x14ac:dyDescent="0.25">
@@ -3209,38 +3174,38 @@
         <v>35</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="9">
-        <v>320455</v>
+        <v>257823</v>
       </c>
       <c r="F77" s="9">
-        <v>257823</v>
+        <v>330759</v>
       </c>
       <c r="G77" s="9">
-        <v>330759</v>
+        <v>276294</v>
       </c>
       <c r="H77" s="9">
-        <v>276294</v>
+        <v>285480</v>
       </c>
       <c r="I77" s="9">
-        <v>285480</v>
+        <v>184966</v>
       </c>
       <c r="J77" s="9">
-        <v>184966</v>
+        <v>356832</v>
       </c>
       <c r="K77" s="9">
-        <v>356832</v>
+        <v>351653</v>
       </c>
       <c r="L77" s="9">
-        <v>351653</v>
+        <v>366066</v>
       </c>
       <c r="M77" s="9">
-        <v>366066</v>
+        <v>419147</v>
       </c>
       <c r="N77" s="9">
-        <v>419147</v>
+        <v>378092</v>
       </c>
     </row>
     <row r="78" spans="2:14" x14ac:dyDescent="0.25">
@@ -3248,38 +3213,38 @@
         <v>36</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D78" s="11"/>
       <c r="E78" s="11">
-        <v>7864</v>
+        <v>7458</v>
       </c>
       <c r="F78" s="11">
-        <v>7458</v>
+        <v>6532</v>
       </c>
       <c r="G78" s="11">
-        <v>6532</v>
+        <v>23184</v>
       </c>
       <c r="H78" s="11">
-        <v>23184</v>
+        <v>12741</v>
       </c>
       <c r="I78" s="11">
-        <v>12741</v>
+        <v>0</v>
       </c>
       <c r="J78" s="11">
-        <v>0</v>
+        <v>4657</v>
       </c>
       <c r="K78" s="11">
-        <v>4657</v>
-      </c>
-      <c r="L78" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L78" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="M78" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N78" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79" spans="2:14" x14ac:dyDescent="0.25">
@@ -3287,38 +3252,38 @@
         <v>37</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D79" s="9"/>
       <c r="E79" s="9">
-        <v>23838</v>
+        <v>25052</v>
       </c>
       <c r="F79" s="9">
-        <v>25052</v>
+        <v>25715</v>
       </c>
       <c r="G79" s="9">
-        <v>25715</v>
+        <v>9872</v>
       </c>
       <c r="H79" s="9">
-        <v>9872</v>
+        <v>28015</v>
       </c>
       <c r="I79" s="9">
-        <v>28015</v>
+        <v>13328</v>
       </c>
       <c r="J79" s="9">
-        <v>13328</v>
+        <v>23877</v>
       </c>
       <c r="K79" s="9">
-        <v>23877</v>
+        <v>23129</v>
       </c>
       <c r="L79" s="9">
-        <v>23129</v>
+        <v>22559</v>
       </c>
       <c r="M79" s="9">
-        <v>22559</v>
+        <v>21770</v>
       </c>
       <c r="N79" s="9">
-        <v>21770</v>
+        <v>26264</v>
       </c>
     </row>
     <row r="80" spans="2:14" x14ac:dyDescent="0.25">
@@ -3326,38 +3291,38 @@
         <v>38</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D80" s="11"/>
       <c r="E80" s="11">
-        <v>16776</v>
+        <v>6624</v>
       </c>
       <c r="F80" s="11">
-        <v>6624</v>
+        <v>8874</v>
       </c>
       <c r="G80" s="11">
-        <v>8874</v>
+        <v>10142</v>
       </c>
       <c r="H80" s="11">
-        <v>10142</v>
+        <v>14138</v>
       </c>
       <c r="I80" s="11">
-        <v>14138</v>
+        <v>10807</v>
       </c>
       <c r="J80" s="11">
-        <v>10807</v>
+        <v>19054</v>
       </c>
       <c r="K80" s="11">
-        <v>19054</v>
+        <v>10164</v>
       </c>
       <c r="L80" s="11">
-        <v>10164</v>
+        <v>5739</v>
       </c>
       <c r="M80" s="11">
-        <v>5739</v>
+        <v>1708</v>
       </c>
       <c r="N80" s="11">
-        <v>1708</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="81" spans="2:14" x14ac:dyDescent="0.25">
@@ -3365,38 +3330,38 @@
         <v>39</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D81" s="9"/>
       <c r="E81" s="9">
-        <v>502447</v>
+        <v>441142</v>
       </c>
       <c r="F81" s="9">
-        <v>441142</v>
+        <v>525860</v>
       </c>
       <c r="G81" s="9">
-        <v>525860</v>
+        <v>459493</v>
       </c>
       <c r="H81" s="9">
-        <v>459493</v>
+        <v>435668</v>
       </c>
       <c r="I81" s="9">
-        <v>435668</v>
+        <v>264307</v>
       </c>
       <c r="J81" s="9">
-        <v>264307</v>
+        <v>509733</v>
       </c>
       <c r="K81" s="9">
-        <v>509733</v>
+        <v>433269</v>
       </c>
       <c r="L81" s="9">
-        <v>433269</v>
+        <v>419664</v>
       </c>
       <c r="M81" s="9">
-        <v>419664</v>
+        <v>538265</v>
       </c>
       <c r="N81" s="9">
-        <v>538265</v>
+        <v>472863</v>
       </c>
     </row>
     <row r="82" spans="2:14" x14ac:dyDescent="0.25">
@@ -3404,7 +3369,7 @@
         <v>40</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D82" s="11"/>
       <c r="E82" s="11">
@@ -3414,28 +3379,28 @@
         <v>0</v>
       </c>
       <c r="G82" s="11">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="H82" s="11">
-        <v>45</v>
+        <v>310</v>
       </c>
       <c r="I82" s="11">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="J82" s="11">
         <v>0</v>
       </c>
       <c r="K82" s="11">
-        <v>0</v>
+        <v>1207</v>
       </c>
       <c r="L82" s="11">
-        <v>1207</v>
+        <v>1107</v>
       </c>
       <c r="M82" s="11">
-        <v>1107</v>
+        <v>90</v>
       </c>
       <c r="N82" s="11">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="2:14" x14ac:dyDescent="0.25">
@@ -3443,38 +3408,38 @@
         <v>41</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D83" s="9"/>
       <c r="E83" s="9">
-        <v>4895</v>
+        <v>1155</v>
       </c>
       <c r="F83" s="9">
-        <v>1155</v>
+        <v>2945</v>
       </c>
       <c r="G83" s="9">
-        <v>2945</v>
+        <v>2892</v>
       </c>
       <c r="H83" s="9">
-        <v>2892</v>
+        <v>3820</v>
       </c>
       <c r="I83" s="9">
-        <v>3820</v>
+        <v>2615</v>
       </c>
       <c r="J83" s="9">
-        <v>2615</v>
+        <v>4535</v>
       </c>
       <c r="K83" s="9">
-        <v>4535</v>
+        <v>7470</v>
       </c>
       <c r="L83" s="9">
-        <v>7470</v>
+        <v>1878</v>
       </c>
       <c r="M83" s="9">
-        <v>1878</v>
+        <v>3752</v>
       </c>
       <c r="N83" s="9">
-        <v>3752</v>
+        <v>5472</v>
       </c>
     </row>
     <row r="84" spans="2:14" x14ac:dyDescent="0.25">
@@ -3482,38 +3447,38 @@
         <v>42</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D84" s="11"/>
       <c r="E84" s="11">
-        <v>21167</v>
+        <v>18936</v>
       </c>
       <c r="F84" s="11">
-        <v>18936</v>
+        <v>19358</v>
       </c>
       <c r="G84" s="11">
-        <v>19358</v>
+        <v>26004</v>
       </c>
       <c r="H84" s="11">
-        <v>26004</v>
+        <v>35244</v>
       </c>
       <c r="I84" s="11">
-        <v>35244</v>
+        <v>12948</v>
       </c>
       <c r="J84" s="11">
-        <v>12948</v>
+        <v>22788</v>
       </c>
       <c r="K84" s="11">
-        <v>22788</v>
+        <v>1232</v>
       </c>
       <c r="L84" s="11">
-        <v>1232</v>
+        <v>21357</v>
       </c>
       <c r="M84" s="11">
-        <v>21357</v>
+        <v>20983</v>
       </c>
       <c r="N84" s="11">
-        <v>20983</v>
+        <v>18296</v>
       </c>
     </row>
     <row r="85" spans="2:14" x14ac:dyDescent="0.25">
@@ -3521,38 +3486,38 @@
         <v>43</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D85" s="9"/>
       <c r="E85" s="9">
-        <v>109601</v>
+        <v>93192</v>
       </c>
       <c r="F85" s="9">
-        <v>93192</v>
+        <v>90678</v>
       </c>
       <c r="G85" s="9">
-        <v>90678</v>
+        <v>99538</v>
       </c>
       <c r="H85" s="9">
-        <v>99538</v>
+        <v>93435</v>
       </c>
       <c r="I85" s="9">
-        <v>93435</v>
+        <v>57379</v>
       </c>
       <c r="J85" s="9">
-        <v>57379</v>
+        <v>103756</v>
       </c>
       <c r="K85" s="9">
-        <v>103756</v>
+        <v>93653</v>
       </c>
       <c r="L85" s="9">
-        <v>93653</v>
+        <v>111652</v>
       </c>
       <c r="M85" s="9">
-        <v>111652</v>
+        <v>108660</v>
       </c>
       <c r="N85" s="9">
-        <v>108660</v>
+        <v>87151</v>
       </c>
     </row>
     <row r="86" spans="2:14" x14ac:dyDescent="0.25">
@@ -3564,34 +3529,34 @@
       </c>
       <c r="D86" s="11"/>
       <c r="E86" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F86" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G86" s="11">
-        <v>0</v>
-      </c>
-      <c r="H86" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="I86" s="11">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="F86" s="11">
+        <v>0</v>
+      </c>
+      <c r="G86" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H86" s="11">
+        <v>0</v>
+      </c>
+      <c r="I86" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="J86" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K86" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="L86" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M86" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N86" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="87" spans="2:14" x14ac:dyDescent="0.25">
@@ -3603,34 +3568,34 @@
       </c>
       <c r="D87" s="9"/>
       <c r="E87" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F87" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G87" s="9">
-        <v>0</v>
-      </c>
-      <c r="H87" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I87" s="9">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="F87" s="9">
+        <v>0</v>
+      </c>
+      <c r="G87" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H87" s="9">
+        <v>0</v>
+      </c>
+      <c r="I87" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="J87" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K87" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="L87" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M87" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N87" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="88" spans="2:14" x14ac:dyDescent="0.25">
@@ -3638,7 +3603,7 @@
         <v>47</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D88" s="11"/>
       <c r="E88" s="11">
@@ -3679,34 +3644,34 @@
       <c r="C89" s="15"/>
       <c r="D89" s="15"/>
       <c r="E89" s="15">
-        <v>1032221</v>
+        <v>872448</v>
       </c>
       <c r="F89" s="15">
-        <v>872448</v>
+        <v>1040006</v>
       </c>
       <c r="G89" s="15">
-        <v>1040006</v>
+        <v>936738</v>
       </c>
       <c r="H89" s="15">
-        <v>936738</v>
+        <v>941656</v>
       </c>
       <c r="I89" s="15">
-        <v>941656</v>
+        <v>550714</v>
       </c>
       <c r="J89" s="15">
-        <v>550714</v>
+        <v>1070466</v>
       </c>
       <c r="K89" s="15">
-        <v>1070466</v>
+        <v>946490</v>
       </c>
       <c r="L89" s="15">
-        <v>946490</v>
+        <v>971931</v>
       </c>
       <c r="M89" s="15">
-        <v>971931</v>
+        <v>1135262</v>
       </c>
       <c r="N89" s="15">
-        <v>1135262</v>
+        <v>1014016</v>
       </c>
     </row>
     <row r="90" spans="2:14" x14ac:dyDescent="0.25">
@@ -3808,41 +3773,41 @@
     </row>
     <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D95" s="9"/>
       <c r="E95" s="9">
-        <v>33784</v>
+        <v>41035</v>
       </c>
       <c r="F95" s="9">
-        <v>41035</v>
+        <v>42870</v>
       </c>
       <c r="G95" s="9">
-        <v>42870</v>
+        <v>42886</v>
       </c>
       <c r="H95" s="9">
-        <v>42886</v>
+        <v>10642</v>
       </c>
       <c r="I95" s="9">
-        <v>10642</v>
+        <v>63141</v>
       </c>
       <c r="J95" s="9">
-        <v>63141</v>
+        <v>71907</v>
       </c>
       <c r="K95" s="9">
-        <v>71907</v>
-      </c>
-      <c r="L95" s="9">
         <v>59902</v>
       </c>
+      <c r="L95" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="M95" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N95" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="96" spans="2:14" x14ac:dyDescent="0.25">
@@ -3850,38 +3815,38 @@
         <v>32</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D96" s="11"/>
       <c r="E96" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F96" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G96" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H96" s="11">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="G96" s="11">
+        <v>0</v>
+      </c>
+      <c r="H96" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="I96" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="J96" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K96" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="L96" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
+      </c>
+      <c r="L96" s="11">
+        <v>89697</v>
       </c>
       <c r="M96" s="11">
-        <v>89697</v>
+        <v>139148</v>
       </c>
       <c r="N96" s="11">
-        <v>139148</v>
+        <v>220295</v>
       </c>
     </row>
     <row r="97" spans="2:14" x14ac:dyDescent="0.25">
@@ -3889,38 +3854,38 @@
         <v>33</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D97" s="9"/>
       <c r="E97" s="9">
-        <v>2203</v>
+        <v>0</v>
       </c>
       <c r="F97" s="9">
         <v>0</v>
       </c>
-      <c r="G97" s="9">
-        <v>0</v>
+      <c r="G97" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="H97" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I97" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="J97" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K97" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="L97" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M97" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N97" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="98" spans="2:14" x14ac:dyDescent="0.25">
@@ -3928,17 +3893,17 @@
         <v>34</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D98" s="11"/>
       <c r="E98" s="11">
         <v>11785</v>
       </c>
       <c r="F98" s="11">
-        <v>11785</v>
+        <v>9504</v>
       </c>
       <c r="G98" s="11">
-        <v>9504</v>
+        <v>9768</v>
       </c>
       <c r="H98" s="11">
         <v>9768</v>
@@ -3953,13 +3918,13 @@
         <v>9768</v>
       </c>
       <c r="L98" s="11">
-        <v>9768</v>
+        <v>5628</v>
       </c>
       <c r="M98" s="11">
-        <v>5628</v>
+        <v>6149</v>
       </c>
       <c r="N98" s="11">
-        <v>6149</v>
+        <v>618</v>
       </c>
     </row>
     <row r="99" spans="2:14" x14ac:dyDescent="0.25">
@@ -3967,38 +3932,38 @@
         <v>35</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D99" s="9"/>
       <c r="E99" s="9">
-        <v>12974</v>
+        <v>11635</v>
       </c>
       <c r="F99" s="9">
-        <v>11635</v>
+        <v>7050</v>
       </c>
       <c r="G99" s="9">
-        <v>7050</v>
+        <v>65710</v>
       </c>
       <c r="H99" s="9">
-        <v>65710</v>
+        <v>122182</v>
       </c>
       <c r="I99" s="9">
-        <v>122182</v>
+        <v>93561</v>
       </c>
       <c r="J99" s="9">
-        <v>93561</v>
+        <v>114030</v>
       </c>
       <c r="K99" s="9">
-        <v>114030</v>
+        <v>164054</v>
       </c>
       <c r="L99" s="9">
-        <v>164054</v>
+        <v>151539</v>
       </c>
       <c r="M99" s="9">
         <v>151539</v>
       </c>
       <c r="N99" s="9">
-        <v>151539</v>
+        <v>150469</v>
       </c>
     </row>
     <row r="100" spans="2:14" x14ac:dyDescent="0.25">
@@ -4006,38 +3971,38 @@
         <v>36</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D100" s="11"/>
       <c r="E100" s="11">
-        <v>32828</v>
+        <v>25370</v>
       </c>
       <c r="F100" s="11">
-        <v>25370</v>
+        <v>18838</v>
       </c>
       <c r="G100" s="11">
-        <v>18838</v>
+        <v>1158</v>
       </c>
       <c r="H100" s="11">
-        <v>1158</v>
+        <v>4657</v>
       </c>
       <c r="I100" s="11">
         <v>4657</v>
       </c>
       <c r="J100" s="11">
-        <v>4657</v>
+        <v>0</v>
       </c>
       <c r="K100" s="11">
         <v>0</v>
       </c>
-      <c r="L100" s="11">
-        <v>0</v>
+      <c r="L100" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="M100" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N100" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="101" spans="2:14" x14ac:dyDescent="0.25">
@@ -4045,38 +4010,38 @@
         <v>37</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D101" s="9"/>
       <c r="E101" s="9">
-        <v>9274</v>
+        <v>7594</v>
       </c>
       <c r="F101" s="9">
-        <v>7594</v>
+        <v>6760</v>
       </c>
       <c r="G101" s="9">
-        <v>6760</v>
+        <v>72280</v>
       </c>
       <c r="H101" s="9">
-        <v>72280</v>
+        <v>65729</v>
       </c>
       <c r="I101" s="9">
-        <v>65729</v>
+        <v>52401</v>
       </c>
       <c r="J101" s="9">
-        <v>52401</v>
+        <v>43780</v>
       </c>
       <c r="K101" s="9">
-        <v>43780</v>
+        <v>57252</v>
       </c>
       <c r="L101" s="9">
-        <v>57252</v>
+        <v>34693</v>
       </c>
       <c r="M101" s="9">
-        <v>34693</v>
+        <v>12923</v>
       </c>
       <c r="N101" s="9">
-        <v>12923</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="102" spans="2:14" x14ac:dyDescent="0.25">
@@ -4084,38 +4049,38 @@
         <v>38</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D102" s="11"/>
       <c r="E102" s="11">
-        <v>21990</v>
+        <v>49220</v>
       </c>
       <c r="F102" s="11">
-        <v>49220</v>
+        <v>67314</v>
       </c>
       <c r="G102" s="11">
-        <v>67314</v>
+        <v>57703</v>
       </c>
       <c r="H102" s="11">
-        <v>57703</v>
+        <v>44621</v>
       </c>
       <c r="I102" s="11">
-        <v>44621</v>
+        <v>40321</v>
       </c>
       <c r="J102" s="11">
-        <v>40321</v>
+        <v>21267</v>
       </c>
       <c r="K102" s="11">
-        <v>21267</v>
+        <v>30075</v>
       </c>
       <c r="L102" s="11">
-        <v>30075</v>
+        <v>40638</v>
       </c>
       <c r="M102" s="11">
-        <v>40638</v>
+        <v>43337</v>
       </c>
       <c r="N102" s="11">
-        <v>43337</v>
+        <v>41806</v>
       </c>
     </row>
     <row r="103" spans="2:14" x14ac:dyDescent="0.25">
@@ -4123,38 +4088,38 @@
         <v>39</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D103" s="9"/>
       <c r="E103" s="9">
-        <v>163119</v>
+        <v>317813</v>
       </c>
       <c r="F103" s="9">
-        <v>317813</v>
+        <v>346960</v>
       </c>
       <c r="G103" s="9">
-        <v>346960</v>
+        <v>327983</v>
       </c>
       <c r="H103" s="9">
-        <v>327983</v>
+        <v>292807</v>
       </c>
       <c r="I103" s="9">
-        <v>292807</v>
+        <v>277362</v>
       </c>
       <c r="J103" s="9">
-        <v>277362</v>
+        <v>131635</v>
       </c>
       <c r="K103" s="9">
-        <v>131635</v>
+        <v>225867</v>
       </c>
       <c r="L103" s="9">
-        <v>225867</v>
+        <v>264150</v>
       </c>
       <c r="M103" s="9">
-        <v>264150</v>
+        <v>284156</v>
       </c>
       <c r="N103" s="9">
-        <v>284156</v>
+        <v>280464</v>
       </c>
     </row>
     <row r="104" spans="2:14" x14ac:dyDescent="0.25">
@@ -4162,7 +4127,7 @@
         <v>40</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D104" s="11"/>
       <c r="E104" s="11">
@@ -4172,10 +4137,10 @@
         <v>2844</v>
       </c>
       <c r="G104" s="11">
-        <v>2844</v>
+        <v>2799</v>
       </c>
       <c r="H104" s="11">
-        <v>2799</v>
+        <v>2489</v>
       </c>
       <c r="I104" s="11">
         <v>2489</v>
@@ -4184,13 +4149,13 @@
         <v>2489</v>
       </c>
       <c r="K104" s="11">
-        <v>2489</v>
+        <v>1282</v>
       </c>
       <c r="L104" s="11">
-        <v>1282</v>
+        <v>175</v>
       </c>
       <c r="M104" s="11">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="N104" s="11">
         <v>0</v>
@@ -4201,38 +4166,38 @@
         <v>41</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D105" s="9"/>
       <c r="E105" s="9">
-        <v>10061</v>
+        <v>10640</v>
       </c>
       <c r="F105" s="9">
-        <v>10640</v>
+        <v>7695</v>
       </c>
       <c r="G105" s="9">
-        <v>7695</v>
+        <v>5668</v>
       </c>
       <c r="H105" s="9">
-        <v>5668</v>
+        <v>4779</v>
       </c>
       <c r="I105" s="9">
-        <v>4779</v>
+        <v>20589</v>
       </c>
       <c r="J105" s="9">
-        <v>20589</v>
+        <v>16054</v>
       </c>
       <c r="K105" s="9">
-        <v>16054</v>
+        <v>8399</v>
       </c>
       <c r="L105" s="9">
-        <v>8399</v>
+        <v>6521</v>
       </c>
       <c r="M105" s="9">
-        <v>6521</v>
+        <v>2709</v>
       </c>
       <c r="N105" s="9">
-        <v>2709</v>
+        <v>6248</v>
       </c>
     </row>
     <row r="106" spans="2:14" x14ac:dyDescent="0.25">
@@ -4240,38 +4205,38 @@
         <v>42</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D106" s="11"/>
       <c r="E106" s="11">
-        <v>70315</v>
+        <v>91486</v>
       </c>
       <c r="F106" s="11">
-        <v>91486</v>
+        <v>86175</v>
       </c>
       <c r="G106" s="11">
-        <v>86175</v>
+        <v>93276</v>
       </c>
       <c r="H106" s="11">
-        <v>93276</v>
+        <v>72170</v>
       </c>
       <c r="I106" s="11">
-        <v>72170</v>
+        <v>99616</v>
       </c>
       <c r="J106" s="11">
-        <v>99616</v>
+        <v>101216</v>
       </c>
       <c r="K106" s="11">
-        <v>101216</v>
+        <v>96338</v>
       </c>
       <c r="L106" s="11">
-        <v>96338</v>
+        <v>76578</v>
       </c>
       <c r="M106" s="11">
-        <v>76578</v>
+        <v>87344</v>
       </c>
       <c r="N106" s="11">
-        <v>87344</v>
+        <v>122461</v>
       </c>
     </row>
     <row r="107" spans="2:14" x14ac:dyDescent="0.25">
@@ -4279,38 +4244,38 @@
         <v>43</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D107" s="9"/>
       <c r="E107" s="9">
-        <v>109939</v>
+        <v>114260</v>
       </c>
       <c r="F107" s="9">
-        <v>114260</v>
+        <v>108969</v>
       </c>
       <c r="G107" s="9">
-        <v>108969</v>
+        <v>72721</v>
       </c>
       <c r="H107" s="9">
-        <v>72721</v>
+        <v>74640</v>
       </c>
       <c r="I107" s="9">
-        <v>74640</v>
+        <v>103951</v>
       </c>
       <c r="J107" s="9">
-        <v>103951</v>
+        <v>89266</v>
       </c>
       <c r="K107" s="9">
-        <v>89266</v>
+        <v>141698</v>
       </c>
       <c r="L107" s="9">
-        <v>141698</v>
+        <v>88729</v>
       </c>
       <c r="M107" s="9">
-        <v>88729</v>
+        <v>138144</v>
       </c>
       <c r="N107" s="9">
-        <v>138144</v>
+        <v>258473</v>
       </c>
     </row>
     <row r="108" spans="2:14" x14ac:dyDescent="0.25">
@@ -4322,34 +4287,34 @@
       </c>
       <c r="D108" s="11"/>
       <c r="E108" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F108" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G108" s="11">
-        <v>0</v>
-      </c>
-      <c r="H108" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="I108" s="11">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="F108" s="11">
+        <v>0</v>
+      </c>
+      <c r="G108" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H108" s="11">
+        <v>0</v>
+      </c>
+      <c r="I108" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="J108" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K108" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="L108" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M108" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N108" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="109" spans="2:14" x14ac:dyDescent="0.25">
@@ -4361,34 +4326,34 @@
       </c>
       <c r="D109" s="9"/>
       <c r="E109" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F109" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G109" s="9">
-        <v>0</v>
-      </c>
-      <c r="H109" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I109" s="9">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="F109" s="9">
+        <v>0</v>
+      </c>
+      <c r="G109" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H109" s="9">
+        <v>0</v>
+      </c>
+      <c r="I109" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="J109" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K109" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="L109" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M109" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N109" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="110" spans="2:14" x14ac:dyDescent="0.25">
@@ -4396,7 +4361,7 @@
         <v>47</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D110" s="11"/>
       <c r="E110" s="11">
@@ -4437,34 +4402,34 @@
       <c r="C111" s="15"/>
       <c r="D111" s="15"/>
       <c r="E111" s="15">
-        <v>483490</v>
+        <v>686056</v>
       </c>
       <c r="F111" s="15">
-        <v>686056</v>
+        <v>707353</v>
       </c>
       <c r="G111" s="15">
-        <v>707353</v>
+        <v>754326</v>
       </c>
       <c r="H111" s="15">
-        <v>754326</v>
+        <v>706858</v>
       </c>
       <c r="I111" s="15">
-        <v>706858</v>
+        <v>770230</v>
       </c>
       <c r="J111" s="15">
-        <v>770230</v>
+        <v>603786</v>
       </c>
       <c r="K111" s="15">
-        <v>603786</v>
+        <v>797009</v>
       </c>
       <c r="L111" s="15">
-        <v>797009</v>
+        <v>760722</v>
       </c>
       <c r="M111" s="15">
-        <v>760722</v>
+        <v>867823</v>
       </c>
       <c r="N111" s="15">
-        <v>867823</v>
+        <v>1084617</v>
       </c>
     </row>
     <row r="112" spans="2:14" x14ac:dyDescent="0.25">
@@ -4566,41 +4531,41 @@
     </row>
     <row r="117" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B117" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C117" s="9" t="s">
         <v>45</v>
       </c>
       <c r="D117" s="9"/>
       <c r="E117" s="9">
-        <v>26508</v>
+        <v>35529</v>
       </c>
       <c r="F117" s="9">
-        <v>35529</v>
-      </c>
-      <c r="G117" s="9">
         <v>46314</v>
       </c>
-      <c r="H117" s="9" t="s">
-        <v>31</v>
+      <c r="G117" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H117" s="9">
+        <v>64566</v>
       </c>
       <c r="I117" s="9">
-        <v>64566</v>
+        <v>29721</v>
       </c>
       <c r="J117" s="9">
-        <v>29721</v>
-      </c>
-      <c r="K117" s="9">
         <v>145443</v>
       </c>
+      <c r="K117" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="L117" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M117" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N117" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="118" spans="2:14" x14ac:dyDescent="0.25">
@@ -4612,34 +4577,34 @@
       </c>
       <c r="D118" s="11"/>
       <c r="E118" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F118" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="G118" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="H118" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I118" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="J118" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K118" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="L118" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
+      </c>
+      <c r="L118" s="11">
+        <v>143819</v>
       </c>
       <c r="M118" s="11">
-        <v>143819</v>
+        <v>278280</v>
       </c>
       <c r="N118" s="11">
-        <v>278280</v>
+        <v>538467</v>
       </c>
     </row>
     <row r="119" spans="2:14" x14ac:dyDescent="0.25">
@@ -4651,34 +4616,34 @@
       </c>
       <c r="D119" s="9"/>
       <c r="E119" s="9">
-        <v>0</v>
+        <v>1515</v>
       </c>
       <c r="F119" s="9">
-        <v>1515</v>
-      </c>
-      <c r="G119" s="9">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G119" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="H119" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I119" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="J119" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K119" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="L119" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M119" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N119" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="120" spans="2:14" x14ac:dyDescent="0.25">
@@ -4695,11 +4660,11 @@
       <c r="F120" s="11">
         <v>1027</v>
       </c>
-      <c r="G120" s="11">
-        <v>1027</v>
-      </c>
-      <c r="H120" s="11" t="s">
-        <v>31</v>
+      <c r="G120" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H120" s="11">
+        <v>851</v>
       </c>
       <c r="I120" s="11">
         <v>851</v>
@@ -4707,17 +4672,17 @@
       <c r="J120" s="11">
         <v>851</v>
       </c>
-      <c r="K120" s="11">
+      <c r="K120" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L120" s="11">
         <v>851</v>
       </c>
-      <c r="L120" s="11" t="s">
-        <v>31</v>
-      </c>
       <c r="M120" s="11">
-        <v>851</v>
+        <v>490</v>
       </c>
       <c r="N120" s="11">
-        <v>490</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="121" spans="2:14" x14ac:dyDescent="0.25">
@@ -4729,34 +4694,34 @@
       </c>
       <c r="D121" s="9"/>
       <c r="E121" s="9">
-        <v>1417</v>
+        <v>600</v>
       </c>
       <c r="F121" s="9">
-        <v>600</v>
-      </c>
-      <c r="G121" s="9">
         <v>630</v>
       </c>
-      <c r="H121" s="9" t="s">
-        <v>31</v>
+      <c r="G121" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H121" s="9">
+        <v>5744</v>
       </c>
       <c r="I121" s="9">
-        <v>5744</v>
+        <v>19225</v>
       </c>
       <c r="J121" s="9">
-        <v>19225</v>
-      </c>
-      <c r="K121" s="9">
         <v>14736</v>
       </c>
-      <c r="L121" s="9" t="s">
-        <v>31</v>
+      <c r="K121" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L121" s="9">
+        <v>36054</v>
       </c>
       <c r="M121" s="9">
-        <v>36054</v>
+        <v>35170</v>
       </c>
       <c r="N121" s="9">
-        <v>35170</v>
+        <v>35549</v>
       </c>
     </row>
     <row r="122" spans="2:14" x14ac:dyDescent="0.25">
@@ -4768,34 +4733,34 @@
       </c>
       <c r="D122" s="11"/>
       <c r="E122" s="11">
-        <v>7467</v>
+        <v>6024</v>
       </c>
       <c r="F122" s="11">
-        <v>6024</v>
-      </c>
-      <c r="G122" s="11">
         <v>4655</v>
       </c>
-      <c r="H122" s="11" t="s">
-        <v>31</v>
+      <c r="G122" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H122" s="11">
+        <v>212</v>
       </c>
       <c r="I122" s="11">
-        <v>212</v>
+        <v>4137</v>
       </c>
       <c r="J122" s="11">
-        <v>4137</v>
-      </c>
-      <c r="K122" s="11">
         <v>4138</v>
       </c>
+      <c r="K122" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="L122" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M122" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N122" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="123" spans="2:14" x14ac:dyDescent="0.25">
@@ -4807,34 +4772,34 @@
       </c>
       <c r="D123" s="9"/>
       <c r="E123" s="9">
-        <v>8935</v>
+        <v>3598</v>
       </c>
       <c r="F123" s="9">
-        <v>3598</v>
-      </c>
-      <c r="G123" s="9">
         <v>4130</v>
       </c>
-      <c r="H123" s="9" t="s">
-        <v>31</v>
+      <c r="G123" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H123" s="9">
+        <v>36348</v>
       </c>
       <c r="I123" s="9">
-        <v>36348</v>
+        <v>31744</v>
       </c>
       <c r="J123" s="9">
-        <v>31744</v>
-      </c>
-      <c r="K123" s="9">
         <v>25307</v>
       </c>
-      <c r="L123" s="9" t="s">
-        <v>31</v>
+      <c r="K123" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L123" s="9">
+        <v>31691</v>
       </c>
       <c r="M123" s="9">
-        <v>31691</v>
+        <v>19203</v>
       </c>
       <c r="N123" s="9">
-        <v>19203</v>
+        <v>7153</v>
       </c>
     </row>
     <row r="124" spans="2:14" x14ac:dyDescent="0.25">
@@ -4846,34 +4811,34 @@
       </c>
       <c r="D124" s="11"/>
       <c r="E124" s="11">
-        <v>1812</v>
+        <v>6823</v>
       </c>
       <c r="F124" s="11">
-        <v>6823</v>
-      </c>
-      <c r="G124" s="11">
         <v>17335</v>
       </c>
-      <c r="H124" s="11" t="s">
-        <v>31</v>
+      <c r="G124" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H124" s="11">
+        <v>21757</v>
       </c>
       <c r="I124" s="11">
-        <v>21757</v>
+        <v>16880</v>
       </c>
       <c r="J124" s="11">
-        <v>16880</v>
-      </c>
-      <c r="K124" s="11">
         <v>15581</v>
       </c>
-      <c r="L124" s="11" t="s">
-        <v>31</v>
+      <c r="K124" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L124" s="11">
+        <v>15253</v>
       </c>
       <c r="M124" s="11">
-        <v>15253</v>
+        <v>21997</v>
       </c>
       <c r="N124" s="11">
-        <v>21997</v>
+        <v>23686</v>
       </c>
     </row>
     <row r="125" spans="2:14" x14ac:dyDescent="0.25">
@@ -4885,34 +4850,34 @@
       </c>
       <c r="D125" s="9"/>
       <c r="E125" s="9">
-        <v>10992</v>
+        <v>11207</v>
       </c>
       <c r="F125" s="9">
-        <v>11207</v>
-      </c>
-      <c r="G125" s="9">
         <v>27516</v>
       </c>
-      <c r="H125" s="9" t="s">
-        <v>31</v>
+      <c r="G125" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H125" s="9">
+        <v>39038</v>
       </c>
       <c r="I125" s="9">
-        <v>39038</v>
+        <v>48807</v>
       </c>
       <c r="J125" s="9">
-        <v>48807</v>
-      </c>
-      <c r="K125" s="9">
         <v>48890</v>
       </c>
-      <c r="L125" s="9" t="s">
-        <v>31</v>
+      <c r="K125" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L125" s="9">
+        <v>56744</v>
       </c>
       <c r="M125" s="9">
-        <v>56744</v>
+        <v>72930</v>
       </c>
       <c r="N125" s="9">
-        <v>72930</v>
+        <v>79705</v>
       </c>
     </row>
     <row r="126" spans="2:14" x14ac:dyDescent="0.25">
@@ -4929,29 +4894,29 @@
       <c r="F126" s="11">
         <v>313</v>
       </c>
-      <c r="G126" s="11">
-        <v>313</v>
-      </c>
-      <c r="H126" s="11" t="s">
-        <v>31</v>
+      <c r="G126" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H126" s="11">
+        <v>308</v>
       </c>
       <c r="I126" s="11">
-        <v>308</v>
+        <v>274</v>
       </c>
       <c r="J126" s="11">
         <v>274</v>
       </c>
-      <c r="K126" s="11">
-        <v>274</v>
-      </c>
-      <c r="L126" s="11" t="s">
-        <v>31</v>
+      <c r="K126" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L126" s="11">
+        <v>142</v>
       </c>
       <c r="M126" s="11">
-        <v>142</v>
+        <v>20</v>
       </c>
       <c r="N126" s="11">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="2:14" x14ac:dyDescent="0.25">
@@ -4963,34 +4928,34 @@
       </c>
       <c r="D127" s="9"/>
       <c r="E127" s="9">
-        <v>2586</v>
+        <v>4147</v>
       </c>
       <c r="F127" s="9">
-        <v>4147</v>
-      </c>
-      <c r="G127" s="9">
         <v>4435</v>
       </c>
-      <c r="H127" s="9" t="s">
-        <v>31</v>
+      <c r="G127" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H127" s="9">
+        <v>2383</v>
       </c>
       <c r="I127" s="9">
-        <v>2383</v>
+        <v>1994</v>
       </c>
       <c r="J127" s="9">
-        <v>1994</v>
-      </c>
-      <c r="K127" s="9">
         <v>13251</v>
       </c>
-      <c r="L127" s="9" t="s">
-        <v>31</v>
+      <c r="K127" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L127" s="9">
+        <v>5405</v>
       </c>
       <c r="M127" s="9">
-        <v>5405</v>
+        <v>4196</v>
       </c>
       <c r="N127" s="9">
-        <v>4196</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="128" spans="2:14" x14ac:dyDescent="0.25">
@@ -5002,34 +4967,34 @@
       </c>
       <c r="D128" s="11"/>
       <c r="E128" s="11">
-        <v>25421</v>
+        <v>23202</v>
       </c>
       <c r="F128" s="11">
-        <v>23202</v>
-      </c>
-      <c r="G128" s="11">
         <v>47319</v>
       </c>
-      <c r="H128" s="11" t="s">
-        <v>31</v>
+      <c r="G128" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H128" s="11">
+        <v>61619</v>
       </c>
       <c r="I128" s="11">
-        <v>61619</v>
+        <v>56593</v>
       </c>
       <c r="J128" s="11">
-        <v>56593</v>
-      </c>
-      <c r="K128" s="11">
         <v>105946</v>
       </c>
-      <c r="L128" s="11" t="s">
-        <v>31</v>
+      <c r="K128" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L128" s="11">
+        <v>123425</v>
       </c>
       <c r="M128" s="11">
-        <v>123425</v>
+        <v>96785</v>
       </c>
       <c r="N128" s="11">
-        <v>96785</v>
+        <v>114214</v>
       </c>
     </row>
     <row r="129" spans="2:14" x14ac:dyDescent="0.25">
@@ -5041,34 +5006,34 @@
       </c>
       <c r="D129" s="9"/>
       <c r="E129" s="9">
-        <v>9676</v>
+        <v>21010</v>
       </c>
       <c r="F129" s="9">
-        <v>21010</v>
-      </c>
-      <c r="G129" s="9">
         <v>23595</v>
       </c>
-      <c r="H129" s="9" t="s">
-        <v>31</v>
+      <c r="G129" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H129" s="9">
+        <v>16487</v>
       </c>
       <c r="I129" s="9">
-        <v>16487</v>
+        <v>17984</v>
       </c>
       <c r="J129" s="9">
-        <v>17984</v>
-      </c>
-      <c r="K129" s="9">
         <v>34567</v>
       </c>
-      <c r="L129" s="9" t="s">
-        <v>31</v>
+      <c r="K129" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L129" s="9">
+        <v>60053</v>
       </c>
       <c r="M129" s="9">
-        <v>60053</v>
+        <v>38614</v>
       </c>
       <c r="N129" s="9">
-        <v>38614</v>
+        <v>90697</v>
       </c>
     </row>
     <row r="130" spans="2:14" x14ac:dyDescent="0.25">
@@ -5080,34 +5045,34 @@
       </c>
       <c r="D130" s="11"/>
       <c r="E130" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F130" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="G130" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H130" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="I130" s="11">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="H130" s="11">
+        <v>0</v>
+      </c>
+      <c r="I130" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="J130" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K130" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="L130" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M130" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N130" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="131" spans="2:14" x14ac:dyDescent="0.25">
@@ -5119,34 +5084,34 @@
       </c>
       <c r="D131" s="9"/>
       <c r="E131" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F131" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="G131" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H131" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I131" s="9">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="H131" s="9">
+        <v>0</v>
+      </c>
+      <c r="I131" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="J131" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K131" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="L131" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M131" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N131" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="132" spans="2:14" x14ac:dyDescent="0.25">
@@ -5163,11 +5128,11 @@
       <c r="F132" s="11">
         <v>818</v>
       </c>
-      <c r="G132" s="11">
+      <c r="G132" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H132" s="11">
         <v>818</v>
-      </c>
-      <c r="H132" s="11" t="s">
-        <v>31</v>
       </c>
       <c r="I132" s="11">
         <v>818</v>
@@ -5175,11 +5140,11 @@
       <c r="J132" s="11">
         <v>818</v>
       </c>
-      <c r="K132" s="11">
+      <c r="K132" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L132" s="11">
         <v>818</v>
-      </c>
-      <c r="L132" s="11" t="s">
-        <v>31</v>
       </c>
       <c r="M132" s="11">
         <v>818</v>
@@ -5195,34 +5160,34 @@
       <c r="C133" s="15"/>
       <c r="D133" s="15"/>
       <c r="E133" s="15">
-        <v>96972</v>
+        <v>115813</v>
       </c>
       <c r="F133" s="15">
-        <v>115813</v>
+        <v>178087</v>
       </c>
       <c r="G133" s="15">
-        <v>178087</v>
+        <v>0</v>
       </c>
       <c r="H133" s="15">
-        <v>0</v>
+        <v>250131</v>
       </c>
       <c r="I133" s="15">
-        <v>250131</v>
+        <v>229028</v>
       </c>
       <c r="J133" s="15">
-        <v>229028</v>
+        <v>409802</v>
       </c>
       <c r="K133" s="15">
-        <v>409802</v>
+        <v>0</v>
       </c>
       <c r="L133" s="15">
-        <v>0</v>
+        <v>474255</v>
       </c>
       <c r="M133" s="15">
-        <v>474255</v>
+        <v>568503</v>
       </c>
       <c r="N133" s="15">
-        <v>568503</v>
+        <v>893134</v>
       </c>
     </row>
     <row r="134" spans="2:14" x14ac:dyDescent="0.25">
@@ -5324,41 +5289,41 @@
     </row>
     <row r="139" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B139" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C139" s="9" t="s">
         <v>45</v>
       </c>
       <c r="D139" s="9"/>
       <c r="E139" s="9">
-        <v>34342</v>
+        <v>30182</v>
       </c>
       <c r="F139" s="9">
-        <v>30182</v>
+        <v>41304</v>
       </c>
       <c r="G139" s="9">
-        <v>41304</v>
+        <v>46691</v>
       </c>
       <c r="H139" s="9">
-        <v>46691</v>
+        <v>1136</v>
       </c>
       <c r="I139" s="9">
-        <v>1136</v>
+        <v>164676</v>
       </c>
       <c r="J139" s="9">
-        <v>164676</v>
+        <v>95838</v>
       </c>
       <c r="K139" s="9">
-        <v>95838</v>
-      </c>
-      <c r="L139" s="9">
         <v>36993</v>
       </c>
+      <c r="L139" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="M139" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N139" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="140" spans="2:14" x14ac:dyDescent="0.25">
@@ -5370,34 +5335,34 @@
       </c>
       <c r="D140" s="11"/>
       <c r="E140" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F140" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G140" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H140" s="11">
+        <v>25</v>
+      </c>
+      <c r="G140" s="11">
         <v>1515</v>
       </c>
+      <c r="H140" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="I140" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="J140" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K140" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="L140" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
+      </c>
+      <c r="L140" s="11">
+        <v>194585</v>
       </c>
       <c r="M140" s="11">
-        <v>194585</v>
+        <v>346216</v>
       </c>
       <c r="N140" s="11">
-        <v>346216</v>
+        <v>479825</v>
       </c>
     </row>
     <row r="141" spans="2:14" x14ac:dyDescent="0.25">
@@ -5409,34 +5374,34 @@
       </c>
       <c r="D141" s="9"/>
       <c r="E141" s="9">
-        <v>1515</v>
+        <v>0</v>
       </c>
       <c r="F141" s="9">
         <v>0</v>
       </c>
-      <c r="G141" s="9">
-        <v>0</v>
+      <c r="G141" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="H141" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I141" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="J141" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K141" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="L141" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M141" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N141" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="142" spans="2:14" x14ac:dyDescent="0.25">
@@ -5454,10 +5419,10 @@
         <v>0</v>
       </c>
       <c r="G142" s="11">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="H142" s="11">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="I142" s="11">
         <v>0</v>
@@ -5472,10 +5437,10 @@
         <v>0</v>
       </c>
       <c r="M142" s="11">
-        <v>0</v>
+        <v>573</v>
       </c>
       <c r="N142" s="11">
-        <v>573</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="2:14" x14ac:dyDescent="0.25">
@@ -5487,34 +5452,34 @@
       </c>
       <c r="D143" s="9"/>
       <c r="E143" s="9">
-        <v>13712</v>
+        <v>14451</v>
       </c>
       <c r="F143" s="9">
-        <v>14451</v>
+        <v>26189</v>
       </c>
       <c r="G143" s="9">
-        <v>26189</v>
+        <v>29279</v>
       </c>
       <c r="H143" s="9">
-        <v>29279</v>
+        <v>50842</v>
       </c>
       <c r="I143" s="9">
-        <v>50842</v>
+        <v>24731</v>
       </c>
       <c r="J143" s="9">
-        <v>24731</v>
+        <v>69208</v>
       </c>
       <c r="K143" s="9">
-        <v>69208</v>
+        <v>90623</v>
       </c>
       <c r="L143" s="9">
-        <v>90623</v>
+        <v>83085</v>
       </c>
       <c r="M143" s="9">
-        <v>83085</v>
+        <v>98499</v>
       </c>
       <c r="N143" s="9">
-        <v>98499</v>
+        <v>90781</v>
       </c>
     </row>
     <row r="144" spans="2:14" x14ac:dyDescent="0.25">
@@ -5532,13 +5497,13 @@
         <v>0</v>
       </c>
       <c r="G144" s="11">
-        <v>0</v>
+        <v>1010</v>
       </c>
       <c r="H144" s="11">
-        <v>1010</v>
+        <v>14976</v>
       </c>
       <c r="I144" s="11">
-        <v>14976</v>
+        <v>0</v>
       </c>
       <c r="J144" s="11">
         <v>0</v>
@@ -5546,14 +5511,14 @@
       <c r="K144" s="11">
         <v>0</v>
       </c>
-      <c r="L144" s="11">
-        <v>0</v>
+      <c r="L144" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="M144" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N144" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="145" spans="2:14" x14ac:dyDescent="0.25">
@@ -5565,34 +5530,34 @@
       </c>
       <c r="D145" s="9"/>
       <c r="E145" s="9">
-        <v>3955</v>
+        <v>12754</v>
       </c>
       <c r="F145" s="9">
-        <v>12754</v>
+        <v>12970</v>
       </c>
       <c r="G145" s="9">
-        <v>12970</v>
+        <v>37794</v>
       </c>
       <c r="H145" s="9">
-        <v>37794</v>
+        <v>8759</v>
       </c>
       <c r="I145" s="9">
-        <v>8759</v>
+        <v>0</v>
       </c>
       <c r="J145" s="9">
-        <v>0</v>
+        <v>8696</v>
       </c>
       <c r="K145" s="9">
-        <v>8696</v>
+        <v>21951</v>
       </c>
       <c r="L145" s="9">
-        <v>21951</v>
+        <v>0</v>
       </c>
       <c r="M145" s="9">
         <v>0</v>
       </c>
       <c r="N145" s="9">
-        <v>0</v>
+        <v>18754</v>
       </c>
     </row>
     <row r="146" spans="2:14" x14ac:dyDescent="0.25">
@@ -5604,34 +5569,34 @@
       </c>
       <c r="D146" s="11"/>
       <c r="E146" s="11">
-        <v>9845</v>
+        <v>12705</v>
       </c>
       <c r="F146" s="11">
-        <v>12705</v>
+        <v>11356</v>
       </c>
       <c r="G146" s="11">
-        <v>11356</v>
+        <v>200</v>
       </c>
       <c r="H146" s="11">
-        <v>200</v>
+        <v>460</v>
       </c>
       <c r="I146" s="11">
-        <v>460</v>
+        <v>2838</v>
       </c>
       <c r="J146" s="11">
-        <v>2838</v>
+        <v>0</v>
       </c>
       <c r="K146" s="11">
-        <v>0</v>
+        <v>11412</v>
       </c>
       <c r="L146" s="11">
-        <v>11412</v>
+        <v>9699</v>
       </c>
       <c r="M146" s="11">
-        <v>9699</v>
+        <v>2623</v>
       </c>
       <c r="N146" s="11">
-        <v>2623</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="2:14" x14ac:dyDescent="0.25">
@@ -5643,34 +5608,34 @@
       </c>
       <c r="D147" s="9"/>
       <c r="E147" s="9">
-        <v>34500</v>
+        <v>52455</v>
       </c>
       <c r="F147" s="9">
-        <v>52455</v>
+        <v>67871</v>
       </c>
       <c r="G147" s="9">
-        <v>67871</v>
+        <v>53754</v>
       </c>
       <c r="H147" s="9">
-        <v>53754</v>
+        <v>74091</v>
       </c>
       <c r="I147" s="9">
-        <v>74091</v>
+        <v>46050</v>
       </c>
       <c r="J147" s="9">
-        <v>46050</v>
+        <v>82568</v>
       </c>
       <c r="K147" s="9">
-        <v>82568</v>
+        <v>137508</v>
       </c>
       <c r="L147" s="9">
-        <v>137508</v>
+        <v>129042</v>
       </c>
       <c r="M147" s="9">
-        <v>129042</v>
+        <v>157150</v>
       </c>
       <c r="N147" s="9">
-        <v>157150</v>
+        <v>131330</v>
       </c>
     </row>
     <row r="148" spans="2:14" x14ac:dyDescent="0.25">
@@ -5721,34 +5686,34 @@
       </c>
       <c r="D149" s="9"/>
       <c r="E149" s="9">
-        <v>3496</v>
+        <v>767</v>
       </c>
       <c r="F149" s="9">
-        <v>767</v>
+        <v>0</v>
       </c>
       <c r="G149" s="9">
-        <v>0</v>
+        <v>389</v>
       </c>
       <c r="H149" s="9">
-        <v>389</v>
+        <v>1043</v>
       </c>
       <c r="I149" s="9">
-        <v>1043</v>
+        <v>12898</v>
       </c>
       <c r="J149" s="9">
-        <v>12898</v>
+        <v>0</v>
       </c>
       <c r="K149" s="9">
-        <v>0</v>
+        <v>-119</v>
       </c>
       <c r="L149" s="9">
-        <v>-119</v>
+        <v>0</v>
       </c>
       <c r="M149" s="9">
         <v>0</v>
       </c>
       <c r="N149" s="9">
-        <v>0</v>
+        <v>12066</v>
       </c>
     </row>
     <row r="150" spans="2:14" x14ac:dyDescent="0.25">
@@ -5760,34 +5725,34 @@
       </c>
       <c r="D150" s="11"/>
       <c r="E150" s="11">
-        <v>4322</v>
+        <v>32480</v>
       </c>
       <c r="F150" s="11">
-        <v>32480</v>
+        <v>9228</v>
       </c>
       <c r="G150" s="11">
-        <v>9228</v>
+        <v>31478</v>
       </c>
       <c r="H150" s="11">
-        <v>31478</v>
+        <v>22146</v>
       </c>
       <c r="I150" s="11">
-        <v>22146</v>
+        <v>61274</v>
       </c>
       <c r="J150" s="11">
-        <v>61274</v>
+        <v>65110</v>
       </c>
       <c r="K150" s="11">
-        <v>65110</v>
+        <v>-9593</v>
       </c>
       <c r="L150" s="11">
-        <v>-9593</v>
+        <v>475</v>
       </c>
       <c r="M150" s="11">
-        <v>475</v>
+        <v>43425</v>
       </c>
       <c r="N150" s="11">
-        <v>43425</v>
+        <v>89906</v>
       </c>
     </row>
     <row r="151" spans="2:14" x14ac:dyDescent="0.25">
@@ -5799,34 +5764,34 @@
       </c>
       <c r="D151" s="9"/>
       <c r="E151" s="9">
-        <v>30274</v>
+        <v>21563</v>
       </c>
       <c r="F151" s="9">
-        <v>21563</v>
+        <v>18214</v>
       </c>
       <c r="G151" s="9">
-        <v>18214</v>
+        <v>15362</v>
       </c>
       <c r="H151" s="9">
-        <v>15362</v>
+        <v>23309</v>
       </c>
       <c r="I151" s="9">
-        <v>23309</v>
+        <v>34548</v>
       </c>
       <c r="J151" s="9">
-        <v>34548</v>
+        <v>40561</v>
       </c>
       <c r="K151" s="9">
-        <v>40561</v>
+        <v>63768</v>
       </c>
       <c r="L151" s="9">
-        <v>63768</v>
+        <v>26670</v>
       </c>
       <c r="M151" s="9">
-        <v>26670</v>
+        <v>116964</v>
       </c>
       <c r="N151" s="9">
-        <v>116964</v>
+        <v>154377</v>
       </c>
     </row>
     <row r="152" spans="2:14" x14ac:dyDescent="0.25">
@@ -5838,34 +5803,34 @@
       </c>
       <c r="D152" s="11"/>
       <c r="E152" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F152" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G152" s="11">
-        <v>0</v>
-      </c>
-      <c r="H152" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="I152" s="11">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="F152" s="11">
+        <v>0</v>
+      </c>
+      <c r="G152" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H152" s="11">
+        <v>0</v>
+      </c>
+      <c r="I152" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="J152" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K152" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="L152" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M152" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N152" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="153" spans="2:14" x14ac:dyDescent="0.25">
@@ -5877,34 +5842,34 @@
       </c>
       <c r="D153" s="9"/>
       <c r="E153" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F153" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G153" s="9">
-        <v>0</v>
-      </c>
-      <c r="H153" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I153" s="9">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="F153" s="9">
+        <v>0</v>
+      </c>
+      <c r="G153" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H153" s="9">
+        <v>0</v>
+      </c>
+      <c r="I153" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="J153" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K153" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="L153" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M153" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N153" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="154" spans="2:14" x14ac:dyDescent="0.25">
@@ -5953,34 +5918,34 @@
       <c r="C155" s="15"/>
       <c r="D155" s="15"/>
       <c r="E155" s="15">
-        <v>135961</v>
+        <v>177357</v>
       </c>
       <c r="F155" s="15">
-        <v>177357</v>
+        <v>187132</v>
       </c>
       <c r="G155" s="15">
-        <v>187132</v>
+        <v>217495</v>
       </c>
       <c r="H155" s="15">
-        <v>217495</v>
+        <v>196762</v>
       </c>
       <c r="I155" s="15">
-        <v>196762</v>
+        <v>347015</v>
       </c>
       <c r="J155" s="15">
-        <v>347015</v>
+        <v>361981</v>
       </c>
       <c r="K155" s="15">
-        <v>361981</v>
+        <v>352543</v>
       </c>
       <c r="L155" s="15">
-        <v>352543</v>
+        <v>443556</v>
       </c>
       <c r="M155" s="15">
-        <v>443556</v>
+        <v>765450</v>
       </c>
       <c r="N155" s="15">
-        <v>765450</v>
+        <v>977039</v>
       </c>
     </row>
     <row r="156" spans="2:14" x14ac:dyDescent="0.25">
@@ -6082,41 +6047,41 @@
     </row>
     <row r="161" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B161" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C161" s="9" t="s">
         <v>45</v>
       </c>
       <c r="D161" s="9"/>
       <c r="E161" s="9">
-        <v>25321</v>
+        <v>19397</v>
       </c>
       <c r="F161" s="9">
-        <v>19397</v>
+        <v>32953</v>
       </c>
       <c r="G161" s="9">
-        <v>32953</v>
+        <v>36790</v>
       </c>
       <c r="H161" s="9">
-        <v>36790</v>
+        <v>35981</v>
       </c>
       <c r="I161" s="9">
-        <v>35981</v>
+        <v>48953</v>
       </c>
       <c r="J161" s="9">
-        <v>48953</v>
+        <v>58063</v>
       </c>
       <c r="K161" s="9">
-        <v>58063</v>
-      </c>
-      <c r="L161" s="9">
         <v>76393</v>
       </c>
+      <c r="L161" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="M161" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N161" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="162" spans="2:14" x14ac:dyDescent="0.25">
@@ -6128,34 +6093,34 @@
       </c>
       <c r="D162" s="11"/>
       <c r="E162" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F162" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G162" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H162" s="11">
+        <v>25</v>
+      </c>
+      <c r="G162" s="11">
         <v>1515</v>
       </c>
+      <c r="H162" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="I162" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="J162" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K162" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="L162" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
+      </c>
+      <c r="L162" s="11">
+        <v>60124</v>
       </c>
       <c r="M162" s="11">
-        <v>60124</v>
+        <v>86029</v>
       </c>
       <c r="N162" s="11">
-        <v>86029</v>
+        <v>84005</v>
       </c>
     </row>
     <row r="163" spans="2:14" x14ac:dyDescent="0.25">
@@ -6167,34 +6132,34 @@
       </c>
       <c r="D163" s="9"/>
       <c r="E163" s="9">
-        <v>0</v>
+        <v>1515</v>
       </c>
       <c r="F163" s="9">
-        <v>1515</v>
-      </c>
-      <c r="G163" s="9">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G163" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="H163" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I163" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="J163" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K163" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="L163" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M163" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N163" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="164" spans="2:14" x14ac:dyDescent="0.25">
@@ -6209,10 +6174,10 @@
         <v>0</v>
       </c>
       <c r="F164" s="11">
-        <v>0</v>
+        <v>199</v>
       </c>
       <c r="G164" s="11">
-        <v>199</v>
+        <v>0</v>
       </c>
       <c r="H164" s="11">
         <v>0</v>
@@ -6227,13 +6192,13 @@
         <v>0</v>
       </c>
       <c r="L164" s="11">
-        <v>0</v>
+        <v>361</v>
       </c>
       <c r="M164" s="11">
-        <v>361</v>
+        <v>0</v>
       </c>
       <c r="N164" s="11">
-        <v>0</v>
+        <v>956</v>
       </c>
     </row>
     <row r="165" spans="2:14" x14ac:dyDescent="0.25">
@@ -6245,34 +6210,34 @@
       </c>
       <c r="D165" s="9"/>
       <c r="E165" s="9">
-        <v>14529</v>
+        <v>14421</v>
       </c>
       <c r="F165" s="9">
-        <v>14421</v>
+        <v>26204</v>
       </c>
       <c r="G165" s="9">
-        <v>26204</v>
+        <v>24149</v>
       </c>
       <c r="H165" s="9">
-        <v>24149</v>
+        <v>37361</v>
       </c>
       <c r="I165" s="9">
-        <v>37361</v>
+        <v>29220</v>
       </c>
       <c r="J165" s="9">
-        <v>29220</v>
+        <v>61574</v>
       </c>
       <c r="K165" s="9">
-        <v>61574</v>
+        <v>76939</v>
       </c>
       <c r="L165" s="9">
-        <v>76939</v>
+        <v>83969</v>
       </c>
       <c r="M165" s="9">
-        <v>83969</v>
+        <v>98120</v>
       </c>
       <c r="N165" s="9">
-        <v>98120</v>
+        <v>88859</v>
       </c>
     </row>
     <row r="166" spans="2:14" x14ac:dyDescent="0.25">
@@ -6284,34 +6249,34 @@
       </c>
       <c r="D166" s="11"/>
       <c r="E166" s="11">
-        <v>1443</v>
+        <v>1369</v>
       </c>
       <c r="F166" s="11">
-        <v>1369</v>
+        <v>1198</v>
       </c>
       <c r="G166" s="11">
-        <v>1198</v>
+        <v>4254</v>
       </c>
       <c r="H166" s="11">
-        <v>4254</v>
+        <v>11051</v>
       </c>
       <c r="I166" s="11">
-        <v>11051</v>
+        <v>0</v>
       </c>
       <c r="J166" s="11">
-        <v>0</v>
+        <v>4137</v>
       </c>
       <c r="K166" s="11">
-        <v>4137</v>
-      </c>
-      <c r="L166" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L166" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="M166" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N166" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="167" spans="2:14" x14ac:dyDescent="0.25">
@@ -6323,34 +6288,34 @@
       </c>
       <c r="D167" s="9"/>
       <c r="E167" s="9">
-        <v>9292</v>
+        <v>12222</v>
       </c>
       <c r="F167" s="9">
-        <v>12222</v>
+        <v>13517</v>
       </c>
       <c r="G167" s="9">
-        <v>13517</v>
+        <v>5029</v>
       </c>
       <c r="H167" s="9">
-        <v>5029</v>
+        <v>13363</v>
       </c>
       <c r="I167" s="9">
-        <v>13363</v>
+        <v>6437</v>
       </c>
       <c r="J167" s="9">
-        <v>6437</v>
+        <v>11786</v>
       </c>
       <c r="K167" s="9">
-        <v>11786</v>
+        <v>12477</v>
       </c>
       <c r="L167" s="9">
-        <v>12477</v>
+        <v>12488</v>
       </c>
       <c r="M167" s="9">
-        <v>12488</v>
+        <v>12050</v>
       </c>
       <c r="N167" s="9">
-        <v>12050</v>
+        <v>23997</v>
       </c>
     </row>
     <row r="168" spans="2:14" x14ac:dyDescent="0.25">
@@ -6362,34 +6327,34 @@
       </c>
       <c r="D168" s="11"/>
       <c r="E168" s="11">
-        <v>4834</v>
+        <v>2193</v>
       </c>
       <c r="F168" s="11">
-        <v>2193</v>
+        <v>3310</v>
       </c>
       <c r="G168" s="11">
-        <v>3310</v>
+        <v>3824</v>
       </c>
       <c r="H168" s="11">
-        <v>3824</v>
+        <v>5337</v>
       </c>
       <c r="I168" s="11">
-        <v>5337</v>
+        <v>4137</v>
       </c>
       <c r="J168" s="11">
-        <v>4137</v>
+        <v>7363</v>
       </c>
       <c r="K168" s="11">
-        <v>7363</v>
+        <v>4377</v>
       </c>
       <c r="L168" s="11">
-        <v>4377</v>
+        <v>2955</v>
       </c>
       <c r="M168" s="11">
-        <v>2955</v>
+        <v>934</v>
       </c>
       <c r="N168" s="11">
-        <v>934</v>
+        <v>837</v>
       </c>
     </row>
     <row r="169" spans="2:14" x14ac:dyDescent="0.25">
@@ -6401,34 +6366,34 @@
       </c>
       <c r="D169" s="9"/>
       <c r="E169" s="9">
-        <v>34285</v>
+        <v>36146</v>
       </c>
       <c r="F169" s="9">
-        <v>36146</v>
+        <v>54721</v>
       </c>
       <c r="G169" s="9">
-        <v>54721</v>
+        <v>55382</v>
       </c>
       <c r="H169" s="9">
-        <v>55382</v>
+        <v>64322</v>
       </c>
       <c r="I169" s="9">
-        <v>64322</v>
+        <v>45967</v>
       </c>
       <c r="J169" s="9">
-        <v>45967</v>
+        <v>100830</v>
       </c>
       <c r="K169" s="9">
-        <v>100830</v>
+        <v>111392</v>
       </c>
       <c r="L169" s="9">
-        <v>111392</v>
+        <v>112856</v>
       </c>
       <c r="M169" s="9">
-        <v>112856</v>
+        <v>150375</v>
       </c>
       <c r="N169" s="9">
-        <v>150375</v>
+        <v>133305</v>
       </c>
     </row>
     <row r="170" spans="2:14" x14ac:dyDescent="0.25">
@@ -6446,28 +6411,28 @@
         <v>0</v>
       </c>
       <c r="G170" s="11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H170" s="11">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="I170" s="11">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="J170" s="11">
         <v>0</v>
       </c>
       <c r="K170" s="11">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="L170" s="11">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="M170" s="11">
-        <v>122</v>
+        <v>10</v>
       </c>
       <c r="N170" s="11">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="2:14" x14ac:dyDescent="0.25">
@@ -6479,34 +6444,34 @@
       </c>
       <c r="D171" s="9"/>
       <c r="E171" s="9">
-        <v>1935</v>
+        <v>479</v>
       </c>
       <c r="F171" s="9">
-        <v>479</v>
+        <v>1228</v>
       </c>
       <c r="G171" s="9">
-        <v>1228</v>
+        <v>1213</v>
       </c>
       <c r="H171" s="9">
-        <v>1213</v>
+        <v>1432</v>
       </c>
       <c r="I171" s="9">
-        <v>1432</v>
+        <v>1641</v>
       </c>
       <c r="J171" s="9">
-        <v>1641</v>
+        <v>2919</v>
       </c>
       <c r="K171" s="9">
-        <v>2919</v>
+        <v>4808</v>
       </c>
       <c r="L171" s="9">
-        <v>4808</v>
+        <v>1209</v>
       </c>
       <c r="M171" s="9">
-        <v>1209</v>
+        <v>2414</v>
       </c>
       <c r="N171" s="9">
-        <v>2414</v>
+        <v>5659</v>
       </c>
     </row>
     <row r="172" spans="2:14" x14ac:dyDescent="0.25">
@@ -6518,34 +6483,34 @@
       </c>
       <c r="D172" s="11"/>
       <c r="E172" s="11">
-        <v>6541</v>
+        <v>8363</v>
       </c>
       <c r="F172" s="11">
-        <v>8363</v>
+        <v>10342</v>
       </c>
       <c r="G172" s="11">
-        <v>10342</v>
+        <v>16064</v>
       </c>
       <c r="H172" s="11">
-        <v>16064</v>
+        <v>27172</v>
       </c>
       <c r="I172" s="11">
-        <v>27172</v>
+        <v>11921</v>
       </c>
       <c r="J172" s="11">
-        <v>11921</v>
+        <v>28006</v>
       </c>
       <c r="K172" s="11">
-        <v>28006</v>
+        <v>10032</v>
       </c>
       <c r="L172" s="11">
-        <v>10032</v>
+        <v>27115</v>
       </c>
       <c r="M172" s="11">
-        <v>27115</v>
+        <v>25996</v>
       </c>
       <c r="N172" s="11">
-        <v>25996</v>
+        <v>25174</v>
       </c>
     </row>
     <row r="173" spans="2:14" x14ac:dyDescent="0.25">
@@ -6557,34 +6522,34 @@
       </c>
       <c r="D173" s="9"/>
       <c r="E173" s="9">
-        <v>18940</v>
+        <v>18978</v>
       </c>
       <c r="F173" s="9">
-        <v>18978</v>
+        <v>18836</v>
       </c>
       <c r="G173" s="9">
-        <v>18836</v>
+        <v>21848</v>
       </c>
       <c r="H173" s="9">
-        <v>21848</v>
+        <v>21812</v>
       </c>
       <c r="I173" s="9">
-        <v>21812</v>
+        <v>17965</v>
       </c>
       <c r="J173" s="9">
-        <v>17965</v>
+        <v>39381</v>
       </c>
       <c r="K173" s="9">
-        <v>39381</v>
+        <v>39462</v>
       </c>
       <c r="L173" s="9">
-        <v>39462</v>
+        <v>48109</v>
       </c>
       <c r="M173" s="9">
-        <v>48109</v>
+        <v>64881</v>
       </c>
       <c r="N173" s="9">
-        <v>64881</v>
+        <v>60656</v>
       </c>
     </row>
     <row r="174" spans="2:14" x14ac:dyDescent="0.25">
@@ -6596,34 +6561,34 @@
       </c>
       <c r="D174" s="11"/>
       <c r="E174" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F174" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G174" s="11">
-        <v>0</v>
-      </c>
-      <c r="H174" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="I174" s="11">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="F174" s="11">
+        <v>0</v>
+      </c>
+      <c r="G174" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H174" s="11">
+        <v>0</v>
+      </c>
+      <c r="I174" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="J174" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K174" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="L174" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M174" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N174" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="175" spans="2:14" x14ac:dyDescent="0.25">
@@ -6635,34 +6600,34 @@
       </c>
       <c r="D175" s="9"/>
       <c r="E175" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F175" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G175" s="9">
-        <v>0</v>
-      </c>
-      <c r="H175" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I175" s="9">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="F175" s="9">
+        <v>0</v>
+      </c>
+      <c r="G175" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H175" s="9">
+        <v>0</v>
+      </c>
+      <c r="I175" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="J175" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K175" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="L175" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M175" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N175" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="176" spans="2:14" x14ac:dyDescent="0.25">
@@ -6711,34 +6676,34 @@
       <c r="C177" s="15"/>
       <c r="D177" s="15"/>
       <c r="E177" s="15">
-        <v>117120</v>
+        <v>115083</v>
       </c>
       <c r="F177" s="15">
-        <v>115083</v>
+        <v>162508</v>
       </c>
       <c r="G177" s="15">
-        <v>162508</v>
+        <v>170073</v>
       </c>
       <c r="H177" s="15">
-        <v>170073</v>
+        <v>217865</v>
       </c>
       <c r="I177" s="15">
-        <v>217865</v>
+        <v>166241</v>
       </c>
       <c r="J177" s="15">
-        <v>166241</v>
+        <v>314059</v>
       </c>
       <c r="K177" s="15">
-        <v>314059</v>
+        <v>336012</v>
       </c>
       <c r="L177" s="15">
-        <v>336012</v>
+        <v>349308</v>
       </c>
       <c r="M177" s="15">
-        <v>349308</v>
+        <v>440809</v>
       </c>
       <c r="N177" s="15">
-        <v>440809</v>
+        <v>423448</v>
       </c>
     </row>
     <row r="178" spans="2:14" x14ac:dyDescent="0.25">
@@ -6840,41 +6805,41 @@
     </row>
     <row r="183" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B183" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C183" s="9" t="s">
         <v>45</v>
       </c>
       <c r="D183" s="9"/>
       <c r="E183" s="9">
-        <v>35529</v>
+        <v>46314</v>
       </c>
       <c r="F183" s="9">
-        <v>46314</v>
+        <v>54665</v>
       </c>
       <c r="G183" s="9">
-        <v>54665</v>
+        <v>64566</v>
       </c>
       <c r="H183" s="9">
-        <v>64566</v>
+        <v>29721</v>
       </c>
       <c r="I183" s="9">
-        <v>29721</v>
+        <v>145443</v>
       </c>
       <c r="J183" s="9">
-        <v>145443</v>
+        <v>183219</v>
       </c>
       <c r="K183" s="9">
-        <v>183219</v>
-      </c>
-      <c r="L183" s="9">
         <v>143819</v>
       </c>
+      <c r="L183" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="M183" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N183" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="184" spans="2:14" x14ac:dyDescent="0.25">
@@ -6886,34 +6851,34 @@
       </c>
       <c r="D184" s="11"/>
       <c r="E184" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F184" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G184" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H184" s="11">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="G184" s="11">
+        <v>0</v>
+      </c>
+      <c r="H184" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="I184" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="J184" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K184" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="L184" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
+      </c>
+      <c r="L184" s="11">
+        <v>278280</v>
       </c>
       <c r="M184" s="11">
-        <v>278280</v>
+        <v>538467</v>
       </c>
       <c r="N184" s="11">
-        <v>538467</v>
+        <v>934287</v>
       </c>
     </row>
     <row r="185" spans="2:14" x14ac:dyDescent="0.25">
@@ -6925,34 +6890,34 @@
       </c>
       <c r="D185" s="9"/>
       <c r="E185" s="9">
-        <v>1515</v>
+        <v>0</v>
       </c>
       <c r="F185" s="9">
         <v>0</v>
       </c>
-      <c r="G185" s="9">
-        <v>0</v>
+      <c r="G185" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="H185" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I185" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="J185" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K185" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="L185" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M185" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N185" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="186" spans="2:14" x14ac:dyDescent="0.25">
@@ -6967,10 +6932,10 @@
         <v>1027</v>
       </c>
       <c r="F186" s="11">
-        <v>1027</v>
+        <v>828</v>
       </c>
       <c r="G186" s="11">
-        <v>828</v>
+        <v>851</v>
       </c>
       <c r="H186" s="11">
         <v>851</v>
@@ -6985,13 +6950,13 @@
         <v>851</v>
       </c>
       <c r="L186" s="11">
-        <v>851</v>
+        <v>490</v>
       </c>
       <c r="M186" s="11">
-        <v>490</v>
+        <v>1063</v>
       </c>
       <c r="N186" s="11">
-        <v>1063</v>
+        <v>107</v>
       </c>
     </row>
     <row r="187" spans="2:14" x14ac:dyDescent="0.25">
@@ -7003,34 +6968,34 @@
       </c>
       <c r="D187" s="9"/>
       <c r="E187" s="9">
-        <v>600</v>
+        <v>630</v>
       </c>
       <c r="F187" s="9">
-        <v>630</v>
+        <v>615</v>
       </c>
       <c r="G187" s="9">
-        <v>615</v>
+        <v>5746</v>
       </c>
       <c r="H187" s="9">
-        <v>5746</v>
+        <v>19225</v>
       </c>
       <c r="I187" s="9">
-        <v>19225</v>
+        <v>14736</v>
       </c>
       <c r="J187" s="9">
-        <v>14736</v>
+        <v>22370</v>
       </c>
       <c r="K187" s="9">
-        <v>22370</v>
+        <v>36054</v>
       </c>
       <c r="L187" s="9">
-        <v>36054</v>
+        <v>35170</v>
       </c>
       <c r="M187" s="9">
-        <v>35170</v>
+        <v>35549</v>
       </c>
       <c r="N187" s="9">
-        <v>35549</v>
+        <v>37471</v>
       </c>
     </row>
     <row r="188" spans="2:14" x14ac:dyDescent="0.25">
@@ -7042,34 +7007,34 @@
       </c>
       <c r="D188" s="11"/>
       <c r="E188" s="11">
-        <v>6024</v>
+        <v>4655</v>
       </c>
       <c r="F188" s="11">
-        <v>4655</v>
+        <v>3457</v>
       </c>
       <c r="G188" s="11">
-        <v>3457</v>
+        <v>213</v>
       </c>
       <c r="H188" s="11">
-        <v>213</v>
+        <v>4137</v>
       </c>
       <c r="I188" s="11">
-        <v>4137</v>
+        <v>4138</v>
       </c>
       <c r="J188" s="11">
-        <v>4138</v>
+        <v>0</v>
       </c>
       <c r="K188" s="11">
         <v>0</v>
       </c>
-      <c r="L188" s="11">
-        <v>0</v>
+      <c r="L188" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="M188" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N188" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="189" spans="2:14" x14ac:dyDescent="0.25">
@@ -7081,34 +7046,34 @@
       </c>
       <c r="D189" s="9"/>
       <c r="E189" s="9">
-        <v>3598</v>
+        <v>4130</v>
       </c>
       <c r="F189" s="9">
-        <v>4130</v>
+        <v>3583</v>
       </c>
       <c r="G189" s="9">
-        <v>3583</v>
+        <v>36348</v>
       </c>
       <c r="H189" s="9">
-        <v>36348</v>
+        <v>31744</v>
       </c>
       <c r="I189" s="9">
-        <v>31744</v>
+        <v>25307</v>
       </c>
       <c r="J189" s="9">
-        <v>25307</v>
+        <v>22217</v>
       </c>
       <c r="K189" s="9">
-        <v>22217</v>
+        <v>31691</v>
       </c>
       <c r="L189" s="9">
-        <v>31691</v>
+        <v>19203</v>
       </c>
       <c r="M189" s="9">
-        <v>19203</v>
+        <v>7153</v>
       </c>
       <c r="N189" s="9">
-        <v>7153</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="190" spans="2:14" x14ac:dyDescent="0.25">
@@ -7120,34 +7085,34 @@
       </c>
       <c r="D190" s="11"/>
       <c r="E190" s="11">
-        <v>6823</v>
+        <v>17335</v>
       </c>
       <c r="F190" s="11">
-        <v>17335</v>
+        <v>25381</v>
       </c>
       <c r="G190" s="11">
-        <v>25381</v>
+        <v>21757</v>
       </c>
       <c r="H190" s="11">
-        <v>21757</v>
+        <v>16880</v>
       </c>
       <c r="I190" s="11">
-        <v>16880</v>
+        <v>15581</v>
       </c>
       <c r="J190" s="11">
-        <v>15581</v>
+        <v>8218</v>
       </c>
       <c r="K190" s="11">
-        <v>8218</v>
+        <v>15253</v>
       </c>
       <c r="L190" s="11">
-        <v>15253</v>
+        <v>21997</v>
       </c>
       <c r="M190" s="11">
-        <v>21997</v>
+        <v>23686</v>
       </c>
       <c r="N190" s="11">
-        <v>23686</v>
+        <v>22849</v>
       </c>
     </row>
     <row r="191" spans="2:14" x14ac:dyDescent="0.25">
@@ -7159,34 +7124,34 @@
       </c>
       <c r="D191" s="9"/>
       <c r="E191" s="9">
-        <v>11207</v>
+        <v>27516</v>
       </c>
       <c r="F191" s="9">
-        <v>27516</v>
+        <v>40666</v>
       </c>
       <c r="G191" s="9">
-        <v>40666</v>
+        <v>39038</v>
       </c>
       <c r="H191" s="9">
-        <v>39038</v>
+        <v>48807</v>
       </c>
       <c r="I191" s="9">
-        <v>48807</v>
+        <v>48890</v>
       </c>
       <c r="J191" s="9">
-        <v>48890</v>
+        <v>30628</v>
       </c>
       <c r="K191" s="9">
-        <v>30628</v>
+        <v>56744</v>
       </c>
       <c r="L191" s="9">
-        <v>56744</v>
+        <v>72930</v>
       </c>
       <c r="M191" s="9">
-        <v>72930</v>
+        <v>79705</v>
       </c>
       <c r="N191" s="9">
-        <v>79705</v>
+        <v>77730</v>
       </c>
     </row>
     <row r="192" spans="2:14" x14ac:dyDescent="0.25">
@@ -7204,10 +7169,10 @@
         <v>313</v>
       </c>
       <c r="G192" s="11">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="H192" s="11">
-        <v>308</v>
+        <v>274</v>
       </c>
       <c r="I192" s="11">
         <v>274</v>
@@ -7216,13 +7181,13 @@
         <v>274</v>
       </c>
       <c r="K192" s="11">
-        <v>274</v>
+        <v>142</v>
       </c>
       <c r="L192" s="11">
-        <v>142</v>
+        <v>20</v>
       </c>
       <c r="M192" s="11">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N192" s="11">
         <v>0</v>
@@ -7237,34 +7202,34 @@
       </c>
       <c r="D193" s="9"/>
       <c r="E193" s="9">
-        <v>4147</v>
+        <v>4435</v>
       </c>
       <c r="F193" s="9">
-        <v>4435</v>
+        <v>3207</v>
       </c>
       <c r="G193" s="9">
-        <v>3207</v>
+        <v>2383</v>
       </c>
       <c r="H193" s="9">
-        <v>2383</v>
+        <v>1994</v>
       </c>
       <c r="I193" s="9">
-        <v>1994</v>
+        <v>13251</v>
       </c>
       <c r="J193" s="9">
-        <v>13251</v>
+        <v>10332</v>
       </c>
       <c r="K193" s="9">
-        <v>10332</v>
+        <v>5405</v>
       </c>
       <c r="L193" s="9">
-        <v>5405</v>
+        <v>4196</v>
       </c>
       <c r="M193" s="9">
-        <v>4196</v>
+        <v>1782</v>
       </c>
       <c r="N193" s="9">
-        <v>1782</v>
+        <v>8189</v>
       </c>
     </row>
     <row r="194" spans="2:14" x14ac:dyDescent="0.25">
@@ -7276,34 +7241,34 @@
       </c>
       <c r="D194" s="11"/>
       <c r="E194" s="11">
-        <v>23202</v>
+        <v>47319</v>
       </c>
       <c r="F194" s="11">
-        <v>47319</v>
+        <v>46205</v>
       </c>
       <c r="G194" s="11">
-        <v>46205</v>
+        <v>61619</v>
       </c>
       <c r="H194" s="11">
-        <v>61619</v>
+        <v>56593</v>
       </c>
       <c r="I194" s="11">
-        <v>56593</v>
+        <v>105946</v>
       </c>
       <c r="J194" s="11">
-        <v>105946</v>
+        <v>143050</v>
       </c>
       <c r="K194" s="11">
-        <v>143050</v>
+        <v>123425</v>
       </c>
       <c r="L194" s="11">
-        <v>123425</v>
+        <v>96785</v>
       </c>
       <c r="M194" s="11">
-        <v>96785</v>
+        <v>114214</v>
       </c>
       <c r="N194" s="11">
-        <v>114214</v>
+        <v>178946</v>
       </c>
     </row>
     <row r="195" spans="2:14" x14ac:dyDescent="0.25">
@@ -7315,34 +7280,34 @@
       </c>
       <c r="D195" s="9"/>
       <c r="E195" s="9">
-        <v>21010</v>
+        <v>23595</v>
       </c>
       <c r="F195" s="9">
-        <v>23595</v>
+        <v>22973</v>
       </c>
       <c r="G195" s="9">
-        <v>22973</v>
+        <v>16487</v>
       </c>
       <c r="H195" s="9">
-        <v>16487</v>
+        <v>17984</v>
       </c>
       <c r="I195" s="9">
-        <v>17984</v>
+        <v>34567</v>
       </c>
       <c r="J195" s="9">
-        <v>34567</v>
+        <v>35747</v>
       </c>
       <c r="K195" s="9">
-        <v>35747</v>
+        <v>60053</v>
       </c>
       <c r="L195" s="9">
-        <v>60053</v>
+        <v>38614</v>
       </c>
       <c r="M195" s="9">
-        <v>38614</v>
+        <v>90697</v>
       </c>
       <c r="N195" s="9">
-        <v>90697</v>
+        <v>184418</v>
       </c>
     </row>
     <row r="196" spans="2:14" x14ac:dyDescent="0.25">
@@ -7354,34 +7319,34 @@
       </c>
       <c r="D196" s="11"/>
       <c r="E196" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F196" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G196" s="11">
-        <v>0</v>
-      </c>
-      <c r="H196" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="I196" s="11">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="F196" s="11">
+        <v>0</v>
+      </c>
+      <c r="G196" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H196" s="11">
+        <v>0</v>
+      </c>
+      <c r="I196" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="J196" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K196" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="L196" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M196" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N196" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="197" spans="2:14" x14ac:dyDescent="0.25">
@@ -7393,34 +7358,34 @@
       </c>
       <c r="D197" s="9"/>
       <c r="E197" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F197" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G197" s="9">
-        <v>0</v>
-      </c>
-      <c r="H197" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I197" s="9">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="F197" s="9">
+        <v>0</v>
+      </c>
+      <c r="G197" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H197" s="9">
+        <v>0</v>
+      </c>
+      <c r="I197" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="J197" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K197" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="L197" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M197" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N197" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="198" spans="2:14" x14ac:dyDescent="0.25">
@@ -7469,34 +7434,34 @@
       <c r="C199" s="15"/>
       <c r="D199" s="15"/>
       <c r="E199" s="15">
-        <v>115813</v>
+        <v>178087</v>
       </c>
       <c r="F199" s="15">
-        <v>178087</v>
+        <v>202711</v>
       </c>
       <c r="G199" s="15">
-        <v>202711</v>
+        <v>250134</v>
       </c>
       <c r="H199" s="15">
-        <v>250134</v>
+        <v>229028</v>
       </c>
       <c r="I199" s="15">
-        <v>229028</v>
+        <v>409802</v>
       </c>
       <c r="J199" s="15">
-        <v>409802</v>
+        <v>457724</v>
       </c>
       <c r="K199" s="15">
-        <v>457724</v>
+        <v>474255</v>
       </c>
       <c r="L199" s="15">
-        <v>474255</v>
+        <v>568503</v>
       </c>
       <c r="M199" s="15">
-        <v>568503</v>
+        <v>893134</v>
       </c>
       <c r="N199" s="15">
-        <v>893134</v>
+        <v>1446725</v>
       </c>
     </row>
     <row r="200" spans="2:14" x14ac:dyDescent="0.25">
@@ -7598,41 +7563,41 @@
     </row>
     <row r="205" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B205" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C205" s="9" t="s">
         <v>57</v>
       </c>
       <c r="D205" s="9"/>
       <c r="E205" s="9">
-        <v>913408</v>
+        <v>1051652</v>
       </c>
       <c r="F205" s="9">
-        <v>1051652</v>
+        <v>1128646</v>
       </c>
       <c r="G205" s="9">
-        <v>1128646</v>
+        <v>1275134</v>
       </c>
       <c r="H205" s="9">
-        <v>1275134</v>
+        <v>1505526</v>
       </c>
       <c r="I205" s="9">
-        <v>1505526</v>
+        <v>2792802</v>
       </c>
       <c r="J205" s="9">
-        <v>2792802</v>
+        <v>2303464</v>
       </c>
       <c r="K205" s="9">
-        <v>2303464</v>
-      </c>
-      <c r="L205" s="9">
         <v>2548000</v>
       </c>
+      <c r="L205" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="M205" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N205" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="206" spans="2:14" x14ac:dyDescent="0.25">
@@ -7644,34 +7609,34 @@
       </c>
       <c r="D206" s="11"/>
       <c r="E206" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F206" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="G206" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="H206" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I206" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="J206" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K206" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="L206" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
+      </c>
+      <c r="L206" s="11">
+        <v>2400905</v>
       </c>
       <c r="M206" s="11">
-        <v>2400905</v>
+        <v>3102445</v>
       </c>
       <c r="N206" s="11">
-        <v>3102445</v>
+        <v>3869743</v>
       </c>
     </row>
     <row r="207" spans="2:14" x14ac:dyDescent="0.25">
@@ -7683,34 +7648,34 @@
       </c>
       <c r="D207" s="9"/>
       <c r="E207" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F207" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="G207" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="H207" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I207" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="J207" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K207" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="L207" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M207" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N207" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="208" spans="2:14" x14ac:dyDescent="0.25">
@@ -7728,7 +7693,7 @@
         <v>87145</v>
       </c>
       <c r="G208" s="11">
-        <v>87145</v>
+        <v>87121</v>
       </c>
       <c r="H208" s="11">
         <v>87121</v>
@@ -7746,10 +7711,10 @@
         <v>87121</v>
       </c>
       <c r="M208" s="11">
-        <v>87121</v>
+        <v>87065</v>
       </c>
       <c r="N208" s="11">
-        <v>87065</v>
+        <v>172874</v>
       </c>
     </row>
     <row r="209" spans="2:14" x14ac:dyDescent="0.25">
@@ -7761,34 +7726,34 @@
       </c>
       <c r="D209" s="9"/>
       <c r="E209" s="9">
-        <v>44487</v>
+        <v>46246</v>
       </c>
       <c r="F209" s="9">
-        <v>46246</v>
+        <v>54147</v>
       </c>
       <c r="G209" s="9">
-        <v>54147</v>
+        <v>87234</v>
       </c>
       <c r="H209" s="9">
-        <v>87234</v>
+        <v>87414</v>
       </c>
       <c r="I209" s="9">
-        <v>87414</v>
+        <v>157347</v>
       </c>
       <c r="J209" s="9">
-        <v>157347</v>
+        <v>157502</v>
       </c>
       <c r="K209" s="9">
-        <v>157502</v>
+        <v>196176</v>
       </c>
       <c r="L209" s="9">
-        <v>196176</v>
+        <v>219769</v>
       </c>
       <c r="M209" s="9">
-        <v>219769</v>
+        <v>232085</v>
       </c>
       <c r="N209" s="9">
-        <v>232085</v>
+        <v>234586</v>
       </c>
     </row>
     <row r="210" spans="2:14" x14ac:dyDescent="0.25">
@@ -7800,34 +7765,34 @@
       </c>
       <c r="D210" s="11"/>
       <c r="E210" s="11">
-        <v>183500</v>
+        <v>183502</v>
       </c>
       <c r="F210" s="11">
-        <v>183502</v>
+        <v>183484</v>
       </c>
       <c r="G210" s="11">
-        <v>183484</v>
+        <v>183512</v>
       </c>
       <c r="H210" s="11">
-        <v>183512</v>
+        <v>183074</v>
       </c>
       <c r="I210" s="11">
-        <v>183074</v>
+        <v>888340</v>
       </c>
       <c r="J210" s="11">
-        <v>888340</v>
-      </c>
-      <c r="K210" s="11">
         <v>888555</v>
       </c>
+      <c r="K210" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="L210" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M210" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N210" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="211" spans="2:14" x14ac:dyDescent="0.25">
@@ -7839,34 +7804,34 @@
       </c>
       <c r="D211" s="9"/>
       <c r="E211" s="9">
-        <v>391063</v>
+        <v>387966</v>
       </c>
       <c r="F211" s="9">
-        <v>387966</v>
+        <v>543850</v>
       </c>
       <c r="G211" s="9">
-        <v>543850</v>
+        <v>530030</v>
       </c>
       <c r="H211" s="9">
-        <v>530030</v>
+        <v>502878</v>
       </c>
       <c r="I211" s="9">
-        <v>502878</v>
+        <v>482953</v>
       </c>
       <c r="J211" s="9">
-        <v>482953</v>
+        <v>482949</v>
       </c>
       <c r="K211" s="9">
-        <v>482949</v>
+        <v>507469</v>
       </c>
       <c r="L211" s="9">
-        <v>507469</v>
+        <v>553535</v>
       </c>
       <c r="M211" s="9">
-        <v>553535</v>
+        <v>553512</v>
       </c>
       <c r="N211" s="9">
-        <v>553512</v>
+        <v>553509</v>
       </c>
     </row>
     <row r="212" spans="2:14" x14ac:dyDescent="0.25">
@@ -7878,34 +7843,34 @@
       </c>
       <c r="D212" s="11"/>
       <c r="E212" s="11">
-        <v>204954</v>
+        <v>310277</v>
       </c>
       <c r="F212" s="11">
-        <v>310277</v>
+        <v>352194</v>
       </c>
       <c r="G212" s="11">
-        <v>352194</v>
+        <v>377054</v>
       </c>
       <c r="H212" s="11">
-        <v>377054</v>
+        <v>377051</v>
       </c>
       <c r="I212" s="11">
-        <v>377051</v>
+        <v>378297</v>
       </c>
       <c r="J212" s="11">
-        <v>378297</v>
+        <v>386424</v>
       </c>
       <c r="K212" s="11">
-        <v>386424</v>
+        <v>386420</v>
       </c>
       <c r="L212" s="11">
-        <v>386420</v>
+        <v>507165</v>
       </c>
       <c r="M212" s="11">
-        <v>507165</v>
+        <v>541291</v>
       </c>
       <c r="N212" s="11">
-        <v>541291</v>
+        <v>546554</v>
       </c>
     </row>
     <row r="213" spans="2:14" x14ac:dyDescent="0.25">
@@ -7917,34 +7882,34 @@
       </c>
       <c r="D213" s="9"/>
       <c r="E213" s="9">
-        <v>66390</v>
+        <v>68704</v>
       </c>
       <c r="F213" s="9">
-        <v>68704</v>
+        <v>86579</v>
       </c>
       <c r="G213" s="9">
-        <v>86579</v>
+        <v>117207</v>
       </c>
       <c r="H213" s="9">
-        <v>117207</v>
+        <v>119024</v>
       </c>
       <c r="I213" s="9">
-        <v>119024</v>
+        <v>166687</v>
       </c>
       <c r="J213" s="9">
-        <v>166687</v>
+        <v>176268</v>
       </c>
       <c r="K213" s="9">
-        <v>176268</v>
+        <v>232674</v>
       </c>
       <c r="L213" s="9">
-        <v>232674</v>
+        <v>251227</v>
       </c>
       <c r="M213" s="9">
-        <v>251227</v>
+        <v>276093</v>
       </c>
       <c r="N213" s="9">
-        <v>276093</v>
+        <v>280497</v>
       </c>
     </row>
     <row r="214" spans="2:14" x14ac:dyDescent="0.25">
@@ -7965,10 +7930,10 @@
         <v>110056</v>
       </c>
       <c r="H214" s="11">
-        <v>110056</v>
+        <v>110039</v>
       </c>
       <c r="I214" s="11">
-        <v>110039</v>
+        <v>110084</v>
       </c>
       <c r="J214" s="11">
         <v>110084</v>
@@ -7977,13 +7942,13 @@
         <v>110084</v>
       </c>
       <c r="L214" s="11">
-        <v>110084</v>
+        <v>110764</v>
       </c>
       <c r="M214" s="11">
-        <v>110764</v>
-      </c>
-      <c r="N214" s="11">
         <v>114286</v>
+      </c>
+      <c r="N214" s="11" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="215" spans="2:14" x14ac:dyDescent="0.25">
@@ -7995,34 +7960,34 @@
       </c>
       <c r="D215" s="9"/>
       <c r="E215" s="9">
-        <v>384078</v>
+        <v>412186</v>
       </c>
       <c r="F215" s="9">
-        <v>412186</v>
+        <v>416823</v>
       </c>
       <c r="G215" s="9">
-        <v>416823</v>
+        <v>416764</v>
       </c>
       <c r="H215" s="9">
-        <v>416764</v>
+        <v>420430</v>
       </c>
       <c r="I215" s="9">
-        <v>420430</v>
+        <v>417242</v>
       </c>
       <c r="J215" s="9">
-        <v>417242</v>
+        <v>643596</v>
       </c>
       <c r="K215" s="9">
-        <v>643596</v>
+        <v>643578</v>
       </c>
       <c r="L215" s="9">
-        <v>643578</v>
+        <v>643529</v>
       </c>
       <c r="M215" s="9">
-        <v>643529</v>
+        <v>643460</v>
       </c>
       <c r="N215" s="9">
-        <v>643460</v>
+        <v>657807</v>
       </c>
     </row>
     <row r="216" spans="2:14" x14ac:dyDescent="0.25">
@@ -8034,34 +7999,34 @@
       </c>
       <c r="D216" s="11"/>
       <c r="E216" s="11">
-        <v>294565</v>
+        <v>329972</v>
       </c>
       <c r="F216" s="11">
-        <v>329972</v>
+        <v>517227</v>
       </c>
       <c r="G216" s="11">
-        <v>517227</v>
+        <v>536176</v>
       </c>
       <c r="H216" s="11">
-        <v>536176</v>
+        <v>660609</v>
       </c>
       <c r="I216" s="11">
-        <v>660609</v>
+        <v>784162</v>
       </c>
       <c r="J216" s="11">
-        <v>784162</v>
+        <v>1063544</v>
       </c>
       <c r="K216" s="11">
-        <v>1063544</v>
+        <v>1413314</v>
       </c>
       <c r="L216" s="11">
-        <v>1413314</v>
+        <v>1281166</v>
       </c>
       <c r="M216" s="11">
-        <v>1281166</v>
+        <v>1263875</v>
       </c>
       <c r="N216" s="11">
-        <v>1263875</v>
+        <v>1307634</v>
       </c>
     </row>
     <row r="217" spans="2:14" x14ac:dyDescent="0.25">
@@ -8073,34 +8038,34 @@
       </c>
       <c r="D217" s="9"/>
       <c r="E217" s="9">
-        <v>146004</v>
+        <v>191106</v>
       </c>
       <c r="F217" s="9">
-        <v>191106</v>
+        <v>206503</v>
       </c>
       <c r="G217" s="9">
-        <v>206503</v>
+        <v>210821</v>
       </c>
       <c r="H217" s="9">
-        <v>210821</v>
+        <v>226716</v>
       </c>
       <c r="I217" s="9">
-        <v>226716</v>
+        <v>240943</v>
       </c>
       <c r="J217" s="9">
-        <v>240943</v>
+        <v>332532</v>
       </c>
       <c r="K217" s="9">
-        <v>332532</v>
+        <v>400455</v>
       </c>
       <c r="L217" s="9">
-        <v>400455</v>
+        <v>423810</v>
       </c>
       <c r="M217" s="9">
-        <v>423810</v>
+        <v>435190</v>
       </c>
       <c r="N217" s="9">
-        <v>435190</v>
+        <v>656540</v>
       </c>
     </row>
     <row r="218" spans="2:14" x14ac:dyDescent="0.25">
@@ -8241,41 +8206,41 @@
     </row>
     <row r="224" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B224" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C224" s="9" t="s">
         <v>57</v>
       </c>
       <c r="D224" s="9"/>
       <c r="E224" s="9">
-        <v>1146989</v>
+        <v>1155779</v>
       </c>
       <c r="F224" s="9">
-        <v>1155779</v>
+        <v>1432227</v>
       </c>
       <c r="G224" s="9">
-        <v>1432227</v>
+        <v>1723742</v>
       </c>
       <c r="H224" s="9">
-        <v>1723742</v>
+        <v>2024955</v>
       </c>
       <c r="I224" s="9">
-        <v>2024955</v>
+        <v>2896013</v>
       </c>
       <c r="J224" s="9">
-        <v>2896013</v>
+        <v>2818765</v>
       </c>
       <c r="K224" s="9">
-        <v>2818765</v>
-      </c>
-      <c r="L224" s="9">
         <v>2911001</v>
       </c>
+      <c r="L224" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="M224" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N224" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="225" spans="2:14" x14ac:dyDescent="0.25">
@@ -8287,34 +8252,34 @@
       </c>
       <c r="D225" s="11"/>
       <c r="E225" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F225" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G225" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H225" s="11">
+        <v>25</v>
+      </c>
+      <c r="G225" s="11">
         <v>687699</v>
       </c>
+      <c r="H225" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="I225" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="J225" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K225" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="L225" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
+      </c>
+      <c r="L225" s="11">
+        <v>4091014</v>
       </c>
       <c r="M225" s="11">
-        <v>4091014</v>
+        <v>4922176</v>
       </c>
       <c r="N225" s="11">
-        <v>4922176</v>
+        <v>4799978</v>
       </c>
     </row>
     <row r="226" spans="2:14" x14ac:dyDescent="0.25">
@@ -8325,35 +8290,35 @@
         <v>57</v>
       </c>
       <c r="D226" s="9"/>
-      <c r="E226" s="9">
-        <v>687699</v>
+      <c r="E226" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="F226" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="G226" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="H226" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I226" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="J226" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K226" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="L226" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M226" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N226" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="227" spans="2:14" x14ac:dyDescent="0.25">
@@ -8365,34 +8330,34 @@
       </c>
       <c r="D227" s="11"/>
       <c r="E227" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F227" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G227" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H227" s="11">
+        <v>25</v>
+      </c>
+      <c r="G227" s="11">
         <v>87121</v>
       </c>
+      <c r="H227" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="I227" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="J227" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K227" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="L227" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="M227" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
+      </c>
+      <c r="M227" s="11">
+        <v>1099808</v>
       </c>
       <c r="N227" s="11">
-        <v>1099808</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="2:14" x14ac:dyDescent="0.25">
@@ -8404,34 +8369,34 @@
       </c>
       <c r="D228" s="9"/>
       <c r="E228" s="9">
-        <v>45468</v>
+        <v>56343</v>
       </c>
       <c r="F228" s="9">
-        <v>56343</v>
+        <v>80292</v>
       </c>
       <c r="G228" s="9">
-        <v>80292</v>
+        <v>87412</v>
       </c>
       <c r="H228" s="9">
-        <v>87412</v>
+        <v>148682</v>
       </c>
       <c r="I228" s="9">
-        <v>148682</v>
+        <v>158182</v>
       </c>
       <c r="J228" s="9">
-        <v>158182</v>
+        <v>183429</v>
       </c>
       <c r="K228" s="9">
-        <v>183429</v>
+        <v>225612</v>
       </c>
       <c r="L228" s="9">
-        <v>225612</v>
+        <v>235001</v>
       </c>
       <c r="M228" s="9">
-        <v>235001</v>
+        <v>234999</v>
       </c>
       <c r="N228" s="9">
-        <v>234999</v>
+        <v>240784</v>
       </c>
     </row>
     <row r="229" spans="2:14" x14ac:dyDescent="0.25">
@@ -8443,34 +8408,34 @@
       </c>
       <c r="D229" s="11"/>
       <c r="E229" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F229" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G229" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
+      </c>
+      <c r="G229" s="11">
+        <v>183503</v>
       </c>
       <c r="H229" s="11">
-        <v>183503</v>
-      </c>
-      <c r="I229" s="11">
         <v>922167</v>
       </c>
+      <c r="I229" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="J229" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K229" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="L229" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M229" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N229" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="230" spans="2:14" x14ac:dyDescent="0.25">
@@ -8482,34 +8447,34 @@
       </c>
       <c r="D230" s="9"/>
       <c r="E230" s="9">
-        <v>385327</v>
+        <v>545696</v>
       </c>
       <c r="F230" s="9">
-        <v>545696</v>
+        <v>521281</v>
       </c>
       <c r="G230" s="9">
-        <v>521281</v>
+        <v>501300</v>
       </c>
       <c r="H230" s="9">
-        <v>501300</v>
-      </c>
-      <c r="I230" s="9">
         <v>408079</v>
       </c>
-      <c r="J230" s="9" t="s">
-        <v>31</v>
+      <c r="I230" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J230" s="9">
+        <v>570005</v>
       </c>
       <c r="K230" s="9">
-        <v>570005</v>
-      </c>
-      <c r="L230" s="9">
         <v>599738</v>
       </c>
+      <c r="L230" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="M230" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="N230" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
+      </c>
+      <c r="N230" s="9">
+        <v>1271458</v>
       </c>
     </row>
     <row r="231" spans="2:14" x14ac:dyDescent="0.25">
@@ -8521,34 +8486,34 @@
       </c>
       <c r="D231" s="11"/>
       <c r="E231" s="11">
-        <v>328989</v>
+        <v>375288</v>
       </c>
       <c r="F231" s="11">
-        <v>375288</v>
+        <v>421092</v>
       </c>
       <c r="G231" s="11">
-        <v>421092</v>
+        <v>376648</v>
       </c>
       <c r="H231" s="11">
-        <v>376648</v>
+        <v>435606</v>
       </c>
       <c r="I231" s="11">
-        <v>435606</v>
-      </c>
-      <c r="J231" s="11">
         <v>436079</v>
       </c>
-      <c r="K231" s="11" t="s">
-        <v>31</v>
+      <c r="J231" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K231" s="11">
+        <v>601518</v>
       </c>
       <c r="L231" s="11">
-        <v>601518</v>
+        <v>594958</v>
       </c>
       <c r="M231" s="11">
-        <v>594958</v>
-      </c>
-      <c r="N231" s="11">
         <v>595189</v>
+      </c>
+      <c r="N231" s="11" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="232" spans="2:14" x14ac:dyDescent="0.25">
@@ -8560,34 +8525,34 @@
       </c>
       <c r="D232" s="9"/>
       <c r="E232" s="9">
-        <v>69000</v>
+        <v>88036</v>
       </c>
       <c r="F232" s="9">
-        <v>88036</v>
+        <v>122289</v>
       </c>
       <c r="G232" s="9">
-        <v>122289</v>
+        <v>122025</v>
       </c>
       <c r="H232" s="9">
-        <v>122025</v>
+        <v>185000</v>
       </c>
       <c r="I232" s="9">
-        <v>185000</v>
+        <v>185042</v>
       </c>
       <c r="J232" s="9">
-        <v>185042</v>
+        <v>226832</v>
       </c>
       <c r="K232" s="9">
-        <v>226832</v>
+        <v>260678</v>
       </c>
       <c r="L232" s="9">
-        <v>260678</v>
+        <v>281784</v>
       </c>
       <c r="M232" s="9">
-        <v>281784</v>
+        <v>281495</v>
       </c>
       <c r="N232" s="9">
-        <v>281495</v>
+        <v>286015</v>
       </c>
     </row>
     <row r="233" spans="2:14" x14ac:dyDescent="0.25">
@@ -8599,34 +8564,34 @@
       </c>
       <c r="D233" s="11"/>
       <c r="E233" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F233" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="G233" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="H233" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I233" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="J233" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K233" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="L233" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M233" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N233" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="234" spans="2:14" x14ac:dyDescent="0.25">
@@ -8638,34 +8603,34 @@
       </c>
       <c r="D234" s="9"/>
       <c r="E234" s="9">
-        <v>425149</v>
-      </c>
-      <c r="F234" s="9">
         <v>442330</v>
       </c>
-      <c r="G234" s="9" t="s">
-        <v>31</v>
+      <c r="F234" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G234" s="9">
+        <v>449711</v>
       </c>
       <c r="H234" s="9">
-        <v>449711</v>
+        <v>355851</v>
       </c>
       <c r="I234" s="9">
-        <v>355851</v>
-      </c>
-      <c r="J234" s="9">
         <v>700027</v>
       </c>
-      <c r="K234" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L234" s="9">
+      <c r="J234" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K234" s="9">
         <v>643243</v>
       </c>
+      <c r="L234" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="M234" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="N234" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
+      </c>
+      <c r="N234" s="9">
+        <v>1339030</v>
       </c>
     </row>
     <row r="235" spans="2:14" x14ac:dyDescent="0.25">
@@ -8677,34 +8642,34 @@
       </c>
       <c r="D235" s="11"/>
       <c r="E235" s="11">
-        <v>834041</v>
+        <v>809834</v>
       </c>
       <c r="F235" s="11">
-        <v>809834</v>
+        <v>656937</v>
       </c>
       <c r="G235" s="11">
-        <v>656937</v>
+        <v>950853</v>
       </c>
       <c r="H235" s="11">
-        <v>950853</v>
+        <v>1566417</v>
       </c>
       <c r="I235" s="11">
-        <v>1566417</v>
+        <v>1516908</v>
       </c>
       <c r="J235" s="11">
-        <v>1516908</v>
+        <v>2669646</v>
       </c>
       <c r="K235" s="11">
-        <v>2669646</v>
+        <v>2631103</v>
       </c>
       <c r="L235" s="11">
-        <v>2631103</v>
+        <v>297433</v>
       </c>
       <c r="M235" s="11">
-        <v>297433</v>
+        <v>1367760</v>
       </c>
       <c r="N235" s="11">
-        <v>1367760</v>
+        <v>1683223</v>
       </c>
     </row>
     <row r="236" spans="2:14" x14ac:dyDescent="0.25">
@@ -8716,34 +8681,34 @@
       </c>
       <c r="D236" s="9"/>
       <c r="E236" s="9">
-        <v>197523</v>
+        <v>221129</v>
       </c>
       <c r="F236" s="9">
-        <v>221129</v>
+        <v>213311</v>
       </c>
       <c r="G236" s="9">
-        <v>213311</v>
+        <v>242724</v>
       </c>
       <c r="H236" s="9">
-        <v>242724</v>
+        <v>244447</v>
       </c>
       <c r="I236" s="9">
-        <v>244447</v>
+        <v>398523</v>
       </c>
       <c r="J236" s="9">
-        <v>398523</v>
+        <v>455373</v>
       </c>
       <c r="K236" s="9">
-        <v>455373</v>
+        <v>436513</v>
       </c>
       <c r="L236" s="9">
-        <v>436513</v>
+        <v>454476</v>
       </c>
       <c r="M236" s="9">
-        <v>454476</v>
+        <v>739927</v>
       </c>
       <c r="N236" s="9">
-        <v>739927</v>
+        <v>744057</v>
       </c>
     </row>
     <row r="237" spans="2:14" x14ac:dyDescent="0.25">
@@ -8845,41 +8810,41 @@
     </row>
     <row r="242" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B242" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C242" s="9" t="s">
         <v>57</v>
       </c>
       <c r="D242" s="9"/>
       <c r="E242" s="9">
-        <v>1005680</v>
+        <v>1028309</v>
       </c>
       <c r="F242" s="9">
-        <v>1028309</v>
+        <v>1220301</v>
       </c>
       <c r="G242" s="9">
-        <v>1220301</v>
+        <v>1359019</v>
       </c>
       <c r="H242" s="9">
-        <v>1359019</v>
+        <v>1096815</v>
       </c>
       <c r="I242" s="9">
-        <v>1096815</v>
+        <v>11217461</v>
       </c>
       <c r="J242" s="9">
-        <v>11217461</v>
+        <v>2300983</v>
       </c>
       <c r="K242" s="9">
-        <v>2300983</v>
-      </c>
-      <c r="L242" s="9">
         <v>3091207</v>
       </c>
+      <c r="L242" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="M242" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N242" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="243" spans="2:14" x14ac:dyDescent="0.25">
@@ -8891,34 +8856,34 @@
       </c>
       <c r="D243" s="11"/>
       <c r="E243" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F243" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G243" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H243" s="11">
+        <v>25</v>
+      </c>
+      <c r="G243" s="11">
         <v>687699</v>
       </c>
+      <c r="H243" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="I243" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="J243" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K243" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="L243" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
+      </c>
+      <c r="L243" s="11">
+        <v>3383646</v>
       </c>
       <c r="M243" s="11">
-        <v>3383646</v>
+        <v>4118782</v>
       </c>
       <c r="N243" s="11">
-        <v>4118782</v>
+        <v>4464314</v>
       </c>
     </row>
     <row r="244" spans="2:14" x14ac:dyDescent="0.25">
@@ -8929,35 +8894,35 @@
         <v>57</v>
       </c>
       <c r="D244" s="9"/>
-      <c r="E244" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F244" s="9">
+      <c r="E244" s="9">
         <v>687699</v>
       </c>
+      <c r="F244" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="G244" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="H244" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I244" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="J244" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K244" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="L244" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M244" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N244" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="245" spans="2:14" x14ac:dyDescent="0.25">
@@ -8969,34 +8934,34 @@
       </c>
       <c r="D245" s="11"/>
       <c r="E245" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F245" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G245" s="11">
+        <v>25</v>
+      </c>
+      <c r="F245" s="11">
         <v>87242</v>
       </c>
+      <c r="G245" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="H245" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I245" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="J245" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K245" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="L245" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="M245" s="11">
+        <v>25</v>
+      </c>
+      <c r="L245" s="11">
         <v>87198</v>
       </c>
-      <c r="N245" s="11" t="s">
-        <v>31</v>
+      <c r="M245" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N245" s="11">
+        <v>172875</v>
       </c>
     </row>
     <row r="246" spans="2:14" x14ac:dyDescent="0.25">
@@ -9008,34 +8973,34 @@
       </c>
       <c r="D246" s="9"/>
       <c r="E246" s="9">
-        <v>45339</v>
+        <v>55934</v>
       </c>
       <c r="F246" s="9">
-        <v>55934</v>
+        <v>79224</v>
       </c>
       <c r="G246" s="9">
-        <v>79224</v>
+        <v>87403</v>
       </c>
       <c r="H246" s="9">
-        <v>87403</v>
+        <v>130871</v>
       </c>
       <c r="I246" s="9">
-        <v>130871</v>
+        <v>157975</v>
       </c>
       <c r="J246" s="9">
-        <v>157975</v>
+        <v>172557</v>
       </c>
       <c r="K246" s="9">
-        <v>172557</v>
+        <v>218792</v>
       </c>
       <c r="L246" s="9">
-        <v>218792</v>
+        <v>229382</v>
       </c>
       <c r="M246" s="9">
-        <v>229382</v>
+        <v>234094</v>
       </c>
       <c r="N246" s="9">
-        <v>234094</v>
+        <v>235020</v>
       </c>
     </row>
     <row r="247" spans="2:14" x14ac:dyDescent="0.25">
@@ -9047,34 +9012,34 @@
       </c>
       <c r="D247" s="11"/>
       <c r="E247" s="11">
-        <v>183494</v>
+        <v>183561</v>
       </c>
       <c r="F247" s="11">
-        <v>183561</v>
+        <v>183405</v>
       </c>
       <c r="G247" s="11">
-        <v>183405</v>
+        <v>183489</v>
       </c>
       <c r="H247" s="11">
-        <v>183489</v>
-      </c>
-      <c r="I247" s="11">
         <v>867357</v>
       </c>
-      <c r="J247" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="K247" s="11">
+      <c r="I247" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J247" s="11">
         <v>888340</v>
       </c>
+      <c r="K247" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="L247" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M247" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N247" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="248" spans="2:14" x14ac:dyDescent="0.25">
@@ -9086,34 +9051,34 @@
       </c>
       <c r="D248" s="9"/>
       <c r="E248" s="9">
-        <v>389798</v>
+        <v>487865</v>
       </c>
       <c r="F248" s="9">
-        <v>487865</v>
+        <v>525647</v>
       </c>
       <c r="G248" s="9">
-        <v>525647</v>
+        <v>509421</v>
       </c>
       <c r="H248" s="9">
-        <v>509421</v>
+        <v>476994</v>
       </c>
       <c r="I248" s="9">
-        <v>476994</v>
+        <v>482968</v>
       </c>
       <c r="J248" s="9">
-        <v>482968</v>
+        <v>493613</v>
       </c>
       <c r="K248" s="9">
-        <v>493613</v>
+        <v>539453</v>
       </c>
       <c r="L248" s="9">
-        <v>539453</v>
+        <v>553571</v>
       </c>
       <c r="M248" s="9">
-        <v>553571</v>
+        <v>553514</v>
       </c>
       <c r="N248" s="9">
-        <v>553514</v>
+        <v>913684</v>
       </c>
     </row>
     <row r="249" spans="2:14" x14ac:dyDescent="0.25">
@@ -9125,34 +9090,34 @@
       </c>
       <c r="D249" s="11"/>
       <c r="E249" s="11">
-        <v>288150</v>
+        <v>331069</v>
       </c>
       <c r="F249" s="11">
-        <v>331069</v>
+        <v>373000</v>
       </c>
       <c r="G249" s="11">
-        <v>373000</v>
+        <v>377046</v>
       </c>
       <c r="H249" s="11">
-        <v>377046</v>
+        <v>377493</v>
       </c>
       <c r="I249" s="11">
-        <v>377493</v>
+        <v>382807</v>
       </c>
       <c r="J249" s="11">
-        <v>382807</v>
+        <v>386428</v>
       </c>
       <c r="K249" s="11">
-        <v>386428</v>
+        <v>430638</v>
       </c>
       <c r="L249" s="11">
-        <v>430638</v>
+        <v>514898</v>
       </c>
       <c r="M249" s="11">
-        <v>514898</v>
+        <v>546838</v>
       </c>
       <c r="N249" s="11">
-        <v>546838</v>
+        <v>546702</v>
       </c>
     </row>
     <row r="250" spans="2:14" x14ac:dyDescent="0.25">
@@ -9164,34 +9129,34 @@
       </c>
       <c r="D250" s="9"/>
       <c r="E250" s="9">
-        <v>68236</v>
+        <v>81937</v>
       </c>
       <c r="F250" s="9">
-        <v>81937</v>
+        <v>104060</v>
       </c>
       <c r="G250" s="9">
-        <v>104060</v>
+        <v>120529</v>
       </c>
       <c r="H250" s="9">
-        <v>120529</v>
+        <v>147640</v>
       </c>
       <c r="I250" s="9">
-        <v>147640</v>
+        <v>173915</v>
       </c>
       <c r="J250" s="9">
-        <v>173915</v>
+        <v>197809</v>
       </c>
       <c r="K250" s="9">
-        <v>197809</v>
+        <v>257097</v>
       </c>
       <c r="L250" s="9">
-        <v>257097</v>
+        <v>268920</v>
       </c>
       <c r="M250" s="9">
-        <v>268920</v>
+        <v>279370</v>
       </c>
       <c r="N250" s="9">
-        <v>279370</v>
+        <v>281910</v>
       </c>
     </row>
     <row r="251" spans="2:14" x14ac:dyDescent="0.25">
@@ -9203,34 +9168,34 @@
       </c>
       <c r="D251" s="11"/>
       <c r="E251" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F251" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G251" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
+      </c>
+      <c r="G251" s="11">
+        <v>111111</v>
       </c>
       <c r="H251" s="11">
+        <v>109677</v>
+      </c>
+      <c r="I251" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J251" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K251" s="11">
+        <v>109362</v>
+      </c>
+      <c r="L251" s="11">
+        <v>110208</v>
+      </c>
+      <c r="M251" s="11">
         <v>111111</v>
       </c>
-      <c r="I251" s="11">
-        <v>109677</v>
-      </c>
-      <c r="J251" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="K251" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="L251" s="11">
-        <v>109362</v>
-      </c>
-      <c r="M251" s="11">
-        <v>110208</v>
-      </c>
-      <c r="N251" s="11">
-        <v>111111</v>
+      <c r="N251" s="11" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="252" spans="2:14" x14ac:dyDescent="0.25">
@@ -9242,34 +9207,34 @@
       </c>
       <c r="D252" s="9"/>
       <c r="E252" s="9">
-        <v>395301</v>
+        <v>414719</v>
       </c>
       <c r="F252" s="9">
-        <v>414719</v>
+        <v>416978</v>
       </c>
       <c r="G252" s="9">
-        <v>416978</v>
+        <v>419433</v>
       </c>
       <c r="H252" s="9">
-        <v>419433</v>
+        <v>374869</v>
       </c>
       <c r="I252" s="9">
-        <v>374869</v>
+        <v>627533</v>
       </c>
       <c r="J252" s="9">
-        <v>627533</v>
+        <v>643660</v>
       </c>
       <c r="K252" s="9">
-        <v>643660</v>
+        <v>643641</v>
       </c>
       <c r="L252" s="9">
-        <v>643641</v>
+        <v>643770</v>
       </c>
       <c r="M252" s="9">
-        <v>643770</v>
+        <v>643390</v>
       </c>
       <c r="N252" s="9">
-        <v>643390</v>
+        <v>1034174</v>
       </c>
     </row>
     <row r="253" spans="2:14" x14ac:dyDescent="0.25">
@@ -9281,34 +9246,34 @@
       </c>
       <c r="D253" s="11"/>
       <c r="E253" s="11">
-        <v>309019</v>
+        <v>441646</v>
       </c>
       <c r="F253" s="11">
-        <v>441646</v>
+        <v>534249</v>
       </c>
       <c r="G253" s="11">
-        <v>534249</v>
+        <v>617751</v>
       </c>
       <c r="H253" s="11">
-        <v>617751</v>
+        <v>770968</v>
       </c>
       <c r="I253" s="11">
-        <v>770968</v>
+        <v>920683</v>
       </c>
       <c r="J253" s="11">
-        <v>920683</v>
+        <v>1228980</v>
       </c>
       <c r="K253" s="11">
-        <v>1228980</v>
+        <v>8142857</v>
       </c>
       <c r="L253" s="11">
-        <v>8142857</v>
+        <v>1269607</v>
       </c>
       <c r="M253" s="11">
-        <v>1269607</v>
+        <v>1238908</v>
       </c>
       <c r="N253" s="11">
-        <v>1238908</v>
+        <v>1375929</v>
       </c>
     </row>
     <row r="254" spans="2:14" x14ac:dyDescent="0.25">
@@ -9320,34 +9285,34 @@
       </c>
       <c r="D254" s="9"/>
       <c r="E254" s="9">
-        <v>172809</v>
+        <v>203644</v>
       </c>
       <c r="F254" s="9">
-        <v>203644</v>
+        <v>207724</v>
       </c>
       <c r="G254" s="9">
-        <v>207724</v>
+        <v>219494</v>
       </c>
       <c r="H254" s="9">
-        <v>219494</v>
+        <v>233446</v>
       </c>
       <c r="I254" s="9">
-        <v>233446</v>
+        <v>313094</v>
       </c>
       <c r="J254" s="9">
-        <v>313094</v>
+        <v>379554</v>
       </c>
       <c r="K254" s="9">
-        <v>379554</v>
+        <v>421364</v>
       </c>
       <c r="L254" s="9">
-        <v>421364</v>
+        <v>430883</v>
       </c>
       <c r="M254" s="9">
-        <v>430883</v>
+        <v>597101</v>
       </c>
       <c r="N254" s="9">
-        <v>597101</v>
+        <v>695987</v>
       </c>
     </row>
     <row r="255" spans="2:14" x14ac:dyDescent="0.25">
@@ -9359,34 +9324,34 @@
       </c>
       <c r="D255" s="11"/>
       <c r="E255" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F255" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="G255" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="H255" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I255" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="J255" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K255" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="L255" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M255" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N255" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="256" spans="2:14" x14ac:dyDescent="0.25">
@@ -9488,41 +9453,41 @@
     </row>
     <row r="261" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B261" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C261" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D261" s="9"/>
       <c r="E261" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F261" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G261" s="9">
+        <v>25</v>
+      </c>
+      <c r="F261" s="9">
         <v>1275134</v>
       </c>
-      <c r="H261" s="9" t="s">
-        <v>31</v>
+      <c r="G261" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H261" s="9">
+        <v>2792802</v>
       </c>
       <c r="I261" s="9">
-        <v>2792802</v>
+        <v>2303464</v>
       </c>
       <c r="J261" s="9">
-        <v>2303464</v>
+        <v>2548000</v>
       </c>
       <c r="K261" s="9">
-        <v>2548000</v>
-      </c>
-      <c r="L261" s="9">
         <v>2400905</v>
       </c>
+      <c r="L261" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="M261" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N261" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="262" spans="2:14" x14ac:dyDescent="0.25">
@@ -9530,38 +9495,38 @@
         <v>32</v>
       </c>
       <c r="C262" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D262" s="11"/>
       <c r="E262" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F262" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="G262" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="H262" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I262" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="J262" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K262" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="L262" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
+      </c>
+      <c r="L262" s="11">
+        <v>3102445</v>
       </c>
       <c r="M262" s="11">
-        <v>3102445</v>
+        <v>3869743</v>
       </c>
       <c r="N262" s="11">
-        <v>3869743</v>
+        <v>4241072</v>
       </c>
     </row>
     <row r="263" spans="2:14" x14ac:dyDescent="0.25">
@@ -9569,38 +9534,38 @@
         <v>33</v>
       </c>
       <c r="C263" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D263" s="9"/>
       <c r="E263" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F263" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="G263" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="H263" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I263" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="J263" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K263" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="L263" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M263" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N263" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="264" spans="2:14" x14ac:dyDescent="0.25">
@@ -9608,20 +9573,20 @@
         <v>34</v>
       </c>
       <c r="C264" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D264" s="11"/>
       <c r="E264" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F264" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G264" s="11">
+        <v>25</v>
+      </c>
+      <c r="F264" s="11">
         <v>87121</v>
       </c>
-      <c r="H264" s="11" t="s">
-        <v>31</v>
+      <c r="G264" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H264" s="11">
+        <v>87121</v>
       </c>
       <c r="I264" s="11">
         <v>87121</v>
@@ -9633,13 +9598,13 @@
         <v>87121</v>
       </c>
       <c r="L264" s="11">
-        <v>87121</v>
+        <v>87065</v>
       </c>
       <c r="M264" s="11">
-        <v>87065</v>
+        <v>172874</v>
       </c>
       <c r="N264" s="11">
-        <v>172874</v>
+        <v>173139</v>
       </c>
     </row>
     <row r="265" spans="2:14" x14ac:dyDescent="0.25">
@@ -9647,38 +9612,38 @@
         <v>35</v>
       </c>
       <c r="C265" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D265" s="9"/>
       <c r="E265" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F265" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G265" s="9">
+        <v>25</v>
+      </c>
+      <c r="F265" s="9">
         <v>87234</v>
       </c>
-      <c r="H265" s="9" t="s">
-        <v>31</v>
+      <c r="G265" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H265" s="9">
+        <v>157347</v>
       </c>
       <c r="I265" s="9">
-        <v>157347</v>
+        <v>157502</v>
       </c>
       <c r="J265" s="9">
-        <v>157502</v>
+        <v>196176</v>
       </c>
       <c r="K265" s="9">
-        <v>196176</v>
+        <v>219769</v>
       </c>
       <c r="L265" s="9">
-        <v>219769</v>
+        <v>232085</v>
       </c>
       <c r="M265" s="9">
-        <v>232085</v>
+        <v>234586</v>
       </c>
       <c r="N265" s="9">
-        <v>234586</v>
+        <v>249028</v>
       </c>
     </row>
     <row r="266" spans="2:14" x14ac:dyDescent="0.25">
@@ -9686,38 +9651,38 @@
         <v>36</v>
       </c>
       <c r="C266" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D266" s="11"/>
       <c r="E266" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F266" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G266" s="11">
+        <v>25</v>
+      </c>
+      <c r="F266" s="11">
         <v>183512</v>
       </c>
-      <c r="H266" s="11" t="s">
-        <v>31</v>
+      <c r="G266" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H266" s="11">
+        <v>888340</v>
       </c>
       <c r="I266" s="11">
-        <v>888340</v>
-      </c>
-      <c r="J266" s="11">
         <v>888555</v>
       </c>
+      <c r="J266" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="K266" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="L266" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M266" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N266" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="267" spans="2:14" x14ac:dyDescent="0.25">
@@ -9725,38 +9690,38 @@
         <v>37</v>
       </c>
       <c r="C267" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D267" s="9"/>
       <c r="E267" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F267" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G267" s="9">
+        <v>25</v>
+      </c>
+      <c r="F267" s="9">
         <v>530030</v>
       </c>
-      <c r="H267" s="9" t="s">
-        <v>31</v>
+      <c r="G267" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H267" s="9">
+        <v>482953</v>
       </c>
       <c r="I267" s="9">
-        <v>482953</v>
+        <v>482949</v>
       </c>
       <c r="J267" s="9">
-        <v>482949</v>
+        <v>507469</v>
       </c>
       <c r="K267" s="9">
-        <v>507469</v>
+        <v>553535</v>
       </c>
       <c r="L267" s="9">
-        <v>553535</v>
+        <v>553512</v>
       </c>
       <c r="M267" s="9">
-        <v>553512</v>
+        <v>553509</v>
       </c>
       <c r="N267" s="9">
-        <v>553509</v>
+        <v>1355571</v>
       </c>
     </row>
     <row r="268" spans="2:14" x14ac:dyDescent="0.25">
@@ -9764,38 +9729,38 @@
         <v>38</v>
       </c>
       <c r="C268" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D268" s="11"/>
       <c r="E268" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F268" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G268" s="11">
+        <v>25</v>
+      </c>
+      <c r="F268" s="11">
         <v>377054</v>
       </c>
-      <c r="H268" s="11" t="s">
-        <v>31</v>
+      <c r="G268" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H268" s="11">
+        <v>378297</v>
       </c>
       <c r="I268" s="11">
-        <v>378297</v>
+        <v>386424</v>
       </c>
       <c r="J268" s="11">
-        <v>386424</v>
+        <v>386420</v>
       </c>
       <c r="K268" s="11">
-        <v>386420</v>
+        <v>507165</v>
       </c>
       <c r="L268" s="11">
-        <v>507165</v>
+        <v>541291</v>
       </c>
       <c r="M268" s="11">
-        <v>541291</v>
+        <v>546554</v>
       </c>
       <c r="N268" s="11">
-        <v>546554</v>
+        <v>546548</v>
       </c>
     </row>
     <row r="269" spans="2:14" x14ac:dyDescent="0.25">
@@ -9803,38 +9768,38 @@
         <v>39</v>
       </c>
       <c r="C269" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D269" s="9"/>
       <c r="E269" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F269" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G269" s="9">
+        <v>25</v>
+      </c>
+      <c r="F269" s="9">
         <v>117207</v>
       </c>
-      <c r="H269" s="9" t="s">
-        <v>31</v>
+      <c r="G269" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H269" s="9">
+        <v>166687</v>
       </c>
       <c r="I269" s="9">
-        <v>166687</v>
+        <v>176268</v>
       </c>
       <c r="J269" s="9">
-        <v>176268</v>
+        <v>232674</v>
       </c>
       <c r="K269" s="9">
-        <v>232674</v>
+        <v>251227</v>
       </c>
       <c r="L269" s="9">
-        <v>251227</v>
+        <v>276093</v>
       </c>
       <c r="M269" s="9">
-        <v>276093</v>
+        <v>280497</v>
       </c>
       <c r="N269" s="9">
-        <v>280497</v>
+        <v>277148</v>
       </c>
     </row>
     <row r="270" spans="2:14" x14ac:dyDescent="0.25">
@@ -9842,20 +9807,20 @@
         <v>40</v>
       </c>
       <c r="C270" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D270" s="11"/>
       <c r="E270" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F270" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G270" s="11">
+        <v>25</v>
+      </c>
+      <c r="F270" s="11">
         <v>110056</v>
       </c>
-      <c r="H270" s="11" t="s">
-        <v>31</v>
+      <c r="G270" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H270" s="11">
+        <v>110084</v>
       </c>
       <c r="I270" s="11">
         <v>110084</v>
@@ -9864,16 +9829,16 @@
         <v>110084</v>
       </c>
       <c r="K270" s="11">
-        <v>110084</v>
+        <v>110764</v>
       </c>
       <c r="L270" s="11">
-        <v>110764</v>
-      </c>
-      <c r="M270" s="11">
         <v>114286</v>
       </c>
+      <c r="M270" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="N270" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="271" spans="2:14" x14ac:dyDescent="0.25">
@@ -9881,38 +9846,38 @@
         <v>41</v>
       </c>
       <c r="C271" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D271" s="9"/>
       <c r="E271" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F271" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G271" s="9">
+        <v>25</v>
+      </c>
+      <c r="F271" s="9">
         <v>416764</v>
       </c>
-      <c r="H271" s="9" t="s">
-        <v>31</v>
+      <c r="G271" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H271" s="9">
+        <v>417242</v>
       </c>
       <c r="I271" s="9">
-        <v>417242</v>
+        <v>643596</v>
       </c>
       <c r="J271" s="9">
-        <v>643596</v>
+        <v>643578</v>
       </c>
       <c r="K271" s="9">
-        <v>643578</v>
+        <v>643529</v>
       </c>
       <c r="L271" s="9">
-        <v>643529</v>
+        <v>643460</v>
       </c>
       <c r="M271" s="9">
-        <v>643460</v>
+        <v>657807</v>
       </c>
       <c r="N271" s="9">
-        <v>657807</v>
+        <v>1310659</v>
       </c>
     </row>
     <row r="272" spans="2:14" x14ac:dyDescent="0.25">
@@ -9920,38 +9885,38 @@
         <v>42</v>
       </c>
       <c r="C272" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D272" s="11"/>
       <c r="E272" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F272" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G272" s="11">
+        <v>25</v>
+      </c>
+      <c r="F272" s="11">
         <v>536176</v>
       </c>
-      <c r="H272" s="11" t="s">
-        <v>31</v>
+      <c r="G272" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H272" s="11">
+        <v>784162</v>
       </c>
       <c r="I272" s="11">
-        <v>784162</v>
+        <v>1063544</v>
       </c>
       <c r="J272" s="11">
-        <v>1063544</v>
+        <v>1413314</v>
       </c>
       <c r="K272" s="11">
-        <v>1413314</v>
+        <v>1281166</v>
       </c>
       <c r="L272" s="11">
-        <v>1281166</v>
+        <v>1263875</v>
       </c>
       <c r="M272" s="11">
-        <v>1263875</v>
+        <v>1307634</v>
       </c>
       <c r="N272" s="11">
-        <v>1307634</v>
+        <v>1461249</v>
       </c>
     </row>
     <row r="273" spans="2:14" x14ac:dyDescent="0.25">
@@ -9959,38 +9924,38 @@
         <v>43</v>
       </c>
       <c r="C273" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D273" s="9"/>
       <c r="E273" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F273" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G273" s="9">
+        <v>25</v>
+      </c>
+      <c r="F273" s="9">
         <v>210821</v>
       </c>
-      <c r="H273" s="9" t="s">
-        <v>31</v>
+      <c r="G273" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H273" s="9">
+        <v>240943</v>
       </c>
       <c r="I273" s="9">
-        <v>240943</v>
+        <v>332532</v>
       </c>
       <c r="J273" s="9">
-        <v>332532</v>
+        <v>400455</v>
       </c>
       <c r="K273" s="9">
-        <v>400455</v>
+        <v>423810</v>
       </c>
       <c r="L273" s="9">
-        <v>423810</v>
+        <v>435190</v>
       </c>
       <c r="M273" s="9">
-        <v>435190</v>
+        <v>656540</v>
       </c>
       <c r="N273" s="9">
-        <v>656540</v>
+        <v>713490</v>
       </c>
     </row>
     <row r="274" spans="2:14" x14ac:dyDescent="0.25">
@@ -9998,20 +9963,20 @@
         <v>47</v>
       </c>
       <c r="C274" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D274" s="11"/>
       <c r="E274" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F274" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G274" s="11">
+        <v>25</v>
+      </c>
+      <c r="F274" s="11">
         <v>344566</v>
       </c>
-      <c r="H274" s="11" t="s">
-        <v>31</v>
+      <c r="G274" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H274" s="11">
+        <v>344566</v>
       </c>
       <c r="I274" s="11">
         <v>344566</v>
@@ -10284,34 +10249,34 @@
       <c r="C284" s="9"/>
       <c r="D284" s="9"/>
       <c r="E284" s="9">
-        <v>97136</v>
+        <v>135067</v>
       </c>
       <c r="F284" s="9">
-        <v>135067</v>
+        <v>-88007</v>
       </c>
       <c r="G284" s="9">
-        <v>-88007</v>
+        <v>326199</v>
       </c>
       <c r="H284" s="9">
-        <v>326199</v>
+        <v>217865</v>
       </c>
       <c r="I284" s="9">
-        <v>217865</v>
+        <v>182823</v>
       </c>
       <c r="J284" s="9">
-        <v>182823</v>
+        <v>190418</v>
       </c>
       <c r="K284" s="9">
-        <v>190418</v>
+        <v>153030</v>
       </c>
       <c r="L284" s="9">
-        <v>153030</v>
+        <v>211626</v>
       </c>
       <c r="M284" s="9">
-        <v>211626</v>
+        <v>384118</v>
       </c>
       <c r="N284" s="9">
-        <v>384118</v>
+        <v>58976</v>
       </c>
     </row>
     <row r="285" spans="2:14" x14ac:dyDescent="0.25">
@@ -10321,34 +10286,34 @@
       <c r="C285" s="11"/>
       <c r="D285" s="11"/>
       <c r="E285" s="11">
-        <v>124104</v>
+        <v>128912</v>
       </c>
       <c r="F285" s="11">
-        <v>128912</v>
+        <v>43208</v>
       </c>
       <c r="G285" s="11">
-        <v>43208</v>
+        <v>130603</v>
       </c>
       <c r="H285" s="11">
-        <v>130603</v>
+        <v>190567</v>
       </c>
       <c r="I285" s="11">
-        <v>190567</v>
+        <v>207043</v>
       </c>
       <c r="J285" s="11">
-        <v>207043</v>
+        <v>449390</v>
       </c>
       <c r="K285" s="11">
-        <v>449390</v>
+        <v>505179</v>
       </c>
       <c r="L285" s="11">
-        <v>505179</v>
+        <v>448393</v>
       </c>
       <c r="M285" s="11">
-        <v>448393</v>
+        <v>540687</v>
       </c>
       <c r="N285" s="11">
-        <v>540687</v>
+        <v>489409</v>
       </c>
     </row>
     <row r="286" spans="2:14" x14ac:dyDescent="0.25">
@@ -10358,34 +10323,34 @@
       <c r="C286" s="9"/>
       <c r="D286" s="9"/>
       <c r="E286" s="9">
-        <v>13700</v>
+        <v>13710</v>
       </c>
       <c r="F286" s="9">
-        <v>13710</v>
+        <v>13151</v>
       </c>
       <c r="G286" s="9">
-        <v>13151</v>
+        <v>13928</v>
       </c>
       <c r="H286" s="9">
-        <v>13928</v>
+        <v>13119</v>
       </c>
       <c r="I286" s="9">
-        <v>13119</v>
+        <v>14713</v>
       </c>
       <c r="J286" s="9">
-        <v>14713</v>
+        <v>15506</v>
       </c>
       <c r="K286" s="9">
-        <v>15506</v>
+        <v>14931</v>
       </c>
       <c r="L286" s="9">
-        <v>14931</v>
+        <v>14613</v>
       </c>
       <c r="M286" s="9">
-        <v>14613</v>
+        <v>14447</v>
       </c>
       <c r="N286" s="9">
-        <v>14447</v>
+        <v>15126</v>
       </c>
     </row>
     <row r="287" spans="2:14" x14ac:dyDescent="0.25">
@@ -10395,34 +10360,34 @@
       <c r="C287" s="11"/>
       <c r="D287" s="11"/>
       <c r="E287" s="11">
-        <v>162277</v>
+        <v>144516</v>
       </c>
       <c r="F287" s="11">
-        <v>144516</v>
+        <v>142027</v>
       </c>
       <c r="G287" s="11">
-        <v>142027</v>
+        <v>162583</v>
       </c>
       <c r="H287" s="11">
-        <v>162583</v>
+        <v>257841</v>
       </c>
       <c r="I287" s="11">
-        <v>257841</v>
+        <v>221476</v>
       </c>
       <c r="J287" s="11">
-        <v>221476</v>
+        <v>228411</v>
       </c>
       <c r="K287" s="11">
-        <v>228411</v>
+        <v>298787</v>
       </c>
       <c r="L287" s="11">
-        <v>298787</v>
+        <v>506581</v>
       </c>
       <c r="M287" s="11">
-        <v>506581</v>
+        <v>372136</v>
       </c>
       <c r="N287" s="11">
-        <v>372136</v>
+        <v>380106</v>
       </c>
     </row>
     <row r="288" spans="2:14" x14ac:dyDescent="0.25">
@@ -10469,34 +10434,34 @@
       <c r="C289" s="11"/>
       <c r="D289" s="11"/>
       <c r="E289" s="11">
-        <v>104033</v>
+        <v>140741</v>
       </c>
       <c r="F289" s="11">
-        <v>140741</v>
+        <v>472855</v>
       </c>
       <c r="G289" s="11">
-        <v>472855</v>
+        <v>-15448</v>
       </c>
       <c r="H289" s="11">
-        <v>-15448</v>
+        <v>243383</v>
       </c>
       <c r="I289" s="11">
-        <v>243383</v>
+        <v>179674</v>
       </c>
       <c r="J289" s="11">
-        <v>179674</v>
+        <v>289121</v>
       </c>
       <c r="K289" s="11">
-        <v>289121</v>
+        <v>464029</v>
       </c>
       <c r="L289" s="11">
-        <v>464029</v>
+        <v>337041</v>
       </c>
       <c r="M289" s="11">
-        <v>337041</v>
+        <v>337639</v>
       </c>
       <c r="N289" s="11">
-        <v>337639</v>
+        <v>763738</v>
       </c>
     </row>
     <row r="290" spans="2:14" x14ac:dyDescent="0.25">
@@ -10506,34 +10471,34 @@
       <c r="C290" s="15"/>
       <c r="D290" s="15"/>
       <c r="E290" s="15">
-        <v>501250</v>
+        <v>562946</v>
       </c>
       <c r="F290" s="15">
-        <v>562946</v>
+        <v>583234</v>
       </c>
       <c r="G290" s="15">
-        <v>583234</v>
+        <v>617865</v>
       </c>
       <c r="H290" s="15">
-        <v>617865</v>
+        <v>922775</v>
       </c>
       <c r="I290" s="15">
-        <v>922775</v>
+        <v>805729</v>
       </c>
       <c r="J290" s="15">
-        <v>805729</v>
+        <v>1172846</v>
       </c>
       <c r="K290" s="15">
-        <v>1172846</v>
+        <v>1435956</v>
       </c>
       <c r="L290" s="15">
-        <v>1435956</v>
+        <v>1518254</v>
       </c>
       <c r="M290" s="15">
-        <v>1518254</v>
+        <v>1649027</v>
       </c>
       <c r="N290" s="15">
-        <v>1649027</v>
+        <v>1707355</v>
       </c>
     </row>
     <row r="291" spans="2:14" x14ac:dyDescent="0.25">
